--- a/src/main/resources/CardStatus.xlsx
+++ b/src/main/resources/CardStatus.xlsx
@@ -722,38 +722,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -767,29 +738,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -812,8 +768,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -827,40 +859,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -872,30 +872,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -911,7 +887,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -923,7 +929,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -935,7 +953,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -947,31 +971,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -983,7 +1013,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -995,67 +1055,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1098,21 +1098,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1138,16 +1123,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1166,6 +1151,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1174,145 +1174,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1657,6 +1657,7 @@
     <col min="2" max="2" width="5.375" customWidth="1"/>
     <col min="3" max="3" width="5.375" style="2" customWidth="1"/>
     <col min="4" max="4" width="5.375" customWidth="1"/>
+    <col min="5" max="5" width="1.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="2:4">
@@ -1769,6 +1770,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="4" width="5.375" customWidth="1"/>
+    <col min="5" max="5" width="1.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="2:4">
@@ -1902,6 +1904,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="5" width="5.375" customWidth="1"/>
+    <col min="6" max="6" width="1.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="2:5">
@@ -2148,6 +2151,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="5" width="5.375" customWidth="1"/>
+    <col min="6" max="6" width="1.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="2:5">
@@ -2361,6 +2365,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="5" width="5.375" customWidth="1"/>
+    <col min="6" max="6" width="1.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="2:5">
@@ -2540,12 +2545,12 @@
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="5.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="5.375" customWidth="1"/>
-    <col min="4" max="6" width="5.375" customWidth="1"/>
+    <col min="3" max="6" width="5.375" customWidth="1"/>
     <col min="7" max="8" width="6.375" style="1" customWidth="1"/>
     <col min="9" max="12" width="7.375" style="1" customWidth="1"/>
     <col min="13" max="15" width="6.375" style="1" customWidth="1"/>
     <col min="16" max="20" width="6.375" customWidth="1"/>
+    <col min="21" max="21" width="1.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="2:20">
@@ -3073,12 +3078,12 @@
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="5.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="5.375" customWidth="1"/>
-    <col min="4" max="6" width="5.375" customWidth="1"/>
+    <col min="3" max="6" width="5.375" customWidth="1"/>
     <col min="7" max="8" width="6.375" style="1" customWidth="1"/>
     <col min="9" max="12" width="7.375" style="1" customWidth="1"/>
     <col min="13" max="15" width="6.375" style="1" customWidth="1"/>
     <col min="16" max="20" width="6.375" customWidth="1"/>
+    <col min="21" max="21" width="1.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="2:20">

--- a/src/main/resources/CardStatus.xlsx
+++ b/src/main/resources/CardStatus.xlsx
@@ -723,33 +723,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -762,29 +739,27 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -801,6 +776,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -808,7 +791,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -816,6 +799,46 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -829,9 +852,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -839,28 +861,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -881,7 +881,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -893,13 +899,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -911,7 +941,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -929,19 +965,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -959,19 +983,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -983,37 +1019,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1025,7 +1037,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1037,25 +1055,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1071,38 +1071,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1137,17 +1108,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1166,6 +1142,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1174,10 +1174,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1186,133 +1186,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1679,7 +1679,6 @@
         <v>4</v>
       </c>
       <c r="C2" s="2">
-        <f>COUNTA(A2:A6)</f>
         <v>5</v>
       </c>
     </row>
@@ -1715,7 +1714,6 @@
         <v>10</v>
       </c>
       <c r="C7" s="2">
-        <f>COUNTA(A7:A10)</f>
         <v>4</v>
       </c>
     </row>
@@ -1792,7 +1790,6 @@
         <v>4</v>
       </c>
       <c r="C2" s="2">
-        <f>COUNTA(A2:A6)</f>
         <v>5</v>
       </c>
     </row>
@@ -1832,7 +1829,6 @@
         <v>10</v>
       </c>
       <c r="C7" s="2">
-        <f>COUNTA(A7:A9)</f>
         <v>3</v>
       </c>
     </row>
@@ -1858,7 +1854,6 @@
         <v>24</v>
       </c>
       <c r="C10" s="2">
-        <f>COUNTA(A10:A11)</f>
         <v>2</v>
       </c>
     </row>
@@ -1929,7 +1924,6 @@
         <v>4</v>
       </c>
       <c r="C2" s="2">
-        <f>COUNTA(A2:A15)</f>
         <v>14</v>
       </c>
     </row>
@@ -2032,7 +2026,6 @@
         <v>42</v>
       </c>
       <c r="C16" s="2">
-        <f>COUNTA(A16:A16)</f>
         <v>1</v>
       </c>
     </row>
@@ -2044,7 +2037,6 @@
         <v>10</v>
       </c>
       <c r="C17" s="2">
-        <f>COUNTA(A17:A23)</f>
         <v>7</v>
       </c>
     </row>
@@ -2098,7 +2090,6 @@
         <v>24</v>
       </c>
       <c r="C24" s="2">
-        <f>COUNTA(A24:A26)</f>
         <v>3</v>
       </c>
     </row>
@@ -2176,7 +2167,6 @@
         <v>4</v>
       </c>
       <c r="C2" s="2">
-        <f>COUNTA(A2:A13)</f>
         <v>12</v>
       </c>
     </row>
@@ -2265,7 +2255,6 @@
         <v>10</v>
       </c>
       <c r="C14" s="2">
-        <f>COUNTA(A14:A16)</f>
         <v>3</v>
       </c>
     </row>
@@ -2291,7 +2280,6 @@
         <v>24</v>
       </c>
       <c r="C17" s="2">
-        <f>COUNTA(A17:A18)</f>
         <v>2</v>
       </c>
     </row>
@@ -2310,7 +2298,6 @@
         <v>71</v>
       </c>
       <c r="C19" s="2">
-        <f>COUNTA(A19:A21)</f>
         <v>3</v>
       </c>
     </row>
@@ -2390,7 +2377,6 @@
         <v>4</v>
       </c>
       <c r="C2" s="2">
-        <f>COUNTA(A2:A12)</f>
         <v>11</v>
       </c>
     </row>
@@ -2472,7 +2458,6 @@
         <v>10</v>
       </c>
       <c r="C13" s="2">
-        <f>COUNTA(A13:A16)</f>
         <v>4</v>
       </c>
     </row>
@@ -2505,7 +2490,6 @@
         <v>24</v>
       </c>
       <c r="C17" s="2">
-        <f>COUNTA(A17:A17)</f>
         <v>1</v>
       </c>
     </row>
@@ -2620,7 +2604,6 @@
         <v>4</v>
       </c>
       <c r="C2" s="1">
-        <f>COUNTA(A2:A9)</f>
         <v>8</v>
       </c>
       <c r="D2" s="1"/>
@@ -2698,7 +2681,6 @@
         <v>42</v>
       </c>
       <c r="C10" s="1">
-        <f>COUNTA(A10:A15)</f>
         <v>6</v>
       </c>
       <c r="D10" s="1"/>
@@ -2758,7 +2740,6 @@
         <v>10</v>
       </c>
       <c r="C16" s="1">
-        <f>COUNTA(A16:A23)</f>
         <v>8</v>
       </c>
       <c r="D16" s="1"/>
@@ -2836,7 +2817,6 @@
         <v>128</v>
       </c>
       <c r="C24" s="1">
-        <f>COUNTA(A24:A27)</f>
         <v>4</v>
       </c>
       <c r="D24" s="1"/>
@@ -2878,7 +2858,6 @@
         <v>133</v>
       </c>
       <c r="C28" s="1">
-        <f>COUNTA(A28:A33)</f>
         <v>6</v>
       </c>
       <c r="D28" s="1"/>
@@ -2938,7 +2917,6 @@
         <v>24</v>
       </c>
       <c r="C34" s="1">
-        <f>COUNTA(A34:A35)</f>
         <v>2</v>
       </c>
       <c r="D34" s="1"/>
@@ -2962,7 +2940,6 @@
         <v>71</v>
       </c>
       <c r="C36" s="1">
-        <f>COUNTA(A36:A43)</f>
         <v>8</v>
       </c>
       <c r="D36" s="1"/>
@@ -3153,7 +3130,6 @@
         <v>4</v>
       </c>
       <c r="C2" s="1">
-        <f>COUNTA(A2:A7)</f>
         <v>6</v>
       </c>
       <c r="D2" s="1"/>
@@ -3213,7 +3189,6 @@
         <v>42</v>
       </c>
       <c r="C8" s="1">
-        <f>COUNTA(A8:A11)</f>
         <v>4</v>
       </c>
       <c r="D8" s="1"/>
@@ -3255,7 +3230,6 @@
         <v>10</v>
       </c>
       <c r="C12" s="1">
-        <f>COUNTA(A12:A22)</f>
         <v>11</v>
       </c>
       <c r="D12" s="1"/>
@@ -3360,7 +3334,6 @@
         <v>128</v>
       </c>
       <c r="C23" s="1">
-        <f>COUNTA(A23:A26)</f>
         <v>4</v>
       </c>
       <c r="D23" s="1"/>
@@ -3402,7 +3375,6 @@
         <v>133</v>
       </c>
       <c r="C27" s="1">
-        <f>COUNTA(A27:A40)</f>
         <v>14</v>
       </c>
       <c r="D27" s="1"/>
@@ -3534,7 +3506,6 @@
         <v>24</v>
       </c>
       <c r="C41" s="1">
-        <f>COUNTA(A41:A50)</f>
         <v>10</v>
       </c>
       <c r="D41" s="1"/>
@@ -3630,7 +3601,6 @@
         <v>71</v>
       </c>
       <c r="C51" s="1">
-        <f>COUNTA(A51:A58)</f>
         <v>8</v>
       </c>
       <c r="D51" s="1"/>
@@ -3708,7 +3678,6 @@
         <v>207</v>
       </c>
       <c r="C59" s="1">
-        <f>COUNTA(A59:A78)</f>
         <v>20</v>
       </c>
       <c r="D59" s="1"/>

--- a/src/main/resources/CardStatus.xlsx
+++ b/src/main/resources/CardStatus.xlsx
@@ -722,67 +722,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -791,7 +730,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -813,7 +752,37 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -828,14 +797,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -844,16 +805,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -875,7 +875,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -887,31 +935,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -929,13 +959,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -953,25 +995,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -983,19 +1031,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1013,48 +1055,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1066,6 +1066,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1093,17 +1123,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1113,17 +1148,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1142,30 +1166,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1174,10 +1174,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1186,142 +1186,145 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1671,7 +1674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:3">
+    <row r="2" s="1" customFormat="1" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1681,32 +1684,37 @@
       <c r="C2" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:3">
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:3">
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="2"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:3">
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="2"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:3">
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1716,24 +1724,28 @@
       <c r="C7" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="1"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
@@ -1782,7 +1794,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -1792,36 +1804,41 @@
       <c r="C2" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -1831,22 +1848,25 @@
       <c r="C7" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -1856,13 +1876,15 @@
       <c r="C10" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
@@ -1916,7 +1938,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -1926,99 +1948,127 @@
       <c r="C2" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>41</v>
       </c>
@@ -2028,8 +2078,10 @@
       <c r="C16" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>43</v>
       </c>
@@ -2039,50 +2091,64 @@
       <c r="C17" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
         <v>50</v>
       </c>
@@ -2092,20 +2158,26 @@
       <c r="C24" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="2"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
@@ -2159,7 +2231,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>53</v>
       </c>
@@ -2169,85 +2241,109 @@
       <c r="C2" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>65</v>
       </c>
@@ -2257,22 +2353,28 @@
       <c r="C14" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>68</v>
       </c>
@@ -2282,15 +2384,19 @@
       <c r="C17" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>70</v>
       </c>
@@ -2300,20 +2406,26 @@
       <c r="C19" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="2"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
@@ -2369,7 +2481,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>74</v>
       </c>
@@ -2379,78 +2491,100 @@
       <c r="C2" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>85</v>
       </c>
@@ -2460,29 +2594,37 @@
       <c r="C13" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>89</v>
       </c>
@@ -2492,6 +2634,8 @@
       <c r="C17" s="2">
         <v>1</v>
       </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
@@ -2596,7 +2740,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:20">
       <c r="A2" s="1" t="s">
         <v>105</v>
       </c>
@@ -2606,74 +2750,186 @@
       <c r="C2" s="1">
         <v>8</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1" t="s">
         <v>107</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1" t="s">
         <v>108</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1" t="s">
         <v>109</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1" t="s">
         <v>111</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1" t="s">
         <v>113</v>
       </c>
@@ -2683,56 +2939,140 @@
       <c r="C10" s="1">
         <v>6</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1" t="s">
         <v>115</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1" t="s">
         <v>116</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1" t="s">
         <v>117</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1" t="s">
         <v>119</v>
       </c>
@@ -2742,74 +3082,186 @@
       <c r="C16" s="1">
         <v>8</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1" t="s">
         <v>120</v>
       </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1" t="s">
         <v>121</v>
       </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1" t="s">
         <v>122</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1" t="s">
         <v>123</v>
       </c>
       <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1" t="s">
         <v>124</v>
       </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1" t="s">
         <v>125</v>
       </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1" t="s">
         <v>127</v>
       </c>
@@ -2819,38 +3271,94 @@
       <c r="C24" s="1">
         <v>4</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1" t="s">
         <v>129</v>
       </c>
       <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+    </row>
+    <row r="26" spans="1:20">
       <c r="A26" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+    </row>
+    <row r="27" spans="1:20">
       <c r="A27" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+    </row>
+    <row r="28" spans="1:20">
       <c r="A28" s="1" t="s">
         <v>132</v>
       </c>
@@ -2860,56 +3368,140 @@
       <c r="C28" s="1">
         <v>6</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+    </row>
+    <row r="29" spans="1:20">
       <c r="A29" s="1" t="s">
         <v>134</v>
       </c>
       <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+    </row>
+    <row r="30" spans="1:20">
       <c r="A30" s="1" t="s">
         <v>135</v>
       </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+    </row>
+    <row r="31" spans="1:20">
       <c r="A31" s="1" t="s">
         <v>136</v>
       </c>
       <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+    </row>
+    <row r="32" spans="1:20">
       <c r="A32" s="1" t="s">
         <v>137</v>
       </c>
       <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+    </row>
+    <row r="33" spans="1:20">
       <c r="A33" s="1" t="s">
         <v>138</v>
       </c>
       <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+    </row>
+    <row r="34" spans="1:20">
       <c r="A34" s="1" t="s">
         <v>139</v>
       </c>
@@ -2919,20 +3511,48 @@
       <c r="C34" s="1">
         <v>2</v>
       </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+    </row>
+    <row r="35" spans="1:20">
       <c r="A35" s="1" t="s">
         <v>140</v>
       </c>
       <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+    </row>
+    <row r="36" spans="1:20">
       <c r="A36" s="1" t="s">
         <v>141</v>
       </c>
@@ -2942,72 +3562,184 @@
       <c r="C36" s="1">
         <v>8</v>
       </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+    </row>
+    <row r="37" spans="1:20">
       <c r="A37" s="1" t="s">
         <v>142</v>
       </c>
       <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+    </row>
+    <row r="38" spans="1:20">
       <c r="A38" s="1" t="s">
         <v>143</v>
       </c>
       <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+    </row>
+    <row r="39" spans="1:20">
       <c r="A39" s="1" t="s">
         <v>144</v>
       </c>
       <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="1:20">
       <c r="A40" s="1" t="s">
         <v>145</v>
       </c>
       <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="1:20">
       <c r="A41" s="1" t="s">
         <v>146</v>
       </c>
       <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
+    </row>
+    <row r="42" spans="1:20">
       <c r="A42" s="1" t="s">
         <v>147</v>
       </c>
       <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+    </row>
+    <row r="43" spans="1:20">
       <c r="A43" s="1" t="s">
         <v>148</v>
       </c>
       <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
@@ -3122,7 +3854,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:20">
       <c r="A2" s="1" t="s">
         <v>149</v>
       </c>
@@ -3132,56 +3864,140 @@
       <c r="C2" s="1">
         <v>6</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1" t="s">
         <v>150</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1" t="s">
         <v>151</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1" t="s">
         <v>152</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1" t="s">
         <v>153</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1" t="s">
         <v>154</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1" t="s">
         <v>155</v>
       </c>
@@ -3191,38 +4007,94 @@
       <c r="C8" s="1">
         <v>4</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1" t="s">
         <v>157</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1" t="s">
         <v>158</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1" t="s">
         <v>159</v>
       </c>
@@ -3232,101 +4104,255 @@
       <c r="C12" s="1">
         <v>11</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1" t="s">
         <v>160</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1" t="s">
         <v>161</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1" t="s">
         <v>162</v>
       </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1" t="s">
         <v>163</v>
       </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1" t="s">
         <v>164</v>
       </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1" t="s">
         <v>165</v>
       </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1" t="s">
         <v>166</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1" t="s">
         <v>167</v>
       </c>
       <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1" t="s">
         <v>168</v>
       </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1" t="s">
         <v>169</v>
       </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1" t="s">
         <v>170</v>
       </c>
@@ -3336,38 +4362,94 @@
       <c r="C23" s="1">
         <v>4</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1" t="s">
         <v>171</v>
       </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1" t="s">
         <v>172</v>
       </c>
       <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+    </row>
+    <row r="26" spans="1:20">
       <c r="A26" s="1" t="s">
         <v>173</v>
       </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+    </row>
+    <row r="27" spans="1:20">
       <c r="A27" s="1" t="s">
         <v>174</v>
       </c>
@@ -3377,128 +4459,324 @@
       <c r="C27" s="1">
         <v>14</v>
       </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+    </row>
+    <row r="28" spans="1:20">
       <c r="A28" s="1" t="s">
         <v>175</v>
       </c>
       <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+    </row>
+    <row r="29" spans="1:20">
       <c r="A29" s="1" t="s">
         <v>176</v>
       </c>
       <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+    </row>
+    <row r="30" spans="1:20">
       <c r="A30" s="1" t="s">
         <v>177</v>
       </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+    </row>
+    <row r="31" spans="1:20">
       <c r="A31" s="1" t="s">
         <v>178</v>
       </c>
       <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+    </row>
+    <row r="32" spans="1:20">
       <c r="A32" s="1" t="s">
         <v>179</v>
       </c>
       <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+    </row>
+    <row r="33" spans="1:20">
       <c r="A33" s="1" t="s">
         <v>180</v>
       </c>
       <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+    </row>
+    <row r="34" spans="1:20">
       <c r="A34" s="1" t="s">
         <v>181</v>
       </c>
       <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+    </row>
+    <row r="35" spans="1:20">
       <c r="A35" s="1" t="s">
         <v>182</v>
       </c>
       <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+    </row>
+    <row r="36" spans="1:20">
       <c r="A36" s="1" t="s">
         <v>183</v>
       </c>
       <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+    </row>
+    <row r="37" spans="1:20">
       <c r="A37" s="1" t="s">
         <v>184</v>
       </c>
       <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+    </row>
+    <row r="38" spans="1:20">
       <c r="A38" s="1" t="s">
         <v>185</v>
       </c>
       <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+    </row>
+    <row r="39" spans="1:20">
       <c r="A39" s="1" t="s">
         <v>186</v>
       </c>
       <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="1:20">
       <c r="A40" s="1" t="s">
         <v>187</v>
       </c>
       <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="1:20">
       <c r="A41" s="1" t="s">
         <v>188</v>
       </c>
@@ -3508,92 +4786,232 @@
       <c r="C41" s="1">
         <v>10</v>
       </c>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
+    </row>
+    <row r="42" spans="1:20">
       <c r="A42" s="1" t="s">
         <v>189</v>
       </c>
       <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+    </row>
+    <row r="43" spans="1:20">
       <c r="A43" s="1" t="s">
         <v>190</v>
       </c>
       <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+    </row>
+    <row r="44" spans="1:20">
       <c r="A44" s="1" t="s">
         <v>191</v>
       </c>
       <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+    </row>
+    <row r="45" spans="1:20">
       <c r="A45" s="1" t="s">
         <v>192</v>
       </c>
       <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="3"/>
+    </row>
+    <row r="46" spans="1:20">
       <c r="A46" s="1" t="s">
         <v>193</v>
       </c>
       <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="3"/>
+    </row>
+    <row r="47" spans="1:20">
       <c r="A47" s="1" t="s">
         <v>194</v>
       </c>
       <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="3"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="3"/>
+    </row>
+    <row r="48" spans="1:20">
       <c r="A48" s="1" t="s">
         <v>195</v>
       </c>
       <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="3"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="3"/>
+    </row>
+    <row r="49" spans="1:20">
       <c r="A49" s="1" t="s">
         <v>196</v>
       </c>
       <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="3"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="3"/>
+    </row>
+    <row r="50" spans="1:20">
       <c r="A50" s="1" t="s">
         <v>197</v>
       </c>
       <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="3"/>
+      <c r="S50" s="3"/>
+      <c r="T50" s="3"/>
+    </row>
+    <row r="51" spans="1:20">
       <c r="A51" s="1" t="s">
         <v>198</v>
       </c>
@@ -3603,74 +5021,186 @@
       <c r="C51" s="1">
         <v>8</v>
       </c>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="3"/>
+      <c r="S51" s="3"/>
+      <c r="T51" s="3"/>
+    </row>
+    <row r="52" spans="1:20">
       <c r="A52" s="1" t="s">
         <v>199</v>
       </c>
       <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="3"/>
+      <c r="S52" s="3"/>
+      <c r="T52" s="3"/>
+    </row>
+    <row r="53" spans="1:20">
       <c r="A53" s="1" t="s">
         <v>200</v>
       </c>
       <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
+      <c r="R53" s="3"/>
+      <c r="S53" s="3"/>
+      <c r="T53" s="3"/>
+    </row>
+    <row r="54" spans="1:20">
       <c r="A54" s="1" t="s">
         <v>201</v>
       </c>
       <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-    </row>
-    <row r="55" spans="1:6">
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="3"/>
+      <c r="S54" s="3"/>
+      <c r="T54" s="3"/>
+    </row>
+    <row r="55" spans="1:20">
       <c r="A55" s="1" t="s">
         <v>202</v>
       </c>
       <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-    </row>
-    <row r="56" spans="1:6">
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="1:20">
       <c r="A56" s="1" t="s">
         <v>203</v>
       </c>
       <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-    </row>
-    <row r="57" spans="1:6">
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="1:20">
       <c r="A57" s="1" t="s">
         <v>204</v>
       </c>
       <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3"/>
+      <c r="R57" s="3"/>
+      <c r="S57" s="3"/>
+      <c r="T57" s="3"/>
+    </row>
+    <row r="58" spans="1:20">
       <c r="A58" s="1" t="s">
         <v>205</v>
       </c>
       <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-    </row>
-    <row r="59" spans="1:6">
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3"/>
+      <c r="R58" s="3"/>
+      <c r="S58" s="3"/>
+      <c r="T58" s="3"/>
+    </row>
+    <row r="59" spans="1:20">
       <c r="A59" s="1" t="s">
         <v>206</v>
       </c>
@@ -3680,180 +5210,460 @@
       <c r="C59" s="1">
         <v>20</v>
       </c>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-    </row>
-    <row r="60" spans="1:6">
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3"/>
+      <c r="R59" s="3"/>
+      <c r="S59" s="3"/>
+      <c r="T59" s="3"/>
+    </row>
+    <row r="60" spans="1:20">
       <c r="A60" s="1" t="s">
         <v>208</v>
       </c>
       <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-    </row>
-    <row r="61" spans="1:6">
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3"/>
+      <c r="R60" s="3"/>
+      <c r="S60" s="3"/>
+      <c r="T60" s="3"/>
+    </row>
+    <row r="61" spans="1:20">
       <c r="A61" s="1" t="s">
         <v>209</v>
       </c>
       <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-    </row>
-    <row r="62" spans="1:6">
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" s="3"/>
+      <c r="Q61" s="3"/>
+      <c r="R61" s="3"/>
+      <c r="S61" s="3"/>
+      <c r="T61" s="3"/>
+    </row>
+    <row r="62" spans="1:20">
       <c r="A62" s="1" t="s">
         <v>210</v>
       </c>
       <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3"/>
+      <c r="R62" s="3"/>
+      <c r="S62" s="3"/>
+      <c r="T62" s="3"/>
+    </row>
+    <row r="63" spans="1:20">
       <c r="A63" s="1" t="s">
         <v>211</v>
       </c>
       <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-    </row>
-    <row r="64" spans="1:6">
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" s="3"/>
+      <c r="Q63" s="3"/>
+      <c r="R63" s="3"/>
+      <c r="S63" s="3"/>
+      <c r="T63" s="3"/>
+    </row>
+    <row r="64" spans="1:20">
       <c r="A64" s="1" t="s">
         <v>212</v>
       </c>
       <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-    </row>
-    <row r="65" spans="1:6">
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" s="3"/>
+      <c r="Q64" s="3"/>
+      <c r="R64" s="3"/>
+      <c r="S64" s="3"/>
+      <c r="T64" s="3"/>
+    </row>
+    <row r="65" spans="1:20">
       <c r="A65" s="1" t="s">
         <v>213</v>
       </c>
       <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-    </row>
-    <row r="66" spans="1:6">
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" s="3"/>
+      <c r="Q65" s="3"/>
+      <c r="R65" s="3"/>
+      <c r="S65" s="3"/>
+      <c r="T65" s="3"/>
+    </row>
+    <row r="66" spans="1:20">
       <c r="A66" s="1" t="s">
         <v>214</v>
       </c>
       <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-    </row>
-    <row r="67" spans="1:6">
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+      <c r="P66" s="3"/>
+      <c r="Q66" s="3"/>
+      <c r="R66" s="3"/>
+      <c r="S66" s="3"/>
+      <c r="T66" s="3"/>
+    </row>
+    <row r="67" spans="1:20">
       <c r="A67" s="1" t="s">
         <v>215</v>
       </c>
       <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-    </row>
-    <row r="68" spans="1:6">
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="1:20">
       <c r="A68" s="1" t="s">
         <v>216</v>
       </c>
       <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-    </row>
-    <row r="69" spans="1:6">
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" s="3"/>
+      <c r="Q68" s="3"/>
+      <c r="R68" s="3"/>
+      <c r="S68" s="3"/>
+      <c r="T68" s="3"/>
+    </row>
+    <row r="69" spans="1:20">
       <c r="A69" s="1" t="s">
         <v>217</v>
       </c>
       <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-    </row>
-    <row r="70" spans="1:6">
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" s="3"/>
+      <c r="Q69" s="3"/>
+      <c r="R69" s="3"/>
+      <c r="S69" s="3"/>
+      <c r="T69" s="3"/>
+    </row>
+    <row r="70" spans="1:20">
       <c r="A70" s="1" t="s">
         <v>218</v>
       </c>
       <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" s="3"/>
+      <c r="Q70" s="3"/>
+      <c r="R70" s="3"/>
+      <c r="S70" s="3"/>
+      <c r="T70" s="3"/>
+    </row>
+    <row r="71" spans="1:20">
       <c r="A71" s="1" t="s">
         <v>219</v>
       </c>
       <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-    </row>
-    <row r="72" spans="1:6">
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="P71" s="3"/>
+      <c r="Q71" s="3"/>
+      <c r="R71" s="3"/>
+      <c r="S71" s="3"/>
+      <c r="T71" s="3"/>
+    </row>
+    <row r="72" spans="1:20">
       <c r="A72" s="1" t="s">
         <v>220</v>
       </c>
       <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-    </row>
-    <row r="73" spans="1:6">
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
+      <c r="P72" s="3"/>
+      <c r="Q72" s="3"/>
+      <c r="R72" s="3"/>
+      <c r="S72" s="3"/>
+      <c r="T72" s="3"/>
+    </row>
+    <row r="73" spans="1:20">
       <c r="A73" s="1" t="s">
         <v>221</v>
       </c>
       <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-    </row>
-    <row r="74" spans="1:6">
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" s="3"/>
+      <c r="Q73" s="3"/>
+      <c r="R73" s="3"/>
+      <c r="S73" s="3"/>
+      <c r="T73" s="3"/>
+    </row>
+    <row r="74" spans="1:20">
       <c r="A74" s="1" t="s">
         <v>222</v>
       </c>
       <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-    </row>
-    <row r="75" spans="1:6">
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" s="3"/>
+      <c r="Q74" s="3"/>
+      <c r="R74" s="3"/>
+      <c r="S74" s="3"/>
+      <c r="T74" s="3"/>
+    </row>
+    <row r="75" spans="1:20">
       <c r="A75" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-    </row>
-    <row r="76" spans="1:6">
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="P75" s="3"/>
+      <c r="Q75" s="3"/>
+      <c r="R75" s="3"/>
+      <c r="S75" s="3"/>
+      <c r="T75" s="3"/>
+    </row>
+    <row r="76" spans="1:20">
       <c r="A76" s="1" t="s">
         <v>224</v>
       </c>
       <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-    </row>
-    <row r="77" spans="1:6">
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+      <c r="P76" s="3"/>
+      <c r="Q76" s="3"/>
+      <c r="R76" s="3"/>
+      <c r="S76" s="3"/>
+      <c r="T76" s="3"/>
+    </row>
+    <row r="77" spans="1:20">
       <c r="A77" s="1" t="s">
         <v>225</v>
       </c>
       <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-    </row>
-    <row r="78" spans="1:6">
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
+      <c r="P77" s="3"/>
+      <c r="Q77" s="3"/>
+      <c r="R77" s="3"/>
+      <c r="S77" s="3"/>
+      <c r="T77" s="3"/>
+    </row>
+    <row r="78" spans="1:20">
       <c r="A78" s="1" t="s">
         <v>226</v>
       </c>
       <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
+      <c r="P78" s="3"/>
+      <c r="Q78" s="3"/>
+      <c r="R78" s="3"/>
+      <c r="S78" s="3"/>
+      <c r="T78" s="3"/>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1" t="s">

--- a/src/main/resources/CardStatus.xlsx
+++ b/src/main/resources/CardStatus.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228">
   <si>
     <t>出处</t>
   </si>
@@ -467,6 +467,9 @@
   </si>
   <si>
     <t>瑕</t>
+  </si>
+  <si>
+    <t>南蛮王</t>
   </si>
   <si>
     <t>葛巧菱</t>
@@ -708,8 +711,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -723,21 +726,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -751,8 +756,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -760,7 +780,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -773,25 +800,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -802,21 +820,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -837,30 +840,30 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -875,19 +878,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -905,13 +1004,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -923,139 +1052,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1066,21 +1069,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1099,26 +1087,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1166,6 +1145,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1174,10 +1177,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1186,145 +1189,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1724,28 +1724,28 @@
       <c r="C7" s="2">
         <v>4</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="D8" s="3"/>
+      <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="D9" s="3"/>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="D10" s="3"/>
+      <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
@@ -1804,7 +1804,7 @@
       <c r="C2" s="2">
         <v>5</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
@@ -1812,7 +1812,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="3"/>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
@@ -1820,7 +1820,7 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
@@ -1828,7 +1828,7 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="3"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
@@ -1836,7 +1836,7 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
@@ -1848,7 +1848,7 @@
       <c r="C7" s="2">
         <v>3</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
@@ -1856,7 +1856,7 @@
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="3"/>
+      <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="3"/>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
@@ -1876,7 +1876,7 @@
       <c r="C10" s="2">
         <v>2</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
@@ -1884,7 +1884,7 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
+      <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
@@ -1948,8 +1948,8 @@
       <c r="C2" s="2">
         <v>14</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
@@ -1957,8 +1957,8 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
@@ -1966,8 +1966,8 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
@@ -1975,8 +1975,8 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
@@ -1984,8 +1984,8 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
@@ -1993,8 +1993,8 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
@@ -2002,8 +2002,8 @@
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
@@ -2011,8 +2011,8 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
@@ -2020,8 +2020,8 @@
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
@@ -2029,8 +2029,8 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
@@ -2038,8 +2038,8 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
@@ -2047,8 +2047,8 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
@@ -2056,8 +2056,8 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
@@ -2065,8 +2065,8 @@
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
@@ -2078,8 +2078,8 @@
       <c r="C16" s="2">
         <v>1</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
@@ -2091,8 +2091,8 @@
       <c r="C17" s="2">
         <v>7</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
@@ -2100,8 +2100,8 @@
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
@@ -2109,8 +2109,8 @@
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
@@ -2118,8 +2118,8 @@
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
@@ -2127,8 +2127,8 @@
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
@@ -2136,8 +2136,8 @@
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
@@ -2145,8 +2145,8 @@
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
@@ -2158,8 +2158,8 @@
       <c r="C24" s="2">
         <v>3</v>
       </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
@@ -2167,8 +2167,8 @@
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
@@ -2176,8 +2176,8 @@
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
@@ -2241,8 +2241,8 @@
       <c r="C2" s="2">
         <v>12</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
@@ -2250,8 +2250,8 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
@@ -2259,8 +2259,8 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
@@ -2268,8 +2268,8 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
@@ -2277,8 +2277,8 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
@@ -2286,8 +2286,8 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
@@ -2295,8 +2295,8 @@
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
@@ -2304,8 +2304,8 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
@@ -2313,8 +2313,8 @@
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
@@ -2322,8 +2322,8 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
@@ -2331,8 +2331,8 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
@@ -2340,8 +2340,8 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
@@ -2353,8 +2353,8 @@
       <c r="C14" s="2">
         <v>3</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
@@ -2362,8 +2362,8 @@
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
@@ -2371,8 +2371,8 @@
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
@@ -2384,8 +2384,8 @@
       <c r="C17" s="2">
         <v>2</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
@@ -2393,8 +2393,8 @@
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
@@ -2406,8 +2406,8 @@
       <c r="C19" s="2">
         <v>3</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
@@ -2415,8 +2415,8 @@
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
@@ -2424,8 +2424,8 @@
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
@@ -2491,8 +2491,8 @@
       <c r="C2" s="2">
         <v>11</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
@@ -2500,8 +2500,8 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
@@ -2509,8 +2509,8 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
@@ -2518,8 +2518,8 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
@@ -2527,8 +2527,8 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
@@ -2536,8 +2536,8 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
@@ -2545,8 +2545,8 @@
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
@@ -2554,8 +2554,8 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
@@ -2563,8 +2563,8 @@
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
@@ -2572,8 +2572,8 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
@@ -2581,8 +2581,8 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
@@ -2594,8 +2594,8 @@
       <c r="C13" s="2">
         <v>4</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
@@ -2603,8 +2603,8 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
@@ -2612,8 +2612,8 @@
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
@@ -2621,8 +2621,8 @@
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
@@ -2634,8 +2634,8 @@
       <c r="C17" s="2">
         <v>1</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
@@ -2762,11 +2762,11 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="1" t="s">
@@ -2785,11 +2785,11 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="1" t="s">
@@ -2808,11 +2808,11 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="1" t="s">
@@ -2831,11 +2831,11 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="1" t="s">
@@ -2854,11 +2854,11 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="1" t="s">
@@ -2877,11 +2877,11 @@
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="1" t="s">
@@ -2900,11 +2900,11 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="1" t="s">
@@ -2923,11 +2923,11 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="1" t="s">
@@ -2951,11 +2951,11 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="1" t="s">
@@ -2974,11 +2974,11 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="1" t="s">
@@ -2997,11 +2997,11 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="1" t="s">
@@ -3020,11 +3020,11 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="1" t="s">
@@ -3043,11 +3043,11 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="1" t="s">
@@ -3066,11 +3066,11 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="1" t="s">
@@ -3094,11 +3094,11 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="1" t="s">
@@ -3117,11 +3117,11 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="1" t="s">
@@ -3140,11 +3140,11 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="1" t="s">
@@ -3163,11 +3163,11 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="1" t="s">
@@ -3186,11 +3186,11 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" s="1" t="s">
@@ -3209,11 +3209,11 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" s="1" t="s">
@@ -3232,11 +3232,11 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" s="1" t="s">
@@ -3255,11 +3255,11 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" s="1" t="s">
@@ -3283,11 +3283,11 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" s="1" t="s">
@@ -3306,11 +3306,11 @@
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
     </row>
     <row r="26" spans="1:20">
       <c r="A26" s="1" t="s">
@@ -3329,11 +3329,11 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" s="1" t="s">
@@ -3352,11 +3352,11 @@
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" s="1" t="s">
@@ -3380,11 +3380,11 @@
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" s="1" t="s">
@@ -3403,11 +3403,11 @@
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" s="1" t="s">
@@ -3426,11 +3426,11 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" s="1" t="s">
@@ -3449,11 +3449,11 @@
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="3"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
     </row>
     <row r="32" spans="1:20">
       <c r="A32" s="1" t="s">
@@ -3472,11 +3472,11 @@
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
     </row>
     <row r="33" spans="1:20">
       <c r="A33" s="1" t="s">
@@ -3495,11 +3495,11 @@
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="1" t="s">
@@ -3523,11 +3523,11 @@
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
     </row>
     <row r="35" spans="1:20">
       <c r="A35" s="1" t="s">
@@ -3546,11 +3546,11 @@
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="3"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
     </row>
     <row r="36" spans="1:20">
       <c r="A36" s="1" t="s">
@@ -3574,11 +3574,11 @@
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
-      <c r="S36" s="3"/>
-      <c r="T36" s="3"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
     </row>
     <row r="37" spans="1:20">
       <c r="A37" s="1" t="s">
@@ -3597,11 +3597,11 @@
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
-      <c r="S37" s="3"/>
-      <c r="T37" s="3"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
     </row>
     <row r="38" spans="1:20">
       <c r="A38" s="1" t="s">
@@ -3620,11 +3620,11 @@
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="3"/>
-      <c r="S38" s="3"/>
-      <c r="T38" s="3"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
     </row>
     <row r="39" spans="1:20">
       <c r="A39" s="1" t="s">
@@ -3643,11 +3643,11 @@
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
-      <c r="R39" s="3"/>
-      <c r="S39" s="3"/>
-      <c r="T39" s="3"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
     </row>
     <row r="40" spans="1:20">
       <c r="A40" s="1" t="s">
@@ -3666,11 +3666,11 @@
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="3"/>
-      <c r="S40" s="3"/>
-      <c r="T40" s="3"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
     </row>
     <row r="41" spans="1:20">
       <c r="A41" s="1" t="s">
@@ -3689,11 +3689,11 @@
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
-      <c r="P41" s="3"/>
-      <c r="Q41" s="3"/>
-      <c r="R41" s="3"/>
-      <c r="S41" s="3"/>
-      <c r="T41" s="3"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
     </row>
     <row r="42" spans="1:20">
       <c r="A42" s="1" t="s">
@@ -3712,11 +3712,11 @@
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
-      <c r="P42" s="3"/>
-      <c r="Q42" s="3"/>
-      <c r="R42" s="3"/>
-      <c r="S42" s="3"/>
-      <c r="T42" s="3"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
     </row>
     <row r="43" spans="1:20">
       <c r="A43" s="1" t="s">
@@ -3735,11 +3735,11 @@
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
-      <c r="P43" s="3"/>
-      <c r="Q43" s="3"/>
-      <c r="R43" s="3"/>
-      <c r="S43" s="3"/>
-      <c r="T43" s="3"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
@@ -3775,7 +3775,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T79"/>
+  <dimension ref="A1:T80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3862,7 +3862,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -3876,11 +3876,11 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="1" t="s">
@@ -3899,11 +3899,11 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="1" t="s">
@@ -3922,11 +3922,11 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="1" t="s">
@@ -3945,11 +3945,11 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="1" t="s">
@@ -3968,11 +3968,11 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="1" t="s">
@@ -3991,22 +3991,17 @@
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="1">
-        <v>4</v>
-      </c>
+      <c r="C8" s="1"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -4019,17 +4014,22 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4</v>
+      </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -4042,11 +4042,11 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="1" t="s">
@@ -4065,11 +4065,11 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="1" t="s">
@@ -4088,22 +4088,17 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="1">
-        <v>11</v>
-      </c>
+      <c r="C12" s="1"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -4116,17 +4111,22 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1">
+        <v>11</v>
+      </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -4139,11 +4139,11 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="1" t="s">
@@ -4162,11 +4162,11 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="1" t="s">
@@ -4185,11 +4185,11 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="1" t="s">
@@ -4208,11 +4208,11 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="1" t="s">
@@ -4231,11 +4231,11 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="1" t="s">
@@ -4254,11 +4254,11 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="1" t="s">
@@ -4277,11 +4277,11 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="1" t="s">
@@ -4300,11 +4300,11 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" s="1" t="s">
@@ -4323,11 +4323,11 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" s="1" t="s">
@@ -4346,22 +4346,17 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C23" s="1">
-        <v>4</v>
-      </c>
+      <c r="C23" s="1"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -4374,17 +4369,22 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C24" s="1">
+        <v>4</v>
+      </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -4397,11 +4397,11 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" s="1" t="s">
@@ -4420,11 +4420,11 @@
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
     </row>
     <row r="26" spans="1:20">
       <c r="A26" s="1" t="s">
@@ -4443,22 +4443,17 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C27" s="1">
-        <v>14</v>
-      </c>
+      <c r="C27" s="1"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -4471,17 +4466,22 @@
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C28" s="1"/>
+      <c r="B28" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C28" s="1">
+        <v>14</v>
+      </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -4494,11 +4494,11 @@
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" s="1" t="s">
@@ -4517,11 +4517,11 @@
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" s="1" t="s">
@@ -4540,11 +4540,11 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" s="1" t="s">
@@ -4563,11 +4563,11 @@
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="3"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
     </row>
     <row r="32" spans="1:20">
       <c r="A32" s="1" t="s">
@@ -4586,11 +4586,11 @@
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
     </row>
     <row r="33" spans="1:20">
       <c r="A33" s="1" t="s">
@@ -4609,11 +4609,11 @@
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="1" t="s">
@@ -4632,11 +4632,11 @@
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
     </row>
     <row r="35" spans="1:20">
       <c r="A35" s="1" t="s">
@@ -4655,11 +4655,11 @@
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="3"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
     </row>
     <row r="36" spans="1:20">
       <c r="A36" s="1" t="s">
@@ -4678,11 +4678,11 @@
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
-      <c r="S36" s="3"/>
-      <c r="T36" s="3"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
     </row>
     <row r="37" spans="1:20">
       <c r="A37" s="1" t="s">
@@ -4701,11 +4701,11 @@
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
-      <c r="S37" s="3"/>
-      <c r="T37" s="3"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
     </row>
     <row r="38" spans="1:20">
       <c r="A38" s="1" t="s">
@@ -4724,11 +4724,11 @@
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="3"/>
-      <c r="S38" s="3"/>
-      <c r="T38" s="3"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
     </row>
     <row r="39" spans="1:20">
       <c r="A39" s="1" t="s">
@@ -4747,11 +4747,11 @@
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
-      <c r="R39" s="3"/>
-      <c r="S39" s="3"/>
-      <c r="T39" s="3"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
     </row>
     <row r="40" spans="1:20">
       <c r="A40" s="1" t="s">
@@ -4770,22 +4770,17 @@
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="3"/>
-      <c r="S40" s="3"/>
-      <c r="T40" s="3"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
     </row>
     <row r="41" spans="1:20">
       <c r="A41" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C41" s="1">
-        <v>10</v>
-      </c>
+      <c r="C41" s="1"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -4798,17 +4793,22 @@
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
-      <c r="P41" s="3"/>
-      <c r="Q41" s="3"/>
-      <c r="R41" s="3"/>
-      <c r="S41" s="3"/>
-      <c r="T41" s="3"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
     </row>
     <row r="42" spans="1:20">
       <c r="A42" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C42" s="1"/>
+      <c r="B42" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" s="1">
+        <v>10</v>
+      </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -4821,11 +4821,11 @@
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
-      <c r="P42" s="3"/>
-      <c r="Q42" s="3"/>
-      <c r="R42" s="3"/>
-      <c r="S42" s="3"/>
-      <c r="T42" s="3"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
     </row>
     <row r="43" spans="1:20">
       <c r="A43" s="1" t="s">
@@ -4844,11 +4844,11 @@
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
-      <c r="P43" s="3"/>
-      <c r="Q43" s="3"/>
-      <c r="R43" s="3"/>
-      <c r="S43" s="3"/>
-      <c r="T43" s="3"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
     </row>
     <row r="44" spans="1:20">
       <c r="A44" s="1" t="s">
@@ -4867,11 +4867,11 @@
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
-      <c r="P44" s="3"/>
-      <c r="Q44" s="3"/>
-      <c r="R44" s="3"/>
-      <c r="S44" s="3"/>
-      <c r="T44" s="3"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
     </row>
     <row r="45" spans="1:20">
       <c r="A45" s="1" t="s">
@@ -4890,11 +4890,11 @@
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
-      <c r="P45" s="3"/>
-      <c r="Q45" s="3"/>
-      <c r="R45" s="3"/>
-      <c r="S45" s="3"/>
-      <c r="T45" s="3"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
     </row>
     <row r="46" spans="1:20">
       <c r="A46" s="1" t="s">
@@ -4913,11 +4913,11 @@
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
-      <c r="P46" s="3"/>
-      <c r="Q46" s="3"/>
-      <c r="R46" s="3"/>
-      <c r="S46" s="3"/>
-      <c r="T46" s="3"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="2"/>
+      <c r="T46" s="2"/>
     </row>
     <row r="47" spans="1:20">
       <c r="A47" s="1" t="s">
@@ -4936,11 +4936,11 @@
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
-      <c r="P47" s="3"/>
-      <c r="Q47" s="3"/>
-      <c r="R47" s="3"/>
-      <c r="S47" s="3"/>
-      <c r="T47" s="3"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2"/>
     </row>
     <row r="48" spans="1:20">
       <c r="A48" s="1" t="s">
@@ -4959,11 +4959,11 @@
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
-      <c r="P48" s="3"/>
-      <c r="Q48" s="3"/>
-      <c r="R48" s="3"/>
-      <c r="S48" s="3"/>
-      <c r="T48" s="3"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="2"/>
+      <c r="T48" s="2"/>
     </row>
     <row r="49" spans="1:20">
       <c r="A49" s="1" t="s">
@@ -4982,11 +4982,11 @@
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
-      <c r="P49" s="3"/>
-      <c r="Q49" s="3"/>
-      <c r="R49" s="3"/>
-      <c r="S49" s="3"/>
-      <c r="T49" s="3"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="2"/>
+      <c r="T49" s="2"/>
     </row>
     <row r="50" spans="1:20">
       <c r="A50" s="1" t="s">
@@ -5005,22 +5005,17 @@
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
-      <c r="P50" s="3"/>
-      <c r="Q50" s="3"/>
-      <c r="R50" s="3"/>
-      <c r="S50" s="3"/>
-      <c r="T50" s="3"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="2"/>
+      <c r="T50" s="2"/>
     </row>
     <row r="51" spans="1:20">
       <c r="A51" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C51" s="1">
-        <v>8</v>
-      </c>
+      <c r="C51" s="1"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -5033,17 +5028,22 @@
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
-      <c r="P51" s="3"/>
-      <c r="Q51" s="3"/>
-      <c r="R51" s="3"/>
-      <c r="S51" s="3"/>
-      <c r="T51" s="3"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="2"/>
+      <c r="T51" s="2"/>
     </row>
     <row r="52" spans="1:20">
       <c r="A52" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C52" s="1"/>
+      <c r="B52" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C52" s="1">
+        <v>8</v>
+      </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
@@ -5056,11 +5056,11 @@
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
-      <c r="P52" s="3"/>
-      <c r="Q52" s="3"/>
-      <c r="R52" s="3"/>
-      <c r="S52" s="3"/>
-      <c r="T52" s="3"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="2"/>
+      <c r="T52" s="2"/>
     </row>
     <row r="53" spans="1:20">
       <c r="A53" s="1" t="s">
@@ -5079,11 +5079,11 @@
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
-      <c r="P53" s="3"/>
-      <c r="Q53" s="3"/>
-      <c r="R53" s="3"/>
-      <c r="S53" s="3"/>
-      <c r="T53" s="3"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="2"/>
+      <c r="T53" s="2"/>
     </row>
     <row r="54" spans="1:20">
       <c r="A54" s="1" t="s">
@@ -5102,11 +5102,11 @@
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
-      <c r="P54" s="3"/>
-      <c r="Q54" s="3"/>
-      <c r="R54" s="3"/>
-      <c r="S54" s="3"/>
-      <c r="T54" s="3"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="2"/>
+      <c r="T54" s="2"/>
     </row>
     <row r="55" spans="1:20">
       <c r="A55" s="1" t="s">
@@ -5125,11 +5125,11 @@
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
-      <c r="P55" s="3"/>
-      <c r="Q55" s="3"/>
-      <c r="R55" s="3"/>
-      <c r="S55" s="3"/>
-      <c r="T55" s="3"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="2"/>
+      <c r="T55" s="2"/>
     </row>
     <row r="56" spans="1:20">
       <c r="A56" s="1" t="s">
@@ -5148,11 +5148,11 @@
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
-      <c r="P56" s="3"/>
-      <c r="Q56" s="3"/>
-      <c r="R56" s="3"/>
-      <c r="S56" s="3"/>
-      <c r="T56" s="3"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="2"/>
+      <c r="T56" s="2"/>
     </row>
     <row r="57" spans="1:20">
       <c r="A57" s="1" t="s">
@@ -5171,11 +5171,11 @@
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
-      <c r="P57" s="3"/>
-      <c r="Q57" s="3"/>
-      <c r="R57" s="3"/>
-      <c r="S57" s="3"/>
-      <c r="T57" s="3"/>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="2"/>
+      <c r="S57" s="2"/>
+      <c r="T57" s="2"/>
     </row>
     <row r="58" spans="1:20">
       <c r="A58" s="1" t="s">
@@ -5194,22 +5194,17 @@
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
-      <c r="P58" s="3"/>
-      <c r="Q58" s="3"/>
-      <c r="R58" s="3"/>
-      <c r="S58" s="3"/>
-      <c r="T58" s="3"/>
+      <c r="P58" s="2"/>
+      <c r="Q58" s="2"/>
+      <c r="R58" s="2"/>
+      <c r="S58" s="2"/>
+      <c r="T58" s="2"/>
     </row>
     <row r="59" spans="1:20">
       <c r="A59" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C59" s="1">
-        <v>20</v>
-      </c>
+      <c r="C59" s="1"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
@@ -5222,17 +5217,22 @@
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
-      <c r="P59" s="3"/>
-      <c r="Q59" s="3"/>
-      <c r="R59" s="3"/>
-      <c r="S59" s="3"/>
-      <c r="T59" s="3"/>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="2"/>
+      <c r="R59" s="2"/>
+      <c r="S59" s="2"/>
+      <c r="T59" s="2"/>
     </row>
     <row r="60" spans="1:20">
       <c r="A60" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C60" s="1"/>
+      <c r="C60" s="1">
+        <v>20</v>
+      </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
@@ -5245,11 +5245,11 @@
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
-      <c r="P60" s="3"/>
-      <c r="Q60" s="3"/>
-      <c r="R60" s="3"/>
-      <c r="S60" s="3"/>
-      <c r="T60" s="3"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="2"/>
+      <c r="R60" s="2"/>
+      <c r="S60" s="2"/>
+      <c r="T60" s="2"/>
     </row>
     <row r="61" spans="1:20">
       <c r="A61" s="1" t="s">
@@ -5268,11 +5268,11 @@
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
-      <c r="P61" s="3"/>
-      <c r="Q61" s="3"/>
-      <c r="R61" s="3"/>
-      <c r="S61" s="3"/>
-      <c r="T61" s="3"/>
+      <c r="P61" s="2"/>
+      <c r="Q61" s="2"/>
+      <c r="R61" s="2"/>
+      <c r="S61" s="2"/>
+      <c r="T61" s="2"/>
     </row>
     <row r="62" spans="1:20">
       <c r="A62" s="1" t="s">
@@ -5291,11 +5291,11 @@
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
-      <c r="P62" s="3"/>
-      <c r="Q62" s="3"/>
-      <c r="R62" s="3"/>
-      <c r="S62" s="3"/>
-      <c r="T62" s="3"/>
+      <c r="P62" s="2"/>
+      <c r="Q62" s="2"/>
+      <c r="R62" s="2"/>
+      <c r="S62" s="2"/>
+      <c r="T62" s="2"/>
     </row>
     <row r="63" spans="1:20">
       <c r="A63" s="1" t="s">
@@ -5314,11 +5314,11 @@
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
-      <c r="P63" s="3"/>
-      <c r="Q63" s="3"/>
-      <c r="R63" s="3"/>
-      <c r="S63" s="3"/>
-      <c r="T63" s="3"/>
+      <c r="P63" s="2"/>
+      <c r="Q63" s="2"/>
+      <c r="R63" s="2"/>
+      <c r="S63" s="2"/>
+      <c r="T63" s="2"/>
     </row>
     <row r="64" spans="1:20">
       <c r="A64" s="1" t="s">
@@ -5337,11 +5337,11 @@
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
-      <c r="P64" s="3"/>
-      <c r="Q64" s="3"/>
-      <c r="R64" s="3"/>
-      <c r="S64" s="3"/>
-      <c r="T64" s="3"/>
+      <c r="P64" s="2"/>
+      <c r="Q64" s="2"/>
+      <c r="R64" s="2"/>
+      <c r="S64" s="2"/>
+      <c r="T64" s="2"/>
     </row>
     <row r="65" spans="1:20">
       <c r="A65" s="1" t="s">
@@ -5360,11 +5360,11 @@
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
-      <c r="P65" s="3"/>
-      <c r="Q65" s="3"/>
-      <c r="R65" s="3"/>
-      <c r="S65" s="3"/>
-      <c r="T65" s="3"/>
+      <c r="P65" s="2"/>
+      <c r="Q65" s="2"/>
+      <c r="R65" s="2"/>
+      <c r="S65" s="2"/>
+      <c r="T65" s="2"/>
     </row>
     <row r="66" spans="1:20">
       <c r="A66" s="1" t="s">
@@ -5383,11 +5383,11 @@
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
-      <c r="P66" s="3"/>
-      <c r="Q66" s="3"/>
-      <c r="R66" s="3"/>
-      <c r="S66" s="3"/>
-      <c r="T66" s="3"/>
+      <c r="P66" s="2"/>
+      <c r="Q66" s="2"/>
+      <c r="R66" s="2"/>
+      <c r="S66" s="2"/>
+      <c r="T66" s="2"/>
     </row>
     <row r="67" spans="1:20">
       <c r="A67" s="1" t="s">
@@ -5406,11 +5406,11 @@
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
-      <c r="P67" s="3"/>
-      <c r="Q67" s="3"/>
-      <c r="R67" s="3"/>
-      <c r="S67" s="3"/>
-      <c r="T67" s="3"/>
+      <c r="P67" s="2"/>
+      <c r="Q67" s="2"/>
+      <c r="R67" s="2"/>
+      <c r="S67" s="2"/>
+      <c r="T67" s="2"/>
     </row>
     <row r="68" spans="1:20">
       <c r="A68" s="1" t="s">
@@ -5429,11 +5429,11 @@
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
-      <c r="P68" s="3"/>
-      <c r="Q68" s="3"/>
-      <c r="R68" s="3"/>
-      <c r="S68" s="3"/>
-      <c r="T68" s="3"/>
+      <c r="P68" s="2"/>
+      <c r="Q68" s="2"/>
+      <c r="R68" s="2"/>
+      <c r="S68" s="2"/>
+      <c r="T68" s="2"/>
     </row>
     <row r="69" spans="1:20">
       <c r="A69" s="1" t="s">
@@ -5452,11 +5452,11 @@
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
-      <c r="P69" s="3"/>
-      <c r="Q69" s="3"/>
-      <c r="R69" s="3"/>
-      <c r="S69" s="3"/>
-      <c r="T69" s="3"/>
+      <c r="P69" s="2"/>
+      <c r="Q69" s="2"/>
+      <c r="R69" s="2"/>
+      <c r="S69" s="2"/>
+      <c r="T69" s="2"/>
     </row>
     <row r="70" spans="1:20">
       <c r="A70" s="1" t="s">
@@ -5475,11 +5475,11 @@
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
-      <c r="P70" s="3"/>
-      <c r="Q70" s="3"/>
-      <c r="R70" s="3"/>
-      <c r="S70" s="3"/>
-      <c r="T70" s="3"/>
+      <c r="P70" s="2"/>
+      <c r="Q70" s="2"/>
+      <c r="R70" s="2"/>
+      <c r="S70" s="2"/>
+      <c r="T70" s="2"/>
     </row>
     <row r="71" spans="1:20">
       <c r="A71" s="1" t="s">
@@ -5498,11 +5498,11 @@
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
-      <c r="P71" s="3"/>
-      <c r="Q71" s="3"/>
-      <c r="R71" s="3"/>
-      <c r="S71" s="3"/>
-      <c r="T71" s="3"/>
+      <c r="P71" s="2"/>
+      <c r="Q71" s="2"/>
+      <c r="R71" s="2"/>
+      <c r="S71" s="2"/>
+      <c r="T71" s="2"/>
     </row>
     <row r="72" spans="1:20">
       <c r="A72" s="1" t="s">
@@ -5521,11 +5521,11 @@
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
-      <c r="P72" s="3"/>
-      <c r="Q72" s="3"/>
-      <c r="R72" s="3"/>
-      <c r="S72" s="3"/>
-      <c r="T72" s="3"/>
+      <c r="P72" s="2"/>
+      <c r="Q72" s="2"/>
+      <c r="R72" s="2"/>
+      <c r="S72" s="2"/>
+      <c r="T72" s="2"/>
     </row>
     <row r="73" spans="1:20">
       <c r="A73" s="1" t="s">
@@ -5544,11 +5544,11 @@
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
-      <c r="P73" s="3"/>
-      <c r="Q73" s="3"/>
-      <c r="R73" s="3"/>
-      <c r="S73" s="3"/>
-      <c r="T73" s="3"/>
+      <c r="P73" s="2"/>
+      <c r="Q73" s="2"/>
+      <c r="R73" s="2"/>
+      <c r="S73" s="2"/>
+      <c r="T73" s="2"/>
     </row>
     <row r="74" spans="1:20">
       <c r="A74" s="1" t="s">
@@ -5567,11 +5567,11 @@
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
-      <c r="P74" s="3"/>
-      <c r="Q74" s="3"/>
-      <c r="R74" s="3"/>
-      <c r="S74" s="3"/>
-      <c r="T74" s="3"/>
+      <c r="P74" s="2"/>
+      <c r="Q74" s="2"/>
+      <c r="R74" s="2"/>
+      <c r="S74" s="2"/>
+      <c r="T74" s="2"/>
     </row>
     <row r="75" spans="1:20">
       <c r="A75" s="1" t="s">
@@ -5590,11 +5590,11 @@
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
-      <c r="P75" s="3"/>
-      <c r="Q75" s="3"/>
-      <c r="R75" s="3"/>
-      <c r="S75" s="3"/>
-      <c r="T75" s="3"/>
+      <c r="P75" s="2"/>
+      <c r="Q75" s="2"/>
+      <c r="R75" s="2"/>
+      <c r="S75" s="2"/>
+      <c r="T75" s="2"/>
     </row>
     <row r="76" spans="1:20">
       <c r="A76" s="1" t="s">
@@ -5613,11 +5613,11 @@
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
-      <c r="P76" s="3"/>
-      <c r="Q76" s="3"/>
-      <c r="R76" s="3"/>
-      <c r="S76" s="3"/>
-      <c r="T76" s="3"/>
+      <c r="P76" s="2"/>
+      <c r="Q76" s="2"/>
+      <c r="R76" s="2"/>
+      <c r="S76" s="2"/>
+      <c r="T76" s="2"/>
     </row>
     <row r="77" spans="1:20">
       <c r="A77" s="1" t="s">
@@ -5636,11 +5636,11 @@
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
-      <c r="P77" s="3"/>
-      <c r="Q77" s="3"/>
-      <c r="R77" s="3"/>
-      <c r="S77" s="3"/>
-      <c r="T77" s="3"/>
+      <c r="P77" s="2"/>
+      <c r="Q77" s="2"/>
+      <c r="R77" s="2"/>
+      <c r="S77" s="2"/>
+      <c r="T77" s="2"/>
     </row>
     <row r="78" spans="1:20">
       <c r="A78" s="1" t="s">
@@ -5659,39 +5659,62 @@
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
-      <c r="P78" s="3"/>
-      <c r="Q78" s="3"/>
-      <c r="R78" s="3"/>
-      <c r="S78" s="3"/>
-      <c r="T78" s="3"/>
-    </row>
-    <row r="79" spans="1:3">
+      <c r="P78" s="2"/>
+      <c r="Q78" s="2"/>
+      <c r="R78" s="2"/>
+      <c r="S78" s="2"/>
+      <c r="T78" s="2"/>
+    </row>
+    <row r="79" spans="1:20">
       <c r="A79" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C79" s="1"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="2"/>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
+      <c r="P79" s="2"/>
+      <c r="Q79" s="2"/>
+      <c r="R79" s="2"/>
+      <c r="S79" s="2"/>
+      <c r="T79" s="2"/>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C79">
-        <f>SUM(C2:C78)</f>
-        <v>77</v>
+      <c r="C80">
+        <f>SUM(C2:C79)</f>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="B12:B22"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B27:B40"/>
-    <mergeCell ref="B41:B50"/>
-    <mergeCell ref="B51:B58"/>
-    <mergeCell ref="B59:B78"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="C12:C22"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="C27:C40"/>
-    <mergeCell ref="C41:C50"/>
-    <mergeCell ref="C51:C58"/>
-    <mergeCell ref="C59:C78"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B13:B23"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B28:B41"/>
+    <mergeCell ref="B42:B51"/>
+    <mergeCell ref="B52:B59"/>
+    <mergeCell ref="B60:B79"/>
+    <mergeCell ref="C2:C8"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="C13:C23"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="C28:C41"/>
+    <mergeCell ref="C42:C51"/>
+    <mergeCell ref="C52:C59"/>
+    <mergeCell ref="C60:C79"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/src/main/resources/CardStatus.xlsx
+++ b/src/main/resources/CardStatus.xlsx
@@ -331,12 +331,6 @@
     <t>绝技6</t>
   </si>
   <si>
-    <t>云裳1</t>
-  </si>
-  <si>
-    <t>云裳2</t>
-  </si>
-  <si>
     <t>巫后</t>
   </si>
   <si>
@@ -467,6 +461,12 @@
   </si>
   <si>
     <t>瑕</t>
+  </si>
+  <si>
+    <t>云裳</t>
+  </si>
+  <si>
+    <t>云裳部件</t>
   </si>
   <si>
     <t>南蛮王</t>
@@ -711,10 +711,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -726,7 +726,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -740,17 +747,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -763,9 +776,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -779,27 +791,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -815,48 +847,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -864,6 +857,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -878,7 +878,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -890,7 +962,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -902,163 +1058,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1072,17 +1072,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1098,50 +1092,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1169,6 +1119,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1177,10 +1177,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1189,133 +1189,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2661,7 +2661,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T44"/>
+  <dimension ref="A1:R44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2677,11 +2677,11 @@
     <col min="7" max="8" width="6.375" style="1" customWidth="1"/>
     <col min="9" max="12" width="7.375" style="1" customWidth="1"/>
     <col min="13" max="15" width="6.375" style="1" customWidth="1"/>
-    <col min="16" max="20" width="6.375" customWidth="1"/>
-    <col min="21" max="21" width="1.625" customWidth="1"/>
+    <col min="16" max="18" width="6.375" customWidth="1"/>
+    <col min="19" max="19" width="1.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="2:20">
+    <row r="1" s="1" customFormat="1" spans="2:18">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2733,16 +2733,10 @@
       <c r="R1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="S1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -2765,12 +2759,10 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-    </row>
-    <row r="3" spans="1:20">
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
@@ -2788,12 +2780,10 @@
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-    </row>
-    <row r="4" spans="1:20">
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="2"/>
@@ -2811,12 +2801,10 @@
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-    </row>
-    <row r="5" spans="1:20">
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="2"/>
@@ -2834,12 +2822,10 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-    </row>
-    <row r="6" spans="1:20">
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="2"/>
@@ -2857,12 +2843,10 @@
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-    </row>
-    <row r="7" spans="1:20">
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="2"/>
@@ -2880,12 +2864,10 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-    </row>
-    <row r="8" spans="1:20">
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="2"/>
@@ -2903,12 +2885,10 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-    </row>
-    <row r="9" spans="1:20">
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="2"/>
@@ -2926,12 +2906,10 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-    </row>
-    <row r="10" spans="1:20">
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>42</v>
@@ -2954,12 +2932,10 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-    </row>
-    <row r="11" spans="1:20">
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="2"/>
@@ -2977,12 +2953,10 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-    </row>
-    <row r="12" spans="1:20">
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="2"/>
@@ -3000,12 +2974,10 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-    </row>
-    <row r="13" spans="1:20">
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="2"/>
@@ -3023,12 +2995,10 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-    </row>
-    <row r="14" spans="1:20">
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="2"/>
@@ -3046,12 +3016,10 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-    </row>
-    <row r="15" spans="1:20">
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="2"/>
@@ -3069,12 +3037,10 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-    </row>
-    <row r="16" spans="1:20">
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>10</v>
@@ -3097,12 +3063,10 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-    </row>
-    <row r="17" spans="1:20">
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="2"/>
@@ -3120,12 +3084,10 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-    </row>
-    <row r="18" spans="1:20">
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="2"/>
@@ -3143,12 +3105,10 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-    </row>
-    <row r="19" spans="1:20">
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="2"/>
@@ -3166,12 +3126,10 @@
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-    </row>
-    <row r="20" spans="1:20">
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="2"/>
@@ -3189,12 +3147,10 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-    </row>
-    <row r="21" spans="1:20">
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="2"/>
@@ -3212,12 +3168,10 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-    </row>
-    <row r="22" spans="1:20">
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="2"/>
@@ -3235,12 +3189,10 @@
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-    </row>
-    <row r="23" spans="1:20">
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="2"/>
@@ -3258,15 +3210,13 @@
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-    </row>
-    <row r="24" spans="1:20">
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C24" s="1">
         <v>4</v>
@@ -3286,12 +3236,10 @@
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-    </row>
-    <row r="25" spans="1:20">
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="2"/>
@@ -3309,12 +3257,10 @@
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
-    </row>
-    <row r="26" spans="1:20">
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="2"/>
@@ -3332,12 +3278,10 @@
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-    </row>
-    <row r="27" spans="1:20">
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
@@ -3355,15 +3299,13 @@
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
-    </row>
-    <row r="28" spans="1:20">
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C28" s="1">
         <v>6</v>
@@ -3383,12 +3325,10 @@
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-    </row>
-    <row r="29" spans="1:20">
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="2"/>
@@ -3406,12 +3346,10 @@
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
-    </row>
-    <row r="30" spans="1:20">
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="2"/>
@@ -3429,12 +3367,10 @@
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
-    </row>
-    <row r="31" spans="1:20">
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="2"/>
@@ -3452,12 +3388,10 @@
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
-    </row>
-    <row r="32" spans="1:20">
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="2"/>
@@ -3475,12 +3409,10 @@
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
-      <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
-    </row>
-    <row r="33" spans="1:20">
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="2"/>
@@ -3498,12 +3430,10 @@
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-    </row>
-    <row r="34" spans="1:20">
+    </row>
+    <row r="34" spans="1:18">
       <c r="A34" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>24</v>
@@ -3526,12 +3456,10 @@
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-    </row>
-    <row r="35" spans="1:20">
+    </row>
+    <row r="35" spans="1:18">
       <c r="A35" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="2"/>
@@ -3549,12 +3477,10 @@
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
-    </row>
-    <row r="36" spans="1:20">
+    </row>
+    <row r="36" spans="1:18">
       <c r="A36" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>71</v>
@@ -3577,12 +3503,10 @@
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-    </row>
-    <row r="37" spans="1:20">
+    </row>
+    <row r="37" spans="1:18">
       <c r="A37" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="2"/>
@@ -3600,12 +3524,10 @@
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-    </row>
-    <row r="38" spans="1:20">
+    </row>
+    <row r="38" spans="1:18">
       <c r="A38" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="2"/>
@@ -3623,12 +3545,10 @@
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-    </row>
-    <row r="39" spans="1:20">
+    </row>
+    <row r="39" spans="1:18">
       <c r="A39" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="2"/>
@@ -3646,12 +3566,10 @@
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
-      <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
-    </row>
-    <row r="40" spans="1:20">
+    </row>
+    <row r="40" spans="1:18">
       <c r="A40" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="2"/>
@@ -3669,12 +3587,10 @@
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
-      <c r="S40" s="2"/>
-      <c r="T40" s="2"/>
-    </row>
-    <row r="41" spans="1:20">
+    </row>
+    <row r="41" spans="1:18">
       <c r="A41" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="2"/>
@@ -3692,12 +3608,10 @@
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
-    </row>
-    <row r="42" spans="1:20">
+    </row>
+    <row r="42" spans="1:18">
       <c r="A42" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="2"/>
@@ -3715,12 +3629,10 @@
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
-    </row>
-    <row r="43" spans="1:20">
+    </row>
+    <row r="43" spans="1:18">
       <c r="A43" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="2"/>
@@ -3738,8 +3650,6 @@
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
-      <c r="S43" s="2"/>
-      <c r="T43" s="2"/>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
@@ -3791,7 +3701,9 @@
     <col min="7" max="8" width="6.375" style="1" customWidth="1"/>
     <col min="9" max="12" width="7.375" style="1" customWidth="1"/>
     <col min="13" max="15" width="6.375" style="1" customWidth="1"/>
-    <col min="16" max="20" width="6.375" customWidth="1"/>
+    <col min="16" max="18" width="6.375" customWidth="1"/>
+    <col min="19" max="19" width="5.375" customWidth="1"/>
+    <col min="20" max="20" width="9.375" customWidth="1"/>
     <col min="21" max="21" width="1.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3848,10 +3760,10 @@
         <v>102</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>103</v>
+        <v>147</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>104</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -4380,7 +4292,7 @@
         <v>171</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C24" s="1">
         <v>4</v>
@@ -4477,7 +4389,7 @@
         <v>175</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C28" s="1">
         <v>14</v>

--- a/src/main/resources/CardStatus.xlsx
+++ b/src/main/resources/CardStatus.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229">
   <si>
     <t>出处</t>
   </si>
@@ -545,6 +545,9 @@
   </si>
   <si>
     <t>星璇</t>
+  </si>
+  <si>
+    <t>紫英仙人</t>
   </si>
   <si>
     <t>厉江流</t>
@@ -713,8 +716,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -725,30 +728,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -763,21 +776,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -785,25 +805,25 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -816,32 +836,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -878,13 +881,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -902,90 +989,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -998,37 +1001,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1052,13 +1037,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1075,23 +1078,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1107,15 +1095,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1140,6 +1119,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1177,10 +1180,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1189,133 +1192,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3685,7 +3688,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T80"/>
+  <dimension ref="A1:T81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4392,7 +4395,7 @@
         <v>131</v>
       </c>
       <c r="C28" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -4715,12 +4718,7 @@
       <c r="A42" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C42" s="1">
-        <v>10</v>
-      </c>
+      <c r="C42" s="1"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -4743,7 +4741,12 @@
       <c r="A43" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C43" s="1"/>
+      <c r="B43" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" s="1">
+        <v>10</v>
+      </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -4950,12 +4953,7 @@
       <c r="A52" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C52" s="1">
-        <v>8</v>
-      </c>
+      <c r="C52" s="1"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
@@ -4978,7 +4976,12 @@
       <c r="A53" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C53" s="1"/>
+      <c r="B53" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C53" s="1">
+        <v>8</v>
+      </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
@@ -5139,12 +5142,7 @@
       <c r="A60" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C60" s="1">
-        <v>20</v>
-      </c>
+      <c r="C60" s="1"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
@@ -5165,9 +5163,14 @@
     </row>
     <row r="61" spans="1:20">
       <c r="A61" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C61" s="1"/>
+      <c r="C61" s="1">
+        <v>20</v>
+      </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
@@ -5600,13 +5603,36 @@
       <c r="S79" s="2"/>
       <c r="T79" s="2"/>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:20">
       <c r="A80" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C80" s="1"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+      <c r="L80" s="2"/>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
+      <c r="P80" s="2"/>
+      <c r="Q80" s="2"/>
+      <c r="R80" s="2"/>
+      <c r="S80" s="2"/>
+      <c r="T80" s="2"/>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C80">
-        <f>SUM(C2:C79)</f>
-        <v>78</v>
+      <c r="C81">
+        <f>SUM(C2:C80)</f>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -5615,18 +5641,18 @@
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="B13:B23"/>
     <mergeCell ref="B24:B27"/>
-    <mergeCell ref="B28:B41"/>
-    <mergeCell ref="B42:B51"/>
-    <mergeCell ref="B52:B59"/>
-    <mergeCell ref="B60:B79"/>
+    <mergeCell ref="B28:B42"/>
+    <mergeCell ref="B43:B52"/>
+    <mergeCell ref="B53:B60"/>
+    <mergeCell ref="B61:B80"/>
     <mergeCell ref="C2:C8"/>
     <mergeCell ref="C9:C12"/>
     <mergeCell ref="C13:C23"/>
     <mergeCell ref="C24:C27"/>
-    <mergeCell ref="C28:C41"/>
-    <mergeCell ref="C42:C51"/>
-    <mergeCell ref="C52:C59"/>
-    <mergeCell ref="C60:C79"/>
+    <mergeCell ref="C28:C42"/>
+    <mergeCell ref="C43:C52"/>
+    <mergeCell ref="C53:C60"/>
+    <mergeCell ref="C61:C80"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/src/main/resources/CardStatus.xlsx
+++ b/src/main/resources/CardStatus.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230">
   <si>
     <t>出处</t>
   </si>
@@ -545,6 +545,9 @@
   </si>
   <si>
     <t>星璇</t>
+  </si>
+  <si>
+    <t>琼华菱纱</t>
   </si>
   <si>
     <t>紫英仙人</t>
@@ -714,10 +717,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -728,25 +731,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -761,43 +748,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -819,17 +770,68 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -844,7 +846,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -859,14 +869,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -887,7 +890,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -899,7 +902,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -911,19 +944,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -935,19 +986,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -959,49 +1022,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1019,49 +1052,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1072,15 +1075,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1099,26 +1093,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1141,22 +1126,31 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1172,6 +1166,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1180,10 +1183,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1192,133 +1195,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3688,10 +3691,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T81"/>
+  <dimension ref="A1:T82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
@@ -4395,7 +4398,7 @@
         <v>131</v>
       </c>
       <c r="C28" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -4415,10 +4418,11 @@
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" customFormat="1" spans="1:20">
       <c r="A29" s="1" t="s">
         <v>176</v>
       </c>
+      <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -4741,12 +4745,7 @@
       <c r="A43" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C43" s="1">
-        <v>10</v>
-      </c>
+      <c r="C43" s="1"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -4769,7 +4768,12 @@
       <c r="A44" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C44" s="1"/>
+      <c r="B44" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" s="1">
+        <v>10</v>
+      </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -4976,12 +4980,7 @@
       <c r="A53" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C53" s="1">
-        <v>8</v>
-      </c>
+      <c r="C53" s="1"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
@@ -5004,7 +5003,12 @@
       <c r="A54" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C54" s="1"/>
+      <c r="B54" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C54" s="1">
+        <v>8</v>
+      </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
@@ -5165,12 +5169,7 @@
       <c r="A61" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C61" s="1">
-        <v>20</v>
-      </c>
+      <c r="C61" s="1"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
@@ -5191,9 +5190,14 @@
     </row>
     <row r="62" spans="1:20">
       <c r="A62" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C62" s="1"/>
+      <c r="C62" s="1">
+        <v>20</v>
+      </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
@@ -5626,13 +5630,36 @@
       <c r="S80" s="2"/>
       <c r="T80" s="2"/>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:20">
       <c r="A81" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C81" s="1"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+      <c r="L81" s="2"/>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
+      <c r="P81" s="2"/>
+      <c r="Q81" s="2"/>
+      <c r="R81" s="2"/>
+      <c r="S81" s="2"/>
+      <c r="T81" s="2"/>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C81">
-        <f>SUM(C2:C80)</f>
-        <v>79</v>
+      <c r="C82">
+        <f>SUM(C2:C81)</f>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -5641,18 +5668,18 @@
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="B13:B23"/>
     <mergeCell ref="B24:B27"/>
-    <mergeCell ref="B28:B42"/>
-    <mergeCell ref="B43:B52"/>
-    <mergeCell ref="B53:B60"/>
-    <mergeCell ref="B61:B80"/>
+    <mergeCell ref="B28:B43"/>
+    <mergeCell ref="B44:B53"/>
+    <mergeCell ref="B54:B61"/>
+    <mergeCell ref="B62:B81"/>
     <mergeCell ref="C2:C8"/>
     <mergeCell ref="C9:C12"/>
     <mergeCell ref="C13:C23"/>
     <mergeCell ref="C24:C27"/>
-    <mergeCell ref="C28:C42"/>
-    <mergeCell ref="C43:C52"/>
-    <mergeCell ref="C53:C60"/>
-    <mergeCell ref="C61:C80"/>
+    <mergeCell ref="C28:C43"/>
+    <mergeCell ref="C44:C53"/>
+    <mergeCell ref="C54:C61"/>
+    <mergeCell ref="C62:C81"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/src/main/resources/CardStatus.xlsx
+++ b/src/main/resources/CardStatus.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231">
   <si>
     <t>出处</t>
   </si>
@@ -545,6 +545,9 @@
   </si>
   <si>
     <t>星璇</t>
+  </si>
+  <si>
+    <t>飞仙玄霄</t>
   </si>
   <si>
     <t>琼华菱纱</t>
@@ -717,9 +720,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -731,9 +734,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -748,7 +765,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -762,53 +779,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -823,7 +796,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -837,11 +848,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -853,25 +863,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -884,7 +887,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -896,25 +899,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -926,13 +917,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -944,31 +935,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -980,31 +953,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1028,13 +989,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1046,25 +1037,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1078,17 +1081,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1108,17 +1120,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1128,15 +1134,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1156,6 +1153,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1163,15 +1175,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1183,10 +1186,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1195,133 +1198,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3691,10 +3694,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T82"/>
+  <dimension ref="A1:T83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
@@ -4398,7 +4401,7 @@
         <v>131</v>
       </c>
       <c r="C28" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -4442,10 +4445,11 @@
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" customFormat="1" spans="1:20">
       <c r="A30" s="1" t="s">
         <v>177</v>
       </c>
+      <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -4768,12 +4772,7 @@
       <c r="A44" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C44" s="1">
-        <v>10</v>
-      </c>
+      <c r="C44" s="1"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -4796,7 +4795,12 @@
       <c r="A45" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C45" s="1"/>
+      <c r="B45" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" s="1">
+        <v>10</v>
+      </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -5003,12 +5007,7 @@
       <c r="A54" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C54" s="1">
-        <v>8</v>
-      </c>
+      <c r="C54" s="1"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
@@ -5031,7 +5030,12 @@
       <c r="A55" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C55" s="1"/>
+      <c r="B55" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C55" s="1">
+        <v>8</v>
+      </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
@@ -5192,12 +5196,7 @@
       <c r="A62" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C62" s="1">
-        <v>20</v>
-      </c>
+      <c r="C62" s="1"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
@@ -5218,9 +5217,14 @@
     </row>
     <row r="63" spans="1:20">
       <c r="A63" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C63" s="1"/>
+      <c r="C63" s="1">
+        <v>20</v>
+      </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
@@ -5653,13 +5657,36 @@
       <c r="S81" s="2"/>
       <c r="T81" s="2"/>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:20">
       <c r="A82" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C82" s="1"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
+      <c r="L82" s="2"/>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
+      <c r="P82" s="2"/>
+      <c r="Q82" s="2"/>
+      <c r="R82" s="2"/>
+      <c r="S82" s="2"/>
+      <c r="T82" s="2"/>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C82">
-        <f>SUM(C2:C81)</f>
-        <v>80</v>
+      <c r="C83">
+        <f>SUM(C2:C82)</f>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -5668,18 +5695,18 @@
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="B13:B23"/>
     <mergeCell ref="B24:B27"/>
-    <mergeCell ref="B28:B43"/>
-    <mergeCell ref="B44:B53"/>
-    <mergeCell ref="B54:B61"/>
-    <mergeCell ref="B62:B81"/>
+    <mergeCell ref="B28:B44"/>
+    <mergeCell ref="B45:B54"/>
+    <mergeCell ref="B55:B62"/>
+    <mergeCell ref="B63:B82"/>
     <mergeCell ref="C2:C8"/>
     <mergeCell ref="C9:C12"/>
     <mergeCell ref="C13:C23"/>
     <mergeCell ref="C24:C27"/>
-    <mergeCell ref="C28:C43"/>
-    <mergeCell ref="C44:C53"/>
-    <mergeCell ref="C54:C61"/>
-    <mergeCell ref="C62:C81"/>
+    <mergeCell ref="C28:C44"/>
+    <mergeCell ref="C45:C54"/>
+    <mergeCell ref="C55:C62"/>
+    <mergeCell ref="C63:C82"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/src/main/resources/CardStatus.xlsx
+++ b/src/main/resources/CardStatus.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232">
   <si>
     <t>出处</t>
   </si>
@@ -551,6 +551,9 @@
   </si>
   <si>
     <t>琼华菱纱</t>
+  </si>
+  <si>
+    <t>琼华天河</t>
   </si>
   <si>
     <t>紫英仙人</t>
@@ -721,9 +724,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -735,24 +738,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -771,46 +789,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -824,9 +821,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -842,14 +861,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -862,19 +874,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -887,19 +890,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -917,7 +920,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -929,25 +962,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -959,7 +980,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -977,7 +998,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -989,25 +1034,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1019,55 +1064,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1078,15 +1081,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1101,6 +1095,65 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1123,58 +1176,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1186,10 +1189,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1198,133 +1201,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3694,7 +3697,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T83"/>
+  <dimension ref="A1:T84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4401,7 +4404,7 @@
         <v>131</v>
       </c>
       <c r="C28" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -4469,10 +4472,11 @@
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" customFormat="1" spans="1:20">
       <c r="A31" s="1" t="s">
         <v>178</v>
       </c>
+      <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -4795,12 +4799,7 @@
       <c r="A45" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C45" s="1">
-        <v>10</v>
-      </c>
+      <c r="C45" s="1"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -4823,7 +4822,12 @@
       <c r="A46" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C46" s="1"/>
+      <c r="B46" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46" s="1">
+        <v>10</v>
+      </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -5030,12 +5034,7 @@
       <c r="A55" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C55" s="1">
-        <v>8</v>
-      </c>
+      <c r="C55" s="1"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
@@ -5058,7 +5057,12 @@
       <c r="A56" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C56" s="1"/>
+      <c r="B56" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C56" s="1">
+        <v>8</v>
+      </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
@@ -5219,12 +5223,7 @@
       <c r="A63" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C63" s="1">
-        <v>20</v>
-      </c>
+      <c r="C63" s="1"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
@@ -5245,9 +5244,14 @@
     </row>
     <row r="64" spans="1:20">
       <c r="A64" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C64" s="1"/>
+      <c r="C64" s="1">
+        <v>20</v>
+      </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
@@ -5680,13 +5684,36 @@
       <c r="S82" s="2"/>
       <c r="T82" s="2"/>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:20">
       <c r="A83" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C83" s="1"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
+      <c r="K83" s="2"/>
+      <c r="L83" s="2"/>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
+      <c r="P83" s="2"/>
+      <c r="Q83" s="2"/>
+      <c r="R83" s="2"/>
+      <c r="S83" s="2"/>
+      <c r="T83" s="2"/>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C83">
-        <f>SUM(C2:C82)</f>
-        <v>81</v>
+      <c r="C84">
+        <f>SUM(C2:C83)</f>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -5695,18 +5722,18 @@
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="B13:B23"/>
     <mergeCell ref="B24:B27"/>
-    <mergeCell ref="B28:B44"/>
-    <mergeCell ref="B45:B54"/>
-    <mergeCell ref="B55:B62"/>
-    <mergeCell ref="B63:B82"/>
+    <mergeCell ref="B28:B45"/>
+    <mergeCell ref="B46:B55"/>
+    <mergeCell ref="B56:B63"/>
+    <mergeCell ref="B64:B83"/>
     <mergeCell ref="C2:C8"/>
     <mergeCell ref="C9:C12"/>
     <mergeCell ref="C13:C23"/>
     <mergeCell ref="C24:C27"/>
-    <mergeCell ref="C28:C44"/>
-    <mergeCell ref="C45:C54"/>
-    <mergeCell ref="C55:C62"/>
-    <mergeCell ref="C63:C82"/>
+    <mergeCell ref="C28:C45"/>
+    <mergeCell ref="C46:C55"/>
+    <mergeCell ref="C56:C63"/>
+    <mergeCell ref="C64:C83"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/src/main/resources/CardStatus.xlsx
+++ b/src/main/resources/CardStatus.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234">
   <si>
     <t>出处</t>
   </si>
@@ -467,6 +467,12 @@
   </si>
   <si>
     <t>云裳部件</t>
+  </si>
+  <si>
+    <t>云裳点化</t>
+  </si>
+  <si>
+    <t>云裳点化副</t>
   </si>
   <si>
     <t>南蛮王</t>
@@ -725,8 +731,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -737,8 +743,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -751,9 +782,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -767,15 +797,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -783,69 +805,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -861,7 +821,53 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -890,25 +896,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -920,19 +914,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -950,7 +944,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -962,7 +980,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -974,37 +1016,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1016,43 +1058,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1064,13 +1076,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1099,6 +1105,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1110,6 +1145,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1132,50 +1182,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1189,10 +1195,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1201,133 +1207,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1410,7 +1416,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1660,19 +1666,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="5.375" customWidth="1"/>
     <col min="3" max="3" width="5.375" style="2" customWidth="1"/>
     <col min="4" max="4" width="5.375" customWidth="1"/>
-    <col min="5" max="5" width="1.625" customWidth="1"/>
+    <col min="5" max="5" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="2:4">
@@ -1686,7 +1692,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:4">
+    <row r="2" s="1" customFormat="1" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1697,36 +1703,51 @@
         <v>5</v>
       </c>
       <c r="D2" s="2"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:4">
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:4">
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:4">
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:4">
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1737,27 +1758,39 @@
         <v>4</v>
       </c>
       <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="1"/>
       <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="1"/>
       <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="1"/>
       <c r="D10" s="2"/>
+      <c r="E10" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
@@ -1783,16 +1816,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="4" width="5.375" customWidth="1"/>
-    <col min="5" max="5" width="1.625" customWidth="1"/>
+    <col min="5" max="5" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="2:4">
@@ -1806,7 +1839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -1817,40 +1850,55 @@
         <v>5</v>
       </c>
       <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -1861,24 +1909,33 @@
         <v>3</v>
       </c>
       <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -1889,14 +1946,20 @@
         <v>2</v>
       </c>
       <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
+      <c r="E11" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
@@ -1924,16 +1987,16 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="5" width="5.375" customWidth="1"/>
-    <col min="6" max="6" width="1.625" customWidth="1"/>
+    <col min="6" max="6" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="2:5">
@@ -1950,7 +2013,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -1962,8 +2025,11 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -1971,8 +2037,11 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -1980,8 +2049,11 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
@@ -1989,8 +2061,11 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
@@ -1998,8 +2073,11 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
@@ -2007,8 +2085,11 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>33</v>
       </c>
@@ -2016,8 +2097,11 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
@@ -2025,8 +2109,11 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
@@ -2034,8 +2121,11 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>36</v>
       </c>
@@ -2043,8 +2133,11 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>37</v>
       </c>
@@ -2052,8 +2145,11 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>38</v>
       </c>
@@ -2061,8 +2157,11 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>39</v>
       </c>
@@ -2070,8 +2169,11 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
         <v>40</v>
       </c>
@@ -2079,8 +2181,11 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
         <v>41</v>
       </c>
@@ -2092,8 +2197,11 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
         <v>43</v>
       </c>
@@ -2105,8 +2213,11 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
         <v>44</v>
       </c>
@@ -2114,8 +2225,11 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
         <v>45</v>
       </c>
@@ -2123,8 +2237,11 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>46</v>
       </c>
@@ -2132,8 +2249,11 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
         <v>47</v>
       </c>
@@ -2141,8 +2261,11 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
         <v>48</v>
       </c>
@@ -2150,8 +2273,11 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
         <v>49</v>
       </c>
@@ -2159,8 +2285,11 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
         <v>50</v>
       </c>
@@ -2172,8 +2301,11 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
         <v>51</v>
       </c>
@@ -2181,8 +2313,11 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
         <v>52</v>
       </c>
@@ -2190,6 +2325,9 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
+      <c r="F26" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
@@ -2217,16 +2355,16 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="5" width="5.375" customWidth="1"/>
-    <col min="6" max="6" width="1.625" customWidth="1"/>
+    <col min="6" max="6" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="2:5">
@@ -2243,7 +2381,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>53</v>
       </c>
@@ -2255,8 +2393,11 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>54</v>
       </c>
@@ -2264,8 +2405,11 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>55</v>
       </c>
@@ -2273,8 +2417,11 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>56</v>
       </c>
@@ -2282,8 +2429,11 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>57</v>
       </c>
@@ -2291,8 +2441,11 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>58</v>
       </c>
@@ -2300,8 +2453,11 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>59</v>
       </c>
@@ -2309,8 +2465,11 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>60</v>
       </c>
@@ -2318,8 +2477,11 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2489,11 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>62</v>
       </c>
@@ -2336,8 +2501,11 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>63</v>
       </c>
@@ -2345,8 +2513,11 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>64</v>
       </c>
@@ -2354,8 +2525,11 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>65</v>
       </c>
@@ -2367,8 +2541,11 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
         <v>66</v>
       </c>
@@ -2376,8 +2553,11 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
         <v>67</v>
       </c>
@@ -2385,8 +2565,11 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
         <v>68</v>
       </c>
@@ -2398,8 +2581,11 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
         <v>69</v>
       </c>
@@ -2407,8 +2593,11 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
         <v>70</v>
       </c>
@@ -2420,8 +2609,11 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>72</v>
       </c>
@@ -2429,8 +2621,11 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
         <v>73</v>
       </c>
@@ -2438,6 +2633,9 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
+      <c r="F21" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
@@ -2467,16 +2665,16 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="5" width="5.375" customWidth="1"/>
-    <col min="6" max="6" width="1.625" customWidth="1"/>
+    <col min="6" max="6" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="2:5">
@@ -2493,7 +2691,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>74</v>
       </c>
@@ -2505,8 +2703,11 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>75</v>
       </c>
@@ -2514,8 +2715,11 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>76</v>
       </c>
@@ -2523,8 +2727,11 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>77</v>
       </c>
@@ -2532,8 +2739,11 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>78</v>
       </c>
@@ -2541,8 +2751,11 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>79</v>
       </c>
@@ -2550,8 +2763,11 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>80</v>
       </c>
@@ -2559,8 +2775,11 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>81</v>
       </c>
@@ -2568,8 +2787,11 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>82</v>
       </c>
@@ -2577,8 +2799,11 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>83</v>
       </c>
@@ -2586,8 +2811,11 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>84</v>
       </c>
@@ -2595,8 +2823,11 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>85</v>
       </c>
@@ -2608,8 +2839,11 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>86</v>
       </c>
@@ -2617,8 +2851,11 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
         <v>87</v>
       </c>
@@ -2626,8 +2863,11 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
         <v>88</v>
       </c>
@@ -2635,8 +2875,11 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
         <v>89</v>
       </c>
@@ -2648,6 +2891,9 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
+      <c r="F17" s="1" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
@@ -2673,7 +2919,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R44"/>
+  <dimension ref="A1:S44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2690,7 +2936,7 @@
     <col min="9" max="12" width="7.375" style="1" customWidth="1"/>
     <col min="13" max="15" width="6.375" style="1" customWidth="1"/>
     <col min="16" max="18" width="6.375" customWidth="1"/>
-    <col min="19" max="19" width="1.625" customWidth="1"/>
+    <col min="19" max="19" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="2:18">
@@ -2746,7 +2992,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
         <v>103</v>
       </c>
@@ -2771,8 +3017,11 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="S2" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1" t="s">
         <v>104</v>
       </c>
@@ -2792,8 +3041,11 @@
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="S3" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1" t="s">
         <v>105</v>
       </c>
@@ -2813,8 +3065,11 @@
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="S4" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1" t="s">
         <v>106</v>
       </c>
@@ -2834,8 +3089,11 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="S5" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1" t="s">
         <v>107</v>
       </c>
@@ -2855,8 +3113,11 @@
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="S6" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1" t="s">
         <v>108</v>
       </c>
@@ -2876,8 +3137,11 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="S7" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1" t="s">
         <v>109</v>
       </c>
@@ -2897,8 +3161,11 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="S8" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1" t="s">
         <v>110</v>
       </c>
@@ -2918,8 +3185,11 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="S9" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1" t="s">
         <v>111</v>
       </c>
@@ -2944,8 +3214,11 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="S10" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1" t="s">
         <v>112</v>
       </c>
@@ -2965,8 +3238,11 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="S11" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1" t="s">
         <v>113</v>
       </c>
@@ -2986,8 +3262,11 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="S12" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1" t="s">
         <v>114</v>
       </c>
@@ -3007,8 +3286,11 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="S13" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1" t="s">
         <v>115</v>
       </c>
@@ -3028,8 +3310,11 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="S14" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1" t="s">
         <v>116</v>
       </c>
@@ -3049,8 +3334,11 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
-    </row>
-    <row r="16" spans="1:18">
+      <c r="S15" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1" t="s">
         <v>117</v>
       </c>
@@ -3075,8 +3363,11 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
-    </row>
-    <row r="17" spans="1:18">
+      <c r="S16" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1" t="s">
         <v>118</v>
       </c>
@@ -3096,8 +3387,11 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
-    </row>
-    <row r="18" spans="1:18">
+      <c r="S17" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1" t="s">
         <v>119</v>
       </c>
@@ -3117,8 +3411,11 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
-    </row>
-    <row r="19" spans="1:18">
+      <c r="S18" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1" t="s">
         <v>120</v>
       </c>
@@ -3138,8 +3435,11 @@
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
-    </row>
-    <row r="20" spans="1:18">
+      <c r="S19" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1" t="s">
         <v>121</v>
       </c>
@@ -3159,8 +3459,11 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
-    </row>
-    <row r="21" spans="1:18">
+      <c r="S20" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1" t="s">
         <v>122</v>
       </c>
@@ -3180,8 +3483,11 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
-    </row>
-    <row r="22" spans="1:18">
+      <c r="S21" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1" t="s">
         <v>123</v>
       </c>
@@ -3201,8 +3507,11 @@
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
-    </row>
-    <row r="23" spans="1:18">
+      <c r="S22" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1" t="s">
         <v>124</v>
       </c>
@@ -3222,8 +3531,11 @@
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
-    </row>
-    <row r="24" spans="1:18">
+      <c r="S23" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1" t="s">
         <v>125</v>
       </c>
@@ -3248,8 +3560,11 @@
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
-    </row>
-    <row r="25" spans="1:18">
+      <c r="S24" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1" t="s">
         <v>127</v>
       </c>
@@ -3269,8 +3584,11 @@
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
-    </row>
-    <row r="26" spans="1:18">
+      <c r="S25" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26" s="1" t="s">
         <v>128</v>
       </c>
@@ -3290,8 +3608,11 @@
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
-    </row>
-    <row r="27" spans="1:18">
+      <c r="S26" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
       <c r="A27" s="1" t="s">
         <v>129</v>
       </c>
@@ -3311,8 +3632,11 @@
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
-    </row>
-    <row r="28" spans="1:18">
+      <c r="S27" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
       <c r="A28" s="1" t="s">
         <v>130</v>
       </c>
@@ -3337,8 +3661,11 @@
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
-    </row>
-    <row r="29" spans="1:18">
+      <c r="S28" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29" s="1" t="s">
         <v>132</v>
       </c>
@@ -3358,8 +3685,11 @@
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
-    </row>
-    <row r="30" spans="1:18">
+      <c r="S29" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
       <c r="A30" s="1" t="s">
         <v>133</v>
       </c>
@@ -3379,8 +3709,11 @@
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
-    </row>
-    <row r="31" spans="1:18">
+      <c r="S30" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
       <c r="A31" s="1" t="s">
         <v>134</v>
       </c>
@@ -3400,8 +3733,11 @@
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
-    </row>
-    <row r="32" spans="1:18">
+      <c r="S31" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
       <c r="A32" s="1" t="s">
         <v>135</v>
       </c>
@@ -3421,8 +3757,11 @@
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
-    </row>
-    <row r="33" spans="1:18">
+      <c r="S32" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
       <c r="A33" s="1" t="s">
         <v>136</v>
       </c>
@@ -3442,8 +3781,11 @@
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
-    </row>
-    <row r="34" spans="1:18">
+      <c r="S33" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19">
       <c r="A34" s="1" t="s">
         <v>137</v>
       </c>
@@ -3468,8 +3810,11 @@
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
-    </row>
-    <row r="35" spans="1:18">
+      <c r="S34" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19">
       <c r="A35" s="1" t="s">
         <v>138</v>
       </c>
@@ -3489,8 +3834,11 @@
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
-    </row>
-    <row r="36" spans="1:18">
+      <c r="S35" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19">
       <c r="A36" s="1" t="s">
         <v>139</v>
       </c>
@@ -3515,8 +3863,11 @@
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
-    </row>
-    <row r="37" spans="1:18">
+      <c r="S36" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19">
       <c r="A37" s="1" t="s">
         <v>140</v>
       </c>
@@ -3536,8 +3887,11 @@
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
-    </row>
-    <row r="38" spans="1:18">
+      <c r="S37" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19">
       <c r="A38" s="1" t="s">
         <v>141</v>
       </c>
@@ -3557,8 +3911,11 @@
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
-    </row>
-    <row r="39" spans="1:18">
+      <c r="S38" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19">
       <c r="A39" s="1" t="s">
         <v>142</v>
       </c>
@@ -3578,8 +3935,11 @@
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
-    </row>
-    <row r="40" spans="1:18">
+      <c r="S39" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19">
       <c r="A40" s="1" t="s">
         <v>143</v>
       </c>
@@ -3599,8 +3959,11 @@
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
-    </row>
-    <row r="41" spans="1:18">
+      <c r="S40" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19">
       <c r="A41" s="1" t="s">
         <v>144</v>
       </c>
@@ -3620,8 +3983,11 @@
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
-    </row>
-    <row r="42" spans="1:18">
+      <c r="S41" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19">
       <c r="A42" s="1" t="s">
         <v>145</v>
       </c>
@@ -3641,8 +4007,11 @@
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
-    </row>
-    <row r="43" spans="1:18">
+      <c r="S42" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19">
       <c r="A43" s="1" t="s">
         <v>146</v>
       </c>
@@ -3662,6 +4031,9 @@
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
+      <c r="S43" s="1" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
@@ -3697,7 +4069,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T84"/>
+  <dimension ref="A1:W84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3715,11 +4087,12 @@
     <col min="13" max="15" width="6.375" style="1" customWidth="1"/>
     <col min="16" max="18" width="6.375" customWidth="1"/>
     <col min="19" max="19" width="5.375" customWidth="1"/>
-    <col min="20" max="20" width="9.375" customWidth="1"/>
-    <col min="21" max="21" width="1.625" customWidth="1"/>
+    <col min="20" max="21" width="9.375" customWidth="1"/>
+    <col min="22" max="22" width="11.5" customWidth="1"/>
+    <col min="23" max="23" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="2:20">
+    <row r="1" s="1" customFormat="1" spans="2:22">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3777,10 +4150,16 @@
       <c r="T1" s="1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="U1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -3805,10 +4184,13 @@
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
-    </row>
-    <row r="3" spans="1:20">
+      <c r="W2" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
@@ -3828,10 +4210,13 @@
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
-    </row>
-    <row r="4" spans="1:20">
+      <c r="W3" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="2"/>
@@ -3851,10 +4236,13 @@
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
-    </row>
-    <row r="5" spans="1:20">
+      <c r="W4" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="2"/>
@@ -3874,10 +4262,13 @@
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
-    </row>
-    <row r="6" spans="1:20">
+      <c r="W5" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="2"/>
@@ -3897,10 +4288,13 @@
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
-    </row>
-    <row r="7" spans="1:20">
+      <c r="W6" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="2"/>
@@ -3920,10 +4314,13 @@
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
-    </row>
-    <row r="8" spans="1:20">
+      <c r="W7" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="2"/>
@@ -3943,10 +4340,13 @@
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
-    </row>
-    <row r="9" spans="1:20">
+      <c r="W8" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>42</v>
@@ -3971,10 +4371,13 @@
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
-    </row>
-    <row r="10" spans="1:20">
+      <c r="W9" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="2"/>
@@ -3994,10 +4397,13 @@
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
-    </row>
-    <row r="11" spans="1:20">
+      <c r="W10" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="2"/>
@@ -4017,10 +4423,13 @@
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
-    </row>
-    <row r="12" spans="1:20">
+      <c r="W11" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="2"/>
@@ -4040,10 +4449,13 @@
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
-    </row>
-    <row r="13" spans="1:20">
+      <c r="W12" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>10</v>
@@ -4068,10 +4480,13 @@
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
-    </row>
-    <row r="14" spans="1:20">
+      <c r="W13" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="2"/>
@@ -4091,10 +4506,13 @@
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
-    </row>
-    <row r="15" spans="1:20">
+      <c r="W14" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="2"/>
@@ -4114,10 +4532,13 @@
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
-    </row>
-    <row r="16" spans="1:20">
+      <c r="W15" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="2"/>
@@ -4137,10 +4558,13 @@
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
-    </row>
-    <row r="17" spans="1:20">
+      <c r="W16" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="2"/>
@@ -4160,10 +4584,13 @@
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
-    </row>
-    <row r="18" spans="1:20">
+      <c r="W17" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="2"/>
@@ -4183,10 +4610,13 @@
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
-    </row>
-    <row r="19" spans="1:20">
+      <c r="W18" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="2"/>
@@ -4206,10 +4636,13 @@
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
-    </row>
-    <row r="20" spans="1:20">
+      <c r="W19" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="2"/>
@@ -4229,10 +4662,13 @@
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
-    </row>
-    <row r="21" spans="1:20">
+      <c r="W20" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="2"/>
@@ -4252,10 +4688,13 @@
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
-    </row>
-    <row r="22" spans="1:20">
+      <c r="W21" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
       <c r="A22" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="2"/>
@@ -4275,10 +4714,13 @@
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
-    </row>
-    <row r="23" spans="1:20">
+      <c r="W22" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
       <c r="A23" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="2"/>
@@ -4298,10 +4740,13 @@
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
-    </row>
-    <row r="24" spans="1:20">
+      <c r="W23" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
       <c r="A24" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>126</v>
@@ -4326,10 +4771,13 @@
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
-    </row>
-    <row r="25" spans="1:20">
+      <c r="W24" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
       <c r="A25" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="2"/>
@@ -4349,10 +4797,13 @@
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
-    </row>
-    <row r="26" spans="1:20">
+      <c r="W25" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
       <c r="A26" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="2"/>
@@ -4372,10 +4823,13 @@
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
-    </row>
-    <row r="27" spans="1:20">
+      <c r="W26" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
       <c r="A27" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
@@ -4395,10 +4849,13 @@
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
-    </row>
-    <row r="28" spans="1:20">
+      <c r="W27" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
       <c r="A28" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>131</v>
@@ -4423,10 +4880,13 @@
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
-    </row>
-    <row r="29" customFormat="1" spans="1:20">
+      <c r="W28" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="29" customFormat="1" spans="1:23">
       <c r="A29" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -4447,10 +4907,13 @@
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
-    </row>
-    <row r="30" customFormat="1" spans="1:20">
+      <c r="W29" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1" spans="1:23">
       <c r="A30" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -4471,10 +4934,13 @@
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
-    </row>
-    <row r="31" customFormat="1" spans="1:20">
+      <c r="W30" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" spans="1:23">
       <c r="A31" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -4495,10 +4961,13 @@
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
-    </row>
-    <row r="32" spans="1:20">
+      <c r="W31" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
       <c r="A32" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="2"/>
@@ -4518,10 +4987,13 @@
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
-    </row>
-    <row r="33" spans="1:20">
+      <c r="W32" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
       <c r="A33" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="2"/>
@@ -4541,10 +5013,13 @@
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
-    </row>
-    <row r="34" spans="1:20">
+      <c r="W33" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
       <c r="A34" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="2"/>
@@ -4564,10 +5039,13 @@
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
-    </row>
-    <row r="35" spans="1:20">
+      <c r="W34" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
       <c r="A35" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="2"/>
@@ -4587,10 +5065,13 @@
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
-    </row>
-    <row r="36" spans="1:20">
+      <c r="W35" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
       <c r="A36" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="2"/>
@@ -4610,10 +5091,13 @@
       <c r="R36" s="2"/>
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
-    </row>
-    <row r="37" spans="1:20">
+      <c r="W36" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
       <c r="A37" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="2"/>
@@ -4633,10 +5117,13 @@
       <c r="R37" s="2"/>
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
-    </row>
-    <row r="38" spans="1:20">
+      <c r="W37" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
       <c r="A38" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="2"/>
@@ -4656,10 +5143,13 @@
       <c r="R38" s="2"/>
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
-    </row>
-    <row r="39" spans="1:20">
+      <c r="W38" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
       <c r="A39" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="2"/>
@@ -4679,10 +5169,13 @@
       <c r="R39" s="2"/>
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
-    </row>
-    <row r="40" spans="1:20">
+      <c r="W39" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
       <c r="A40" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="2"/>
@@ -4702,10 +5195,13 @@
       <c r="R40" s="2"/>
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
-    </row>
-    <row r="41" spans="1:20">
+      <c r="W40" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
       <c r="A41" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="2"/>
@@ -4725,10 +5221,13 @@
       <c r="R41" s="2"/>
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
-    </row>
-    <row r="42" spans="1:20">
+      <c r="W41" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
       <c r="A42" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="2"/>
@@ -4748,10 +5247,13 @@
       <c r="R42" s="2"/>
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
-    </row>
-    <row r="43" spans="1:20">
+      <c r="W42" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23">
       <c r="A43" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="2"/>
@@ -4771,10 +5273,13 @@
       <c r="R43" s="2"/>
       <c r="S43" s="2"/>
       <c r="T43" s="2"/>
-    </row>
-    <row r="44" spans="1:20">
+      <c r="W43" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23">
       <c r="A44" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="2"/>
@@ -4794,10 +5299,13 @@
       <c r="R44" s="2"/>
       <c r="S44" s="2"/>
       <c r="T44" s="2"/>
-    </row>
-    <row r="45" spans="1:20">
+      <c r="W44" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23">
       <c r="A45" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="2"/>
@@ -4817,10 +5325,13 @@
       <c r="R45" s="2"/>
       <c r="S45" s="2"/>
       <c r="T45" s="2"/>
-    </row>
-    <row r="46" spans="1:20">
+      <c r="W45" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23">
       <c r="A46" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>24</v>
@@ -4845,10 +5356,13 @@
       <c r="R46" s="2"/>
       <c r="S46" s="2"/>
       <c r="T46" s="2"/>
-    </row>
-    <row r="47" spans="1:20">
+      <c r="W46" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23">
       <c r="A47" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="2"/>
@@ -4868,10 +5382,13 @@
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
       <c r="T47" s="2"/>
-    </row>
-    <row r="48" spans="1:20">
+      <c r="W47" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23">
       <c r="A48" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="2"/>
@@ -4891,10 +5408,13 @@
       <c r="R48" s="2"/>
       <c r="S48" s="2"/>
       <c r="T48" s="2"/>
-    </row>
-    <row r="49" spans="1:20">
+      <c r="W48" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23">
       <c r="A49" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="2"/>
@@ -4914,10 +5434,13 @@
       <c r="R49" s="2"/>
       <c r="S49" s="2"/>
       <c r="T49" s="2"/>
-    </row>
-    <row r="50" spans="1:20">
+      <c r="W49" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23">
       <c r="A50" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="2"/>
@@ -4937,10 +5460,13 @@
       <c r="R50" s="2"/>
       <c r="S50" s="2"/>
       <c r="T50" s="2"/>
-    </row>
-    <row r="51" spans="1:20">
+      <c r="W50" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23">
       <c r="A51" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="2"/>
@@ -4960,10 +5486,13 @@
       <c r="R51" s="2"/>
       <c r="S51" s="2"/>
       <c r="T51" s="2"/>
-    </row>
-    <row r="52" spans="1:20">
+      <c r="W51" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23">
       <c r="A52" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="2"/>
@@ -4983,10 +5512,13 @@
       <c r="R52" s="2"/>
       <c r="S52" s="2"/>
       <c r="T52" s="2"/>
-    </row>
-    <row r="53" spans="1:20">
+      <c r="W52" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23">
       <c r="A53" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="2"/>
@@ -5006,10 +5538,13 @@
       <c r="R53" s="2"/>
       <c r="S53" s="2"/>
       <c r="T53" s="2"/>
-    </row>
-    <row r="54" spans="1:20">
+      <c r="W53" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23">
       <c r="A54" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="2"/>
@@ -5029,10 +5564,13 @@
       <c r="R54" s="2"/>
       <c r="S54" s="2"/>
       <c r="T54" s="2"/>
-    </row>
-    <row r="55" spans="1:20">
+      <c r="W54" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23">
       <c r="A55" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="2"/>
@@ -5052,10 +5590,13 @@
       <c r="R55" s="2"/>
       <c r="S55" s="2"/>
       <c r="T55" s="2"/>
-    </row>
-    <row r="56" spans="1:20">
+      <c r="W55" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23">
       <c r="A56" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>71</v>
@@ -5080,10 +5621,13 @@
       <c r="R56" s="2"/>
       <c r="S56" s="2"/>
       <c r="T56" s="2"/>
-    </row>
-    <row r="57" spans="1:20">
+      <c r="W56" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23">
       <c r="A57" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="2"/>
@@ -5103,10 +5647,13 @@
       <c r="R57" s="2"/>
       <c r="S57" s="2"/>
       <c r="T57" s="2"/>
-    </row>
-    <row r="58" spans="1:20">
+      <c r="W57" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23">
       <c r="A58" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="2"/>
@@ -5126,10 +5673,13 @@
       <c r="R58" s="2"/>
       <c r="S58" s="2"/>
       <c r="T58" s="2"/>
-    </row>
-    <row r="59" spans="1:20">
+      <c r="W58" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23">
       <c r="A59" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="2"/>
@@ -5149,10 +5699,13 @@
       <c r="R59" s="2"/>
       <c r="S59" s="2"/>
       <c r="T59" s="2"/>
-    </row>
-    <row r="60" spans="1:20">
+      <c r="W59" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23">
       <c r="A60" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="2"/>
@@ -5172,10 +5725,13 @@
       <c r="R60" s="2"/>
       <c r="S60" s="2"/>
       <c r="T60" s="2"/>
-    </row>
-    <row r="61" spans="1:20">
+      <c r="W60" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23">
       <c r="A61" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="2"/>
@@ -5195,10 +5751,13 @@
       <c r="R61" s="2"/>
       <c r="S61" s="2"/>
       <c r="T61" s="2"/>
-    </row>
-    <row r="62" spans="1:20">
+      <c r="W61" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23">
       <c r="A62" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="2"/>
@@ -5218,10 +5777,13 @@
       <c r="R62" s="2"/>
       <c r="S62" s="2"/>
       <c r="T62" s="2"/>
-    </row>
-    <row r="63" spans="1:20">
+      <c r="W62" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23">
       <c r="A63" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="2"/>
@@ -5241,13 +5803,16 @@
       <c r="R63" s="2"/>
       <c r="S63" s="2"/>
       <c r="T63" s="2"/>
-    </row>
-    <row r="64" spans="1:20">
+      <c r="W63" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23">
       <c r="A64" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C64" s="1">
         <v>20</v>
@@ -5269,10 +5834,13 @@
       <c r="R64" s="2"/>
       <c r="S64" s="2"/>
       <c r="T64" s="2"/>
-    </row>
-    <row r="65" spans="1:20">
+      <c r="W64" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23">
       <c r="A65" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="2"/>
@@ -5292,10 +5860,13 @@
       <c r="R65" s="2"/>
       <c r="S65" s="2"/>
       <c r="T65" s="2"/>
-    </row>
-    <row r="66" spans="1:20">
+      <c r="W65" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23">
       <c r="A66" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="2"/>
@@ -5315,10 +5886,13 @@
       <c r="R66" s="2"/>
       <c r="S66" s="2"/>
       <c r="T66" s="2"/>
-    </row>
-    <row r="67" spans="1:20">
+      <c r="W66" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23">
       <c r="A67" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="2"/>
@@ -5338,10 +5912,13 @@
       <c r="R67" s="2"/>
       <c r="S67" s="2"/>
       <c r="T67" s="2"/>
-    </row>
-    <row r="68" spans="1:20">
+      <c r="W67" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23">
       <c r="A68" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="2"/>
@@ -5361,10 +5938,13 @@
       <c r="R68" s="2"/>
       <c r="S68" s="2"/>
       <c r="T68" s="2"/>
-    </row>
-    <row r="69" spans="1:20">
+      <c r="W68" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23">
       <c r="A69" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="2"/>
@@ -5384,10 +5964,13 @@
       <c r="R69" s="2"/>
       <c r="S69" s="2"/>
       <c r="T69" s="2"/>
-    </row>
-    <row r="70" spans="1:20">
+      <c r="W69" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23">
       <c r="A70" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="2"/>
@@ -5407,10 +5990,13 @@
       <c r="R70" s="2"/>
       <c r="S70" s="2"/>
       <c r="T70" s="2"/>
-    </row>
-    <row r="71" spans="1:20">
+      <c r="W70" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23">
       <c r="A71" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="2"/>
@@ -5430,10 +6016,13 @@
       <c r="R71" s="2"/>
       <c r="S71" s="2"/>
       <c r="T71" s="2"/>
-    </row>
-    <row r="72" spans="1:20">
+      <c r="W71" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23">
       <c r="A72" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="2"/>
@@ -5453,10 +6042,13 @@
       <c r="R72" s="2"/>
       <c r="S72" s="2"/>
       <c r="T72" s="2"/>
-    </row>
-    <row r="73" spans="1:20">
+      <c r="W72" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23">
       <c r="A73" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="2"/>
@@ -5476,10 +6068,13 @@
       <c r="R73" s="2"/>
       <c r="S73" s="2"/>
       <c r="T73" s="2"/>
-    </row>
-    <row r="74" spans="1:20">
+      <c r="W73" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23">
       <c r="A74" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="2"/>
@@ -5499,10 +6094,13 @@
       <c r="R74" s="2"/>
       <c r="S74" s="2"/>
       <c r="T74" s="2"/>
-    </row>
-    <row r="75" spans="1:20">
+      <c r="W74" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23">
       <c r="A75" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="2"/>
@@ -5522,10 +6120,13 @@
       <c r="R75" s="2"/>
       <c r="S75" s="2"/>
       <c r="T75" s="2"/>
-    </row>
-    <row r="76" spans="1:20">
+      <c r="W75" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23">
       <c r="A76" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="2"/>
@@ -5545,10 +6146,13 @@
       <c r="R76" s="2"/>
       <c r="S76" s="2"/>
       <c r="T76" s="2"/>
-    </row>
-    <row r="77" spans="1:20">
+      <c r="W76" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23">
       <c r="A77" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="2"/>
@@ -5568,10 +6172,13 @@
       <c r="R77" s="2"/>
       <c r="S77" s="2"/>
       <c r="T77" s="2"/>
-    </row>
-    <row r="78" spans="1:20">
+      <c r="W77" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23">
       <c r="A78" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="2"/>
@@ -5591,10 +6198,13 @@
       <c r="R78" s="2"/>
       <c r="S78" s="2"/>
       <c r="T78" s="2"/>
-    </row>
-    <row r="79" spans="1:20">
+      <c r="W78" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23">
       <c r="A79" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="2"/>
@@ -5614,10 +6224,13 @@
       <c r="R79" s="2"/>
       <c r="S79" s="2"/>
       <c r="T79" s="2"/>
-    </row>
-    <row r="80" spans="1:20">
+      <c r="W79" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23">
       <c r="A80" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="2"/>
@@ -5637,10 +6250,13 @@
       <c r="R80" s="2"/>
       <c r="S80" s="2"/>
       <c r="T80" s="2"/>
-    </row>
-    <row r="81" spans="1:20">
+      <c r="W80" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23">
       <c r="A81" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="2"/>
@@ -5660,10 +6276,13 @@
       <c r="R81" s="2"/>
       <c r="S81" s="2"/>
       <c r="T81" s="2"/>
-    </row>
-    <row r="82" spans="1:20">
+      <c r="W81" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23">
       <c r="A82" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C82" s="1"/>
       <c r="D82" s="2"/>
@@ -5683,10 +6302,13 @@
       <c r="R82" s="2"/>
       <c r="S82" s="2"/>
       <c r="T82" s="2"/>
-    </row>
-    <row r="83" spans="1:20">
+      <c r="W82" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23">
       <c r="A83" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="2"/>
@@ -5706,6 +6328,9 @@
       <c r="R83" s="2"/>
       <c r="S83" s="2"/>
       <c r="T83" s="2"/>
+      <c r="W83" s="1" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1" t="s">

--- a/src/main/resources/CardStatus.xlsx
+++ b/src/main/resources/CardStatus.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235">
   <si>
     <t>出处</t>
   </si>
@@ -554,6 +554,9 @@
   </si>
   <si>
     <t>飞仙玄霄</t>
+  </si>
+  <si>
+    <t>琼华梦璃</t>
   </si>
   <si>
     <t>琼华菱纱</t>
@@ -729,10 +732,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -740,6 +743,21 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -751,25 +769,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -783,29 +784,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -827,8 +821,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -843,10 +867,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -858,28 +882,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -896,13 +899,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -914,31 +929,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -956,7 +947,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -968,13 +971,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -986,7 +995,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -998,61 +1049,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1070,13 +1067,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1105,11 +1108,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1121,15 +1130,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1149,6 +1149,33 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1163,30 +1190,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1195,10 +1198,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1207,133 +1210,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1416,7 +1419,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -4069,7 +4072,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W84"/>
+  <dimension ref="A1:W85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4861,7 +4864,7 @@
         <v>131</v>
       </c>
       <c r="C28" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -4965,10 +4968,11 @@
         <v>180</v>
       </c>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" customFormat="1" spans="1:23">
       <c r="A32" s="1" t="s">
         <v>181</v>
       </c>
+      <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -5333,12 +5337,7 @@
       <c r="A46" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C46" s="1">
-        <v>10</v>
-      </c>
+      <c r="C46" s="1"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -5364,7 +5363,12 @@
       <c r="A47" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C47" s="1"/>
+      <c r="B47" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47" s="1">
+        <v>10</v>
+      </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -5598,12 +5602,7 @@
       <c r="A56" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C56" s="1">
-        <v>8</v>
-      </c>
+      <c r="C56" s="1"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
@@ -5629,7 +5628,12 @@
       <c r="A57" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C57" s="1"/>
+      <c r="B57" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57" s="1">
+        <v>8</v>
+      </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
@@ -5811,12 +5815,7 @@
       <c r="A64" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C64" s="1">
-        <v>20</v>
-      </c>
+      <c r="C64" s="1"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
@@ -5840,9 +5839,14 @@
     </row>
     <row r="65" spans="1:23">
       <c r="A65" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C65" s="1"/>
+      <c r="C65" s="1">
+        <v>20</v>
+      </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
@@ -5861,7 +5865,7 @@
       <c r="S65" s="2"/>
       <c r="T65" s="2"/>
       <c r="W65" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -6332,13 +6336,39 @@
         <v>233</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:23">
       <c r="A84" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C84" s="1"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
+      <c r="K84" s="2"/>
+      <c r="L84" s="2"/>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
+      <c r="P84" s="2"/>
+      <c r="Q84" s="2"/>
+      <c r="R84" s="2"/>
+      <c r="S84" s="2"/>
+      <c r="T84" s="2"/>
+      <c r="W84" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C84">
-        <f>SUM(C2:C83)</f>
-        <v>82</v>
+      <c r="C85">
+        <f>SUM(C2:C84)</f>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -6347,18 +6377,18 @@
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="B13:B23"/>
     <mergeCell ref="B24:B27"/>
-    <mergeCell ref="B28:B45"/>
-    <mergeCell ref="B46:B55"/>
-    <mergeCell ref="B56:B63"/>
-    <mergeCell ref="B64:B83"/>
+    <mergeCell ref="B28:B46"/>
+    <mergeCell ref="B47:B56"/>
+    <mergeCell ref="B57:B64"/>
+    <mergeCell ref="B65:B84"/>
     <mergeCell ref="C2:C8"/>
     <mergeCell ref="C9:C12"/>
     <mergeCell ref="C13:C23"/>
     <mergeCell ref="C24:C27"/>
-    <mergeCell ref="C28:C45"/>
-    <mergeCell ref="C46:C55"/>
-    <mergeCell ref="C56:C63"/>
-    <mergeCell ref="C64:C83"/>
+    <mergeCell ref="C28:C46"/>
+    <mergeCell ref="C47:C56"/>
+    <mergeCell ref="C57:C64"/>
+    <mergeCell ref="C65:C84"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/src/main/resources/CardStatus.xlsx
+++ b/src/main/resources/CardStatus.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236">
   <si>
     <t>出处</t>
   </si>
@@ -664,10 +664,13 @@
     <t>皇甫卓</t>
   </si>
   <si>
+    <t>昭言家主</t>
+  </si>
+  <si>
+    <t>六</t>
+  </si>
+  <si>
     <t>归墟界督</t>
-  </si>
-  <si>
-    <t>六</t>
   </si>
   <si>
     <t>宿何</t>
@@ -732,10 +735,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -746,52 +749,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -806,15 +765,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -823,7 +774,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -843,26 +794,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -874,6 +817,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -882,9 +886,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -899,7 +902,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -911,19 +1064,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -935,151 +1076,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1093,17 +1096,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1125,11 +1122,44 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1145,33 +1175,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1198,10 +1201,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1210,133 +1213,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4072,7 +4075,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W85"/>
+  <dimension ref="A1:W86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5845,7 +5848,7 @@
         <v>215</v>
       </c>
       <c r="C65" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
@@ -6362,13 +6365,39 @@
         <v>234</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:23">
       <c r="A85" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C85" s="1"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="2"/>
+      <c r="K85" s="2"/>
+      <c r="L85" s="2"/>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
+      <c r="P85" s="2"/>
+      <c r="Q85" s="2"/>
+      <c r="R85" s="2"/>
+      <c r="S85" s="2"/>
+      <c r="T85" s="2"/>
+      <c r="W85" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C85">
-        <f>SUM(C2:C84)</f>
-        <v>83</v>
+      <c r="C86">
+        <f>SUM(C2:C85)</f>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -6380,7 +6409,7 @@
     <mergeCell ref="B28:B46"/>
     <mergeCell ref="B47:B56"/>
     <mergeCell ref="B57:B64"/>
-    <mergeCell ref="B65:B84"/>
+    <mergeCell ref="B65:B85"/>
     <mergeCell ref="C2:C8"/>
     <mergeCell ref="C9:C12"/>
     <mergeCell ref="C13:C23"/>
@@ -6388,7 +6417,7 @@
     <mergeCell ref="C28:C46"/>
     <mergeCell ref="C47:C56"/>
     <mergeCell ref="C57:C64"/>
-    <mergeCell ref="C65:C84"/>
+    <mergeCell ref="C65:C85"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/src/main/resources/CardStatus.xlsx
+++ b/src/main/resources/CardStatus.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237">
   <si>
     <t>出处</t>
   </si>
@@ -664,10 +664,13 @@
     <t>皇甫卓</t>
   </si>
   <si>
+    <t>埋名小姐</t>
+  </si>
+  <si>
+    <t>六</t>
+  </si>
+  <si>
     <t>昭言家主</t>
-  </si>
-  <si>
-    <t>六</t>
   </si>
   <si>
     <t>归墟界督</t>
@@ -749,8 +752,129 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -771,127 +895,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -902,13 +905,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -920,31 +929,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -956,13 +947,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -974,13 +965,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -998,7 +989,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1010,37 +1037,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1052,37 +1085,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1098,32 +1101,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1144,13 +1125,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1160,6 +1145,24 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1179,16 +1182,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1201,10 +1204,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1213,133 +1216,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4075,7 +4078,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W86"/>
+  <dimension ref="A1:W87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5848,7 +5851,7 @@
         <v>215</v>
       </c>
       <c r="C65" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
@@ -6391,13 +6394,39 @@
         <v>235</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:23">
       <c r="A86" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C86" s="1"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2"/>
+      <c r="K86" s="2"/>
+      <c r="L86" s="2"/>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2"/>
+      <c r="P86" s="2"/>
+      <c r="Q86" s="2"/>
+      <c r="R86" s="2"/>
+      <c r="S86" s="2"/>
+      <c r="T86" s="2"/>
+      <c r="W86" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C86">
-        <f>SUM(C2:C85)</f>
-        <v>84</v>
+      <c r="C87">
+        <f>SUM(C2:C86)</f>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -6409,7 +6438,7 @@
     <mergeCell ref="B28:B46"/>
     <mergeCell ref="B47:B56"/>
     <mergeCell ref="B57:B64"/>
-    <mergeCell ref="B65:B85"/>
+    <mergeCell ref="B65:B86"/>
     <mergeCell ref="C2:C8"/>
     <mergeCell ref="C9:C12"/>
     <mergeCell ref="C13:C23"/>
@@ -6417,7 +6446,7 @@
     <mergeCell ref="C28:C46"/>
     <mergeCell ref="C47:C56"/>
     <mergeCell ref="C57:C64"/>
-    <mergeCell ref="C65:C85"/>
+    <mergeCell ref="C65:C86"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/src/main/resources/CardStatus.xlsx
+++ b/src/main/resources/CardStatus.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="10500" activeTab="6"/>
+    <workbookView windowWidth="24000" windowHeight="9915" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="3" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="238">
   <si>
     <t>出处</t>
   </si>
@@ -664,10 +664,13 @@
     <t>皇甫卓</t>
   </si>
   <si>
+    <t>金瞳今朝</t>
+  </si>
+  <si>
+    <t>六</t>
+  </si>
+  <si>
     <t>埋名小姐</t>
-  </si>
-  <si>
-    <t>六</t>
   </si>
   <si>
     <t>昭言家主</t>
@@ -740,8 +743,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -752,24 +755,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -782,15 +778,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -812,17 +801,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -842,22 +829,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -865,11 +861,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -882,7 +885,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -905,19 +908,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -929,7 +920,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -947,13 +938,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -965,7 +956,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -977,85 +1034,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1073,19 +1070,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1101,10 +1104,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1125,17 +1126,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1151,17 +1146,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1196,6 +1184,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1204,10 +1207,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1216,133 +1219,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4078,7 +4081,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W87"/>
+  <dimension ref="A1:W88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5851,7 +5854,7 @@
         <v>215</v>
       </c>
       <c r="C65" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
@@ -5878,6 +5881,7 @@
       <c r="A66" s="1" t="s">
         <v>216</v>
       </c>
+      <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
@@ -6420,13 +6424,39 @@
         <v>236</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:23">
       <c r="A87" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C87" s="1"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2"/>
+      <c r="K87" s="2"/>
+      <c r="L87" s="2"/>
+      <c r="M87" s="2"/>
+      <c r="N87" s="2"/>
+      <c r="O87" s="2"/>
+      <c r="P87" s="2"/>
+      <c r="Q87" s="2"/>
+      <c r="R87" s="2"/>
+      <c r="S87" s="2"/>
+      <c r="T87" s="2"/>
+      <c r="W87" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C87">
-        <f>SUM(C2:C86)</f>
-        <v>85</v>
+      <c r="C88">
+        <f>SUM(C2:C87)</f>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -6438,7 +6468,7 @@
     <mergeCell ref="B28:B46"/>
     <mergeCell ref="B47:B56"/>
     <mergeCell ref="B57:B64"/>
-    <mergeCell ref="B65:B86"/>
+    <mergeCell ref="B65:B87"/>
     <mergeCell ref="C2:C8"/>
     <mergeCell ref="C9:C12"/>
     <mergeCell ref="C13:C23"/>
@@ -6446,7 +6476,7 @@
     <mergeCell ref="C28:C46"/>
     <mergeCell ref="C47:C56"/>
     <mergeCell ref="C57:C64"/>
-    <mergeCell ref="C65:C86"/>
+    <mergeCell ref="C65:C87"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/src/main/resources/CardStatus.xlsx
+++ b/src/main/resources/CardStatus.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="9915" activeTab="6"/>
+    <workbookView windowWidth="23445" windowHeight="9915" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="3" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="240">
   <si>
     <t>出处</t>
   </si>
@@ -610,6 +610,9 @@
     <t>玄霄</t>
   </si>
   <si>
+    <t>姜世离</t>
+  </si>
+  <si>
     <t>海棠夫人</t>
   </si>
   <si>
@@ -664,10 +667,13 @@
     <t>皇甫卓</t>
   </si>
   <si>
+    <t>鲲化祈</t>
+  </si>
+  <si>
+    <t>六</t>
+  </si>
+  <si>
     <t>金瞳今朝</t>
-  </si>
-  <si>
-    <t>六</t>
   </si>
   <si>
     <t>埋名小姐</t>
@@ -741,10 +747,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -752,66 +758,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -829,11 +775,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -845,11 +791,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -877,7 +852,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -891,11 +898,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -908,19 +914,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -932,43 +980,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -980,25 +1004,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1016,31 +1028,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1052,43 +1094,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1099,6 +1105,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1126,31 +1150,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1170,17 +1180,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1207,10 +1213,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1219,133 +1225,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4081,7 +4087,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W88"/>
+  <dimension ref="A1:W90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5376,7 +5382,7 @@
         <v>24</v>
       </c>
       <c r="C47" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -5637,12 +5643,7 @@
       <c r="A57" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C57" s="1">
-        <v>8</v>
-      </c>
+      <c r="C57" s="1"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
@@ -5668,7 +5669,12 @@
       <c r="A58" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C58" s="1"/>
+      <c r="B58" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C58" s="1">
+        <v>8</v>
+      </c>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
@@ -5850,12 +5856,7 @@
       <c r="A65" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C65" s="1">
-        <v>23</v>
-      </c>
+      <c r="C65" s="1"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
@@ -5879,10 +5880,14 @@
     </row>
     <row r="66" spans="1:23">
       <c r="A66" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
+      <c r="C66" s="1">
+        <v>24</v>
+      </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
@@ -5901,7 +5906,7 @@
       <c r="S66" s="2"/>
       <c r="T66" s="2"/>
       <c r="W66" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -6450,13 +6455,65 @@
         <v>237</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:23">
       <c r="A88" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C88" s="1"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2"/>
+      <c r="K88" s="2"/>
+      <c r="L88" s="2"/>
+      <c r="M88" s="2"/>
+      <c r="N88" s="2"/>
+      <c r="O88" s="2"/>
+      <c r="P88" s="2"/>
+      <c r="Q88" s="2"/>
+      <c r="R88" s="2"/>
+      <c r="S88" s="2"/>
+      <c r="T88" s="2"/>
+      <c r="W88" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23">
+      <c r="A89" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C89" s="1"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2"/>
+      <c r="K89" s="2"/>
+      <c r="L89" s="2"/>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
+      <c r="O89" s="2"/>
+      <c r="P89" s="2"/>
+      <c r="Q89" s="2"/>
+      <c r="R89" s="2"/>
+      <c r="S89" s="2"/>
+      <c r="T89" s="2"/>
+      <c r="W89" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C88">
-        <f>SUM(C2:C87)</f>
-        <v>86</v>
+      <c r="C90">
+        <f>SUM(C2:C89)</f>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -6466,17 +6523,17 @@
     <mergeCell ref="B13:B23"/>
     <mergeCell ref="B24:B27"/>
     <mergeCell ref="B28:B46"/>
-    <mergeCell ref="B47:B56"/>
-    <mergeCell ref="B57:B64"/>
-    <mergeCell ref="B65:B87"/>
+    <mergeCell ref="B47:B57"/>
+    <mergeCell ref="B58:B65"/>
+    <mergeCell ref="B66:B89"/>
     <mergeCell ref="C2:C8"/>
     <mergeCell ref="C9:C12"/>
     <mergeCell ref="C13:C23"/>
     <mergeCell ref="C24:C27"/>
     <mergeCell ref="C28:C46"/>
-    <mergeCell ref="C47:C56"/>
-    <mergeCell ref="C57:C64"/>
-    <mergeCell ref="C65:C87"/>
+    <mergeCell ref="C47:C57"/>
+    <mergeCell ref="C58:C65"/>
+    <mergeCell ref="C66:C89"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/src/main/resources/CardStatus.xlsx
+++ b/src/main/resources/CardStatus.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="241">
   <si>
     <t>出处</t>
   </si>
@@ -608,6 +608,9 @@
   </si>
   <si>
     <t>玄霄</t>
+  </si>
+  <si>
+    <t>魔翳</t>
   </si>
   <si>
     <t>姜世离</t>
@@ -747,10 +750,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -762,6 +765,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -769,23 +779,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -805,6 +799,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -820,6 +868,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -828,16 +884,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -851,57 +900,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -911,6 +914,30 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -926,13 +953,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -944,127 +1085,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1076,25 +1097,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1108,11 +1111,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1120,17 +1129,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1150,17 +1150,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1182,25 +1187,23 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1213,10 +1216,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1225,133 +1228,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4087,7 +4090,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W90"/>
+  <dimension ref="A1:W91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5382,7 +5385,7 @@
         <v>24</v>
       </c>
       <c r="C47" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -5669,12 +5672,7 @@
       <c r="A58" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C58" s="1">
-        <v>8</v>
-      </c>
+      <c r="C58" s="1"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
@@ -5700,7 +5698,12 @@
       <c r="A59" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C59" s="1"/>
+      <c r="B59" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C59" s="1">
+        <v>8</v>
+      </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
@@ -5882,12 +5885,7 @@
       <c r="A66" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C66" s="1">
-        <v>24</v>
-      </c>
+      <c r="C66" s="1"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
@@ -5911,9 +5909,14 @@
     </row>
     <row r="67" spans="1:23">
       <c r="A67" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C67" s="1"/>
+      <c r="C67" s="1">
+        <v>24</v>
+      </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
@@ -5932,7 +5935,7 @@
       <c r="S67" s="2"/>
       <c r="T67" s="2"/>
       <c r="W67" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -6507,13 +6510,39 @@
         <v>239</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:23">
       <c r="A90" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C90" s="1"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2"/>
+      <c r="K90" s="2"/>
+      <c r="L90" s="2"/>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
+      <c r="O90" s="2"/>
+      <c r="P90" s="2"/>
+      <c r="Q90" s="2"/>
+      <c r="R90" s="2"/>
+      <c r="S90" s="2"/>
+      <c r="T90" s="2"/>
+      <c r="W90" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C90">
-        <f>SUM(C2:C89)</f>
-        <v>88</v>
+      <c r="C91">
+        <f>SUM(C2:C90)</f>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -6523,17 +6552,17 @@
     <mergeCell ref="B13:B23"/>
     <mergeCell ref="B24:B27"/>
     <mergeCell ref="B28:B46"/>
-    <mergeCell ref="B47:B57"/>
-    <mergeCell ref="B58:B65"/>
-    <mergeCell ref="B66:B89"/>
+    <mergeCell ref="B47:B58"/>
+    <mergeCell ref="B59:B66"/>
+    <mergeCell ref="B67:B90"/>
     <mergeCell ref="C2:C8"/>
     <mergeCell ref="C9:C12"/>
     <mergeCell ref="C13:C23"/>
     <mergeCell ref="C24:C27"/>
     <mergeCell ref="C28:C46"/>
-    <mergeCell ref="C47:C57"/>
-    <mergeCell ref="C58:C65"/>
-    <mergeCell ref="C66:C89"/>
+    <mergeCell ref="C47:C58"/>
+    <mergeCell ref="C59:C66"/>
+    <mergeCell ref="C67:C90"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/src/main/resources/CardStatus.xlsx
+++ b/src/main/resources/CardStatus.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23445" windowHeight="9915" activeTab="6"/>
+    <workbookView windowWidth="24000" windowHeight="9915" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="3" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="242">
   <si>
     <t>出处</t>
   </si>
@@ -608,6 +608,9 @@
   </si>
   <si>
     <t>玄霄</t>
+  </si>
+  <si>
+    <t>血手</t>
   </si>
   <si>
     <t>魔翳</t>
@@ -750,10 +753,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -765,21 +768,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -793,37 +782,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -837,9 +796,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -852,7 +818,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -868,9 +856,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -884,9 +888,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -894,7 +897,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -917,13 +920,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -935,13 +932,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -953,55 +998,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1013,43 +1010,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1061,19 +1022,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1091,13 +1040,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1111,26 +1114,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1146,26 +1151,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1188,23 +1173,41 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1216,10 +1219,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1228,133 +1231,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4090,7 +4093,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W91"/>
+  <dimension ref="A1:W92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5385,7 +5388,7 @@
         <v>24</v>
       </c>
       <c r="C47" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -5698,12 +5701,7 @@
       <c r="A59" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C59" s="1">
-        <v>8</v>
-      </c>
+      <c r="C59" s="1"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
@@ -5729,7 +5727,12 @@
       <c r="A60" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C60" s="1"/>
+      <c r="B60" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C60" s="1">
+        <v>8</v>
+      </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
@@ -5911,12 +5914,7 @@
       <c r="A67" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C67" s="1">
-        <v>24</v>
-      </c>
+      <c r="C67" s="1"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
@@ -5940,9 +5938,14 @@
     </row>
     <row r="68" spans="1:23">
       <c r="A68" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C68" s="1"/>
+      <c r="C68" s="1">
+        <v>24</v>
+      </c>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
@@ -5961,7 +5964,7 @@
       <c r="S68" s="2"/>
       <c r="T68" s="2"/>
       <c r="W68" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -6536,13 +6539,39 @@
         <v>240</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:23">
       <c r="A91" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C91" s="1"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2"/>
+      <c r="K91" s="2"/>
+      <c r="L91" s="2"/>
+      <c r="M91" s="2"/>
+      <c r="N91" s="2"/>
+      <c r="O91" s="2"/>
+      <c r="P91" s="2"/>
+      <c r="Q91" s="2"/>
+      <c r="R91" s="2"/>
+      <c r="S91" s="2"/>
+      <c r="T91" s="2"/>
+      <c r="W91" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C91">
-        <f>SUM(C2:C90)</f>
-        <v>89</v>
+      <c r="C92">
+        <f>SUM(C2:C91)</f>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -6552,17 +6581,17 @@
     <mergeCell ref="B13:B23"/>
     <mergeCell ref="B24:B27"/>
     <mergeCell ref="B28:B46"/>
-    <mergeCell ref="B47:B58"/>
-    <mergeCell ref="B59:B66"/>
-    <mergeCell ref="B67:B90"/>
+    <mergeCell ref="B47:B59"/>
+    <mergeCell ref="B60:B67"/>
+    <mergeCell ref="B68:B91"/>
     <mergeCell ref="C2:C8"/>
     <mergeCell ref="C9:C12"/>
     <mergeCell ref="C13:C23"/>
     <mergeCell ref="C24:C27"/>
     <mergeCell ref="C28:C46"/>
-    <mergeCell ref="C47:C58"/>
-    <mergeCell ref="C59:C66"/>
-    <mergeCell ref="C67:C90"/>
+    <mergeCell ref="C47:C59"/>
+    <mergeCell ref="C60:C67"/>
+    <mergeCell ref="C68:C91"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/src/main/resources/CardStatus.xlsx
+++ b/src/main/resources/CardStatus.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="243">
   <si>
     <t>出处</t>
   </si>
@@ -608,6 +608,9 @@
   </si>
   <si>
     <t>玄霄</t>
+  </si>
+  <si>
+    <t>毒影</t>
   </si>
   <si>
     <t>血手</t>
@@ -755,8 +758,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -767,6 +770,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -781,8 +799,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -790,17 +838,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -811,8 +859,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -835,61 +900,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -902,14 +913,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -920,13 +923,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -938,37 +1007,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -986,49 +1073,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1040,55 +1091,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1100,7 +1103,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1125,32 +1128,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1179,15 +1161,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1203,11 +1176,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1219,10 +1222,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1231,133 +1234,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4093,7 +4096,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W92"/>
+  <dimension ref="A1:W93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5388,7 +5391,7 @@
         <v>24</v>
       </c>
       <c r="C47" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -5727,12 +5730,7 @@
       <c r="A60" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C60" s="1">
-        <v>8</v>
-      </c>
+      <c r="C60" s="1"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
@@ -5758,7 +5756,12 @@
       <c r="A61" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C61" s="1"/>
+      <c r="B61" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C61" s="1">
+        <v>8</v>
+      </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
@@ -5940,12 +5943,7 @@
       <c r="A68" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C68" s="1">
-        <v>24</v>
-      </c>
+      <c r="C68" s="1"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
@@ -5969,9 +5967,14 @@
     </row>
     <row r="69" spans="1:23">
       <c r="A69" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C69" s="1"/>
+      <c r="C69" s="1">
+        <v>24</v>
+      </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
@@ -5990,7 +5993,7 @@
       <c r="S69" s="2"/>
       <c r="T69" s="2"/>
       <c r="W69" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -6565,13 +6568,39 @@
         <v>241</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:23">
       <c r="A92" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C92" s="1"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2"/>
+      <c r="K92" s="2"/>
+      <c r="L92" s="2"/>
+      <c r="M92" s="2"/>
+      <c r="N92" s="2"/>
+      <c r="O92" s="2"/>
+      <c r="P92" s="2"/>
+      <c r="Q92" s="2"/>
+      <c r="R92" s="2"/>
+      <c r="S92" s="2"/>
+      <c r="T92" s="2"/>
+      <c r="W92" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C92">
-        <f>SUM(C2:C91)</f>
-        <v>90</v>
+      <c r="C93">
+        <f>SUM(C2:C92)</f>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -6581,17 +6610,17 @@
     <mergeCell ref="B13:B23"/>
     <mergeCell ref="B24:B27"/>
     <mergeCell ref="B28:B46"/>
-    <mergeCell ref="B47:B59"/>
-    <mergeCell ref="B60:B67"/>
-    <mergeCell ref="B68:B91"/>
+    <mergeCell ref="B47:B60"/>
+    <mergeCell ref="B61:B68"/>
+    <mergeCell ref="B69:B92"/>
     <mergeCell ref="C2:C8"/>
     <mergeCell ref="C9:C12"/>
     <mergeCell ref="C13:C23"/>
     <mergeCell ref="C24:C27"/>
     <mergeCell ref="C28:C46"/>
-    <mergeCell ref="C47:C59"/>
-    <mergeCell ref="C60:C67"/>
-    <mergeCell ref="C68:C91"/>
+    <mergeCell ref="C47:C60"/>
+    <mergeCell ref="C61:C68"/>
+    <mergeCell ref="C69:C92"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/src/main/resources/CardStatus.xlsx
+++ b/src/main/resources/CardStatus.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="243">
   <si>
     <t>出处</t>
   </si>
@@ -331,6 +331,9 @@
     <t>绝技6</t>
   </si>
   <si>
+    <t>云裳</t>
+  </si>
+  <si>
     <t>巫后</t>
   </si>
   <si>
@@ -461,9 +464,6 @@
   </si>
   <si>
     <t>瑕</t>
-  </si>
-  <si>
-    <t>云裳</t>
   </si>
   <si>
     <t>云裳部件</t>
@@ -758,8 +758,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -771,14 +771,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -799,101 +815,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -913,6 +836,83 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -923,7 +923,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -935,19 +995,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -959,7 +1019,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -971,103 +1061,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1085,7 +1085,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1097,13 +1097,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1119,6 +1119,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1128,11 +1146,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1148,6 +1172,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1175,45 +1214,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1222,10 +1222,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1234,133 +1234,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1443,7 +1443,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2946,7 +2946,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S44"/>
+  <dimension ref="A1:T92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2963,10 +2963,11 @@
     <col min="9" max="12" width="7.375" style="1" customWidth="1"/>
     <col min="13" max="15" width="6.375" style="1" customWidth="1"/>
     <col min="16" max="18" width="6.375" customWidth="1"/>
-    <col min="19" max="19" width="9.375" customWidth="1"/>
+    <col min="19" max="19" width="5.375" customWidth="1"/>
+    <col min="20" max="20" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="2:18">
+    <row r="1" s="1" customFormat="1" spans="2:19">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3018,10 +3019,13 @@
       <c r="R1" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="S1" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -3044,13 +3048,14 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
-      <c r="S2" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
+      <c r="S2" s="2"/>
+      <c r="T2" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
@@ -3068,13 +3073,14 @@
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
-      <c r="S3" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="S3" s="2"/>
+      <c r="T3" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="2"/>
@@ -3092,13 +3098,14 @@
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
-      <c r="S4" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="S4" s="2"/>
+      <c r="T4" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="2"/>
@@ -3116,13 +3123,14 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
-      <c r="S5" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="S5" s="2"/>
+      <c r="T5" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="2"/>
@@ -3140,13 +3148,14 @@
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
-      <c r="S6" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="S6" s="2"/>
+      <c r="T6" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="2"/>
@@ -3164,13 +3173,14 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
-      <c r="S7" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="S7" s="2"/>
+      <c r="T7" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="2"/>
@@ -3188,13 +3198,14 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
-      <c r="S8" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
+      <c r="S8" s="2"/>
+      <c r="T8" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="2"/>
@@ -3212,13 +3223,14 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
-      <c r="S9" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
+      <c r="S9" s="2"/>
+      <c r="T9" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>42</v>
@@ -3241,13 +3253,14 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
-      <c r="S10" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="S10" s="2"/>
+      <c r="T10" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="2"/>
@@ -3265,13 +3278,14 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
-      <c r="S11" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="S11" s="2"/>
+      <c r="T11" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="2"/>
@@ -3289,13 +3303,14 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
-      <c r="S12" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
+      <c r="S12" s="2"/>
+      <c r="T12" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="2"/>
@@ -3313,13 +3328,14 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
-      <c r="S13" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
+      <c r="S13" s="2"/>
+      <c r="T13" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="2"/>
@@ -3337,13 +3353,14 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
-      <c r="S14" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
+      <c r="S14" s="2"/>
+      <c r="T14" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="2"/>
@@ -3361,13 +3378,14 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
-      <c r="S15" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
+      <c r="S15" s="2"/>
+      <c r="T15" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>10</v>
@@ -3390,13 +3408,14 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
-      <c r="S16" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19">
+      <c r="S16" s="2"/>
+      <c r="T16" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="2"/>
@@ -3414,13 +3433,14 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
-      <c r="S17" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19">
+      <c r="S17" s="2"/>
+      <c r="T17" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="2"/>
@@ -3438,13 +3458,14 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
-      <c r="S18" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19">
+      <c r="S18" s="2"/>
+      <c r="T18" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="2"/>
@@ -3462,13 +3483,14 @@
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
-      <c r="S19" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19">
+      <c r="S19" s="2"/>
+      <c r="T19" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="2"/>
@@ -3486,13 +3508,14 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
-      <c r="S20" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19">
+      <c r="S20" s="2"/>
+      <c r="T20" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="2"/>
@@ -3510,13 +3533,14 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
-      <c r="S21" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19">
+      <c r="S21" s="2"/>
+      <c r="T21" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="2"/>
@@ -3534,13 +3558,14 @@
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
-      <c r="S22" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19">
+      <c r="S22" s="2"/>
+      <c r="T22" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="2"/>
@@ -3558,16 +3583,17 @@
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
-      <c r="S23" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19">
+      <c r="S23" s="2"/>
+      <c r="T23" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C24" s="1">
         <v>4</v>
@@ -3587,13 +3613,14 @@
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
-      <c r="S24" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19">
+      <c r="S24" s="2"/>
+      <c r="T24" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="2"/>
@@ -3611,13 +3638,14 @@
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
-      <c r="S25" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19">
+      <c r="S25" s="2"/>
+      <c r="T25" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
       <c r="A26" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="2"/>
@@ -3635,13 +3663,14 @@
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
-      <c r="S26" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19">
+      <c r="S26" s="2"/>
+      <c r="T26" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
       <c r="A27" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
@@ -3659,16 +3688,17 @@
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
-      <c r="S27" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19">
+      <c r="S27" s="2"/>
+      <c r="T27" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
       <c r="A28" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C28" s="1">
         <v>6</v>
@@ -3688,13 +3718,14 @@
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
-      <c r="S28" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19">
+      <c r="S28" s="2"/>
+      <c r="T28" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
       <c r="A29" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="2"/>
@@ -3712,13 +3743,14 @@
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
-      <c r="S29" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19">
+      <c r="S29" s="2"/>
+      <c r="T29" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
       <c r="A30" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="2"/>
@@ -3736,13 +3768,14 @@
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
-      <c r="S30" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19">
+      <c r="S30" s="2"/>
+      <c r="T30" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
       <c r="A31" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="2"/>
@@ -3760,13 +3793,14 @@
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
-      <c r="S31" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19">
+      <c r="S31" s="2"/>
+      <c r="T31" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
       <c r="A32" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="2"/>
@@ -3784,13 +3818,14 @@
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
-      <c r="S32" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19">
+      <c r="S32" s="2"/>
+      <c r="T32" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
       <c r="A33" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="2"/>
@@ -3808,13 +3843,14 @@
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
-      <c r="S33" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19">
+      <c r="S33" s="2"/>
+      <c r="T33" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
       <c r="A34" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>24</v>
@@ -3837,13 +3873,14 @@
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
-      <c r="S34" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19">
+      <c r="S34" s="2"/>
+      <c r="T34" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
       <c r="A35" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="2"/>
@@ -3861,13 +3898,14 @@
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
-      <c r="S35" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19">
+      <c r="S35" s="2"/>
+      <c r="T35" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
       <c r="A36" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>71</v>
@@ -3890,13 +3928,14 @@
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
-      <c r="S36" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19">
+      <c r="S36" s="2"/>
+      <c r="T36" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
       <c r="A37" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="2"/>
@@ -3914,13 +3953,14 @@
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
-      <c r="S37" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19">
+      <c r="S37" s="2"/>
+      <c r="T37" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
       <c r="A38" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="2"/>
@@ -3938,13 +3978,14 @@
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
-      <c r="S38" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19">
+      <c r="S38" s="2"/>
+      <c r="T38" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
       <c r="A39" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="2"/>
@@ -3962,13 +4003,14 @@
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
-      <c r="S39" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19">
+      <c r="S39" s="2"/>
+      <c r="T39" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
       <c r="A40" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="2"/>
@@ -3986,13 +4028,14 @@
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
-      <c r="S40" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19">
+      <c r="S40" s="2"/>
+      <c r="T40" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
       <c r="A41" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="2"/>
@@ -4010,13 +4053,14 @@
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
-      <c r="S41" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19">
+      <c r="S41" s="2"/>
+      <c r="T41" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
       <c r="A42" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="2"/>
@@ -4034,13 +4078,14 @@
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
-      <c r="S42" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19">
+      <c r="S42" s="2"/>
+      <c r="T42" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20">
       <c r="A43" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="2"/>
@@ -4058,11 +4103,12 @@
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
-      <c r="S43" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="S43" s="2"/>
+      <c r="T43" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19">
       <c r="A44" s="1" t="s">
         <v>14</v>
       </c>
@@ -4070,6 +4116,151 @@
         <f>SUM(C2:C43)</f>
         <v>42</v>
       </c>
+      <c r="S44" s="2"/>
+    </row>
+    <row r="45" spans="19:19">
+      <c r="S45" s="2"/>
+    </row>
+    <row r="46" spans="19:19">
+      <c r="S46" s="2"/>
+    </row>
+    <row r="47" spans="19:19">
+      <c r="S47" s="2"/>
+    </row>
+    <row r="48" spans="19:19">
+      <c r="S48" s="2"/>
+    </row>
+    <row r="49" spans="19:19">
+      <c r="S49" s="2"/>
+    </row>
+    <row r="50" spans="19:19">
+      <c r="S50" s="2"/>
+    </row>
+    <row r="51" spans="19:19">
+      <c r="S51" s="2"/>
+    </row>
+    <row r="52" spans="19:19">
+      <c r="S52" s="2"/>
+    </row>
+    <row r="53" spans="19:19">
+      <c r="S53" s="2"/>
+    </row>
+    <row r="54" spans="19:19">
+      <c r="S54" s="2"/>
+    </row>
+    <row r="55" spans="19:19">
+      <c r="S55" s="2"/>
+    </row>
+    <row r="56" spans="19:19">
+      <c r="S56" s="2"/>
+    </row>
+    <row r="57" spans="19:19">
+      <c r="S57" s="2"/>
+    </row>
+    <row r="58" spans="19:19">
+      <c r="S58" s="2"/>
+    </row>
+    <row r="59" spans="19:19">
+      <c r="S59" s="2"/>
+    </row>
+    <row r="60" spans="19:19">
+      <c r="S60" s="2"/>
+    </row>
+    <row r="61" spans="19:19">
+      <c r="S61" s="2"/>
+    </row>
+    <row r="62" spans="19:19">
+      <c r="S62" s="2"/>
+    </row>
+    <row r="63" spans="19:19">
+      <c r="S63" s="2"/>
+    </row>
+    <row r="64" spans="19:19">
+      <c r="S64" s="2"/>
+    </row>
+    <row r="65" spans="19:19">
+      <c r="S65" s="2"/>
+    </row>
+    <row r="66" spans="19:19">
+      <c r="S66" s="2"/>
+    </row>
+    <row r="67" spans="19:19">
+      <c r="S67" s="2"/>
+    </row>
+    <row r="68" spans="19:19">
+      <c r="S68" s="2"/>
+    </row>
+    <row r="69" spans="19:19">
+      <c r="S69" s="2"/>
+    </row>
+    <row r="70" spans="19:19">
+      <c r="S70" s="2"/>
+    </row>
+    <row r="71" spans="19:19">
+      <c r="S71" s="2"/>
+    </row>
+    <row r="72" spans="19:19">
+      <c r="S72" s="2"/>
+    </row>
+    <row r="73" spans="19:19">
+      <c r="S73" s="2"/>
+    </row>
+    <row r="74" spans="19:19">
+      <c r="S74" s="2"/>
+    </row>
+    <row r="75" spans="19:19">
+      <c r="S75" s="2"/>
+    </row>
+    <row r="76" spans="19:19">
+      <c r="S76" s="2"/>
+    </row>
+    <row r="77" spans="19:19">
+      <c r="S77" s="2"/>
+    </row>
+    <row r="78" spans="19:19">
+      <c r="S78" s="2"/>
+    </row>
+    <row r="79" spans="19:19">
+      <c r="S79" s="2"/>
+    </row>
+    <row r="80" spans="19:19">
+      <c r="S80" s="2"/>
+    </row>
+    <row r="81" spans="19:19">
+      <c r="S81" s="2"/>
+    </row>
+    <row r="82" spans="19:19">
+      <c r="S82" s="2"/>
+    </row>
+    <row r="83" spans="19:19">
+      <c r="S83" s="2"/>
+    </row>
+    <row r="84" spans="19:19">
+      <c r="S84" s="2"/>
+    </row>
+    <row r="85" spans="19:19">
+      <c r="S85" s="2"/>
+    </row>
+    <row r="86" spans="19:19">
+      <c r="S86" s="2"/>
+    </row>
+    <row r="87" spans="19:19">
+      <c r="S87" s="2"/>
+    </row>
+    <row r="88" spans="19:19">
+      <c r="S88" s="2"/>
+    </row>
+    <row r="89" spans="19:19">
+      <c r="S89" s="2"/>
+    </row>
+    <row r="90" spans="19:19">
+      <c r="S90" s="2"/>
+    </row>
+    <row r="91" spans="19:19">
+      <c r="S91" s="2"/>
+    </row>
+    <row r="92" spans="19:19">
+      <c r="S92" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -4172,7 +4363,7 @@
         <v>102</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>147</v>
+        <v>103</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>148</v>
@@ -4776,7 +4967,7 @@
         <v>173</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C24" s="1">
         <v>4</v>
@@ -4885,7 +5076,7 @@
         <v>177</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C28" s="1">
         <v>19</v>

--- a/src/main/resources/CardStatus.xlsx
+++ b/src/main/resources/CardStatus.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="244">
   <si>
     <t>出处</t>
   </si>
@@ -676,10 +676,13 @@
     <t>皇甫卓</t>
   </si>
   <si>
+    <t>禺族临渊</t>
+  </si>
+  <si>
+    <t>六</t>
+  </si>
+  <si>
     <t>鲲化祈</t>
-  </si>
-  <si>
-    <t>六</t>
   </si>
   <si>
     <t>金瞳今朝</t>
@@ -756,8 +759,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -765,6 +768,81 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -779,29 +857,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -809,14 +864,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -830,15 +886,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -847,44 +895,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -905,14 +916,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -923,19 +926,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -947,31 +992,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -983,37 +1010,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1025,43 +1022,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1085,6 +1058,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1097,13 +1100,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1126,21 +1129,40 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1157,21 +1179,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1193,24 +1200,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1222,10 +1225,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1234,133 +1237,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1443,7 +1446,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -4287,7 +4290,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W93"/>
+  <dimension ref="A1:W94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -6164,7 +6167,7 @@
         <v>219</v>
       </c>
       <c r="C69" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -6785,13 +6788,39 @@
         <v>242</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:23">
       <c r="A93" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C93" s="1"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2"/>
+      <c r="K93" s="2"/>
+      <c r="L93" s="2"/>
+      <c r="M93" s="2"/>
+      <c r="N93" s="2"/>
+      <c r="O93" s="2"/>
+      <c r="P93" s="2"/>
+      <c r="Q93" s="2"/>
+      <c r="R93" s="2"/>
+      <c r="S93" s="2"/>
+      <c r="T93" s="2"/>
+      <c r="W93" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C93">
-        <f>SUM(C2:C92)</f>
-        <v>91</v>
+      <c r="C94">
+        <f>SUM(C2:C93)</f>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -6803,7 +6832,7 @@
     <mergeCell ref="B28:B46"/>
     <mergeCell ref="B47:B60"/>
     <mergeCell ref="B61:B68"/>
-    <mergeCell ref="B69:B92"/>
+    <mergeCell ref="B69:B93"/>
     <mergeCell ref="C2:C8"/>
     <mergeCell ref="C9:C12"/>
     <mergeCell ref="C13:C23"/>
@@ -6811,7 +6840,7 @@
     <mergeCell ref="C28:C46"/>
     <mergeCell ref="C47:C60"/>
     <mergeCell ref="C61:C68"/>
-    <mergeCell ref="C69:C92"/>
+    <mergeCell ref="C69:C93"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/src/main/resources/CardStatus.xlsx
+++ b/src/main/resources/CardStatus.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="245">
   <si>
     <t>出处</t>
   </si>
@@ -676,10 +676,13 @@
     <t>皇甫卓</t>
   </si>
   <si>
+    <t>禺族朔漩</t>
+  </si>
+  <si>
+    <t>六</t>
+  </si>
+  <si>
     <t>禺族临渊</t>
-  </si>
-  <si>
-    <t>六</t>
   </si>
   <si>
     <t>鲲化祈</t>
@@ -759,15 +762,99 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -780,23 +867,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -817,16 +889,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -834,7 +898,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -848,70 +912,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -926,13 +929,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -944,49 +1001,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -998,43 +1037,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1058,31 +1061,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1100,13 +1085,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1125,75 +1128,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1217,6 +1151,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1225,10 +1228,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1237,133 +1240,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4290,7 +4293,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W94"/>
+  <dimension ref="A1:W95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -6167,7 +6170,7 @@
         <v>219</v>
       </c>
       <c r="C69" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -6814,13 +6817,39 @@
         <v>243</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:23">
       <c r="A94" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C94" s="1"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
+      <c r="J94" s="2"/>
+      <c r="K94" s="2"/>
+      <c r="L94" s="2"/>
+      <c r="M94" s="2"/>
+      <c r="N94" s="2"/>
+      <c r="O94" s="2"/>
+      <c r="P94" s="2"/>
+      <c r="Q94" s="2"/>
+      <c r="R94" s="2"/>
+      <c r="S94" s="2"/>
+      <c r="T94" s="2"/>
+      <c r="W94" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C94">
-        <f>SUM(C2:C93)</f>
-        <v>92</v>
+      <c r="C95">
+        <f>SUM(C2:C94)</f>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -6832,7 +6861,7 @@
     <mergeCell ref="B28:B46"/>
     <mergeCell ref="B47:B60"/>
     <mergeCell ref="B61:B68"/>
-    <mergeCell ref="B69:B93"/>
+    <mergeCell ref="B69:B94"/>
     <mergeCell ref="C2:C8"/>
     <mergeCell ref="C9:C12"/>
     <mergeCell ref="C13:C23"/>
@@ -6840,7 +6869,7 @@
     <mergeCell ref="C28:C46"/>
     <mergeCell ref="C47:C60"/>
     <mergeCell ref="C61:C68"/>
-    <mergeCell ref="C69:C93"/>
+    <mergeCell ref="C69:C94"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/src/main/resources/CardStatus.xlsx
+++ b/src/main/resources/CardStatus.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="246">
   <si>
     <t>出处</t>
   </si>
@@ -676,10 +676,13 @@
     <t>皇甫卓</t>
   </si>
   <si>
+    <t>禺族聆夜</t>
+  </si>
+  <si>
+    <t>六</t>
+  </si>
+  <si>
     <t>禺族朔漩</t>
-  </si>
-  <si>
-    <t>六</t>
   </si>
   <si>
     <t>禺族临渊</t>
@@ -762,30 +765,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -799,9 +787,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -816,24 +803,61 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -845,8 +869,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -861,35 +901,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -898,17 +909,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -953,7 +956,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -971,13 +974,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1001,7 +1004,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1013,43 +1028,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1067,25 +1058,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1103,13 +1076,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1120,35 +1123,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1163,6 +1137,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1206,6 +1189,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1220,6 +1212,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1228,10 +1231,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1240,133 +1243,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4293,7 +4296,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W95"/>
+  <dimension ref="A1:W96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -6170,7 +6173,7 @@
         <v>219</v>
       </c>
       <c r="C69" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -6843,13 +6846,39 @@
         <v>244</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:23">
       <c r="A95" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C95" s="1"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2"/>
+      <c r="K95" s="2"/>
+      <c r="L95" s="2"/>
+      <c r="M95" s="2"/>
+      <c r="N95" s="2"/>
+      <c r="O95" s="2"/>
+      <c r="P95" s="2"/>
+      <c r="Q95" s="2"/>
+      <c r="R95" s="2"/>
+      <c r="S95" s="2"/>
+      <c r="T95" s="2"/>
+      <c r="W95" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C95">
-        <f>SUM(C2:C94)</f>
-        <v>93</v>
+      <c r="C96">
+        <f>SUM(C2:C95)</f>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -6861,7 +6890,7 @@
     <mergeCell ref="B28:B46"/>
     <mergeCell ref="B47:B60"/>
     <mergeCell ref="B61:B68"/>
-    <mergeCell ref="B69:B94"/>
+    <mergeCell ref="B69:B95"/>
     <mergeCell ref="C2:C8"/>
     <mergeCell ref="C9:C12"/>
     <mergeCell ref="C13:C23"/>
@@ -6869,7 +6898,7 @@
     <mergeCell ref="C28:C46"/>
     <mergeCell ref="C47:C60"/>
     <mergeCell ref="C61:C68"/>
-    <mergeCell ref="C69:C94"/>
+    <mergeCell ref="C69:C95"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/src/main/resources/CardStatus.xlsx
+++ b/src/main/resources/CardStatus.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="9915" activeTab="6"/>
+    <workbookView windowWidth="24000" windowHeight="9990" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="3" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="247">
   <si>
     <t>出处</t>
   </si>
@@ -680,6 +680,9 @@
   </si>
   <si>
     <t>六</t>
+  </si>
+  <si>
+    <t>鲲化祝圄</t>
   </si>
   <si>
     <t>禺族朔漩</t>
@@ -767,13 +770,37 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -787,38 +814,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -826,6 +824,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -845,48 +859,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -900,8 +874,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -915,9 +919,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -932,7 +935,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -944,13 +983,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -962,13 +1061,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -980,25 +1091,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1010,109 +1109,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1123,6 +1126,60 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1150,65 +1207,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1231,10 +1234,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1243,133 +1246,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4296,7 +4299,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W96"/>
+  <dimension ref="A1:W97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -6173,7 +6176,7 @@
         <v>219</v>
       </c>
       <c r="C69" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -6872,13 +6875,39 @@
         <v>245</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:23">
       <c r="A96" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C96" s="1"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+      <c r="J96" s="2"/>
+      <c r="K96" s="2"/>
+      <c r="L96" s="2"/>
+      <c r="M96" s="2"/>
+      <c r="N96" s="2"/>
+      <c r="O96" s="2"/>
+      <c r="P96" s="2"/>
+      <c r="Q96" s="2"/>
+      <c r="R96" s="2"/>
+      <c r="S96" s="2"/>
+      <c r="T96" s="2"/>
+      <c r="W96" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C96">
-        <f>SUM(C2:C95)</f>
-        <v>94</v>
+      <c r="C97">
+        <f>SUM(C2:C96)</f>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -6890,7 +6919,7 @@
     <mergeCell ref="B28:B46"/>
     <mergeCell ref="B47:B60"/>
     <mergeCell ref="B61:B68"/>
-    <mergeCell ref="B69:B95"/>
+    <mergeCell ref="B69:B96"/>
     <mergeCell ref="C2:C8"/>
     <mergeCell ref="C9:C12"/>
     <mergeCell ref="C13:C23"/>
@@ -6898,7 +6927,7 @@
     <mergeCell ref="C28:C46"/>
     <mergeCell ref="C47:C60"/>
     <mergeCell ref="C61:C68"/>
-    <mergeCell ref="C69:C95"/>
+    <mergeCell ref="C69:C96"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/src/main/resources/CardStatus.xlsx
+++ b/src/main/resources/CardStatus.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="248">
   <si>
     <t>出处</t>
   </si>
@@ -539,6 +539,9 @@
   </si>
   <si>
     <t>天妖皇</t>
+  </si>
+  <si>
+    <t>清冷仙人</t>
   </si>
   <si>
     <t>李三思</t>
@@ -768,10 +771,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -779,6 +782,72 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -792,9 +861,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -806,61 +883,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -876,6 +908,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -883,44 +923,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -935,19 +938,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -965,7 +992,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -977,13 +1016,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -995,7 +1034,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1007,67 +1046,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1085,13 +1082,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1109,13 +1100,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1126,6 +1129,32 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1144,6 +1173,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1155,30 +1202,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1201,28 +1224,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1234,10 +1237,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1246,16 +1249,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1264,115 +1267,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4299,7 +4302,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W97"/>
+  <dimension ref="A1:W98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4982,7 +4985,7 @@
         <v>127</v>
       </c>
       <c r="C24" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -5087,12 +5090,7 @@
       <c r="A28" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C28" s="1">
-        <v>19</v>
-      </c>
+      <c r="C28" s="1"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -5114,12 +5112,16 @@
         <v>177</v>
       </c>
     </row>
-    <row r="29" customFormat="1" spans="1:23">
+    <row r="29" spans="1:23">
       <c r="A29" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
+      <c r="B29" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C29" s="1">
+        <v>19</v>
+      </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -5222,10 +5224,11 @@
         <v>181</v>
       </c>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" customFormat="1" spans="1:23">
       <c r="A33" s="1" t="s">
         <v>182</v>
       </c>
+      <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -5590,12 +5593,7 @@
       <c r="A47" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C47" s="1">
-        <v>14</v>
-      </c>
+      <c r="C47" s="1"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -5621,7 +5619,12 @@
       <c r="A48" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C48" s="1"/>
+      <c r="B48" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" s="1">
+        <v>14</v>
+      </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -5959,12 +5962,7 @@
       <c r="A61" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C61" s="1">
-        <v>8</v>
-      </c>
+      <c r="C61" s="1"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
@@ -5990,7 +5988,12 @@
       <c r="A62" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C62" s="1"/>
+      <c r="B62" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C62" s="1">
+        <v>8</v>
+      </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
@@ -6172,12 +6175,7 @@
       <c r="A69" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C69" s="1">
-        <v>28</v>
-      </c>
+      <c r="C69" s="1"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
@@ -6201,9 +6199,14 @@
     </row>
     <row r="70" spans="1:23">
       <c r="A70" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C70" s="1"/>
+      <c r="C70" s="1">
+        <v>28</v>
+      </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
@@ -6222,7 +6225,7 @@
       <c r="S70" s="2"/>
       <c r="T70" s="2"/>
       <c r="W70" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -6901,13 +6904,39 @@
         <v>246</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:23">
       <c r="A97" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C97" s="1"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
+      <c r="J97" s="2"/>
+      <c r="K97" s="2"/>
+      <c r="L97" s="2"/>
+      <c r="M97" s="2"/>
+      <c r="N97" s="2"/>
+      <c r="O97" s="2"/>
+      <c r="P97" s="2"/>
+      <c r="Q97" s="2"/>
+      <c r="R97" s="2"/>
+      <c r="S97" s="2"/>
+      <c r="T97" s="2"/>
+      <c r="W97" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C97">
-        <f>SUM(C2:C96)</f>
-        <v>95</v>
+      <c r="C98">
+        <f>SUM(C2:C97)</f>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -6915,19 +6944,19 @@
     <mergeCell ref="B2:B8"/>
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="B13:B23"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="B28:B46"/>
-    <mergeCell ref="B47:B60"/>
-    <mergeCell ref="B61:B68"/>
-    <mergeCell ref="B69:B96"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="B29:B47"/>
+    <mergeCell ref="B48:B61"/>
+    <mergeCell ref="B62:B69"/>
+    <mergeCell ref="B70:B97"/>
     <mergeCell ref="C2:C8"/>
     <mergeCell ref="C9:C12"/>
     <mergeCell ref="C13:C23"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="C28:C46"/>
-    <mergeCell ref="C47:C60"/>
-    <mergeCell ref="C61:C68"/>
-    <mergeCell ref="C69:C96"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="C29:C47"/>
+    <mergeCell ref="C48:C61"/>
+    <mergeCell ref="C62:C69"/>
+    <mergeCell ref="C70:C97"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/src/main/resources/CardStatus.xlsx
+++ b/src/main/resources/CardStatus.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="249">
   <si>
     <t>出处</t>
   </si>
@@ -539,6 +539,9 @@
   </si>
   <si>
     <t>天妖皇</t>
+  </si>
+  <si>
+    <t>蕙卿</t>
   </si>
   <si>
     <t>清冷仙人</t>
@@ -771,9 +774,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -786,7 +789,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -799,31 +831,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -837,17 +847,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -875,11 +879,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -891,24 +902,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -917,6 +913,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -938,7 +941,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -950,37 +1067,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -992,7 +1079,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1004,109 +1103,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1118,7 +1121,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1129,6 +1132,56 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1149,59 +1202,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1237,10 +1240,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1249,133 +1252,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1458,7 +1461,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -4302,7 +4305,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W98"/>
+  <dimension ref="A1:W99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4985,7 +4988,7 @@
         <v>127</v>
       </c>
       <c r="C24" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -5116,12 +5119,7 @@
       <c r="A29" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C29" s="1">
-        <v>19</v>
-      </c>
+      <c r="C29" s="1"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -5143,12 +5141,16 @@
         <v>178</v>
       </c>
     </row>
-    <row r="30" customFormat="1" spans="1:23">
+    <row r="30" spans="1:23">
       <c r="A30" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
+      <c r="B30" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C30" s="1">
+        <v>19</v>
+      </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -5251,10 +5253,11 @@
         <v>182</v>
       </c>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" customFormat="1" spans="1:23">
       <c r="A34" s="1" t="s">
         <v>183</v>
       </c>
+      <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -5619,12 +5622,7 @@
       <c r="A48" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C48" s="1">
-        <v>14</v>
-      </c>
+      <c r="C48" s="1"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -5650,7 +5648,12 @@
       <c r="A49" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C49" s="1"/>
+      <c r="B49" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" s="1">
+        <v>14</v>
+      </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -5988,12 +5991,7 @@
       <c r="A62" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C62" s="1">
-        <v>8</v>
-      </c>
+      <c r="C62" s="1"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
@@ -6019,7 +6017,12 @@
       <c r="A63" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C63" s="1"/>
+      <c r="B63" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C63" s="1">
+        <v>8</v>
+      </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
@@ -6201,12 +6204,7 @@
       <c r="A70" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C70" s="1">
-        <v>28</v>
-      </c>
+      <c r="C70" s="1"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
@@ -6230,9 +6228,14 @@
     </row>
     <row r="71" spans="1:23">
       <c r="A71" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C71" s="1"/>
+      <c r="C71" s="1">
+        <v>28</v>
+      </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
@@ -6251,7 +6254,7 @@
       <c r="S71" s="2"/>
       <c r="T71" s="2"/>
       <c r="W71" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -6930,13 +6933,39 @@
         <v>247</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:23">
       <c r="A98" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C98" s="1"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
+      <c r="J98" s="2"/>
+      <c r="K98" s="2"/>
+      <c r="L98" s="2"/>
+      <c r="M98" s="2"/>
+      <c r="N98" s="2"/>
+      <c r="O98" s="2"/>
+      <c r="P98" s="2"/>
+      <c r="Q98" s="2"/>
+      <c r="R98" s="2"/>
+      <c r="S98" s="2"/>
+      <c r="T98" s="2"/>
+      <c r="W98" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C98">
-        <f>SUM(C2:C97)</f>
-        <v>96</v>
+      <c r="C99">
+        <f>SUM(C2:C98)</f>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -6944,19 +6973,19 @@
     <mergeCell ref="B2:B8"/>
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="B13:B23"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="B29:B47"/>
-    <mergeCell ref="B48:B61"/>
-    <mergeCell ref="B62:B69"/>
-    <mergeCell ref="B70:B97"/>
+    <mergeCell ref="B24:B29"/>
+    <mergeCell ref="B30:B48"/>
+    <mergeCell ref="B49:B62"/>
+    <mergeCell ref="B63:B70"/>
+    <mergeCell ref="B71:B98"/>
     <mergeCell ref="C2:C8"/>
     <mergeCell ref="C9:C12"/>
     <mergeCell ref="C13:C23"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="C29:C47"/>
-    <mergeCell ref="C48:C61"/>
-    <mergeCell ref="C62:C69"/>
-    <mergeCell ref="C70:C97"/>
+    <mergeCell ref="C24:C29"/>
+    <mergeCell ref="C30:C48"/>
+    <mergeCell ref="C49:C62"/>
+    <mergeCell ref="C63:C70"/>
+    <mergeCell ref="C71:C98"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/src/main/resources/CardStatus.xlsx
+++ b/src/main/resources/CardStatus.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="250">
   <si>
     <t>出处</t>
   </si>
@@ -500,6 +500,9 @@
   </si>
   <si>
     <t>掌门逍遥</t>
+  </si>
+  <si>
+    <t>魉妹</t>
   </si>
   <si>
     <t>盛尊武</t>
@@ -776,8 +779,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -803,22 +806,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -833,15 +822,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -852,6 +855,36 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -872,45 +905,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -918,10 +912,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -929,6 +924,14 @@
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -941,7 +944,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -953,91 +1040,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1061,13 +1076,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1079,49 +1118,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1132,30 +1135,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1185,17 +1164,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1224,6 +1212,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1240,10 +1243,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1252,133 +1255,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1461,7 +1464,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -4305,7 +4308,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W99"/>
+  <dimension ref="A1:W100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4588,7 +4591,7 @@
         <v>42</v>
       </c>
       <c r="C9" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -4693,12 +4696,7 @@
       <c r="A13" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="1">
-        <v>11</v>
-      </c>
+      <c r="C13" s="1"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -4724,7 +4722,12 @@
       <c r="A14" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1">
+        <v>11</v>
+      </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -4984,12 +4987,7 @@
       <c r="A24" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C24" s="1">
-        <v>6</v>
-      </c>
+      <c r="C24" s="1"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -5015,7 +5013,12 @@
       <c r="A25" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C25" s="1">
+        <v>6</v>
+      </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -5145,12 +5148,7 @@
       <c r="A30" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C30" s="1">
-        <v>19</v>
-      </c>
+      <c r="C30" s="1"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -5172,12 +5170,16 @@
         <v>179</v>
       </c>
     </row>
-    <row r="31" customFormat="1" spans="1:23">
+    <row r="31" spans="1:23">
       <c r="A31" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
+      <c r="B31" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C31" s="1">
+        <v>19</v>
+      </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -5280,10 +5282,11 @@
         <v>183</v>
       </c>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" customFormat="1" spans="1:23">
       <c r="A35" s="1" t="s">
         <v>184</v>
       </c>
+      <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -5648,12 +5651,7 @@
       <c r="A49" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C49" s="1">
-        <v>14</v>
-      </c>
+      <c r="C49" s="1"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -5679,7 +5677,12 @@
       <c r="A50" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C50" s="1"/>
+      <c r="B50" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50" s="1">
+        <v>14</v>
+      </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -6017,12 +6020,7 @@
       <c r="A63" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C63" s="1">
-        <v>8</v>
-      </c>
+      <c r="C63" s="1"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
@@ -6048,7 +6046,12 @@
       <c r="A64" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C64" s="1"/>
+      <c r="B64" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C64" s="1">
+        <v>8</v>
+      </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
@@ -6230,12 +6233,7 @@
       <c r="A71" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C71" s="1">
-        <v>28</v>
-      </c>
+      <c r="C71" s="1"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
@@ -6259,9 +6257,14 @@
     </row>
     <row r="72" spans="1:23">
       <c r="A72" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C72" s="1"/>
+      <c r="C72" s="1">
+        <v>28</v>
+      </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
@@ -6280,7 +6283,7 @@
       <c r="S72" s="2"/>
       <c r="T72" s="2"/>
       <c r="W72" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -6959,33 +6962,59 @@
         <v>248</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:23">
       <c r="A99" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C99" s="1"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="2"/>
+      <c r="I99" s="2"/>
+      <c r="J99" s="2"/>
+      <c r="K99" s="2"/>
+      <c r="L99" s="2"/>
+      <c r="M99" s="2"/>
+      <c r="N99" s="2"/>
+      <c r="O99" s="2"/>
+      <c r="P99" s="2"/>
+      <c r="Q99" s="2"/>
+      <c r="R99" s="2"/>
+      <c r="S99" s="2"/>
+      <c r="T99" s="2"/>
+      <c r="W99" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C99">
-        <f>SUM(C2:C98)</f>
-        <v>97</v>
+      <c r="C100">
+        <f>SUM(C2:C99)</f>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
     <mergeCell ref="B2:B8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="B13:B23"/>
-    <mergeCell ref="B24:B29"/>
-    <mergeCell ref="B30:B48"/>
-    <mergeCell ref="B49:B62"/>
-    <mergeCell ref="B63:B70"/>
-    <mergeCell ref="B71:B98"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B14:B24"/>
+    <mergeCell ref="B25:B30"/>
+    <mergeCell ref="B31:B49"/>
+    <mergeCell ref="B50:B63"/>
+    <mergeCell ref="B64:B71"/>
+    <mergeCell ref="B72:B99"/>
     <mergeCell ref="C2:C8"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="C13:C23"/>
-    <mergeCell ref="C24:C29"/>
-    <mergeCell ref="C30:C48"/>
-    <mergeCell ref="C49:C62"/>
-    <mergeCell ref="C63:C70"/>
-    <mergeCell ref="C71:C98"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="C14:C24"/>
+    <mergeCell ref="C25:C30"/>
+    <mergeCell ref="C31:C49"/>
+    <mergeCell ref="C50:C63"/>
+    <mergeCell ref="C64:C71"/>
+    <mergeCell ref="C72:C99"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/src/main/resources/CardStatus.xlsx
+++ b/src/main/resources/CardStatus.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="9990" activeTab="6"/>
+    <workbookView windowWidth="28800" windowHeight="12690" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="3" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="252">
   <si>
     <t>出处</t>
   </si>
@@ -562,6 +562,9 @@
     <t>星璇</t>
   </si>
   <si>
+    <t>怀朔</t>
+  </si>
+  <si>
     <t>飞仙玄霄</t>
   </si>
   <si>
@@ -659,6 +662,9 @@
   </si>
   <si>
     <t>小蛮</t>
+  </si>
+  <si>
+    <t>魂化凌波</t>
   </si>
   <si>
     <t>岚翼</t>
@@ -777,9 +783,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -788,6 +794,52 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -806,30 +858,23 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -843,26 +888,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -875,14 +905,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -896,30 +926,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -928,10 +934,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -944,19 +950,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -968,31 +1046,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1004,7 +1070,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1016,43 +1094,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1070,61 +1112,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1138,28 +1144,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1190,24 +1185,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1230,8 +1212,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1243,10 +1249,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1255,133 +1261,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1464,7 +1470,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -4308,7 +4314,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W100"/>
+  <dimension ref="A1:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5178,7 +5184,7 @@
         <v>132</v>
       </c>
       <c r="C31" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -5309,10 +5315,11 @@
         <v>184</v>
       </c>
     </row>
-    <row r="36" spans="1:23">
+    <row r="36" customFormat="1" spans="1:23">
       <c r="A36" s="1" t="s">
         <v>185</v>
       </c>
+      <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -5677,12 +5684,7 @@
       <c r="A50" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C50" s="1">
-        <v>14</v>
-      </c>
+      <c r="C50" s="1"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -5708,7 +5710,12 @@
       <c r="A51" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C51" s="1"/>
+      <c r="B51" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C51" s="1">
+        <v>14</v>
+      </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -6046,12 +6053,7 @@
       <c r="A64" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C64" s="1">
-        <v>8</v>
-      </c>
+      <c r="C64" s="1"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
@@ -6077,7 +6079,12 @@
       <c r="A65" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C65" s="1"/>
+      <c r="B65" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C65" s="1">
+        <v>9</v>
+      </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
@@ -6259,12 +6266,7 @@
       <c r="A72" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C72" s="1">
-        <v>28</v>
-      </c>
+      <c r="C72" s="1"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
@@ -6288,7 +6290,7 @@
     </row>
     <row r="73" spans="1:23">
       <c r="A73" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="2"/>
@@ -6309,14 +6311,19 @@
       <c r="S73" s="2"/>
       <c r="T73" s="2"/>
       <c r="W73" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="74" spans="1:23">
       <c r="A74" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C74" s="1"/>
+      <c r="C74" s="1">
+        <v>28</v>
+      </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
@@ -6335,7 +6342,7 @@
       <c r="S74" s="2"/>
       <c r="T74" s="2"/>
       <c r="W74" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -6988,13 +6995,65 @@
         <v>249</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:23">
       <c r="A100" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C100" s="1"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
+      <c r="J100" s="2"/>
+      <c r="K100" s="2"/>
+      <c r="L100" s="2"/>
+      <c r="M100" s="2"/>
+      <c r="N100" s="2"/>
+      <c r="O100" s="2"/>
+      <c r="P100" s="2"/>
+      <c r="Q100" s="2"/>
+      <c r="R100" s="2"/>
+      <c r="S100" s="2"/>
+      <c r="T100" s="2"/>
+      <c r="W100" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23">
+      <c r="A101" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C101" s="1"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="2"/>
+      <c r="I101" s="2"/>
+      <c r="J101" s="2"/>
+      <c r="K101" s="2"/>
+      <c r="L101" s="2"/>
+      <c r="M101" s="2"/>
+      <c r="N101" s="2"/>
+      <c r="O101" s="2"/>
+      <c r="P101" s="2"/>
+      <c r="Q101" s="2"/>
+      <c r="R101" s="2"/>
+      <c r="S101" s="2"/>
+      <c r="T101" s="2"/>
+      <c r="W101" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C100">
-        <f>SUM(C2:C99)</f>
-        <v>98</v>
+      <c r="C102">
+        <f>SUM(C2:C101)</f>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -7003,18 +7062,18 @@
     <mergeCell ref="B9:B13"/>
     <mergeCell ref="B14:B24"/>
     <mergeCell ref="B25:B30"/>
-    <mergeCell ref="B31:B49"/>
-    <mergeCell ref="B50:B63"/>
-    <mergeCell ref="B64:B71"/>
-    <mergeCell ref="B72:B99"/>
+    <mergeCell ref="B31:B50"/>
+    <mergeCell ref="B51:B64"/>
+    <mergeCell ref="B65:B73"/>
+    <mergeCell ref="B74:B101"/>
     <mergeCell ref="C2:C8"/>
     <mergeCell ref="C9:C13"/>
     <mergeCell ref="C14:C24"/>
     <mergeCell ref="C25:C30"/>
-    <mergeCell ref="C31:C49"/>
-    <mergeCell ref="C50:C63"/>
-    <mergeCell ref="C64:C71"/>
-    <mergeCell ref="C72:C99"/>
+    <mergeCell ref="C31:C50"/>
+    <mergeCell ref="C51:C64"/>
+    <mergeCell ref="C65:C73"/>
+    <mergeCell ref="C74:C101"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/src/main/resources/CardStatus.xlsx
+++ b/src/main/resources/CardStatus.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12690" activeTab="6"/>
+    <workbookView windowWidth="28125" windowHeight="12690" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="3" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="255">
   <si>
     <t>出处</t>
   </si>
@@ -466,6 +466,9 @@
     <t>瑕</t>
   </si>
   <si>
+    <t>绝技7</t>
+  </si>
+  <si>
     <t>云裳部件</t>
   </si>
   <si>
@@ -662,6 +665,12 @@
   </si>
   <si>
     <t>小蛮</t>
+  </si>
+  <si>
+    <t>夜叉龙溟</t>
+  </si>
+  <si>
+    <t>魔化瑕</t>
   </si>
   <si>
     <t>魂化凌波</t>
@@ -783,9 +792,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -799,7 +808,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -807,6 +830,51 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -821,37 +889,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -865,62 +912,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -940,6 +934,21 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -950,7 +959,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -962,19 +977,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -986,19 +1007,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1010,31 +1037,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1052,13 +1061,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1070,67 +1127,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1144,26 +1153,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1179,17 +1173,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1213,7 +1196,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1241,6 +1239,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1249,10 +1258,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1261,137 +1270,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1400,6 +1409,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -4314,7 +4326,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W102"/>
+  <dimension ref="A1:X104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4330,14 +4342,14 @@
     <col min="7" max="8" width="6.375" style="1" customWidth="1"/>
     <col min="9" max="12" width="7.375" style="1" customWidth="1"/>
     <col min="13" max="15" width="6.375" style="1" customWidth="1"/>
-    <col min="16" max="18" width="6.375" customWidth="1"/>
-    <col min="19" max="19" width="5.375" customWidth="1"/>
-    <col min="20" max="21" width="9.375" customWidth="1"/>
-    <col min="22" max="22" width="11.5" customWidth="1"/>
-    <col min="23" max="23" width="9.375" customWidth="1"/>
+    <col min="16" max="19" width="6.375" customWidth="1"/>
+    <col min="20" max="20" width="5.375" customWidth="1"/>
+    <col min="21" max="22" width="9.375" customWidth="1"/>
+    <col min="23" max="23" width="11.5" customWidth="1"/>
+    <col min="24" max="24" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="2:22">
+    <row r="1" s="1" customFormat="1" spans="2:23">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4390,10 +4402,10 @@
         <v>102</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>149</v>
@@ -4401,10 +4413,13 @@
       <c r="V1" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="W1" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -4429,13 +4444,14 @@
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
-      <c r="W2" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="U2" s="2"/>
+      <c r="X2" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
@@ -4455,13 +4471,14 @@
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
-      <c r="W3" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="U3" s="2"/>
+      <c r="X3" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="2"/>
@@ -4481,13 +4498,14 @@
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
-      <c r="W4" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23">
+      <c r="U4" s="2"/>
+      <c r="X4" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="2"/>
@@ -4507,13 +4525,14 @@
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
-      <c r="W5" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23">
+      <c r="U5" s="2"/>
+      <c r="X5" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="2"/>
@@ -4533,13 +4552,14 @@
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
-      <c r="W6" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23">
+      <c r="U6" s="2"/>
+      <c r="X6" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="2"/>
@@ -4559,13 +4579,14 @@
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
-      <c r="W7" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23">
+      <c r="U7" s="2"/>
+      <c r="X7" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="2"/>
@@ -4585,13 +4606,14 @@
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
-      <c r="W8" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23">
+      <c r="U8" s="2"/>
+      <c r="X8" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
       <c r="A9" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>42</v>
@@ -4616,13 +4638,14 @@
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
-      <c r="W9" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23">
+      <c r="U9" s="2"/>
+      <c r="X9" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
       <c r="A10" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="2"/>
@@ -4642,13 +4665,14 @@
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
-      <c r="W10" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23">
+      <c r="U10" s="2"/>
+      <c r="X10" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
       <c r="A11" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="2"/>
@@ -4668,13 +4692,14 @@
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
-      <c r="W11" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23">
+      <c r="U11" s="2"/>
+      <c r="X11" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
       <c r="A12" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="2"/>
@@ -4694,13 +4719,14 @@
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
-      <c r="W12" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23">
+      <c r="U12" s="2"/>
+      <c r="X12" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
       <c r="A13" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="2"/>
@@ -4720,13 +4746,14 @@
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
-      <c r="W13" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23">
+      <c r="U13" s="2"/>
+      <c r="X13" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
       <c r="A14" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>10</v>
@@ -4751,13 +4778,14 @@
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
-      <c r="W14" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23">
+      <c r="U14" s="2"/>
+      <c r="X14" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="2"/>
@@ -4777,13 +4805,14 @@
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
-      <c r="W15" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23">
+      <c r="U15" s="2"/>
+      <c r="X15" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
       <c r="A16" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="2"/>
@@ -4803,13 +4832,14 @@
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
-      <c r="W16" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23">
+      <c r="U16" s="2"/>
+      <c r="X16" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
       <c r="A17" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="2"/>
@@ -4829,13 +4859,14 @@
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
-      <c r="W17" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23">
+      <c r="U17" s="2"/>
+      <c r="X17" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
       <c r="A18" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="2"/>
@@ -4855,13 +4886,14 @@
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
-      <c r="W18" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23">
+      <c r="U18" s="2"/>
+      <c r="X18" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
       <c r="A19" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="2"/>
@@ -4881,13 +4913,14 @@
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
-      <c r="W19" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23">
+      <c r="U19" s="2"/>
+      <c r="X19" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
       <c r="A20" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="2"/>
@@ -4907,13 +4940,14 @@
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
-      <c r="W20" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23">
+      <c r="U20" s="2"/>
+      <c r="X20" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
       <c r="A21" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="2"/>
@@ -4933,13 +4967,14 @@
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
-      <c r="W21" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23">
+      <c r="U21" s="2"/>
+      <c r="X21" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
       <c r="A22" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="2"/>
@@ -4959,13 +4994,14 @@
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
-      <c r="W22" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23">
+      <c r="U22" s="2"/>
+      <c r="X22" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
       <c r="A23" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="2"/>
@@ -4985,13 +5021,14 @@
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
-      <c r="W23" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23">
+      <c r="U23" s="2"/>
+      <c r="X23" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
       <c r="A24" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="2"/>
@@ -5011,13 +5048,14 @@
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
-      <c r="W24" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23">
+      <c r="U24" s="2"/>
+      <c r="X24" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24">
       <c r="A25" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>127</v>
@@ -5042,13 +5080,14 @@
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
-      <c r="W25" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23">
+      <c r="U25" s="2"/>
+      <c r="X25" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24">
       <c r="A26" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="2"/>
@@ -5068,13 +5107,14 @@
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
-      <c r="W26" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23">
+      <c r="U26" s="2"/>
+      <c r="X26" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24">
       <c r="A27" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
@@ -5094,13 +5134,14 @@
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
-      <c r="W27" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23">
+      <c r="U27" s="2"/>
+      <c r="X27" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24">
       <c r="A28" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="2"/>
@@ -5120,13 +5161,14 @@
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
-      <c r="W28" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23">
+      <c r="U28" s="2"/>
+      <c r="X28" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24">
       <c r="A29" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="2"/>
@@ -5146,13 +5188,14 @@
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
-      <c r="W29" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23">
+      <c r="U29" s="2"/>
+      <c r="X29" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24">
       <c r="A30" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="2"/>
@@ -5172,13 +5215,14 @@
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
-      <c r="W30" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23">
+      <c r="U30" s="2"/>
+      <c r="X30" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
       <c r="A31" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>132</v>
@@ -5203,13 +5247,14 @@
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
-      <c r="W31" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="32" customFormat="1" spans="1:23">
+      <c r="U31" s="2"/>
+      <c r="X31" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="32" customFormat="1" spans="1:24">
       <c r="A32" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -5230,13 +5275,14 @@
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
-      <c r="W32" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="33" customFormat="1" spans="1:23">
+      <c r="U32" s="2"/>
+      <c r="X32" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" spans="1:24">
       <c r="A33" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -5257,13 +5303,14 @@
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
-      <c r="W33" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="34" customFormat="1" spans="1:23">
+      <c r="U33" s="2"/>
+      <c r="X33" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1" spans="1:24">
       <c r="A34" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -5284,13 +5331,14 @@
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
-      <c r="W34" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="35" customFormat="1" spans="1:23">
+      <c r="U34" s="2"/>
+      <c r="X34" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="35" customFormat="1" spans="1:24">
       <c r="A35" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -5311,13 +5359,14 @@
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
-      <c r="W35" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="36" customFormat="1" spans="1:23">
+      <c r="U35" s="2"/>
+      <c r="X35" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="36" customFormat="1" spans="1:24">
       <c r="A36" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -5338,13 +5387,14 @@
       <c r="R36" s="2"/>
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
-      <c r="W36" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23">
+      <c r="U36" s="2"/>
+      <c r="X36" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24">
       <c r="A37" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="2"/>
@@ -5364,13 +5414,14 @@
       <c r="R37" s="2"/>
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
-      <c r="W37" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23">
+      <c r="U37" s="2"/>
+      <c r="X37" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24">
       <c r="A38" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="2"/>
@@ -5390,13 +5441,14 @@
       <c r="R38" s="2"/>
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
-      <c r="W38" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23">
+      <c r="U38" s="2"/>
+      <c r="X38" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24">
       <c r="A39" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="2"/>
@@ -5416,13 +5468,14 @@
       <c r="R39" s="2"/>
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
-      <c r="W39" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23">
+      <c r="U39" s="2"/>
+      <c r="X39" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24">
       <c r="A40" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="2"/>
@@ -5442,13 +5495,14 @@
       <c r="R40" s="2"/>
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
-      <c r="W40" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23">
+      <c r="U40" s="2"/>
+      <c r="X40" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24">
       <c r="A41" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="2"/>
@@ -5468,13 +5522,14 @@
       <c r="R41" s="2"/>
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
-      <c r="W41" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23">
+      <c r="U41" s="2"/>
+      <c r="X41" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24">
       <c r="A42" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="2"/>
@@ -5494,13 +5549,14 @@
       <c r="R42" s="2"/>
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
-      <c r="W42" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23">
+      <c r="U42" s="2"/>
+      <c r="X42" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24">
       <c r="A43" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="2"/>
@@ -5520,13 +5576,14 @@
       <c r="R43" s="2"/>
       <c r="S43" s="2"/>
       <c r="T43" s="2"/>
-      <c r="W43" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23">
+      <c r="U43" s="2"/>
+      <c r="X43" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24">
       <c r="A44" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="2"/>
@@ -5546,13 +5603,14 @@
       <c r="R44" s="2"/>
       <c r="S44" s="2"/>
       <c r="T44" s="2"/>
-      <c r="W44" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23">
+      <c r="U44" s="2"/>
+      <c r="X44" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24">
       <c r="A45" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="2"/>
@@ -5572,13 +5630,14 @@
       <c r="R45" s="2"/>
       <c r="S45" s="2"/>
       <c r="T45" s="2"/>
-      <c r="W45" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23">
+      <c r="U45" s="2"/>
+      <c r="X45" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24">
       <c r="A46" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="2"/>
@@ -5598,13 +5657,14 @@
       <c r="R46" s="2"/>
       <c r="S46" s="2"/>
       <c r="T46" s="2"/>
-      <c r="W46" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23">
+      <c r="U46" s="2"/>
+      <c r="X46" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24">
       <c r="A47" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="2"/>
@@ -5624,13 +5684,14 @@
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
       <c r="T47" s="2"/>
-      <c r="W47" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23">
+      <c r="U47" s="2"/>
+      <c r="X47" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24">
       <c r="A48" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="2"/>
@@ -5650,13 +5711,14 @@
       <c r="R48" s="2"/>
       <c r="S48" s="2"/>
       <c r="T48" s="2"/>
-      <c r="W48" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23">
+      <c r="U48" s="2"/>
+      <c r="X48" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24">
       <c r="A49" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="2"/>
@@ -5676,13 +5738,14 @@
       <c r="R49" s="2"/>
       <c r="S49" s="2"/>
       <c r="T49" s="2"/>
-      <c r="W49" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23">
+      <c r="U49" s="2"/>
+      <c r="X49" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24">
       <c r="A50" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="2"/>
@@ -5702,13 +5765,14 @@
       <c r="R50" s="2"/>
       <c r="S50" s="2"/>
       <c r="T50" s="2"/>
-      <c r="W50" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23">
+      <c r="U50" s="2"/>
+      <c r="X50" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24">
       <c r="A51" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>24</v>
@@ -5733,13 +5797,14 @@
       <c r="R51" s="2"/>
       <c r="S51" s="2"/>
       <c r="T51" s="2"/>
-      <c r="W51" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23">
+      <c r="U51" s="2"/>
+      <c r="X51" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24">
       <c r="A52" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="2"/>
@@ -5759,13 +5824,14 @@
       <c r="R52" s="2"/>
       <c r="S52" s="2"/>
       <c r="T52" s="2"/>
-      <c r="W52" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23">
+      <c r="U52" s="2"/>
+      <c r="X52" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24">
       <c r="A53" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="2"/>
@@ -5785,13 +5851,14 @@
       <c r="R53" s="2"/>
       <c r="S53" s="2"/>
       <c r="T53" s="2"/>
-      <c r="W53" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23">
+      <c r="U53" s="2"/>
+      <c r="X53" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24">
       <c r="A54" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="2"/>
@@ -5811,13 +5878,14 @@
       <c r="R54" s="2"/>
       <c r="S54" s="2"/>
       <c r="T54" s="2"/>
-      <c r="W54" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23">
+      <c r="U54" s="2"/>
+      <c r="X54" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24">
       <c r="A55" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="2"/>
@@ -5837,13 +5905,14 @@
       <c r="R55" s="2"/>
       <c r="S55" s="2"/>
       <c r="T55" s="2"/>
-      <c r="W55" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="56" spans="1:23">
+      <c r="U55" s="2"/>
+      <c r="X55" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24">
       <c r="A56" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="2"/>
@@ -5863,13 +5932,14 @@
       <c r="R56" s="2"/>
       <c r="S56" s="2"/>
       <c r="T56" s="2"/>
-      <c r="W56" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="57" spans="1:23">
+      <c r="U56" s="2"/>
+      <c r="X56" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24">
       <c r="A57" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="2"/>
@@ -5889,13 +5959,14 @@
       <c r="R57" s="2"/>
       <c r="S57" s="2"/>
       <c r="T57" s="2"/>
-      <c r="W57" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="58" spans="1:23">
+      <c r="U57" s="2"/>
+      <c r="X57" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24">
       <c r="A58" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="2"/>
@@ -5915,13 +5986,14 @@
       <c r="R58" s="2"/>
       <c r="S58" s="2"/>
       <c r="T58" s="2"/>
-      <c r="W58" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="59" spans="1:23">
+      <c r="U58" s="2"/>
+      <c r="X58" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24">
       <c r="A59" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="2"/>
@@ -5941,13 +6013,14 @@
       <c r="R59" s="2"/>
       <c r="S59" s="2"/>
       <c r="T59" s="2"/>
-      <c r="W59" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="60" spans="1:23">
+      <c r="U59" s="2"/>
+      <c r="X59" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24">
       <c r="A60" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="2"/>
@@ -5967,13 +6040,14 @@
       <c r="R60" s="2"/>
       <c r="S60" s="2"/>
       <c r="T60" s="2"/>
-      <c r="W60" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="61" spans="1:23">
+      <c r="U60" s="2"/>
+      <c r="X60" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24">
       <c r="A61" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="2"/>
@@ -5993,13 +6067,14 @@
       <c r="R61" s="2"/>
       <c r="S61" s="2"/>
       <c r="T61" s="2"/>
-      <c r="W61" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="62" spans="1:23">
+      <c r="U61" s="2"/>
+      <c r="X61" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24">
       <c r="A62" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="2"/>
@@ -6019,13 +6094,14 @@
       <c r="R62" s="2"/>
       <c r="S62" s="2"/>
       <c r="T62" s="2"/>
-      <c r="W62" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="63" spans="1:23">
+      <c r="U62" s="2"/>
+      <c r="X62" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24">
       <c r="A63" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="2"/>
@@ -6045,13 +6121,14 @@
       <c r="R63" s="2"/>
       <c r="S63" s="2"/>
       <c r="T63" s="2"/>
-      <c r="W63" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="64" spans="1:23">
+      <c r="U63" s="2"/>
+      <c r="X63" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24">
       <c r="A64" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="2"/>
@@ -6071,19 +6148,20 @@
       <c r="R64" s="2"/>
       <c r="S64" s="2"/>
       <c r="T64" s="2"/>
-      <c r="W64" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="65" spans="1:23">
-      <c r="A65" s="1" t="s">
+      <c r="U64" s="2"/>
+      <c r="X64" s="1" t="s">
         <v>214</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24">
+      <c r="A65" s="3" t="s">
+        <v>215</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C65" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
@@ -6102,13 +6180,14 @@
       <c r="R65" s="2"/>
       <c r="S65" s="2"/>
       <c r="T65" s="2"/>
-      <c r="W65" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="66" spans="1:23">
-      <c r="A66" s="1" t="s">
+      <c r="U65" s="2"/>
+      <c r="X65" s="3" t="s">
         <v>215</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24">
+      <c r="A66" s="3" t="s">
+        <v>216</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="2"/>
@@ -6128,13 +6207,14 @@
       <c r="R66" s="2"/>
       <c r="S66" s="2"/>
       <c r="T66" s="2"/>
-      <c r="W66" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="67" spans="1:23">
+      <c r="U66" s="2"/>
+      <c r="X66" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24">
       <c r="A67" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="2"/>
@@ -6154,13 +6234,14 @@
       <c r="R67" s="2"/>
       <c r="S67" s="2"/>
       <c r="T67" s="2"/>
-      <c r="W67" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="68" spans="1:23">
+      <c r="U67" s="2"/>
+      <c r="X67" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24">
       <c r="A68" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="2"/>
@@ -6180,13 +6261,14 @@
       <c r="R68" s="2"/>
       <c r="S68" s="2"/>
       <c r="T68" s="2"/>
-      <c r="W68" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="69" spans="1:23">
+      <c r="U68" s="2"/>
+      <c r="X68" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24">
       <c r="A69" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="2"/>
@@ -6206,13 +6288,14 @@
       <c r="R69" s="2"/>
       <c r="S69" s="2"/>
       <c r="T69" s="2"/>
-      <c r="W69" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="70" spans="1:23">
+      <c r="U69" s="2"/>
+      <c r="X69" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24">
       <c r="A70" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="2"/>
@@ -6232,13 +6315,14 @@
       <c r="R70" s="2"/>
       <c r="S70" s="2"/>
       <c r="T70" s="2"/>
-      <c r="W70" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="71" spans="1:23">
+      <c r="U70" s="2"/>
+      <c r="X70" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24">
       <c r="A71" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="2"/>
@@ -6258,13 +6342,14 @@
       <c r="R71" s="2"/>
       <c r="S71" s="2"/>
       <c r="T71" s="2"/>
-      <c r="W71" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="72" spans="1:23">
+      <c r="U71" s="2"/>
+      <c r="X71" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24">
       <c r="A72" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="2"/>
@@ -6284,13 +6369,14 @@
       <c r="R72" s="2"/>
       <c r="S72" s="2"/>
       <c r="T72" s="2"/>
-      <c r="W72" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="73" spans="1:23">
+      <c r="U72" s="2"/>
+      <c r="X72" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24">
       <c r="A73" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="2"/>
@@ -6310,20 +6396,16 @@
       <c r="R73" s="2"/>
       <c r="S73" s="2"/>
       <c r="T73" s="2"/>
-      <c r="W73" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="74" spans="1:23">
+      <c r="U73" s="2"/>
+      <c r="X73" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24">
       <c r="A74" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B74" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C74" s="1">
-        <v>28</v>
-      </c>
+      <c r="C74" s="1"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
@@ -6341,11 +6423,12 @@
       <c r="R74" s="2"/>
       <c r="S74" s="2"/>
       <c r="T74" s="2"/>
-      <c r="W74" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="75" spans="1:23">
+      <c r="U74" s="2"/>
+      <c r="X74" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24">
       <c r="A75" s="1" t="s">
         <v>225</v>
       </c>
@@ -6367,15 +6450,21 @@
       <c r="R75" s="2"/>
       <c r="S75" s="2"/>
       <c r="T75" s="2"/>
-      <c r="W75" s="1" t="s">
+      <c r="U75" s="2"/>
+      <c r="X75" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="76" spans="1:23">
+    <row r="76" spans="1:24">
       <c r="A76" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C76" s="1"/>
+      <c r="B76" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C76" s="1">
+        <v>28</v>
+      </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
@@ -6393,13 +6482,14 @@
       <c r="R76" s="2"/>
       <c r="S76" s="2"/>
       <c r="T76" s="2"/>
-      <c r="W76" s="1" t="s">
+      <c r="U76" s="2"/>
+      <c r="X76" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="77" spans="1:23">
+    <row r="77" spans="1:24">
       <c r="A77" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="2"/>
@@ -6419,13 +6509,14 @@
       <c r="R77" s="2"/>
       <c r="S77" s="2"/>
       <c r="T77" s="2"/>
-      <c r="W77" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="78" spans="1:23">
+      <c r="U77" s="2"/>
+      <c r="X77" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24">
       <c r="A78" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="2"/>
@@ -6445,13 +6536,14 @@
       <c r="R78" s="2"/>
       <c r="S78" s="2"/>
       <c r="T78" s="2"/>
-      <c r="W78" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="79" spans="1:23">
+      <c r="U78" s="2"/>
+      <c r="X78" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24">
       <c r="A79" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="2"/>
@@ -6471,13 +6563,14 @@
       <c r="R79" s="2"/>
       <c r="S79" s="2"/>
       <c r="T79" s="2"/>
-      <c r="W79" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="80" spans="1:23">
+      <c r="U79" s="2"/>
+      <c r="X79" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24">
       <c r="A80" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="2"/>
@@ -6497,13 +6590,14 @@
       <c r="R80" s="2"/>
       <c r="S80" s="2"/>
       <c r="T80" s="2"/>
-      <c r="W80" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="81" spans="1:23">
+      <c r="U80" s="2"/>
+      <c r="X80" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24">
       <c r="A81" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="2"/>
@@ -6523,13 +6617,14 @@
       <c r="R81" s="2"/>
       <c r="S81" s="2"/>
       <c r="T81" s="2"/>
-      <c r="W81" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="82" spans="1:23">
+      <c r="U81" s="2"/>
+      <c r="X81" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24">
       <c r="A82" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C82" s="1"/>
       <c r="D82" s="2"/>
@@ -6549,13 +6644,14 @@
       <c r="R82" s="2"/>
       <c r="S82" s="2"/>
       <c r="T82" s="2"/>
-      <c r="W82" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="83" spans="1:23">
+      <c r="U82" s="2"/>
+      <c r="X82" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24">
       <c r="A83" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="2"/>
@@ -6575,13 +6671,14 @@
       <c r="R83" s="2"/>
       <c r="S83" s="2"/>
       <c r="T83" s="2"/>
-      <c r="W83" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="84" spans="1:23">
+      <c r="U83" s="2"/>
+      <c r="X83" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24">
       <c r="A84" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C84" s="1"/>
       <c r="D84" s="2"/>
@@ -6601,13 +6698,14 @@
       <c r="R84" s="2"/>
       <c r="S84" s="2"/>
       <c r="T84" s="2"/>
-      <c r="W84" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="85" spans="1:23">
+      <c r="U84" s="2"/>
+      <c r="X84" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24">
       <c r="A85" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="2"/>
@@ -6627,13 +6725,14 @@
       <c r="R85" s="2"/>
       <c r="S85" s="2"/>
       <c r="T85" s="2"/>
-      <c r="W85" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="86" spans="1:23">
+      <c r="U85" s="2"/>
+      <c r="X85" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24">
       <c r="A86" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="2"/>
@@ -6653,13 +6752,14 @@
       <c r="R86" s="2"/>
       <c r="S86" s="2"/>
       <c r="T86" s="2"/>
-      <c r="W86" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="87" spans="1:23">
+      <c r="U86" s="2"/>
+      <c r="X86" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24">
       <c r="A87" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C87" s="1"/>
       <c r="D87" s="2"/>
@@ -6679,13 +6779,14 @@
       <c r="R87" s="2"/>
       <c r="S87" s="2"/>
       <c r="T87" s="2"/>
-      <c r="W87" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="88" spans="1:23">
+      <c r="U87" s="2"/>
+      <c r="X87" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24">
       <c r="A88" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C88" s="1"/>
       <c r="D88" s="2"/>
@@ -6705,13 +6806,14 @@
       <c r="R88" s="2"/>
       <c r="S88" s="2"/>
       <c r="T88" s="2"/>
-      <c r="W88" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="89" spans="1:23">
+      <c r="U88" s="2"/>
+      <c r="X88" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24">
       <c r="A89" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="2"/>
@@ -6731,13 +6833,14 @@
       <c r="R89" s="2"/>
       <c r="S89" s="2"/>
       <c r="T89" s="2"/>
-      <c r="W89" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="90" spans="1:23">
+      <c r="U89" s="2"/>
+      <c r="X89" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24">
       <c r="A90" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C90" s="1"/>
       <c r="D90" s="2"/>
@@ -6757,13 +6860,14 @@
       <c r="R90" s="2"/>
       <c r="S90" s="2"/>
       <c r="T90" s="2"/>
-      <c r="W90" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="91" spans="1:23">
+      <c r="U90" s="2"/>
+      <c r="X90" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24">
       <c r="A91" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C91" s="1"/>
       <c r="D91" s="2"/>
@@ -6783,13 +6887,14 @@
       <c r="R91" s="2"/>
       <c r="S91" s="2"/>
       <c r="T91" s="2"/>
-      <c r="W91" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="92" spans="1:23">
+      <c r="U91" s="2"/>
+      <c r="X91" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24">
       <c r="A92" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C92" s="1"/>
       <c r="D92" s="2"/>
@@ -6809,13 +6914,14 @@
       <c r="R92" s="2"/>
       <c r="S92" s="2"/>
       <c r="T92" s="2"/>
-      <c r="W92" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="93" spans="1:23">
+      <c r="U92" s="2"/>
+      <c r="X92" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24">
       <c r="A93" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C93" s="1"/>
       <c r="D93" s="2"/>
@@ -6835,13 +6941,14 @@
       <c r="R93" s="2"/>
       <c r="S93" s="2"/>
       <c r="T93" s="2"/>
-      <c r="W93" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="94" spans="1:23">
+      <c r="U93" s="2"/>
+      <c r="X93" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24">
       <c r="A94" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="2"/>
@@ -6861,13 +6968,14 @@
       <c r="R94" s="2"/>
       <c r="S94" s="2"/>
       <c r="T94" s="2"/>
-      <c r="W94" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="95" spans="1:23">
+      <c r="U94" s="2"/>
+      <c r="X94" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24">
       <c r="A95" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="2"/>
@@ -6887,13 +6995,14 @@
       <c r="R95" s="2"/>
       <c r="S95" s="2"/>
       <c r="T95" s="2"/>
-      <c r="W95" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="96" spans="1:23">
+      <c r="U95" s="2"/>
+      <c r="X95" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24">
       <c r="A96" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C96" s="1"/>
       <c r="D96" s="2"/>
@@ -6913,13 +7022,14 @@
       <c r="R96" s="2"/>
       <c r="S96" s="2"/>
       <c r="T96" s="2"/>
-      <c r="W96" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="97" spans="1:23">
+      <c r="U96" s="2"/>
+      <c r="X96" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="97" spans="1:24">
       <c r="A97" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C97" s="1"/>
       <c r="D97" s="2"/>
@@ -6939,13 +7049,14 @@
       <c r="R97" s="2"/>
       <c r="S97" s="2"/>
       <c r="T97" s="2"/>
-      <c r="W97" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="98" spans="1:23">
+      <c r="U97" s="2"/>
+      <c r="X97" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="98" spans="1:24">
       <c r="A98" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C98" s="1"/>
       <c r="D98" s="2"/>
@@ -6965,13 +7076,14 @@
       <c r="R98" s="2"/>
       <c r="S98" s="2"/>
       <c r="T98" s="2"/>
-      <c r="W98" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="99" spans="1:23">
+      <c r="U98" s="2"/>
+      <c r="X98" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="99" spans="1:24">
       <c r="A99" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C99" s="1"/>
       <c r="D99" s="2"/>
@@ -6991,13 +7103,14 @@
       <c r="R99" s="2"/>
       <c r="S99" s="2"/>
       <c r="T99" s="2"/>
-      <c r="W99" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="100" spans="1:23">
+      <c r="U99" s="2"/>
+      <c r="X99" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="100" spans="1:24">
       <c r="A100" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C100" s="1"/>
       <c r="D100" s="2"/>
@@ -7017,13 +7130,14 @@
       <c r="R100" s="2"/>
       <c r="S100" s="2"/>
       <c r="T100" s="2"/>
-      <c r="W100" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="101" spans="1:23">
+      <c r="U100" s="2"/>
+      <c r="X100" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="101" spans="1:24">
       <c r="A101" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C101" s="1"/>
       <c r="D101" s="2"/>
@@ -7043,17 +7157,72 @@
       <c r="R101" s="2"/>
       <c r="S101" s="2"/>
       <c r="T101" s="2"/>
-      <c r="W101" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+      <c r="U101" s="2"/>
+      <c r="X101" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="102" spans="1:24">
       <c r="A102" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C102" s="1"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
+      <c r="H102" s="2"/>
+      <c r="I102" s="2"/>
+      <c r="J102" s="2"/>
+      <c r="K102" s="2"/>
+      <c r="L102" s="2"/>
+      <c r="M102" s="2"/>
+      <c r="N102" s="2"/>
+      <c r="O102" s="2"/>
+      <c r="P102" s="2"/>
+      <c r="Q102" s="2"/>
+      <c r="R102" s="2"/>
+      <c r="S102" s="2"/>
+      <c r="T102" s="2"/>
+      <c r="U102" s="2"/>
+      <c r="X102" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="103" spans="1:24">
+      <c r="A103" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C103" s="1"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+      <c r="H103" s="2"/>
+      <c r="I103" s="2"/>
+      <c r="J103" s="2"/>
+      <c r="K103" s="2"/>
+      <c r="L103" s="2"/>
+      <c r="M103" s="2"/>
+      <c r="N103" s="2"/>
+      <c r="O103" s="2"/>
+      <c r="P103" s="2"/>
+      <c r="Q103" s="2"/>
+      <c r="R103" s="2"/>
+      <c r="S103" s="2"/>
+      <c r="T103" s="2"/>
+      <c r="U103" s="2"/>
+      <c r="X103" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C102">
-        <f>SUM(C2:C101)</f>
-        <v>100</v>
+      <c r="C104">
+        <f>SUM(C2:C103)</f>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -7064,16 +7233,16 @@
     <mergeCell ref="B25:B30"/>
     <mergeCell ref="B31:B50"/>
     <mergeCell ref="B51:B64"/>
-    <mergeCell ref="B65:B73"/>
-    <mergeCell ref="B74:B101"/>
+    <mergeCell ref="B65:B75"/>
+    <mergeCell ref="B76:B103"/>
     <mergeCell ref="C2:C8"/>
     <mergeCell ref="C9:C13"/>
     <mergeCell ref="C14:C24"/>
     <mergeCell ref="C25:C30"/>
     <mergeCell ref="C31:C50"/>
     <mergeCell ref="C51:C64"/>
-    <mergeCell ref="C65:C73"/>
-    <mergeCell ref="C74:C101"/>
+    <mergeCell ref="C65:C75"/>
+    <mergeCell ref="C76:C103"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/src/main/resources/CardStatus.xlsx
+++ b/src/main/resources/CardStatus.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="257">
   <si>
     <t>出处</t>
   </si>
@@ -298,7 +298,10 @@
     <t>仙缘1</t>
   </si>
   <si>
-    <t>仙缘2</t>
+    <t>仙缘21</t>
+  </si>
+  <si>
+    <t>仙缘22</t>
   </si>
   <si>
     <t>仙缘31</t>
@@ -668,6 +671,9 @@
   </si>
   <si>
     <t>夜叉龙溟</t>
+  </si>
+  <si>
+    <t>骨蛇</t>
   </si>
   <si>
     <t>魔化瑕</t>
@@ -808,58 +814,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -874,7 +829,104 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -889,56 +941,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -959,67 +965,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1037,7 +983,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1049,25 +1025,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1085,19 +1097,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1109,37 +1133,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1153,11 +1159,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1195,23 +1207,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1219,8 +1216,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1236,6 +1233,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1258,10 +1264,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1270,133 +1276,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2985,7 +2991,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T92"/>
+  <dimension ref="A1:U92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2998,15 +3004,15 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="5.375" style="1" customWidth="1"/>
     <col min="3" max="6" width="5.375" customWidth="1"/>
-    <col min="7" max="8" width="6.375" style="1" customWidth="1"/>
-    <col min="9" max="12" width="7.375" style="1" customWidth="1"/>
-    <col min="13" max="15" width="6.375" style="1" customWidth="1"/>
-    <col min="16" max="18" width="6.375" customWidth="1"/>
-    <col min="19" max="19" width="5.375" customWidth="1"/>
-    <col min="20" max="20" width="9.375" customWidth="1"/>
+    <col min="7" max="9" width="6.375" style="1" customWidth="1"/>
+    <col min="10" max="13" width="7.375" style="1" customWidth="1"/>
+    <col min="14" max="16" width="6.375" style="1" customWidth="1"/>
+    <col min="17" max="19" width="6.375" customWidth="1"/>
+    <col min="20" max="20" width="5.375" customWidth="1"/>
+    <col min="21" max="21" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="2:19">
+    <row r="1" s="1" customFormat="1" spans="2:20">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3061,10 +3067,13 @@
       <c r="S1" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="T1" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -3088,13 +3097,14 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
-      <c r="T2" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
+      <c r="T2" s="2"/>
+      <c r="U2" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
@@ -3113,13 +3123,14 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
-      <c r="T3" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
+      <c r="T3" s="2"/>
+      <c r="U3" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="2"/>
@@ -3138,13 +3149,14 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
-      <c r="T4" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
+      <c r="T4" s="2"/>
+      <c r="U4" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="2"/>
@@ -3163,13 +3175,14 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
-      <c r="T5" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
+      <c r="T5" s="2"/>
+      <c r="U5" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="2"/>
@@ -3188,13 +3201,14 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
-      <c r="T6" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
+      <c r="T6" s="2"/>
+      <c r="U6" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="2"/>
@@ -3213,13 +3227,14 @@
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
-      <c r="T7" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
+      <c r="T7" s="2"/>
+      <c r="U7" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="2"/>
@@ -3238,13 +3253,14 @@
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
-      <c r="T8" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
+      <c r="T8" s="2"/>
+      <c r="U8" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="2"/>
@@ -3263,13 +3279,14 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
-      <c r="T9" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
+      <c r="T9" s="2"/>
+      <c r="U9" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>42</v>
@@ -3293,13 +3310,14 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
-      <c r="T10" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
+      <c r="T10" s="2"/>
+      <c r="U10" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="2"/>
@@ -3318,13 +3336,14 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
-      <c r="T11" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
+      <c r="T11" s="2"/>
+      <c r="U11" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="2"/>
@@ -3343,13 +3362,14 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
-      <c r="T12" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
+      <c r="T12" s="2"/>
+      <c r="U12" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="2"/>
@@ -3368,13 +3388,14 @@
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
-      <c r="T13" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
+      <c r="T13" s="2"/>
+      <c r="U13" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="2"/>
@@ -3393,13 +3414,14 @@
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
-      <c r="T14" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
+      <c r="T14" s="2"/>
+      <c r="U14" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="2"/>
@@ -3418,13 +3440,14 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
-      <c r="T15" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
+      <c r="T15" s="2"/>
+      <c r="U15" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>10</v>
@@ -3448,13 +3471,14 @@
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
-      <c r="T16" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
+      <c r="T16" s="2"/>
+      <c r="U16" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="2"/>
@@ -3473,13 +3497,14 @@
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
-      <c r="T17" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
+      <c r="T17" s="2"/>
+      <c r="U17" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="2"/>
@@ -3498,13 +3523,14 @@
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
-      <c r="T18" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
+      <c r="T18" s="2"/>
+      <c r="U18" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="2"/>
@@ -3523,13 +3549,14 @@
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
-      <c r="T19" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
+      <c r="T19" s="2"/>
+      <c r="U19" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
       <c r="A20" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="2"/>
@@ -3548,13 +3575,14 @@
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
-      <c r="T20" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
+      <c r="T20" s="2"/>
+      <c r="U20" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
       <c r="A21" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="2"/>
@@ -3573,13 +3601,14 @@
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
-      <c r="T21" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
+      <c r="T21" s="2"/>
+      <c r="U21" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="2"/>
@@ -3598,13 +3627,14 @@
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
-      <c r="T22" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
+      <c r="T22" s="2"/>
+      <c r="U22" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
       <c r="A23" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="2"/>
@@ -3623,16 +3653,17 @@
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
-      <c r="T23" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
+      <c r="T23" s="2"/>
+      <c r="U23" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
       <c r="A24" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C24" s="1">
         <v>4</v>
@@ -3653,13 +3684,14 @@
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
-      <c r="T24" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
+      <c r="T24" s="2"/>
+      <c r="U24" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
       <c r="A25" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="2"/>
@@ -3678,13 +3710,14 @@
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
-      <c r="T25" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
+      <c r="T25" s="2"/>
+      <c r="U25" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
       <c r="A26" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="2"/>
@@ -3703,13 +3736,14 @@
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
-      <c r="T26" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
+      <c r="T26" s="2"/>
+      <c r="U26" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
       <c r="A27" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
@@ -3728,16 +3762,17 @@
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
-      <c r="T27" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
+      <c r="T27" s="2"/>
+      <c r="U27" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
       <c r="A28" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C28" s="1">
         <v>6</v>
@@ -3758,13 +3793,14 @@
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
-      <c r="T28" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
+      <c r="T28" s="2"/>
+      <c r="U28" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
       <c r="A29" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="2"/>
@@ -3783,13 +3819,14 @@
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
-      <c r="T29" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
+      <c r="T29" s="2"/>
+      <c r="U29" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
       <c r="A30" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="2"/>
@@ -3808,13 +3845,14 @@
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
-      <c r="T30" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
+      <c r="T30" s="2"/>
+      <c r="U30" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
       <c r="A31" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="2"/>
@@ -3833,13 +3871,14 @@
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
-      <c r="T31" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
+      <c r="T31" s="2"/>
+      <c r="U31" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
       <c r="A32" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="2"/>
@@ -3858,13 +3897,14 @@
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
-      <c r="T32" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
+      <c r="T32" s="2"/>
+      <c r="U32" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
       <c r="A33" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="2"/>
@@ -3883,13 +3923,14 @@
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
-      <c r="T33" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
+      <c r="T33" s="2"/>
+      <c r="U33" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21">
       <c r="A34" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>24</v>
@@ -3913,13 +3954,14 @@
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
-      <c r="T34" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
+      <c r="T34" s="2"/>
+      <c r="U34" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
       <c r="A35" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="2"/>
@@ -3938,13 +3980,14 @@
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
-      <c r="T35" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
+      <c r="T35" s="2"/>
+      <c r="U35" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21">
       <c r="A36" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>71</v>
@@ -3968,13 +4011,14 @@
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
       <c r="S36" s="2"/>
-      <c r="T36" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
+      <c r="T36" s="2"/>
+      <c r="U36" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21">
       <c r="A37" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="2"/>
@@ -3993,13 +4037,14 @@
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
       <c r="S37" s="2"/>
-      <c r="T37" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20">
+      <c r="T37" s="2"/>
+      <c r="U37" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
       <c r="A38" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="2"/>
@@ -4018,13 +4063,14 @@
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
       <c r="S38" s="2"/>
-      <c r="T38" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20">
+      <c r="T38" s="2"/>
+      <c r="U38" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
       <c r="A39" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="2"/>
@@ -4043,13 +4089,14 @@
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
       <c r="S39" s="2"/>
-      <c r="T39" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20">
+      <c r="T39" s="2"/>
+      <c r="U39" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21">
       <c r="A40" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="2"/>
@@ -4068,13 +4115,14 @@
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
       <c r="S40" s="2"/>
-      <c r="T40" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20">
+      <c r="T40" s="2"/>
+      <c r="U40" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
       <c r="A41" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="2"/>
@@ -4093,13 +4141,14 @@
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
       <c r="S41" s="2"/>
-      <c r="T41" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20">
+      <c r="T41" s="2"/>
+      <c r="U41" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21">
       <c r="A42" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="2"/>
@@ -4118,13 +4167,14 @@
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
       <c r="S42" s="2"/>
-      <c r="T42" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20">
+      <c r="T42" s="2"/>
+      <c r="U42" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21">
       <c r="A43" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="2"/>
@@ -4143,11 +4193,12 @@
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
       <c r="S43" s="2"/>
-      <c r="T43" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19">
+      <c r="T43" s="2"/>
+      <c r="U43" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20">
       <c r="A44" s="1" t="s">
         <v>14</v>
       </c>
@@ -4155,151 +4206,151 @@
         <f>SUM(C2:C43)</f>
         <v>42</v>
       </c>
-      <c r="S44" s="2"/>
-    </row>
-    <row r="45" spans="19:19">
-      <c r="S45" s="2"/>
-    </row>
-    <row r="46" spans="19:19">
-      <c r="S46" s="2"/>
-    </row>
-    <row r="47" spans="19:19">
-      <c r="S47" s="2"/>
-    </row>
-    <row r="48" spans="19:19">
-      <c r="S48" s="2"/>
-    </row>
-    <row r="49" spans="19:19">
-      <c r="S49" s="2"/>
-    </row>
-    <row r="50" spans="19:19">
-      <c r="S50" s="2"/>
-    </row>
-    <row r="51" spans="19:19">
-      <c r="S51" s="2"/>
-    </row>
-    <row r="52" spans="19:19">
-      <c r="S52" s="2"/>
-    </row>
-    <row r="53" spans="19:19">
-      <c r="S53" s="2"/>
-    </row>
-    <row r="54" spans="19:19">
-      <c r="S54" s="2"/>
-    </row>
-    <row r="55" spans="19:19">
-      <c r="S55" s="2"/>
-    </row>
-    <row r="56" spans="19:19">
-      <c r="S56" s="2"/>
-    </row>
-    <row r="57" spans="19:19">
-      <c r="S57" s="2"/>
-    </row>
-    <row r="58" spans="19:19">
-      <c r="S58" s="2"/>
-    </row>
-    <row r="59" spans="19:19">
-      <c r="S59" s="2"/>
-    </row>
-    <row r="60" spans="19:19">
-      <c r="S60" s="2"/>
-    </row>
-    <row r="61" spans="19:19">
-      <c r="S61" s="2"/>
-    </row>
-    <row r="62" spans="19:19">
-      <c r="S62" s="2"/>
-    </row>
-    <row r="63" spans="19:19">
-      <c r="S63" s="2"/>
-    </row>
-    <row r="64" spans="19:19">
-      <c r="S64" s="2"/>
-    </row>
-    <row r="65" spans="19:19">
-      <c r="S65" s="2"/>
-    </row>
-    <row r="66" spans="19:19">
-      <c r="S66" s="2"/>
-    </row>
-    <row r="67" spans="19:19">
-      <c r="S67" s="2"/>
-    </row>
-    <row r="68" spans="19:19">
-      <c r="S68" s="2"/>
-    </row>
-    <row r="69" spans="19:19">
-      <c r="S69" s="2"/>
-    </row>
-    <row r="70" spans="19:19">
-      <c r="S70" s="2"/>
-    </row>
-    <row r="71" spans="19:19">
-      <c r="S71" s="2"/>
-    </row>
-    <row r="72" spans="19:19">
-      <c r="S72" s="2"/>
-    </row>
-    <row r="73" spans="19:19">
-      <c r="S73" s="2"/>
-    </row>
-    <row r="74" spans="19:19">
-      <c r="S74" s="2"/>
-    </row>
-    <row r="75" spans="19:19">
-      <c r="S75" s="2"/>
-    </row>
-    <row r="76" spans="19:19">
-      <c r="S76" s="2"/>
-    </row>
-    <row r="77" spans="19:19">
-      <c r="S77" s="2"/>
-    </row>
-    <row r="78" spans="19:19">
-      <c r="S78" s="2"/>
-    </row>
-    <row r="79" spans="19:19">
-      <c r="S79" s="2"/>
-    </row>
-    <row r="80" spans="19:19">
-      <c r="S80" s="2"/>
-    </row>
-    <row r="81" spans="19:19">
-      <c r="S81" s="2"/>
-    </row>
-    <row r="82" spans="19:19">
-      <c r="S82" s="2"/>
-    </row>
-    <row r="83" spans="19:19">
-      <c r="S83" s="2"/>
-    </row>
-    <row r="84" spans="19:19">
-      <c r="S84" s="2"/>
-    </row>
-    <row r="85" spans="19:19">
-      <c r="S85" s="2"/>
-    </row>
-    <row r="86" spans="19:19">
-      <c r="S86" s="2"/>
-    </row>
-    <row r="87" spans="19:19">
-      <c r="S87" s="2"/>
-    </row>
-    <row r="88" spans="19:19">
-      <c r="S88" s="2"/>
-    </row>
-    <row r="89" spans="19:19">
-      <c r="S89" s="2"/>
-    </row>
-    <row r="90" spans="19:19">
-      <c r="S90" s="2"/>
-    </row>
-    <row r="91" spans="19:19">
-      <c r="S91" s="2"/>
-    </row>
-    <row r="92" spans="19:19">
-      <c r="S92" s="2"/>
+      <c r="T44" s="2"/>
+    </row>
+    <row r="45" spans="20:20">
+      <c r="T45" s="2"/>
+    </row>
+    <row r="46" spans="20:20">
+      <c r="T46" s="2"/>
+    </row>
+    <row r="47" spans="20:20">
+      <c r="T47" s="2"/>
+    </row>
+    <row r="48" spans="20:20">
+      <c r="T48" s="2"/>
+    </row>
+    <row r="49" spans="20:20">
+      <c r="T49" s="2"/>
+    </row>
+    <row r="50" spans="20:20">
+      <c r="T50" s="2"/>
+    </row>
+    <row r="51" spans="20:20">
+      <c r="T51" s="2"/>
+    </row>
+    <row r="52" spans="20:20">
+      <c r="T52" s="2"/>
+    </row>
+    <row r="53" spans="20:20">
+      <c r="T53" s="2"/>
+    </row>
+    <row r="54" spans="20:20">
+      <c r="T54" s="2"/>
+    </row>
+    <row r="55" spans="20:20">
+      <c r="T55" s="2"/>
+    </row>
+    <row r="56" spans="20:20">
+      <c r="T56" s="2"/>
+    </row>
+    <row r="57" spans="20:20">
+      <c r="T57" s="2"/>
+    </row>
+    <row r="58" spans="20:20">
+      <c r="T58" s="2"/>
+    </row>
+    <row r="59" spans="20:20">
+      <c r="T59" s="2"/>
+    </row>
+    <row r="60" spans="20:20">
+      <c r="T60" s="2"/>
+    </row>
+    <row r="61" spans="20:20">
+      <c r="T61" s="2"/>
+    </row>
+    <row r="62" spans="20:20">
+      <c r="T62" s="2"/>
+    </row>
+    <row r="63" spans="20:20">
+      <c r="T63" s="2"/>
+    </row>
+    <row r="64" spans="20:20">
+      <c r="T64" s="2"/>
+    </row>
+    <row r="65" spans="20:20">
+      <c r="T65" s="2"/>
+    </row>
+    <row r="66" spans="20:20">
+      <c r="T66" s="2"/>
+    </row>
+    <row r="67" spans="20:20">
+      <c r="T67" s="2"/>
+    </row>
+    <row r="68" spans="20:20">
+      <c r="T68" s="2"/>
+    </row>
+    <row r="69" spans="20:20">
+      <c r="T69" s="2"/>
+    </row>
+    <row r="70" spans="20:20">
+      <c r="T70" s="2"/>
+    </row>
+    <row r="71" spans="20:20">
+      <c r="T71" s="2"/>
+    </row>
+    <row r="72" spans="20:20">
+      <c r="T72" s="2"/>
+    </row>
+    <row r="73" spans="20:20">
+      <c r="T73" s="2"/>
+    </row>
+    <row r="74" spans="20:20">
+      <c r="T74" s="2"/>
+    </row>
+    <row r="75" spans="20:20">
+      <c r="T75" s="2"/>
+    </row>
+    <row r="76" spans="20:20">
+      <c r="T76" s="2"/>
+    </row>
+    <row r="77" spans="20:20">
+      <c r="T77" s="2"/>
+    </row>
+    <row r="78" spans="20:20">
+      <c r="T78" s="2"/>
+    </row>
+    <row r="79" spans="20:20">
+      <c r="T79" s="2"/>
+    </row>
+    <row r="80" spans="20:20">
+      <c r="T80" s="2"/>
+    </row>
+    <row r="81" spans="20:20">
+      <c r="T81" s="2"/>
+    </row>
+    <row r="82" spans="20:20">
+      <c r="T82" s="2"/>
+    </row>
+    <row r="83" spans="20:20">
+      <c r="T83" s="2"/>
+    </row>
+    <row r="84" spans="20:20">
+      <c r="T84" s="2"/>
+    </row>
+    <row r="85" spans="20:20">
+      <c r="T85" s="2"/>
+    </row>
+    <row r="86" spans="20:20">
+      <c r="T86" s="2"/>
+    </row>
+    <row r="87" spans="20:20">
+      <c r="T87" s="2"/>
+    </row>
+    <row r="88" spans="20:20">
+      <c r="T88" s="2"/>
+    </row>
+    <row r="89" spans="20:20">
+      <c r="T89" s="2"/>
+    </row>
+    <row r="90" spans="20:20">
+      <c r="T90" s="2"/>
+    </row>
+    <row r="91" spans="20:20">
+      <c r="T91" s="2"/>
+    </row>
+    <row r="92" spans="20:20">
+      <c r="T92" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -4326,7 +4377,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X104"/>
+  <dimension ref="A1:Y105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4339,17 +4390,17 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="5.375" style="1" customWidth="1"/>
     <col min="3" max="6" width="5.375" customWidth="1"/>
-    <col min="7" max="8" width="6.375" style="1" customWidth="1"/>
-    <col min="9" max="12" width="7.375" style="1" customWidth="1"/>
-    <col min="13" max="15" width="6.375" style="1" customWidth="1"/>
-    <col min="16" max="19" width="6.375" customWidth="1"/>
-    <col min="20" max="20" width="5.375" customWidth="1"/>
-    <col min="21" max="22" width="9.375" customWidth="1"/>
-    <col min="23" max="23" width="11.5" customWidth="1"/>
-    <col min="24" max="24" width="9.375" customWidth="1"/>
+    <col min="7" max="9" width="6.375" style="1" customWidth="1"/>
+    <col min="10" max="13" width="7.375" style="1" customWidth="1"/>
+    <col min="14" max="16" width="6.375" style="1" customWidth="1"/>
+    <col min="17" max="20" width="6.375" customWidth="1"/>
+    <col min="21" max="21" width="5.375" customWidth="1"/>
+    <col min="22" max="23" width="9.375" customWidth="1"/>
+    <col min="24" max="24" width="11.5" customWidth="1"/>
+    <col min="25" max="25" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="2:23">
+    <row r="1" s="1" customFormat="1" spans="2:24">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4402,13 +4453,13 @@
         <v>102</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>148</v>
+        <v>103</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>103</v>
+        <v>149</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>149</v>
+        <v>104</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>150</v>
@@ -4416,10 +4467,13 @@
       <c r="W1" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="2" spans="1:24">
+      <c r="X1" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -4445,13 +4499,14 @@
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
-      <c r="X2" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24">
+      <c r="V2" s="2"/>
+      <c r="Y2" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
       <c r="A3" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
@@ -4472,13 +4527,14 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
-      <c r="X3" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24">
+      <c r="V3" s="2"/>
+      <c r="Y3" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
       <c r="A4" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="2"/>
@@ -4499,13 +4555,14 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
-      <c r="X4" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24">
+      <c r="V4" s="2"/>
+      <c r="Y4" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
       <c r="A5" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="2"/>
@@ -4526,13 +4583,14 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
-      <c r="X5" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24">
+      <c r="V5" s="2"/>
+      <c r="Y5" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
       <c r="A6" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="2"/>
@@ -4553,13 +4611,14 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
-      <c r="X6" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24">
+      <c r="V6" s="2"/>
+      <c r="Y6" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
       <c r="A7" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="2"/>
@@ -4580,13 +4639,14 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
-      <c r="X7" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24">
+      <c r="V7" s="2"/>
+      <c r="Y7" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
       <c r="A8" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="2"/>
@@ -4607,13 +4667,14 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
-      <c r="X8" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24">
+      <c r="V8" s="2"/>
+      <c r="Y8" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
       <c r="A9" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>42</v>
@@ -4639,13 +4700,14 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
-      <c r="X9" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24">
+      <c r="V9" s="2"/>
+      <c r="Y9" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
       <c r="A10" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="2"/>
@@ -4666,13 +4728,14 @@
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
-      <c r="X10" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24">
+      <c r="V10" s="2"/>
+      <c r="Y10" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
       <c r="A11" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="2"/>
@@ -4693,13 +4756,14 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
-      <c r="X11" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24">
+      <c r="V11" s="2"/>
+      <c r="Y11" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
       <c r="A12" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="2"/>
@@ -4720,13 +4784,14 @@
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
-      <c r="X12" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24">
+      <c r="V12" s="2"/>
+      <c r="Y12" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
       <c r="A13" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="2"/>
@@ -4747,13 +4812,14 @@
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
-      <c r="X13" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24">
+      <c r="V13" s="2"/>
+      <c r="Y13" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
       <c r="A14" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>10</v>
@@ -4779,13 +4845,14 @@
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
-      <c r="X14" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24">
+      <c r="V14" s="2"/>
+      <c r="Y14" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
       <c r="A15" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="2"/>
@@ -4806,13 +4873,14 @@
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
-      <c r="X15" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24">
+      <c r="V15" s="2"/>
+      <c r="Y15" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
       <c r="A16" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="2"/>
@@ -4833,13 +4901,14 @@
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
-      <c r="X16" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24">
+      <c r="V16" s="2"/>
+      <c r="Y16" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
       <c r="A17" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="2"/>
@@ -4860,13 +4929,14 @@
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
-      <c r="X17" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24">
+      <c r="V17" s="2"/>
+      <c r="Y17" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
       <c r="A18" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="2"/>
@@ -4887,13 +4957,14 @@
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
-      <c r="X18" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24">
+      <c r="V18" s="2"/>
+      <c r="Y18" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
       <c r="A19" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="2"/>
@@ -4914,13 +4985,14 @@
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
-      <c r="X19" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24">
+      <c r="V19" s="2"/>
+      <c r="Y19" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
       <c r="A20" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="2"/>
@@ -4941,13 +5013,14 @@
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
-      <c r="X20" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24">
+      <c r="V20" s="2"/>
+      <c r="Y20" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
       <c r="A21" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="2"/>
@@ -4968,13 +5041,14 @@
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
-      <c r="X21" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24">
+      <c r="V21" s="2"/>
+      <c r="Y21" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
       <c r="A22" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="2"/>
@@ -4995,13 +5069,14 @@
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
-      <c r="X22" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24">
+      <c r="V22" s="2"/>
+      <c r="Y22" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
       <c r="A23" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="2"/>
@@ -5022,13 +5097,14 @@
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
-      <c r="X23" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24">
+      <c r="V23" s="2"/>
+      <c r="Y23" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
       <c r="A24" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="2"/>
@@ -5049,16 +5125,17 @@
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
-      <c r="X24" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24">
+      <c r="V24" s="2"/>
+      <c r="Y24" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
       <c r="A25" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C25" s="1">
         <v>6</v>
@@ -5081,13 +5158,14 @@
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
-      <c r="X25" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24">
+      <c r="V25" s="2"/>
+      <c r="Y25" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25">
       <c r="A26" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="2"/>
@@ -5108,13 +5186,14 @@
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
-      <c r="X26" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24">
+      <c r="V26" s="2"/>
+      <c r="Y26" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25">
       <c r="A27" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
@@ -5135,13 +5214,14 @@
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
-      <c r="X27" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24">
+      <c r="V27" s="2"/>
+      <c r="Y27" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25">
       <c r="A28" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="2"/>
@@ -5162,13 +5242,14 @@
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
-      <c r="X28" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24">
+      <c r="V28" s="2"/>
+      <c r="Y28" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25">
       <c r="A29" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="2"/>
@@ -5189,13 +5270,14 @@
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
-      <c r="X29" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24">
+      <c r="V29" s="2"/>
+      <c r="Y29" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25">
       <c r="A30" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="2"/>
@@ -5216,16 +5298,17 @@
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
-      <c r="X30" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24">
+      <c r="V30" s="2"/>
+      <c r="Y30" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25">
       <c r="A31" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C31" s="1">
         <v>20</v>
@@ -5248,13 +5331,14 @@
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
-      <c r="X31" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="32" customFormat="1" spans="1:24">
+      <c r="V31" s="2"/>
+      <c r="Y31" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="32" customFormat="1" spans="1:25">
       <c r="A32" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -5276,13 +5360,14 @@
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
-      <c r="X32" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="33" customFormat="1" spans="1:24">
+      <c r="V32" s="2"/>
+      <c r="Y32" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" spans="1:25">
       <c r="A33" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -5304,13 +5389,14 @@
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
-      <c r="X33" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="34" customFormat="1" spans="1:24">
+      <c r="V33" s="2"/>
+      <c r="Y33" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1" spans="1:25">
       <c r="A34" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -5332,13 +5418,14 @@
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
-      <c r="X34" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="35" customFormat="1" spans="1:24">
+      <c r="V34" s="2"/>
+      <c r="Y34" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="35" customFormat="1" spans="1:25">
       <c r="A35" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -5360,13 +5447,14 @@
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
-      <c r="X35" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="36" customFormat="1" spans="1:24">
+      <c r="V35" s="2"/>
+      <c r="Y35" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="36" customFormat="1" spans="1:25">
       <c r="A36" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -5388,13 +5476,14 @@
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
       <c r="U36" s="2"/>
-      <c r="X36" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24">
+      <c r="V36" s="2"/>
+      <c r="Y36" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25">
       <c r="A37" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="2"/>
@@ -5415,13 +5504,14 @@
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
-      <c r="X37" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24">
+      <c r="V37" s="2"/>
+      <c r="Y37" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25">
       <c r="A38" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="2"/>
@@ -5442,13 +5532,14 @@
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
-      <c r="X38" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24">
+      <c r="V38" s="2"/>
+      <c r="Y38" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25">
       <c r="A39" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="2"/>
@@ -5469,13 +5560,14 @@
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
-      <c r="X39" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24">
+      <c r="V39" s="2"/>
+      <c r="Y39" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25">
       <c r="A40" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="2"/>
@@ -5496,13 +5588,14 @@
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
-      <c r="X40" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24">
+      <c r="V40" s="2"/>
+      <c r="Y40" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25">
       <c r="A41" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="2"/>
@@ -5523,13 +5616,14 @@
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
       <c r="U41" s="2"/>
-      <c r="X41" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24">
+      <c r="V41" s="2"/>
+      <c r="Y41" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25">
       <c r="A42" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="2"/>
@@ -5550,13 +5644,14 @@
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
       <c r="U42" s="2"/>
-      <c r="X42" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="43" spans="1:24">
+      <c r="V42" s="2"/>
+      <c r="Y42" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25">
       <c r="A43" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="2"/>
@@ -5577,13 +5672,14 @@
       <c r="S43" s="2"/>
       <c r="T43" s="2"/>
       <c r="U43" s="2"/>
-      <c r="X43" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="44" spans="1:24">
+      <c r="V43" s="2"/>
+      <c r="Y43" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25">
       <c r="A44" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="2"/>
@@ -5604,13 +5700,14 @@
       <c r="S44" s="2"/>
       <c r="T44" s="2"/>
       <c r="U44" s="2"/>
-      <c r="X44" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24">
+      <c r="V44" s="2"/>
+      <c r="Y44" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25">
       <c r="A45" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="2"/>
@@ -5631,13 +5728,14 @@
       <c r="S45" s="2"/>
       <c r="T45" s="2"/>
       <c r="U45" s="2"/>
-      <c r="X45" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24">
+      <c r="V45" s="2"/>
+      <c r="Y45" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25">
       <c r="A46" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="2"/>
@@ -5658,13 +5756,14 @@
       <c r="S46" s="2"/>
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
-      <c r="X46" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24">
+      <c r="V46" s="2"/>
+      <c r="Y46" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25">
       <c r="A47" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="2"/>
@@ -5685,13 +5784,14 @@
       <c r="S47" s="2"/>
       <c r="T47" s="2"/>
       <c r="U47" s="2"/>
-      <c r="X47" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24">
+      <c r="V47" s="2"/>
+      <c r="Y47" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25">
       <c r="A48" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="2"/>
@@ -5712,13 +5812,14 @@
       <c r="S48" s="2"/>
       <c r="T48" s="2"/>
       <c r="U48" s="2"/>
-      <c r="X48" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24">
+      <c r="V48" s="2"/>
+      <c r="Y48" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25">
       <c r="A49" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="2"/>
@@ -5739,13 +5840,14 @@
       <c r="S49" s="2"/>
       <c r="T49" s="2"/>
       <c r="U49" s="2"/>
-      <c r="X49" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="50" spans="1:24">
+      <c r="V49" s="2"/>
+      <c r="Y49" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25">
       <c r="A50" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="2"/>
@@ -5766,13 +5868,14 @@
       <c r="S50" s="2"/>
       <c r="T50" s="2"/>
       <c r="U50" s="2"/>
-      <c r="X50" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="51" spans="1:24">
+      <c r="V50" s="2"/>
+      <c r="Y50" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25">
       <c r="A51" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>24</v>
@@ -5798,13 +5901,14 @@
       <c r="S51" s="2"/>
       <c r="T51" s="2"/>
       <c r="U51" s="2"/>
-      <c r="X51" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="52" spans="1:24">
+      <c r="V51" s="2"/>
+      <c r="Y51" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25">
       <c r="A52" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="2"/>
@@ -5825,13 +5929,14 @@
       <c r="S52" s="2"/>
       <c r="T52" s="2"/>
       <c r="U52" s="2"/>
-      <c r="X52" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="53" spans="1:24">
+      <c r="V52" s="2"/>
+      <c r="Y52" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25">
       <c r="A53" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="2"/>
@@ -5852,13 +5957,14 @@
       <c r="S53" s="2"/>
       <c r="T53" s="2"/>
       <c r="U53" s="2"/>
-      <c r="X53" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="54" spans="1:24">
+      <c r="V53" s="2"/>
+      <c r="Y53" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25">
       <c r="A54" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="2"/>
@@ -5879,13 +5985,14 @@
       <c r="S54" s="2"/>
       <c r="T54" s="2"/>
       <c r="U54" s="2"/>
-      <c r="X54" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="55" spans="1:24">
+      <c r="V54" s="2"/>
+      <c r="Y54" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25">
       <c r="A55" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="2"/>
@@ -5906,13 +6013,14 @@
       <c r="S55" s="2"/>
       <c r="T55" s="2"/>
       <c r="U55" s="2"/>
-      <c r="X55" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="56" spans="1:24">
+      <c r="V55" s="2"/>
+      <c r="Y55" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25">
       <c r="A56" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="2"/>
@@ -5933,13 +6041,14 @@
       <c r="S56" s="2"/>
       <c r="T56" s="2"/>
       <c r="U56" s="2"/>
-      <c r="X56" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="57" spans="1:24">
+      <c r="V56" s="2"/>
+      <c r="Y56" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25">
       <c r="A57" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="2"/>
@@ -5960,13 +6069,14 @@
       <c r="S57" s="2"/>
       <c r="T57" s="2"/>
       <c r="U57" s="2"/>
-      <c r="X57" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="58" spans="1:24">
+      <c r="V57" s="2"/>
+      <c r="Y57" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25">
       <c r="A58" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="2"/>
@@ -5987,13 +6097,14 @@
       <c r="S58" s="2"/>
       <c r="T58" s="2"/>
       <c r="U58" s="2"/>
-      <c r="X58" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="59" spans="1:24">
+      <c r="V58" s="2"/>
+      <c r="Y58" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25">
       <c r="A59" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="2"/>
@@ -6014,13 +6125,14 @@
       <c r="S59" s="2"/>
       <c r="T59" s="2"/>
       <c r="U59" s="2"/>
-      <c r="X59" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="60" spans="1:24">
+      <c r="V59" s="2"/>
+      <c r="Y59" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25">
       <c r="A60" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="2"/>
@@ -6041,13 +6153,14 @@
       <c r="S60" s="2"/>
       <c r="T60" s="2"/>
       <c r="U60" s="2"/>
-      <c r="X60" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="61" spans="1:24">
+      <c r="V60" s="2"/>
+      <c r="Y60" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25">
       <c r="A61" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="2"/>
@@ -6068,13 +6181,14 @@
       <c r="S61" s="2"/>
       <c r="T61" s="2"/>
       <c r="U61" s="2"/>
-      <c r="X61" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="62" spans="1:24">
+      <c r="V61" s="2"/>
+      <c r="Y61" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25">
       <c r="A62" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="2"/>
@@ -6095,13 +6209,14 @@
       <c r="S62" s="2"/>
       <c r="T62" s="2"/>
       <c r="U62" s="2"/>
-      <c r="X62" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="63" spans="1:24">
+      <c r="V62" s="2"/>
+      <c r="Y62" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25">
       <c r="A63" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="2"/>
@@ -6122,13 +6237,14 @@
       <c r="S63" s="2"/>
       <c r="T63" s="2"/>
       <c r="U63" s="2"/>
-      <c r="X63" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="64" spans="1:24">
+      <c r="V63" s="2"/>
+      <c r="Y63" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25">
       <c r="A64" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="2"/>
@@ -6149,19 +6265,20 @@
       <c r="S64" s="2"/>
       <c r="T64" s="2"/>
       <c r="U64" s="2"/>
-      <c r="X64" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="65" spans="1:24">
+      <c r="V64" s="2"/>
+      <c r="Y64" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25">
       <c r="A65" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C65" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
@@ -6181,13 +6298,14 @@
       <c r="S65" s="2"/>
       <c r="T65" s="2"/>
       <c r="U65" s="2"/>
-      <c r="X65" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="66" spans="1:24">
-      <c r="A66" s="3" t="s">
+      <c r="V65" s="2"/>
+      <c r="Y65" s="3" t="s">
         <v>216</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25">
+      <c r="A66" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="2"/>
@@ -6208,13 +6326,14 @@
       <c r="S66" s="2"/>
       <c r="T66" s="2"/>
       <c r="U66" s="2"/>
-      <c r="X66" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="67" spans="1:24">
-      <c r="A67" s="1" t="s">
+      <c r="V66" s="2"/>
+      <c r="Y66" s="3" t="s">
         <v>217</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25">
+      <c r="A67" s="3" t="s">
+        <v>218</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="2"/>
@@ -6235,13 +6354,14 @@
       <c r="S67" s="2"/>
       <c r="T67" s="2"/>
       <c r="U67" s="2"/>
-      <c r="X67" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="68" spans="1:24">
+      <c r="V67" s="2"/>
+      <c r="Y67" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25">
       <c r="A68" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="2"/>
@@ -6262,13 +6382,14 @@
       <c r="S68" s="2"/>
       <c r="T68" s="2"/>
       <c r="U68" s="2"/>
-      <c r="X68" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="69" spans="1:24">
+      <c r="V68" s="2"/>
+      <c r="Y68" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25">
       <c r="A69" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="2"/>
@@ -6289,13 +6410,14 @@
       <c r="S69" s="2"/>
       <c r="T69" s="2"/>
       <c r="U69" s="2"/>
-      <c r="X69" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="70" spans="1:24">
+      <c r="V69" s="2"/>
+      <c r="Y69" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25">
       <c r="A70" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="2"/>
@@ -6316,13 +6438,14 @@
       <c r="S70" s="2"/>
       <c r="T70" s="2"/>
       <c r="U70" s="2"/>
-      <c r="X70" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="71" spans="1:24">
+      <c r="V70" s="2"/>
+      <c r="Y70" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25">
       <c r="A71" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="2"/>
@@ -6343,13 +6466,14 @@
       <c r="S71" s="2"/>
       <c r="T71" s="2"/>
       <c r="U71" s="2"/>
-      <c r="X71" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="72" spans="1:24">
+      <c r="V71" s="2"/>
+      <c r="Y71" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25">
       <c r="A72" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="2"/>
@@ -6370,13 +6494,14 @@
       <c r="S72" s="2"/>
       <c r="T72" s="2"/>
       <c r="U72" s="2"/>
-      <c r="X72" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="73" spans="1:24">
+      <c r="V72" s="2"/>
+      <c r="Y72" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25">
       <c r="A73" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="2"/>
@@ -6397,13 +6522,14 @@
       <c r="S73" s="2"/>
       <c r="T73" s="2"/>
       <c r="U73" s="2"/>
-      <c r="X73" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="74" spans="1:24">
+      <c r="V73" s="2"/>
+      <c r="Y73" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25">
       <c r="A74" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="2"/>
@@ -6424,13 +6550,14 @@
       <c r="S74" s="2"/>
       <c r="T74" s="2"/>
       <c r="U74" s="2"/>
-      <c r="X74" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="75" spans="1:24">
+      <c r="V74" s="2"/>
+      <c r="Y74" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25">
       <c r="A75" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="2"/>
@@ -6451,20 +6578,16 @@
       <c r="S75" s="2"/>
       <c r="T75" s="2"/>
       <c r="U75" s="2"/>
-      <c r="X75" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="76" spans="1:24">
+      <c r="V75" s="2"/>
+      <c r="Y75" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25">
       <c r="A76" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B76" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C76" s="1">
-        <v>28</v>
-      </c>
+      <c r="C76" s="1"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
@@ -6483,15 +6606,21 @@
       <c r="S76" s="2"/>
       <c r="T76" s="2"/>
       <c r="U76" s="2"/>
-      <c r="X76" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="77" spans="1:24">
+      <c r="V76" s="2"/>
+      <c r="Y76" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25">
       <c r="A77" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C77" s="1"/>
+      <c r="B77" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C77" s="1">
+        <v>28</v>
+      </c>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
@@ -6510,13 +6639,14 @@
       <c r="S77" s="2"/>
       <c r="T77" s="2"/>
       <c r="U77" s="2"/>
-      <c r="X77" s="1" t="s">
+      <c r="V77" s="2"/>
+      <c r="Y77" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="78" spans="1:24">
+    <row r="78" spans="1:25">
       <c r="A78" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="2"/>
@@ -6537,13 +6667,14 @@
       <c r="S78" s="2"/>
       <c r="T78" s="2"/>
       <c r="U78" s="2"/>
-      <c r="X78" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="79" spans="1:24">
+      <c r="V78" s="2"/>
+      <c r="Y78" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25">
       <c r="A79" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="2"/>
@@ -6564,13 +6695,14 @@
       <c r="S79" s="2"/>
       <c r="T79" s="2"/>
       <c r="U79" s="2"/>
-      <c r="X79" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="80" spans="1:24">
+      <c r="V79" s="2"/>
+      <c r="Y79" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25">
       <c r="A80" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="2"/>
@@ -6591,13 +6723,14 @@
       <c r="S80" s="2"/>
       <c r="T80" s="2"/>
       <c r="U80" s="2"/>
-      <c r="X80" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="81" spans="1:24">
+      <c r="V80" s="2"/>
+      <c r="Y80" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="81" spans="1:25">
       <c r="A81" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="2"/>
@@ -6618,13 +6751,14 @@
       <c r="S81" s="2"/>
       <c r="T81" s="2"/>
       <c r="U81" s="2"/>
-      <c r="X81" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="82" spans="1:24">
+      <c r="V81" s="2"/>
+      <c r="Y81" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="82" spans="1:25">
       <c r="A82" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C82" s="1"/>
       <c r="D82" s="2"/>
@@ -6645,13 +6779,14 @@
       <c r="S82" s="2"/>
       <c r="T82" s="2"/>
       <c r="U82" s="2"/>
-      <c r="X82" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="83" spans="1:24">
+      <c r="V82" s="2"/>
+      <c r="Y82" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="83" spans="1:25">
       <c r="A83" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="2"/>
@@ -6672,13 +6807,14 @@
       <c r="S83" s="2"/>
       <c r="T83" s="2"/>
       <c r="U83" s="2"/>
-      <c r="X83" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="84" spans="1:24">
+      <c r="V83" s="2"/>
+      <c r="Y83" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="84" spans="1:25">
       <c r="A84" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C84" s="1"/>
       <c r="D84" s="2"/>
@@ -6699,13 +6835,14 @@
       <c r="S84" s="2"/>
       <c r="T84" s="2"/>
       <c r="U84" s="2"/>
-      <c r="X84" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="85" spans="1:24">
+      <c r="V84" s="2"/>
+      <c r="Y84" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="85" spans="1:25">
       <c r="A85" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="2"/>
@@ -6726,13 +6863,14 @@
       <c r="S85" s="2"/>
       <c r="T85" s="2"/>
       <c r="U85" s="2"/>
-      <c r="X85" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="86" spans="1:24">
+      <c r="V85" s="2"/>
+      <c r="Y85" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="86" spans="1:25">
       <c r="A86" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="2"/>
@@ -6753,13 +6891,14 @@
       <c r="S86" s="2"/>
       <c r="T86" s="2"/>
       <c r="U86" s="2"/>
-      <c r="X86" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="87" spans="1:24">
+      <c r="V86" s="2"/>
+      <c r="Y86" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="87" spans="1:25">
       <c r="A87" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C87" s="1"/>
       <c r="D87" s="2"/>
@@ -6780,13 +6919,14 @@
       <c r="S87" s="2"/>
       <c r="T87" s="2"/>
       <c r="U87" s="2"/>
-      <c r="X87" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="88" spans="1:24">
+      <c r="V87" s="2"/>
+      <c r="Y87" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="88" spans="1:25">
       <c r="A88" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C88" s="1"/>
       <c r="D88" s="2"/>
@@ -6807,13 +6947,14 @@
       <c r="S88" s="2"/>
       <c r="T88" s="2"/>
       <c r="U88" s="2"/>
-      <c r="X88" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="89" spans="1:24">
+      <c r="V88" s="2"/>
+      <c r="Y88" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="89" spans="1:25">
       <c r="A89" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="2"/>
@@ -6834,13 +6975,14 @@
       <c r="S89" s="2"/>
       <c r="T89" s="2"/>
       <c r="U89" s="2"/>
-      <c r="X89" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="90" spans="1:24">
+      <c r="V89" s="2"/>
+      <c r="Y89" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="90" spans="1:25">
       <c r="A90" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C90" s="1"/>
       <c r="D90" s="2"/>
@@ -6861,13 +7003,14 @@
       <c r="S90" s="2"/>
       <c r="T90" s="2"/>
       <c r="U90" s="2"/>
-      <c r="X90" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="91" spans="1:24">
+      <c r="V90" s="2"/>
+      <c r="Y90" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="91" spans="1:25">
       <c r="A91" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C91" s="1"/>
       <c r="D91" s="2"/>
@@ -6888,13 +7031,14 @@
       <c r="S91" s="2"/>
       <c r="T91" s="2"/>
       <c r="U91" s="2"/>
-      <c r="X91" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="92" spans="1:24">
+      <c r="V91" s="2"/>
+      <c r="Y91" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="92" spans="1:25">
       <c r="A92" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C92" s="1"/>
       <c r="D92" s="2"/>
@@ -6915,13 +7059,14 @@
       <c r="S92" s="2"/>
       <c r="T92" s="2"/>
       <c r="U92" s="2"/>
-      <c r="X92" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="93" spans="1:24">
+      <c r="V92" s="2"/>
+      <c r="Y92" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="93" spans="1:25">
       <c r="A93" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C93" s="1"/>
       <c r="D93" s="2"/>
@@ -6942,13 +7087,14 @@
       <c r="S93" s="2"/>
       <c r="T93" s="2"/>
       <c r="U93" s="2"/>
-      <c r="X93" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="94" spans="1:24">
+      <c r="V93" s="2"/>
+      <c r="Y93" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="94" spans="1:25">
       <c r="A94" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="2"/>
@@ -6969,13 +7115,14 @@
       <c r="S94" s="2"/>
       <c r="T94" s="2"/>
       <c r="U94" s="2"/>
-      <c r="X94" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="95" spans="1:24">
+      <c r="V94" s="2"/>
+      <c r="Y94" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="95" spans="1:25">
       <c r="A95" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="2"/>
@@ -6996,13 +7143,14 @@
       <c r="S95" s="2"/>
       <c r="T95" s="2"/>
       <c r="U95" s="2"/>
-      <c r="X95" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="96" spans="1:24">
+      <c r="V95" s="2"/>
+      <c r="Y95" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="96" spans="1:25">
       <c r="A96" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C96" s="1"/>
       <c r="D96" s="2"/>
@@ -7023,13 +7171,14 @@
       <c r="S96" s="2"/>
       <c r="T96" s="2"/>
       <c r="U96" s="2"/>
-      <c r="X96" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="97" spans="1:24">
+      <c r="V96" s="2"/>
+      <c r="Y96" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="97" spans="1:25">
       <c r="A97" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C97" s="1"/>
       <c r="D97" s="2"/>
@@ -7050,13 +7199,14 @@
       <c r="S97" s="2"/>
       <c r="T97" s="2"/>
       <c r="U97" s="2"/>
-      <c r="X97" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="98" spans="1:24">
+      <c r="V97" s="2"/>
+      <c r="Y97" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="98" spans="1:25">
       <c r="A98" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C98" s="1"/>
       <c r="D98" s="2"/>
@@ -7077,13 +7227,14 @@
       <c r="S98" s="2"/>
       <c r="T98" s="2"/>
       <c r="U98" s="2"/>
-      <c r="X98" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="99" spans="1:24">
+      <c r="V98" s="2"/>
+      <c r="Y98" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="99" spans="1:25">
       <c r="A99" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C99" s="1"/>
       <c r="D99" s="2"/>
@@ -7104,13 +7255,14 @@
       <c r="S99" s="2"/>
       <c r="T99" s="2"/>
       <c r="U99" s="2"/>
-      <c r="X99" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="100" spans="1:24">
+      <c r="V99" s="2"/>
+      <c r="Y99" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="100" spans="1:25">
       <c r="A100" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C100" s="1"/>
       <c r="D100" s="2"/>
@@ -7131,13 +7283,14 @@
       <c r="S100" s="2"/>
       <c r="T100" s="2"/>
       <c r="U100" s="2"/>
-      <c r="X100" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="101" spans="1:24">
+      <c r="V100" s="2"/>
+      <c r="Y100" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="101" spans="1:25">
       <c r="A101" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C101" s="1"/>
       <c r="D101" s="2"/>
@@ -7158,13 +7311,14 @@
       <c r="S101" s="2"/>
       <c r="T101" s="2"/>
       <c r="U101" s="2"/>
-      <c r="X101" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="102" spans="1:24">
+      <c r="V101" s="2"/>
+      <c r="Y101" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="102" spans="1:25">
       <c r="A102" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C102" s="1"/>
       <c r="D102" s="2"/>
@@ -7185,13 +7339,14 @@
       <c r="S102" s="2"/>
       <c r="T102" s="2"/>
       <c r="U102" s="2"/>
-      <c r="X102" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="103" spans="1:24">
+      <c r="V102" s="2"/>
+      <c r="Y102" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="103" spans="1:25">
       <c r="A103" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C103" s="1"/>
       <c r="D103" s="2"/>
@@ -7212,17 +7367,46 @@
       <c r="S103" s="2"/>
       <c r="T103" s="2"/>
       <c r="U103" s="2"/>
-      <c r="X103" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="V103" s="2"/>
+      <c r="Y103" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="104" spans="1:25">
       <c r="A104" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C104" s="1"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
+      <c r="H104" s="2"/>
+      <c r="I104" s="2"/>
+      <c r="J104" s="2"/>
+      <c r="K104" s="2"/>
+      <c r="L104" s="2"/>
+      <c r="M104" s="2"/>
+      <c r="N104" s="2"/>
+      <c r="O104" s="2"/>
+      <c r="P104" s="2"/>
+      <c r="Q104" s="2"/>
+      <c r="R104" s="2"/>
+      <c r="S104" s="2"/>
+      <c r="T104" s="2"/>
+      <c r="U104" s="2"/>
+      <c r="V104" s="2"/>
+      <c r="Y104" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C104">
-        <f>SUM(C2:C103)</f>
-        <v>102</v>
+      <c r="C105">
+        <f>SUM(C2:C104)</f>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -7233,16 +7417,16 @@
     <mergeCell ref="B25:B30"/>
     <mergeCell ref="B31:B50"/>
     <mergeCell ref="B51:B64"/>
-    <mergeCell ref="B65:B75"/>
-    <mergeCell ref="B76:B103"/>
+    <mergeCell ref="B65:B76"/>
+    <mergeCell ref="B77:B104"/>
     <mergeCell ref="C2:C8"/>
     <mergeCell ref="C9:C13"/>
     <mergeCell ref="C14:C24"/>
     <mergeCell ref="C25:C30"/>
     <mergeCell ref="C31:C50"/>
     <mergeCell ref="C51:C64"/>
-    <mergeCell ref="C65:C75"/>
-    <mergeCell ref="C76:C103"/>
+    <mergeCell ref="C65:C76"/>
+    <mergeCell ref="C77:C104"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/src/main/resources/CardStatus.xlsx
+++ b/src/main/resources/CardStatus.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="258">
   <si>
     <t>出处</t>
   </si>
@@ -671,6 +671,9 @@
   </si>
   <si>
     <t>夜叉龙溟</t>
+  </si>
+  <si>
+    <t>魔化二叔</t>
   </si>
   <si>
     <t>骨蛇</t>
@@ -798,8 +801,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -814,7 +817,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -828,6 +855,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -835,6 +870,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -842,16 +878,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -872,45 +900,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -926,17 +916,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -948,9 +930,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -977,7 +980,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -989,73 +1070,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1067,43 +1082,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1121,25 +1106,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1156,6 +1159,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1204,24 +1225,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1240,8 +1243,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1264,10 +1267,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1276,133 +1279,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4377,7 +4380,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y105"/>
+  <dimension ref="A1:Y106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -6278,7 +6281,7 @@
         <v>71</v>
       </c>
       <c r="C65" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
@@ -6304,7 +6307,7 @@
       </c>
     </row>
     <row r="66" spans="1:25">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="3" t="s">
         <v>217</v>
       </c>
       <c r="C66" s="1"/>
@@ -6332,7 +6335,7 @@
       </c>
     </row>
     <row r="67" spans="1:25">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="1" t="s">
         <v>218</v>
       </c>
       <c r="C67" s="1"/>
@@ -6360,7 +6363,7 @@
       </c>
     </row>
     <row r="68" spans="1:25">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="3" t="s">
         <v>219</v>
       </c>
       <c r="C68" s="1"/>
@@ -6383,7 +6386,7 @@
       <c r="T68" s="2"/>
       <c r="U68" s="2"/>
       <c r="V68" s="2"/>
-      <c r="Y68" s="1" t="s">
+      <c r="Y68" s="3" t="s">
         <v>219</v>
       </c>
     </row>
@@ -6615,12 +6618,7 @@
       <c r="A77" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C77" s="1">
-        <v>28</v>
-      </c>
+      <c r="C77" s="1"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
@@ -6646,9 +6644,14 @@
     </row>
     <row r="78" spans="1:25">
       <c r="A78" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C78" s="1"/>
+      <c r="C78" s="1">
+        <v>28</v>
+      </c>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
@@ -6669,7 +6672,7 @@
       <c r="U78" s="2"/>
       <c r="V78" s="2"/>
       <c r="Y78" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="79" spans="1:25">
@@ -7400,13 +7403,41 @@
         <v>256</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:25">
       <c r="A105" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C105" s="1"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2"/>
+      <c r="H105" s="2"/>
+      <c r="I105" s="2"/>
+      <c r="J105" s="2"/>
+      <c r="K105" s="2"/>
+      <c r="L105" s="2"/>
+      <c r="M105" s="2"/>
+      <c r="N105" s="2"/>
+      <c r="O105" s="2"/>
+      <c r="P105" s="2"/>
+      <c r="Q105" s="2"/>
+      <c r="R105" s="2"/>
+      <c r="S105" s="2"/>
+      <c r="T105" s="2"/>
+      <c r="U105" s="2"/>
+      <c r="V105" s="2"/>
+      <c r="Y105" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C105">
-        <f>SUM(C2:C104)</f>
-        <v>103</v>
+      <c r="C106">
+        <f>SUM(C2:C105)</f>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -7417,16 +7448,16 @@
     <mergeCell ref="B25:B30"/>
     <mergeCell ref="B31:B50"/>
     <mergeCell ref="B51:B64"/>
-    <mergeCell ref="B65:B76"/>
-    <mergeCell ref="B77:B104"/>
+    <mergeCell ref="B65:B77"/>
+    <mergeCell ref="B78:B105"/>
     <mergeCell ref="C2:C8"/>
     <mergeCell ref="C9:C13"/>
     <mergeCell ref="C14:C24"/>
     <mergeCell ref="C25:C30"/>
     <mergeCell ref="C31:C50"/>
     <mergeCell ref="C51:C64"/>
-    <mergeCell ref="C65:C76"/>
-    <mergeCell ref="C77:C104"/>
+    <mergeCell ref="C65:C77"/>
+    <mergeCell ref="C78:C105"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/src/main/resources/CardStatus.xlsx
+++ b/src/main/resources/CardStatus.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="262">
   <si>
     <t>出处</t>
   </si>
@@ -295,7 +295,10 @@
     <t>飞升</t>
   </si>
   <si>
-    <t>仙缘1</t>
+    <t>仙缘11</t>
+  </si>
+  <si>
+    <t>仙缘12</t>
   </si>
   <si>
     <t>仙缘21</t>
@@ -553,6 +556,12 @@
     <t>蕙卿</t>
   </si>
   <si>
+    <t>周赤炎</t>
+  </si>
+  <si>
+    <t>思堂</t>
+  </si>
+  <si>
     <t>清冷仙人</t>
   </si>
   <si>
@@ -566,6 +575,9 @@
   </si>
   <si>
     <t>星璇</t>
+  </si>
+  <si>
+    <t>九天玄女</t>
   </si>
   <si>
     <t>怀朔</t>
@@ -815,11 +827,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -831,6 +873,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -839,9 +925,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -857,21 +951,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -879,59 +958,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -939,21 +966,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -968,13 +980,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -992,37 +1076,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1034,13 +1088,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1052,13 +1100,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1070,61 +1118,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1142,13 +1136,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1180,17 +1192,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1210,17 +1222,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1239,26 +1271,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1267,10 +1279,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1279,133 +1291,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2994,7 +3006,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U92"/>
+  <dimension ref="A1:V92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3007,15 +3019,15 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="5.375" style="1" customWidth="1"/>
     <col min="3" max="6" width="5.375" customWidth="1"/>
-    <col min="7" max="9" width="6.375" style="1" customWidth="1"/>
-    <col min="10" max="13" width="7.375" style="1" customWidth="1"/>
-    <col min="14" max="16" width="6.375" style="1" customWidth="1"/>
-    <col min="17" max="19" width="6.375" customWidth="1"/>
-    <col min="20" max="20" width="5.375" customWidth="1"/>
-    <col min="21" max="21" width="9.375" customWidth="1"/>
+    <col min="7" max="10" width="6.375" style="1" customWidth="1"/>
+    <col min="11" max="14" width="7.375" style="1" customWidth="1"/>
+    <col min="15" max="17" width="6.375" style="1" customWidth="1"/>
+    <col min="18" max="20" width="6.375" customWidth="1"/>
+    <col min="21" max="21" width="5.375" customWidth="1"/>
+    <col min="22" max="22" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="2:20">
+    <row r="1" s="1" customFormat="1" spans="2:21">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3073,10 +3085,13 @@
       <c r="T1" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="2" spans="1:21">
+      <c r="U1" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -3101,13 +3116,14 @@
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
-      <c r="U2" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
+      <c r="U2" s="2"/>
+      <c r="V2" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
@@ -3127,13 +3143,14 @@
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
-      <c r="U3" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
+      <c r="U3" s="2"/>
+      <c r="V3" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="2"/>
@@ -3153,13 +3170,14 @@
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
-      <c r="U4" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
+      <c r="U4" s="2"/>
+      <c r="V4" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="2"/>
@@ -3179,13 +3197,14 @@
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
-      <c r="U5" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
+      <c r="U5" s="2"/>
+      <c r="V5" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="2"/>
@@ -3205,13 +3224,14 @@
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
-      <c r="U6" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
+      <c r="U6" s="2"/>
+      <c r="V6" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="2"/>
@@ -3231,13 +3251,14 @@
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
-      <c r="U7" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21">
+      <c r="U7" s="2"/>
+      <c r="V7" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="2"/>
@@ -3257,13 +3278,14 @@
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
-      <c r="U8" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21">
+      <c r="U8" s="2"/>
+      <c r="V8" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="2"/>
@@ -3283,13 +3305,14 @@
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
-      <c r="U9" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21">
+      <c r="U9" s="2"/>
+      <c r="V9" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>42</v>
@@ -3314,13 +3337,14 @@
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
-      <c r="U10" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21">
+      <c r="U10" s="2"/>
+      <c r="V10" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="2"/>
@@ -3340,13 +3364,14 @@
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
-      <c r="U11" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21">
+      <c r="U11" s="2"/>
+      <c r="V11" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="2"/>
@@ -3366,13 +3391,14 @@
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
-      <c r="U12" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21">
+      <c r="U12" s="2"/>
+      <c r="V12" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="2"/>
@@ -3392,13 +3418,14 @@
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
-      <c r="U13" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21">
+      <c r="U13" s="2"/>
+      <c r="V13" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="2"/>
@@ -3418,13 +3445,14 @@
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
-      <c r="U14" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21">
+      <c r="U14" s="2"/>
+      <c r="V14" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="2"/>
@@ -3444,13 +3472,14 @@
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
-      <c r="U15" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21">
+      <c r="U15" s="2"/>
+      <c r="V15" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>10</v>
@@ -3475,13 +3504,14 @@
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
-      <c r="U16" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21">
+      <c r="U16" s="2"/>
+      <c r="V16" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="2"/>
@@ -3501,13 +3531,14 @@
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
-      <c r="U17" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21">
+      <c r="U17" s="2"/>
+      <c r="V17" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="2"/>
@@ -3527,13 +3558,14 @@
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
-      <c r="U18" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21">
+      <c r="U18" s="2"/>
+      <c r="V18" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="2"/>
@@ -3553,13 +3585,14 @@
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
-      <c r="U19" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21">
+      <c r="U19" s="2"/>
+      <c r="V19" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="2"/>
@@ -3579,13 +3612,14 @@
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
-      <c r="U20" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21">
+      <c r="U20" s="2"/>
+      <c r="V20" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="2"/>
@@ -3605,13 +3639,14 @@
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
-      <c r="U21" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21">
+      <c r="U21" s="2"/>
+      <c r="V21" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
       <c r="A22" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="2"/>
@@ -3631,13 +3666,14 @@
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
-      <c r="U22" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21">
+      <c r="U22" s="2"/>
+      <c r="V22" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="2"/>
@@ -3657,16 +3693,17 @@
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
-      <c r="U23" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21">
+      <c r="U23" s="2"/>
+      <c r="V23" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
       <c r="A24" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C24" s="1">
         <v>4</v>
@@ -3688,13 +3725,14 @@
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
-      <c r="U24" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21">
+      <c r="U24" s="2"/>
+      <c r="V24" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
       <c r="A25" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="2"/>
@@ -3714,13 +3752,14 @@
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
-      <c r="U25" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21">
+      <c r="U25" s="2"/>
+      <c r="V25" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
       <c r="A26" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="2"/>
@@ -3740,13 +3779,14 @@
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
-      <c r="U26" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21">
+      <c r="U26" s="2"/>
+      <c r="V26" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
       <c r="A27" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
@@ -3766,16 +3806,17 @@
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
-      <c r="U27" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21">
+      <c r="U27" s="2"/>
+      <c r="V27" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
       <c r="A28" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C28" s="1">
         <v>6</v>
@@ -3797,13 +3838,14 @@
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
-      <c r="U28" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21">
+      <c r="U28" s="2"/>
+      <c r="V28" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
       <c r="A29" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="2"/>
@@ -3823,13 +3865,14 @@
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
-      <c r="U29" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21">
+      <c r="U29" s="2"/>
+      <c r="V29" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
       <c r="A30" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="2"/>
@@ -3849,13 +3892,14 @@
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
-      <c r="U30" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21">
+      <c r="U30" s="2"/>
+      <c r="V30" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
       <c r="A31" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="2"/>
@@ -3875,13 +3919,14 @@
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
-      <c r="U31" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21">
+      <c r="U31" s="2"/>
+      <c r="V31" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
       <c r="A32" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="2"/>
@@ -3901,13 +3946,14 @@
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
-      <c r="U32" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21">
+      <c r="U32" s="2"/>
+      <c r="V32" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
       <c r="A33" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="2"/>
@@ -3927,13 +3973,14 @@
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
-      <c r="U33" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21">
+      <c r="U33" s="2"/>
+      <c r="V33" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
       <c r="A34" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>24</v>
@@ -3958,13 +4005,14 @@
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
-      <c r="U34" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21">
+      <c r="U34" s="2"/>
+      <c r="V34" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
       <c r="A35" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="2"/>
@@ -3984,13 +4032,14 @@
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
-      <c r="U35" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21">
+      <c r="U35" s="2"/>
+      <c r="V35" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22">
       <c r="A36" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>71</v>
@@ -4015,13 +4064,14 @@
       <c r="R36" s="2"/>
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
-      <c r="U36" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21">
+      <c r="U36" s="2"/>
+      <c r="V36" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22">
       <c r="A37" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="2"/>
@@ -4041,13 +4091,14 @@
       <c r="R37" s="2"/>
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
-      <c r="U37" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21">
+      <c r="U37" s="2"/>
+      <c r="V37" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22">
       <c r="A38" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="2"/>
@@ -4067,13 +4118,14 @@
       <c r="R38" s="2"/>
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
-      <c r="U38" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21">
+      <c r="U38" s="2"/>
+      <c r="V38" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22">
       <c r="A39" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="2"/>
@@ -4093,13 +4145,14 @@
       <c r="R39" s="2"/>
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
-      <c r="U39" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21">
+      <c r="U39" s="2"/>
+      <c r="V39" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22">
       <c r="A40" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="2"/>
@@ -4119,13 +4172,14 @@
       <c r="R40" s="2"/>
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
-      <c r="U40" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21">
+      <c r="U40" s="2"/>
+      <c r="V40" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22">
       <c r="A41" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="2"/>
@@ -4145,13 +4199,14 @@
       <c r="R41" s="2"/>
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
-      <c r="U41" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21">
+      <c r="U41" s="2"/>
+      <c r="V41" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22">
       <c r="A42" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="2"/>
@@ -4171,13 +4226,14 @@
       <c r="R42" s="2"/>
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
-      <c r="U42" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21">
+      <c r="U42" s="2"/>
+      <c r="V42" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22">
       <c r="A43" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="2"/>
@@ -4197,11 +4253,12 @@
       <c r="R43" s="2"/>
       <c r="S43" s="2"/>
       <c r="T43" s="2"/>
-      <c r="U43" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20">
+      <c r="U43" s="2"/>
+      <c r="V43" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21">
       <c r="A44" s="1" t="s">
         <v>14</v>
       </c>
@@ -4209,151 +4266,151 @@
         <f>SUM(C2:C43)</f>
         <v>42</v>
       </c>
-      <c r="T44" s="2"/>
-    </row>
-    <row r="45" spans="20:20">
-      <c r="T45" s="2"/>
-    </row>
-    <row r="46" spans="20:20">
-      <c r="T46" s="2"/>
-    </row>
-    <row r="47" spans="20:20">
-      <c r="T47" s="2"/>
-    </row>
-    <row r="48" spans="20:20">
-      <c r="T48" s="2"/>
-    </row>
-    <row r="49" spans="20:20">
-      <c r="T49" s="2"/>
-    </row>
-    <row r="50" spans="20:20">
-      <c r="T50" s="2"/>
-    </row>
-    <row r="51" spans="20:20">
-      <c r="T51" s="2"/>
-    </row>
-    <row r="52" spans="20:20">
-      <c r="T52" s="2"/>
-    </row>
-    <row r="53" spans="20:20">
-      <c r="T53" s="2"/>
-    </row>
-    <row r="54" spans="20:20">
-      <c r="T54" s="2"/>
-    </row>
-    <row r="55" spans="20:20">
-      <c r="T55" s="2"/>
-    </row>
-    <row r="56" spans="20:20">
-      <c r="T56" s="2"/>
-    </row>
-    <row r="57" spans="20:20">
-      <c r="T57" s="2"/>
-    </row>
-    <row r="58" spans="20:20">
-      <c r="T58" s="2"/>
-    </row>
-    <row r="59" spans="20:20">
-      <c r="T59" s="2"/>
-    </row>
-    <row r="60" spans="20:20">
-      <c r="T60" s="2"/>
-    </row>
-    <row r="61" spans="20:20">
-      <c r="T61" s="2"/>
-    </row>
-    <row r="62" spans="20:20">
-      <c r="T62" s="2"/>
-    </row>
-    <row r="63" spans="20:20">
-      <c r="T63" s="2"/>
-    </row>
-    <row r="64" spans="20:20">
-      <c r="T64" s="2"/>
-    </row>
-    <row r="65" spans="20:20">
-      <c r="T65" s="2"/>
-    </row>
-    <row r="66" spans="20:20">
-      <c r="T66" s="2"/>
-    </row>
-    <row r="67" spans="20:20">
-      <c r="T67" s="2"/>
-    </row>
-    <row r="68" spans="20:20">
-      <c r="T68" s="2"/>
-    </row>
-    <row r="69" spans="20:20">
-      <c r="T69" s="2"/>
-    </row>
-    <row r="70" spans="20:20">
-      <c r="T70" s="2"/>
-    </row>
-    <row r="71" spans="20:20">
-      <c r="T71" s="2"/>
-    </row>
-    <row r="72" spans="20:20">
-      <c r="T72" s="2"/>
-    </row>
-    <row r="73" spans="20:20">
-      <c r="T73" s="2"/>
-    </row>
-    <row r="74" spans="20:20">
-      <c r="T74" s="2"/>
-    </row>
-    <row r="75" spans="20:20">
-      <c r="T75" s="2"/>
-    </row>
-    <row r="76" spans="20:20">
-      <c r="T76" s="2"/>
-    </row>
-    <row r="77" spans="20:20">
-      <c r="T77" s="2"/>
-    </row>
-    <row r="78" spans="20:20">
-      <c r="T78" s="2"/>
-    </row>
-    <row r="79" spans="20:20">
-      <c r="T79" s="2"/>
-    </row>
-    <row r="80" spans="20:20">
-      <c r="T80" s="2"/>
-    </row>
-    <row r="81" spans="20:20">
-      <c r="T81" s="2"/>
-    </row>
-    <row r="82" spans="20:20">
-      <c r="T82" s="2"/>
-    </row>
-    <row r="83" spans="20:20">
-      <c r="T83" s="2"/>
-    </row>
-    <row r="84" spans="20:20">
-      <c r="T84" s="2"/>
-    </row>
-    <row r="85" spans="20:20">
-      <c r="T85" s="2"/>
-    </row>
-    <row r="86" spans="20:20">
-      <c r="T86" s="2"/>
-    </row>
-    <row r="87" spans="20:20">
-      <c r="T87" s="2"/>
-    </row>
-    <row r="88" spans="20:20">
-      <c r="T88" s="2"/>
-    </row>
-    <row r="89" spans="20:20">
-      <c r="T89" s="2"/>
-    </row>
-    <row r="90" spans="20:20">
-      <c r="T90" s="2"/>
-    </row>
-    <row r="91" spans="20:20">
-      <c r="T91" s="2"/>
-    </row>
-    <row r="92" spans="20:20">
-      <c r="T92" s="2"/>
+      <c r="U44" s="2"/>
+    </row>
+    <row r="45" spans="21:21">
+      <c r="U45" s="2"/>
+    </row>
+    <row r="46" spans="21:21">
+      <c r="U46" s="2"/>
+    </row>
+    <row r="47" spans="21:21">
+      <c r="U47" s="2"/>
+    </row>
+    <row r="48" spans="21:21">
+      <c r="U48" s="2"/>
+    </row>
+    <row r="49" spans="21:21">
+      <c r="U49" s="2"/>
+    </row>
+    <row r="50" spans="21:21">
+      <c r="U50" s="2"/>
+    </row>
+    <row r="51" spans="21:21">
+      <c r="U51" s="2"/>
+    </row>
+    <row r="52" spans="21:21">
+      <c r="U52" s="2"/>
+    </row>
+    <row r="53" spans="21:21">
+      <c r="U53" s="2"/>
+    </row>
+    <row r="54" spans="21:21">
+      <c r="U54" s="2"/>
+    </row>
+    <row r="55" spans="21:21">
+      <c r="U55" s="2"/>
+    </row>
+    <row r="56" spans="21:21">
+      <c r="U56" s="2"/>
+    </row>
+    <row r="57" spans="21:21">
+      <c r="U57" s="2"/>
+    </row>
+    <row r="58" spans="21:21">
+      <c r="U58" s="2"/>
+    </row>
+    <row r="59" spans="21:21">
+      <c r="U59" s="2"/>
+    </row>
+    <row r="60" spans="21:21">
+      <c r="U60" s="2"/>
+    </row>
+    <row r="61" spans="21:21">
+      <c r="U61" s="2"/>
+    </row>
+    <row r="62" spans="21:21">
+      <c r="U62" s="2"/>
+    </row>
+    <row r="63" spans="21:21">
+      <c r="U63" s="2"/>
+    </row>
+    <row r="64" spans="21:21">
+      <c r="U64" s="2"/>
+    </row>
+    <row r="65" spans="21:21">
+      <c r="U65" s="2"/>
+    </row>
+    <row r="66" spans="21:21">
+      <c r="U66" s="2"/>
+    </row>
+    <row r="67" spans="21:21">
+      <c r="U67" s="2"/>
+    </row>
+    <row r="68" spans="21:21">
+      <c r="U68" s="2"/>
+    </row>
+    <row r="69" spans="21:21">
+      <c r="U69" s="2"/>
+    </row>
+    <row r="70" spans="21:21">
+      <c r="U70" s="2"/>
+    </row>
+    <row r="71" spans="21:21">
+      <c r="U71" s="2"/>
+    </row>
+    <row r="72" spans="21:21">
+      <c r="U72" s="2"/>
+    </row>
+    <row r="73" spans="21:21">
+      <c r="U73" s="2"/>
+    </row>
+    <row r="74" spans="21:21">
+      <c r="U74" s="2"/>
+    </row>
+    <row r="75" spans="21:21">
+      <c r="U75" s="2"/>
+    </row>
+    <row r="76" spans="21:21">
+      <c r="U76" s="2"/>
+    </row>
+    <row r="77" spans="21:21">
+      <c r="U77" s="2"/>
+    </row>
+    <row r="78" spans="21:21">
+      <c r="U78" s="2"/>
+    </row>
+    <row r="79" spans="21:21">
+      <c r="U79" s="2"/>
+    </row>
+    <row r="80" spans="21:21">
+      <c r="U80" s="2"/>
+    </row>
+    <row r="81" spans="21:21">
+      <c r="U81" s="2"/>
+    </row>
+    <row r="82" spans="21:21">
+      <c r="U82" s="2"/>
+    </row>
+    <row r="83" spans="21:21">
+      <c r="U83" s="2"/>
+    </row>
+    <row r="84" spans="21:21">
+      <c r="U84" s="2"/>
+    </row>
+    <row r="85" spans="21:21">
+      <c r="U85" s="2"/>
+    </row>
+    <row r="86" spans="21:21">
+      <c r="U86" s="2"/>
+    </row>
+    <row r="87" spans="21:21">
+      <c r="U87" s="2"/>
+    </row>
+    <row r="88" spans="21:21">
+      <c r="U88" s="2"/>
+    </row>
+    <row r="89" spans="21:21">
+      <c r="U89" s="2"/>
+    </row>
+    <row r="90" spans="21:21">
+      <c r="U90" s="2"/>
+    </row>
+    <row r="91" spans="21:21">
+      <c r="U91" s="2"/>
+    </row>
+    <row r="92" spans="21:21">
+      <c r="U92" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -4380,7 +4437,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y106"/>
+  <dimension ref="A1:Z109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4393,17 +4450,17 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="5.375" style="1" customWidth="1"/>
     <col min="3" max="6" width="5.375" customWidth="1"/>
-    <col min="7" max="9" width="6.375" style="1" customWidth="1"/>
-    <col min="10" max="13" width="7.375" style="1" customWidth="1"/>
-    <col min="14" max="16" width="6.375" style="1" customWidth="1"/>
-    <col min="17" max="20" width="6.375" customWidth="1"/>
-    <col min="21" max="21" width="5.375" customWidth="1"/>
-    <col min="22" max="23" width="9.375" customWidth="1"/>
-    <col min="24" max="24" width="11.5" customWidth="1"/>
-    <col min="25" max="25" width="9.375" customWidth="1"/>
+    <col min="7" max="10" width="6.375" style="1" customWidth="1"/>
+    <col min="11" max="14" width="7.375" style="1" customWidth="1"/>
+    <col min="15" max="17" width="6.375" style="1" customWidth="1"/>
+    <col min="18" max="21" width="6.375" customWidth="1"/>
+    <col min="22" max="22" width="5.375" customWidth="1"/>
+    <col min="23" max="24" width="9.375" customWidth="1"/>
+    <col min="25" max="25" width="11.5" customWidth="1"/>
+    <col min="26" max="26" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="2:24">
+    <row r="1" s="1" customFormat="1" spans="2:25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4459,13 +4516,13 @@
         <v>103</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>149</v>
+        <v>104</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>150</v>
+        <v>105</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>151</v>
@@ -4473,10 +4530,13 @@
       <c r="X1" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="2" spans="1:25">
+      <c r="Y1" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -4503,13 +4563,14 @@
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
-      <c r="Y2" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25">
+      <c r="W2" s="2"/>
+      <c r="Z2" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
       <c r="A3" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
@@ -4531,13 +4592,14 @@
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
-      <c r="Y3" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25">
+      <c r="W3" s="2"/>
+      <c r="Z3" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
       <c r="A4" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="2"/>
@@ -4559,13 +4621,14 @@
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
-      <c r="Y4" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25">
+      <c r="W4" s="2"/>
+      <c r="Z4" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
       <c r="A5" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="2"/>
@@ -4587,13 +4650,14 @@
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
-      <c r="Y5" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25">
+      <c r="W5" s="2"/>
+      <c r="Z5" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
       <c r="A6" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="2"/>
@@ -4615,13 +4679,14 @@
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
-      <c r="Y6" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25">
+      <c r="W6" s="2"/>
+      <c r="Z6" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
       <c r="A7" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="2"/>
@@ -4643,13 +4708,14 @@
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
-      <c r="Y7" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25">
+      <c r="W7" s="2"/>
+      <c r="Z7" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
       <c r="A8" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="2"/>
@@ -4671,13 +4737,14 @@
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
-      <c r="Y8" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25">
+      <c r="W8" s="2"/>
+      <c r="Z8" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
       <c r="A9" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>42</v>
@@ -4704,13 +4771,14 @@
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
-      <c r="Y9" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25">
+      <c r="W9" s="2"/>
+      <c r="Z9" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
       <c r="A10" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="2"/>
@@ -4732,13 +4800,14 @@
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
-      <c r="Y10" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25">
+      <c r="W10" s="2"/>
+      <c r="Z10" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
       <c r="A11" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="2"/>
@@ -4760,13 +4829,14 @@
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
-      <c r="Y11" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25">
+      <c r="W11" s="2"/>
+      <c r="Z11" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
       <c r="A12" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="2"/>
@@ -4788,13 +4858,14 @@
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
-      <c r="Y12" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25">
+      <c r="W12" s="2"/>
+      <c r="Z12" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
       <c r="A13" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="2"/>
@@ -4816,13 +4887,14 @@
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
-      <c r="Y13" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25">
+      <c r="W13" s="2"/>
+      <c r="Z13" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
       <c r="A14" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>10</v>
@@ -4849,13 +4921,14 @@
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
-      <c r="Y14" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25">
+      <c r="W14" s="2"/>
+      <c r="Z14" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
       <c r="A15" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="2"/>
@@ -4877,13 +4950,14 @@
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
-      <c r="Y15" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25">
+      <c r="W15" s="2"/>
+      <c r="Z15" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
       <c r="A16" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="2"/>
@@ -4905,13 +4979,14 @@
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
-      <c r="Y16" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25">
+      <c r="W16" s="2"/>
+      <c r="Z16" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
       <c r="A17" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="2"/>
@@ -4933,13 +5008,14 @@
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
-      <c r="Y17" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25">
+      <c r="W17" s="2"/>
+      <c r="Z17" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
       <c r="A18" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="2"/>
@@ -4961,13 +5037,14 @@
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
-      <c r="Y18" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25">
+      <c r="W18" s="2"/>
+      <c r="Z18" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
       <c r="A19" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="2"/>
@@ -4989,13 +5066,14 @@
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
-      <c r="Y19" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25">
+      <c r="W19" s="2"/>
+      <c r="Z19" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
       <c r="A20" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="2"/>
@@ -5017,13 +5095,14 @@
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
-      <c r="Y20" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25">
+      <c r="W20" s="2"/>
+      <c r="Z20" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
       <c r="A21" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="2"/>
@@ -5045,13 +5124,14 @@
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
-      <c r="Y21" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25">
+      <c r="W21" s="2"/>
+      <c r="Z21" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
       <c r="A22" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="2"/>
@@ -5073,13 +5153,14 @@
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
-      <c r="Y22" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25">
+      <c r="W22" s="2"/>
+      <c r="Z22" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
       <c r="A23" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="2"/>
@@ -5101,13 +5182,14 @@
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
-      <c r="Y23" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25">
+      <c r="W23" s="2"/>
+      <c r="Z23" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26">
       <c r="A24" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="2"/>
@@ -5129,19 +5211,20 @@
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
-      <c r="Y24" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25">
+      <c r="W24" s="2"/>
+      <c r="Z24" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26">
       <c r="A25" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C25" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -5162,13 +5245,14 @@
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
-      <c r="Y25" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25">
+      <c r="W25" s="2"/>
+      <c r="Z25" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26">
       <c r="A26" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="2"/>
@@ -5190,13 +5274,14 @@
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
       <c r="V26" s="2"/>
-      <c r="Y26" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25">
+      <c r="W26" s="2"/>
+      <c r="Z26" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26">
       <c r="A27" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
@@ -5218,13 +5303,14 @@
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
       <c r="V27" s="2"/>
-      <c r="Y27" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25">
+      <c r="W27" s="2"/>
+      <c r="Z27" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26">
       <c r="A28" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="2"/>
@@ -5246,13 +5332,14 @@
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
       <c r="V28" s="2"/>
-      <c r="Y28" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25">
+      <c r="W28" s="2"/>
+      <c r="Z28" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26">
       <c r="A29" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="2"/>
@@ -5274,13 +5361,14 @@
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
       <c r="V29" s="2"/>
-      <c r="Y29" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25">
+      <c r="W29" s="2"/>
+      <c r="Z29" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26">
       <c r="A30" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="2"/>
@@ -5302,20 +5390,16 @@
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
       <c r="V30" s="2"/>
-      <c r="Y30" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25">
+      <c r="W30" s="2"/>
+      <c r="Z30" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26">
       <c r="A31" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C31" s="1">
-        <v>20</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="C31" s="1"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -5335,15 +5419,15 @@
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
       <c r="V31" s="2"/>
-      <c r="Y31" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="32" customFormat="1" spans="1:25">
+      <c r="W31" s="2"/>
+      <c r="Z31" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26">
       <c r="A32" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B32" s="1"/>
+        <v>184</v>
+      </c>
       <c r="C32" s="1"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -5364,16 +5448,21 @@
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
       <c r="V32" s="2"/>
-      <c r="Y32" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="33" customFormat="1" spans="1:25">
+      <c r="W32" s="2"/>
+      <c r="Z32" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26">
       <c r="A33" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
+        <v>185</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C33" s="1">
+        <v>21</v>
+      </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -5393,13 +5482,14 @@
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
       <c r="V33" s="2"/>
-      <c r="Y33" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="34" customFormat="1" spans="1:25">
+      <c r="W33" s="2"/>
+      <c r="Z33" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1" spans="1:26">
       <c r="A34" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -5422,13 +5512,14 @@
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
       <c r="V34" s="2"/>
-      <c r="Y34" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="35" customFormat="1" spans="1:25">
+      <c r="W34" s="2"/>
+      <c r="Z34" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="35" customFormat="1" spans="1:26">
       <c r="A35" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -5451,13 +5542,14 @@
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
       <c r="V35" s="2"/>
-      <c r="Y35" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="36" customFormat="1" spans="1:25">
+      <c r="W35" s="2"/>
+      <c r="Z35" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="36" customFormat="1" spans="1:26">
       <c r="A36" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -5480,14 +5572,16 @@
       <c r="T36" s="2"/>
       <c r="U36" s="2"/>
       <c r="V36" s="2"/>
-      <c r="Y36" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25">
+      <c r="W36" s="2"/>
+      <c r="Z36" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="37" customFormat="1" spans="1:26">
       <c r="A37" s="1" t="s">
-        <v>188</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -5508,14 +5602,16 @@
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
       <c r="V37" s="2"/>
-      <c r="Y37" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="38" spans="1:25">
+      <c r="W37" s="2"/>
+      <c r="Z37" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="38" customFormat="1" spans="1:26">
       <c r="A38" s="1" t="s">
-        <v>189</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -5536,14 +5632,16 @@
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
       <c r="V38" s="2"/>
-      <c r="Y38" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="39" spans="1:25">
+      <c r="W38" s="2"/>
+      <c r="Z38" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="39" customFormat="1" spans="1:26">
       <c r="A39" s="1" t="s">
-        <v>190</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -5564,13 +5662,14 @@
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
       <c r="V39" s="2"/>
-      <c r="Y39" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="40" spans="1:25">
+      <c r="W39" s="2"/>
+      <c r="Z39" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26">
       <c r="A40" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="2"/>
@@ -5592,13 +5691,14 @@
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
       <c r="V40" s="2"/>
-      <c r="Y40" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="41" spans="1:25">
+      <c r="W40" s="2"/>
+      <c r="Z40" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26">
       <c r="A41" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="2"/>
@@ -5620,13 +5720,14 @@
       <c r="T41" s="2"/>
       <c r="U41" s="2"/>
       <c r="V41" s="2"/>
-      <c r="Y41" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="42" spans="1:25">
+      <c r="W41" s="2"/>
+      <c r="Z41" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26">
       <c r="A42" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="2"/>
@@ -5648,13 +5749,14 @@
       <c r="T42" s="2"/>
       <c r="U42" s="2"/>
       <c r="V42" s="2"/>
-      <c r="Y42" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="43" spans="1:25">
+      <c r="W42" s="2"/>
+      <c r="Z42" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26">
       <c r="A43" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="2"/>
@@ -5676,13 +5778,14 @@
       <c r="T43" s="2"/>
       <c r="U43" s="2"/>
       <c r="V43" s="2"/>
-      <c r="Y43" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="44" spans="1:25">
+      <c r="W43" s="2"/>
+      <c r="Z43" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26">
       <c r="A44" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="2"/>
@@ -5704,13 +5807,14 @@
       <c r="T44" s="2"/>
       <c r="U44" s="2"/>
       <c r="V44" s="2"/>
-      <c r="Y44" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="45" spans="1:25">
+      <c r="W44" s="2"/>
+      <c r="Z44" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26">
       <c r="A45" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="2"/>
@@ -5732,13 +5836,14 @@
       <c r="T45" s="2"/>
       <c r="U45" s="2"/>
       <c r="V45" s="2"/>
-      <c r="Y45" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="46" spans="1:25">
+      <c r="W45" s="2"/>
+      <c r="Z45" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26">
       <c r="A46" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="2"/>
@@ -5760,13 +5865,14 @@
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
       <c r="V46" s="2"/>
-      <c r="Y46" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="47" spans="1:25">
+      <c r="W46" s="2"/>
+      <c r="Z46" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26">
       <c r="A47" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="2"/>
@@ -5788,13 +5894,14 @@
       <c r="T47" s="2"/>
       <c r="U47" s="2"/>
       <c r="V47" s="2"/>
-      <c r="Y47" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="48" spans="1:25">
+      <c r="W47" s="2"/>
+      <c r="Z47" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26">
       <c r="A48" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="2"/>
@@ -5816,13 +5923,14 @@
       <c r="T48" s="2"/>
       <c r="U48" s="2"/>
       <c r="V48" s="2"/>
-      <c r="Y48" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="49" spans="1:25">
+      <c r="W48" s="2"/>
+      <c r="Z48" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26">
       <c r="A49" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="2"/>
@@ -5844,13 +5952,14 @@
       <c r="T49" s="2"/>
       <c r="U49" s="2"/>
       <c r="V49" s="2"/>
-      <c r="Y49" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="50" spans="1:25">
+      <c r="W49" s="2"/>
+      <c r="Z49" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26">
       <c r="A50" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="2"/>
@@ -5872,20 +5981,16 @@
       <c r="T50" s="2"/>
       <c r="U50" s="2"/>
       <c r="V50" s="2"/>
-      <c r="Y50" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="51" spans="1:25">
+      <c r="W50" s="2"/>
+      <c r="Z50" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26">
       <c r="A51" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C51" s="1">
-        <v>14</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="C51" s="1"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -5905,13 +6010,14 @@
       <c r="T51" s="2"/>
       <c r="U51" s="2"/>
       <c r="V51" s="2"/>
-      <c r="Y51" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="52" spans="1:25">
+      <c r="W51" s="2"/>
+      <c r="Z51" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26">
       <c r="A52" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="2"/>
@@ -5933,13 +6039,14 @@
       <c r="T52" s="2"/>
       <c r="U52" s="2"/>
       <c r="V52" s="2"/>
-      <c r="Y52" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="53" spans="1:25">
+      <c r="W52" s="2"/>
+      <c r="Z52" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26">
       <c r="A53" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="2"/>
@@ -5961,15 +6068,21 @@
       <c r="T53" s="2"/>
       <c r="U53" s="2"/>
       <c r="V53" s="2"/>
-      <c r="Y53" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="54" spans="1:25">
+      <c r="W53" s="2"/>
+      <c r="Z53" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26">
       <c r="A54" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C54" s="1"/>
+        <v>206</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54" s="1">
+        <v>14</v>
+      </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
@@ -5989,13 +6102,14 @@
       <c r="T54" s="2"/>
       <c r="U54" s="2"/>
       <c r="V54" s="2"/>
-      <c r="Y54" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="55" spans="1:25">
+      <c r="W54" s="2"/>
+      <c r="Z54" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26">
       <c r="A55" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="2"/>
@@ -6017,13 +6131,14 @@
       <c r="T55" s="2"/>
       <c r="U55" s="2"/>
       <c r="V55" s="2"/>
-      <c r="Y55" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="56" spans="1:25">
+      <c r="W55" s="2"/>
+      <c r="Z55" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26">
       <c r="A56" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="2"/>
@@ -6045,13 +6160,14 @@
       <c r="T56" s="2"/>
       <c r="U56" s="2"/>
       <c r="V56" s="2"/>
-      <c r="Y56" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="57" spans="1:25">
+      <c r="W56" s="2"/>
+      <c r="Z56" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26">
       <c r="A57" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="2"/>
@@ -6073,13 +6189,14 @@
       <c r="T57" s="2"/>
       <c r="U57" s="2"/>
       <c r="V57" s="2"/>
-      <c r="Y57" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="58" spans="1:25">
+      <c r="W57" s="2"/>
+      <c r="Z57" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26">
       <c r="A58" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="2"/>
@@ -6101,13 +6218,14 @@
       <c r="T58" s="2"/>
       <c r="U58" s="2"/>
       <c r="V58" s="2"/>
-      <c r="Y58" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="59" spans="1:25">
+      <c r="W58" s="2"/>
+      <c r="Z58" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26">
       <c r="A59" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="2"/>
@@ -6129,13 +6247,14 @@
       <c r="T59" s="2"/>
       <c r="U59" s="2"/>
       <c r="V59" s="2"/>
-      <c r="Y59" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="60" spans="1:25">
+      <c r="W59" s="2"/>
+      <c r="Z59" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26">
       <c r="A60" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="2"/>
@@ -6157,13 +6276,14 @@
       <c r="T60" s="2"/>
       <c r="U60" s="2"/>
       <c r="V60" s="2"/>
-      <c r="Y60" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="61" spans="1:25">
+      <c r="W60" s="2"/>
+      <c r="Z60" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26">
       <c r="A61" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="2"/>
@@ -6185,13 +6305,14 @@
       <c r="T61" s="2"/>
       <c r="U61" s="2"/>
       <c r="V61" s="2"/>
-      <c r="Y61" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="62" spans="1:25">
+      <c r="W61" s="2"/>
+      <c r="Z61" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26">
       <c r="A62" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="2"/>
@@ -6213,13 +6334,14 @@
       <c r="T62" s="2"/>
       <c r="U62" s="2"/>
       <c r="V62" s="2"/>
-      <c r="Y62" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="63" spans="1:25">
+      <c r="W62" s="2"/>
+      <c r="Z62" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26">
       <c r="A63" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="2"/>
@@ -6241,13 +6363,14 @@
       <c r="T63" s="2"/>
       <c r="U63" s="2"/>
       <c r="V63" s="2"/>
-      <c r="Y63" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="64" spans="1:25">
+      <c r="W63" s="2"/>
+      <c r="Z63" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26">
       <c r="A64" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="2"/>
@@ -6269,20 +6392,16 @@
       <c r="T64" s="2"/>
       <c r="U64" s="2"/>
       <c r="V64" s="2"/>
-      <c r="Y64" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="65" spans="1:25">
-      <c r="A65" s="3" t="s">
+      <c r="W64" s="2"/>
+      <c r="Z64" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C65" s="1">
-        <v>13</v>
-      </c>
+    </row>
+    <row r="65" spans="1:26">
+      <c r="A65" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C65" s="1"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
@@ -6302,13 +6421,14 @@
       <c r="T65" s="2"/>
       <c r="U65" s="2"/>
       <c r="V65" s="2"/>
-      <c r="Y65" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="66" spans="1:25">
-      <c r="A66" s="3" t="s">
+      <c r="W65" s="2"/>
+      <c r="Z65" s="1" t="s">
         <v>217</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26">
+      <c r="A66" s="1" t="s">
+        <v>218</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="2"/>
@@ -6330,13 +6450,14 @@
       <c r="T66" s="2"/>
       <c r="U66" s="2"/>
       <c r="V66" s="2"/>
-      <c r="Y66" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="67" spans="1:25">
+      <c r="W66" s="2"/>
+      <c r="Z66" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26">
       <c r="A67" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="2"/>
@@ -6358,15 +6479,21 @@
       <c r="T67" s="2"/>
       <c r="U67" s="2"/>
       <c r="V67" s="2"/>
-      <c r="Y67" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="68" spans="1:25">
+      <c r="W67" s="2"/>
+      <c r="Z67" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26">
       <c r="A68" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C68" s="1"/>
+        <v>220</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C68" s="1">
+        <v>13</v>
+      </c>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
@@ -6386,13 +6513,14 @@
       <c r="T68" s="2"/>
       <c r="U68" s="2"/>
       <c r="V68" s="2"/>
-      <c r="Y68" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="69" spans="1:25">
-      <c r="A69" s="1" t="s">
+      <c r="W68" s="2"/>
+      <c r="Z68" s="3" t="s">
         <v>220</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26">
+      <c r="A69" s="3" t="s">
+        <v>221</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="2"/>
@@ -6414,13 +6542,14 @@
       <c r="T69" s="2"/>
       <c r="U69" s="2"/>
       <c r="V69" s="2"/>
-      <c r="Y69" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="70" spans="1:25">
+      <c r="W69" s="2"/>
+      <c r="Z69" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26">
       <c r="A70" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="2"/>
@@ -6442,13 +6571,14 @@
       <c r="T70" s="2"/>
       <c r="U70" s="2"/>
       <c r="V70" s="2"/>
-      <c r="Y70" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="71" spans="1:25">
-      <c r="A71" s="1" t="s">
+      <c r="W70" s="2"/>
+      <c r="Z70" s="3" t="s">
         <v>222</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26">
+      <c r="A71" s="3" t="s">
+        <v>223</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="2"/>
@@ -6470,13 +6600,14 @@
       <c r="T71" s="2"/>
       <c r="U71" s="2"/>
       <c r="V71" s="2"/>
-      <c r="Y71" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="72" spans="1:25">
+      <c r="W71" s="2"/>
+      <c r="Z71" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26">
       <c r="A72" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="2"/>
@@ -6498,13 +6629,14 @@
       <c r="T72" s="2"/>
       <c r="U72" s="2"/>
       <c r="V72" s="2"/>
-      <c r="Y72" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="73" spans="1:25">
+      <c r="W72" s="2"/>
+      <c r="Z72" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26">
       <c r="A73" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="2"/>
@@ -6526,13 +6658,14 @@
       <c r="T73" s="2"/>
       <c r="U73" s="2"/>
       <c r="V73" s="2"/>
-      <c r="Y73" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="74" spans="1:25">
+      <c r="W73" s="2"/>
+      <c r="Z73" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26">
       <c r="A74" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="2"/>
@@ -6554,13 +6687,14 @@
       <c r="T74" s="2"/>
       <c r="U74" s="2"/>
       <c r="V74" s="2"/>
-      <c r="Y74" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="75" spans="1:25">
+      <c r="W74" s="2"/>
+      <c r="Z74" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26">
       <c r="A75" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="2"/>
@@ -6582,13 +6716,14 @@
       <c r="T75" s="2"/>
       <c r="U75" s="2"/>
       <c r="V75" s="2"/>
-      <c r="Y75" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="76" spans="1:25">
+      <c r="W75" s="2"/>
+      <c r="Z75" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26">
       <c r="A76" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="2"/>
@@ -6610,13 +6745,14 @@
       <c r="T76" s="2"/>
       <c r="U76" s="2"/>
       <c r="V76" s="2"/>
-      <c r="Y76" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="77" spans="1:25">
+      <c r="W76" s="2"/>
+      <c r="Z76" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26">
       <c r="A77" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="2"/>
@@ -6638,20 +6774,16 @@
       <c r="T77" s="2"/>
       <c r="U77" s="2"/>
       <c r="V77" s="2"/>
-      <c r="Y77" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="78" spans="1:25">
+      <c r="W77" s="2"/>
+      <c r="Z77" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26">
       <c r="A78" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B78" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C78" s="1">
-        <v>28</v>
-      </c>
+      <c r="C78" s="1"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
@@ -6671,11 +6803,12 @@
       <c r="T78" s="2"/>
       <c r="U78" s="2"/>
       <c r="V78" s="2"/>
-      <c r="Y78" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="79" spans="1:25">
+      <c r="W78" s="2"/>
+      <c r="Z78" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26">
       <c r="A79" s="1" t="s">
         <v>231</v>
       </c>
@@ -6699,11 +6832,12 @@
       <c r="T79" s="2"/>
       <c r="U79" s="2"/>
       <c r="V79" s="2"/>
-      <c r="Y79" s="1" t="s">
+      <c r="W79" s="2"/>
+      <c r="Z79" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="80" spans="1:25">
+    <row r="80" spans="1:26">
       <c r="A80" s="1" t="s">
         <v>232</v>
       </c>
@@ -6727,15 +6861,21 @@
       <c r="T80" s="2"/>
       <c r="U80" s="2"/>
       <c r="V80" s="2"/>
-      <c r="Y80" s="1" t="s">
+      <c r="W80" s="2"/>
+      <c r="Z80" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="81" spans="1:25">
+    <row r="81" spans="1:26">
       <c r="A81" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C81" s="1"/>
+      <c r="B81" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C81" s="1">
+        <v>28</v>
+      </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
@@ -6755,13 +6895,14 @@
       <c r="T81" s="2"/>
       <c r="U81" s="2"/>
       <c r="V81" s="2"/>
-      <c r="Y81" s="1" t="s">
+      <c r="W81" s="2"/>
+      <c r="Z81" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="82" spans="1:25">
+    <row r="82" spans="1:26">
       <c r="A82" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C82" s="1"/>
       <c r="D82" s="2"/>
@@ -6783,13 +6924,14 @@
       <c r="T82" s="2"/>
       <c r="U82" s="2"/>
       <c r="V82" s="2"/>
-      <c r="Y82" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="83" spans="1:25">
+      <c r="W82" s="2"/>
+      <c r="Z82" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26">
       <c r="A83" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="2"/>
@@ -6811,13 +6953,14 @@
       <c r="T83" s="2"/>
       <c r="U83" s="2"/>
       <c r="V83" s="2"/>
-      <c r="Y83" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="84" spans="1:25">
+      <c r="W83" s="2"/>
+      <c r="Z83" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26">
       <c r="A84" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C84" s="1"/>
       <c r="D84" s="2"/>
@@ -6839,13 +6982,14 @@
       <c r="T84" s="2"/>
       <c r="U84" s="2"/>
       <c r="V84" s="2"/>
-      <c r="Y84" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="85" spans="1:25">
+      <c r="W84" s="2"/>
+      <c r="Z84" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26">
       <c r="A85" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="2"/>
@@ -6867,13 +7011,14 @@
       <c r="T85" s="2"/>
       <c r="U85" s="2"/>
       <c r="V85" s="2"/>
-      <c r="Y85" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="86" spans="1:25">
+      <c r="W85" s="2"/>
+      <c r="Z85" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26">
       <c r="A86" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="2"/>
@@ -6895,13 +7040,14 @@
       <c r="T86" s="2"/>
       <c r="U86" s="2"/>
       <c r="V86" s="2"/>
-      <c r="Y86" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="87" spans="1:25">
+      <c r="W86" s="2"/>
+      <c r="Z86" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26">
       <c r="A87" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C87" s="1"/>
       <c r="D87" s="2"/>
@@ -6923,13 +7069,14 @@
       <c r="T87" s="2"/>
       <c r="U87" s="2"/>
       <c r="V87" s="2"/>
-      <c r="Y87" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="88" spans="1:25">
+      <c r="W87" s="2"/>
+      <c r="Z87" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26">
       <c r="A88" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C88" s="1"/>
       <c r="D88" s="2"/>
@@ -6951,13 +7098,14 @@
       <c r="T88" s="2"/>
       <c r="U88" s="2"/>
       <c r="V88" s="2"/>
-      <c r="Y88" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="89" spans="1:25">
+      <c r="W88" s="2"/>
+      <c r="Z88" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26">
       <c r="A89" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="2"/>
@@ -6979,13 +7127,14 @@
       <c r="T89" s="2"/>
       <c r="U89" s="2"/>
       <c r="V89" s="2"/>
-      <c r="Y89" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="90" spans="1:25">
+      <c r="W89" s="2"/>
+      <c r="Z89" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="90" spans="1:26">
       <c r="A90" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C90" s="1"/>
       <c r="D90" s="2"/>
@@ -7007,13 +7156,14 @@
       <c r="T90" s="2"/>
       <c r="U90" s="2"/>
       <c r="V90" s="2"/>
-      <c r="Y90" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="91" spans="1:25">
+      <c r="W90" s="2"/>
+      <c r="Z90" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26">
       <c r="A91" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C91" s="1"/>
       <c r="D91" s="2"/>
@@ -7035,13 +7185,14 @@
       <c r="T91" s="2"/>
       <c r="U91" s="2"/>
       <c r="V91" s="2"/>
-      <c r="Y91" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="92" spans="1:25">
+      <c r="W91" s="2"/>
+      <c r="Z91" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="92" spans="1:26">
       <c r="A92" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C92" s="1"/>
       <c r="D92" s="2"/>
@@ -7063,13 +7214,14 @@
       <c r="T92" s="2"/>
       <c r="U92" s="2"/>
       <c r="V92" s="2"/>
-      <c r="Y92" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="93" spans="1:25">
+      <c r="W92" s="2"/>
+      <c r="Z92" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="93" spans="1:26">
       <c r="A93" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C93" s="1"/>
       <c r="D93" s="2"/>
@@ -7091,13 +7243,14 @@
       <c r="T93" s="2"/>
       <c r="U93" s="2"/>
       <c r="V93" s="2"/>
-      <c r="Y93" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="94" spans="1:25">
+      <c r="W93" s="2"/>
+      <c r="Z93" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26">
       <c r="A94" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="2"/>
@@ -7119,13 +7272,14 @@
       <c r="T94" s="2"/>
       <c r="U94" s="2"/>
       <c r="V94" s="2"/>
-      <c r="Y94" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="95" spans="1:25">
+      <c r="W94" s="2"/>
+      <c r="Z94" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26">
       <c r="A95" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="2"/>
@@ -7147,13 +7301,14 @@
       <c r="T95" s="2"/>
       <c r="U95" s="2"/>
       <c r="V95" s="2"/>
-      <c r="Y95" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="96" spans="1:25">
+      <c r="W95" s="2"/>
+      <c r="Z95" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26">
       <c r="A96" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C96" s="1"/>
       <c r="D96" s="2"/>
@@ -7175,13 +7330,14 @@
       <c r="T96" s="2"/>
       <c r="U96" s="2"/>
       <c r="V96" s="2"/>
-      <c r="Y96" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="97" spans="1:25">
+      <c r="W96" s="2"/>
+      <c r="Z96" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26">
       <c r="A97" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C97" s="1"/>
       <c r="D97" s="2"/>
@@ -7203,13 +7359,14 @@
       <c r="T97" s="2"/>
       <c r="U97" s="2"/>
       <c r="V97" s="2"/>
-      <c r="Y97" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="98" spans="1:25">
+      <c r="W97" s="2"/>
+      <c r="Z97" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="98" spans="1:26">
       <c r="A98" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C98" s="1"/>
       <c r="D98" s="2"/>
@@ -7231,13 +7388,14 @@
       <c r="T98" s="2"/>
       <c r="U98" s="2"/>
       <c r="V98" s="2"/>
-      <c r="Y98" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="99" spans="1:25">
+      <c r="W98" s="2"/>
+      <c r="Z98" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="99" spans="1:26">
       <c r="A99" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C99" s="1"/>
       <c r="D99" s="2"/>
@@ -7259,13 +7417,14 @@
       <c r="T99" s="2"/>
       <c r="U99" s="2"/>
       <c r="V99" s="2"/>
-      <c r="Y99" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="100" spans="1:25">
+      <c r="W99" s="2"/>
+      <c r="Z99" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="100" spans="1:26">
       <c r="A100" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C100" s="1"/>
       <c r="D100" s="2"/>
@@ -7287,13 +7446,14 @@
       <c r="T100" s="2"/>
       <c r="U100" s="2"/>
       <c r="V100" s="2"/>
-      <c r="Y100" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="101" spans="1:25">
+      <c r="W100" s="2"/>
+      <c r="Z100" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="101" spans="1:26">
       <c r="A101" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C101" s="1"/>
       <c r="D101" s="2"/>
@@ -7315,13 +7475,14 @@
       <c r="T101" s="2"/>
       <c r="U101" s="2"/>
       <c r="V101" s="2"/>
-      <c r="Y101" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="102" spans="1:25">
+      <c r="W101" s="2"/>
+      <c r="Z101" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="102" spans="1:26">
       <c r="A102" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C102" s="1"/>
       <c r="D102" s="2"/>
@@ -7343,13 +7504,14 @@
       <c r="T102" s="2"/>
       <c r="U102" s="2"/>
       <c r="V102" s="2"/>
-      <c r="Y102" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="103" spans="1:25">
+      <c r="W102" s="2"/>
+      <c r="Z102" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="103" spans="1:26">
       <c r="A103" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C103" s="1"/>
       <c r="D103" s="2"/>
@@ -7371,13 +7533,14 @@
       <c r="T103" s="2"/>
       <c r="U103" s="2"/>
       <c r="V103" s="2"/>
-      <c r="Y103" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="104" spans="1:25">
+      <c r="W103" s="2"/>
+      <c r="Z103" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="104" spans="1:26">
       <c r="A104" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C104" s="1"/>
       <c r="D104" s="2"/>
@@ -7399,13 +7562,14 @@
       <c r="T104" s="2"/>
       <c r="U104" s="2"/>
       <c r="V104" s="2"/>
-      <c r="Y104" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="105" spans="1:25">
+      <c r="W104" s="2"/>
+      <c r="Z104" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="105" spans="1:26">
       <c r="A105" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C105" s="1"/>
       <c r="D105" s="2"/>
@@ -7427,17 +7591,105 @@
       <c r="T105" s="2"/>
       <c r="U105" s="2"/>
       <c r="V105" s="2"/>
-      <c r="Y105" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
+      <c r="W105" s="2"/>
+      <c r="Z105" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="106" spans="1:26">
       <c r="A106" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C106" s="1"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2"/>
+      <c r="H106" s="2"/>
+      <c r="I106" s="2"/>
+      <c r="J106" s="2"/>
+      <c r="K106" s="2"/>
+      <c r="L106" s="2"/>
+      <c r="M106" s="2"/>
+      <c r="N106" s="2"/>
+      <c r="O106" s="2"/>
+      <c r="P106" s="2"/>
+      <c r="Q106" s="2"/>
+      <c r="R106" s="2"/>
+      <c r="S106" s="2"/>
+      <c r="T106" s="2"/>
+      <c r="U106" s="2"/>
+      <c r="V106" s="2"/>
+      <c r="W106" s="2"/>
+      <c r="Z106" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="107" spans="1:26">
+      <c r="A107" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C107" s="1"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
+      <c r="H107" s="2"/>
+      <c r="I107" s="2"/>
+      <c r="J107" s="2"/>
+      <c r="K107" s="2"/>
+      <c r="L107" s="2"/>
+      <c r="M107" s="2"/>
+      <c r="N107" s="2"/>
+      <c r="O107" s="2"/>
+      <c r="P107" s="2"/>
+      <c r="Q107" s="2"/>
+      <c r="R107" s="2"/>
+      <c r="S107" s="2"/>
+      <c r="T107" s="2"/>
+      <c r="U107" s="2"/>
+      <c r="V107" s="2"/>
+      <c r="W107" s="2"/>
+      <c r="Z107" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="108" spans="1:26">
+      <c r="A108" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C108" s="1"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="2"/>
+      <c r="J108" s="2"/>
+      <c r="K108" s="2"/>
+      <c r="L108" s="2"/>
+      <c r="M108" s="2"/>
+      <c r="N108" s="2"/>
+      <c r="O108" s="2"/>
+      <c r="P108" s="2"/>
+      <c r="Q108" s="2"/>
+      <c r="R108" s="2"/>
+      <c r="S108" s="2"/>
+      <c r="T108" s="2"/>
+      <c r="U108" s="2"/>
+      <c r="V108" s="2"/>
+      <c r="W108" s="2"/>
+      <c r="Z108" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C106">
-        <f>SUM(C2:C105)</f>
-        <v>104</v>
+      <c r="C109">
+        <f>SUM(C2:C108)</f>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -7445,19 +7697,19 @@
     <mergeCell ref="B2:B8"/>
     <mergeCell ref="B9:B13"/>
     <mergeCell ref="B14:B24"/>
-    <mergeCell ref="B25:B30"/>
-    <mergeCell ref="B31:B50"/>
-    <mergeCell ref="B51:B64"/>
-    <mergeCell ref="B65:B77"/>
-    <mergeCell ref="B78:B105"/>
+    <mergeCell ref="B25:B32"/>
+    <mergeCell ref="B33:B53"/>
+    <mergeCell ref="B54:B67"/>
+    <mergeCell ref="B68:B80"/>
+    <mergeCell ref="B81:B108"/>
     <mergeCell ref="C2:C8"/>
     <mergeCell ref="C9:C13"/>
     <mergeCell ref="C14:C24"/>
-    <mergeCell ref="C25:C30"/>
-    <mergeCell ref="C31:C50"/>
-    <mergeCell ref="C51:C64"/>
-    <mergeCell ref="C65:C77"/>
-    <mergeCell ref="C78:C105"/>
+    <mergeCell ref="C25:C32"/>
+    <mergeCell ref="C33:C53"/>
+    <mergeCell ref="C54:C67"/>
+    <mergeCell ref="C68:C80"/>
+    <mergeCell ref="C81:C108"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/src/main/resources/CardStatus.xlsx
+++ b/src/main/resources/CardStatus.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="263">
   <si>
     <t>出处</t>
   </si>
@@ -575,6 +575,9 @@
   </si>
   <si>
     <t>星璇</t>
+  </si>
+  <si>
+    <t>璇玑</t>
   </si>
   <si>
     <t>九天玄女</t>
@@ -813,10 +816,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -827,6 +830,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -834,30 +852,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -873,28 +875,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -903,39 +883,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -949,9 +905,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -964,8 +958,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -980,7 +983,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -992,13 +1043,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1010,13 +1151,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1028,139 +1163,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1176,9 +1179,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1188,6 +1193,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1207,17 +1227,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1225,8 +1239,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1245,32 +1274,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1279,10 +1282,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1291,133 +1294,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4437,7 +4440,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z109"/>
+  <dimension ref="A1:Z110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5461,7 +5464,7 @@
         <v>134</v>
       </c>
       <c r="C33" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -5667,10 +5670,11 @@
         <v>191</v>
       </c>
     </row>
-    <row r="40" spans="1:26">
+    <row r="40" customFormat="1" spans="1:26">
       <c r="A40" s="1" t="s">
         <v>192</v>
       </c>
+      <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -6077,12 +6081,7 @@
       <c r="A54" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C54" s="1">
-        <v>14</v>
-      </c>
+      <c r="C54" s="1"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
@@ -6111,7 +6110,12 @@
       <c r="A55" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C55" s="1"/>
+      <c r="B55" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" s="1">
+        <v>14</v>
+      </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
@@ -6485,15 +6489,10 @@
       </c>
     </row>
     <row r="68" spans="1:26">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C68" s="1">
-        <v>13</v>
-      </c>
+      <c r="C68" s="1"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
@@ -6514,7 +6513,7 @@
       <c r="U68" s="2"/>
       <c r="V68" s="2"/>
       <c r="W68" s="2"/>
-      <c r="Z68" s="3" t="s">
+      <c r="Z68" s="1" t="s">
         <v>220</v>
       </c>
     </row>
@@ -6522,7 +6521,12 @@
       <c r="A69" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="C69" s="1"/>
+      <c r="B69" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C69" s="1">
+        <v>13</v>
+      </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
@@ -6548,7 +6552,7 @@
       </c>
     </row>
     <row r="70" spans="1:26">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C70" s="1"/>
@@ -6577,7 +6581,7 @@
       </c>
     </row>
     <row r="71" spans="1:26">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C71" s="1"/>
@@ -6606,7 +6610,7 @@
       </c>
     </row>
     <row r="72" spans="1:26">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C72" s="1"/>
@@ -6630,7 +6634,7 @@
       <c r="U72" s="2"/>
       <c r="V72" s="2"/>
       <c r="W72" s="2"/>
-      <c r="Z72" s="1" t="s">
+      <c r="Z72" s="3" t="s">
         <v>224</v>
       </c>
     </row>
@@ -6870,12 +6874,7 @@
       <c r="A81" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C81" s="1">
-        <v>28</v>
-      </c>
+      <c r="C81" s="1"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
@@ -6902,9 +6901,14 @@
     </row>
     <row r="82" spans="1:26">
       <c r="A82" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C82" s="1"/>
+      <c r="C82" s="1">
+        <v>28</v>
+      </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
@@ -6926,7 +6930,7 @@
       <c r="V82" s="2"/>
       <c r="W82" s="2"/>
       <c r="Z82" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="83" spans="1:26">
@@ -7683,13 +7687,42 @@
         <v>261</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:26">
       <c r="A109" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C109" s="1"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+      <c r="G109" s="2"/>
+      <c r="H109" s="2"/>
+      <c r="I109" s="2"/>
+      <c r="J109" s="2"/>
+      <c r="K109" s="2"/>
+      <c r="L109" s="2"/>
+      <c r="M109" s="2"/>
+      <c r="N109" s="2"/>
+      <c r="O109" s="2"/>
+      <c r="P109" s="2"/>
+      <c r="Q109" s="2"/>
+      <c r="R109" s="2"/>
+      <c r="S109" s="2"/>
+      <c r="T109" s="2"/>
+      <c r="U109" s="2"/>
+      <c r="V109" s="2"/>
+      <c r="W109" s="2"/>
+      <c r="Z109" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C109">
-        <f>SUM(C2:C108)</f>
-        <v>107</v>
+      <c r="C110">
+        <f>SUM(C2:C109)</f>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -7698,18 +7731,18 @@
     <mergeCell ref="B9:B13"/>
     <mergeCell ref="B14:B24"/>
     <mergeCell ref="B25:B32"/>
-    <mergeCell ref="B33:B53"/>
-    <mergeCell ref="B54:B67"/>
-    <mergeCell ref="B68:B80"/>
-    <mergeCell ref="B81:B108"/>
+    <mergeCell ref="B33:B54"/>
+    <mergeCell ref="B55:B68"/>
+    <mergeCell ref="B69:B81"/>
+    <mergeCell ref="B82:B109"/>
     <mergeCell ref="C2:C8"/>
     <mergeCell ref="C9:C13"/>
     <mergeCell ref="C14:C24"/>
     <mergeCell ref="C25:C32"/>
-    <mergeCell ref="C33:C53"/>
-    <mergeCell ref="C54:C67"/>
-    <mergeCell ref="C68:C80"/>
-    <mergeCell ref="C81:C108"/>
+    <mergeCell ref="C33:C54"/>
+    <mergeCell ref="C55:C68"/>
+    <mergeCell ref="C69:C81"/>
+    <mergeCell ref="C82:C109"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/src/main/resources/CardStatus.xlsx
+++ b/src/main/resources/CardStatus.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="264">
   <si>
     <t>出处</t>
   </si>
@@ -482,6 +482,9 @@
   </si>
   <si>
     <t>云裳点化副</t>
+  </si>
+  <si>
+    <t>圣灵灵儿</t>
   </si>
   <si>
     <t>南蛮王</t>
@@ -816,12 +819,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -830,19 +833,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="12"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -859,9 +852,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -876,7 +885,76 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -891,84 +969,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -989,7 +997,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1001,7 +1051,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1013,109 +1081,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1127,31 +1093,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1164,6 +1106,72 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1184,6 +1192,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1230,32 +1253,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1274,6 +1273,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1282,10 +1290,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1294,142 +1302,145 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1766,7 +1777,7 @@
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="5.375" customWidth="1"/>
-    <col min="3" max="3" width="5.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="5.375" style="3" customWidth="1"/>
     <col min="4" max="4" width="5.375" customWidth="1"/>
     <col min="5" max="5" width="9.375" customWidth="1"/>
   </cols>
@@ -1789,10 +1800,10 @@
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>5</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="3"/>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1801,8 +1812,8 @@
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1811,8 +1822,8 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
       <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1821,8 +1832,8 @@
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
       <c r="E5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1831,8 +1842,8 @@
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
       <c r="E6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1844,10 +1855,10 @@
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="3">
         <v>4</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="3"/>
       <c r="E7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1857,7 +1868,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="D8" s="2"/>
+      <c r="D8" s="3"/>
       <c r="E8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1867,7 +1878,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="D9" s="2"/>
+      <c r="D9" s="3"/>
       <c r="E9" s="1" t="s">
         <v>12</v>
       </c>
@@ -1877,7 +1888,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="D10" s="2"/>
+      <c r="D10" s="3"/>
       <c r="E10" s="1" t="s">
         <v>13</v>
       </c>
@@ -1886,7 +1897,7 @@
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="3">
         <f>SUM(C2:C10)</f>
         <v>9</v>
       </c>
@@ -1936,10 +1947,10 @@
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>5</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="3"/>
       <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
@@ -1949,8 +1960,8 @@
         <v>16</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
       <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
@@ -1960,8 +1971,8 @@
         <v>17</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
       <c r="E4" s="1" t="s">
         <v>17</v>
       </c>
@@ -1971,8 +1982,8 @@
         <v>18</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
       <c r="E5" s="1" t="s">
         <v>18</v>
       </c>
@@ -1982,8 +1993,8 @@
         <v>19</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
       <c r="E6" s="1" t="s">
         <v>19</v>
       </c>
@@ -1995,10 +2006,10 @@
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="3">
         <v>3</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="3"/>
       <c r="E7" s="1" t="s">
         <v>20</v>
       </c>
@@ -2008,8 +2019,8 @@
         <v>21</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
       <c r="E8" s="1" t="s">
         <v>21</v>
       </c>
@@ -2019,8 +2030,8 @@
         <v>22</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
       <c r="E9" s="1" t="s">
         <v>22</v>
       </c>
@@ -2032,10 +2043,10 @@
       <c r="B10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="3">
         <v>2</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="3"/>
       <c r="E10" s="1" t="s">
         <v>23</v>
       </c>
@@ -2045,8 +2056,8 @@
         <v>25</v>
       </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
       <c r="E11" s="1" t="s">
         <v>25</v>
       </c>
@@ -2055,7 +2066,7 @@
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="3">
         <f>SUM(C2:C11)</f>
         <v>10</v>
       </c>
@@ -2110,11 +2121,11 @@
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>14</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
       <c r="F2" s="1" t="s">
         <v>27</v>
       </c>
@@ -2124,9 +2135,9 @@
         <v>28</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
       <c r="F3" s="1" t="s">
         <v>28</v>
       </c>
@@ -2136,9 +2147,9 @@
         <v>29</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
       <c r="F4" s="1" t="s">
         <v>29</v>
       </c>
@@ -2148,9 +2159,9 @@
         <v>30</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
       <c r="F5" s="1" t="s">
         <v>30</v>
       </c>
@@ -2160,9 +2171,9 @@
         <v>31</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
       <c r="F6" s="1" t="s">
         <v>31</v>
       </c>
@@ -2172,9 +2183,9 @@
         <v>32</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
       <c r="F7" s="1" t="s">
         <v>32</v>
       </c>
@@ -2184,9 +2195,9 @@
         <v>33</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
       <c r="F8" s="1" t="s">
         <v>33</v>
       </c>
@@ -2196,9 +2207,9 @@
         <v>34</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
       <c r="F9" s="1" t="s">
         <v>34</v>
       </c>
@@ -2208,9 +2219,9 @@
         <v>35</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
       <c r="F10" s="1" t="s">
         <v>35</v>
       </c>
@@ -2220,9 +2231,9 @@
         <v>36</v>
       </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
       <c r="F11" s="1" t="s">
         <v>36</v>
       </c>
@@ -2232,9 +2243,9 @@
         <v>37</v>
       </c>
       <c r="B12" s="1"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
       <c r="F12" s="1" t="s">
         <v>37</v>
       </c>
@@ -2244,9 +2255,9 @@
         <v>38</v>
       </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
       <c r="F13" s="1" t="s">
         <v>38</v>
       </c>
@@ -2256,9 +2267,9 @@
         <v>39</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
       <c r="F14" s="1" t="s">
         <v>39</v>
       </c>
@@ -2268,9 +2279,9 @@
         <v>40</v>
       </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
       <c r="F15" s="1" t="s">
         <v>40</v>
       </c>
@@ -2282,11 +2293,11 @@
       <c r="B16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="3">
         <v>1</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
       <c r="F16" s="1" t="s">
         <v>41</v>
       </c>
@@ -2298,11 +2309,11 @@
       <c r="B17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="3">
         <v>7</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
       <c r="F17" s="1" t="s">
         <v>43</v>
       </c>
@@ -2312,9 +2323,9 @@
         <v>44</v>
       </c>
       <c r="B18" s="1"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
       <c r="F18" s="1" t="s">
         <v>44</v>
       </c>
@@ -2324,9 +2335,9 @@
         <v>45</v>
       </c>
       <c r="B19" s="1"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
       <c r="F19" s="1" t="s">
         <v>45</v>
       </c>
@@ -2336,9 +2347,9 @@
         <v>46</v>
       </c>
       <c r="B20" s="1"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
       <c r="F20" s="1" t="s">
         <v>46</v>
       </c>
@@ -2348,9 +2359,9 @@
         <v>47</v>
       </c>
       <c r="B21" s="1"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
       <c r="F21" s="1" t="s">
         <v>47</v>
       </c>
@@ -2360,9 +2371,9 @@
         <v>48</v>
       </c>
       <c r="B22" s="1"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
       <c r="F22" s="1" t="s">
         <v>48</v>
       </c>
@@ -2372,9 +2383,9 @@
         <v>49</v>
       </c>
       <c r="B23" s="1"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
       <c r="F23" s="1" t="s">
         <v>49</v>
       </c>
@@ -2386,11 +2397,11 @@
       <c r="B24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="3">
         <v>3</v>
       </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
       <c r="F24" s="1" t="s">
         <v>50</v>
       </c>
@@ -2400,9 +2411,9 @@
         <v>51</v>
       </c>
       <c r="B25" s="1"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
       <c r="F25" s="1" t="s">
         <v>51</v>
       </c>
@@ -2412,9 +2423,9 @@
         <v>52</v>
       </c>
       <c r="B26" s="1"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
       <c r="F26" s="1" t="s">
         <v>52</v>
       </c>
@@ -2423,7 +2434,7 @@
       <c r="A27" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="3">
         <f>SUM(C2:C26)</f>
         <v>25</v>
       </c>
@@ -2478,11 +2489,11 @@
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>12</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
       <c r="F2" s="1" t="s">
         <v>53</v>
       </c>
@@ -2492,9 +2503,9 @@
         <v>54</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
       <c r="F3" s="1" t="s">
         <v>54</v>
       </c>
@@ -2504,9 +2515,9 @@
         <v>55</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
       <c r="F4" s="1" t="s">
         <v>55</v>
       </c>
@@ -2516,9 +2527,9 @@
         <v>56</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
       <c r="F5" s="1" t="s">
         <v>56</v>
       </c>
@@ -2528,9 +2539,9 @@
         <v>57</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
       <c r="F6" s="1" t="s">
         <v>57</v>
       </c>
@@ -2540,9 +2551,9 @@
         <v>58</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
       <c r="F7" s="1" t="s">
         <v>58</v>
       </c>
@@ -2552,9 +2563,9 @@
         <v>59</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
       <c r="F8" s="1" t="s">
         <v>59</v>
       </c>
@@ -2564,9 +2575,9 @@
         <v>60</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
       <c r="F9" s="1" t="s">
         <v>60</v>
       </c>
@@ -2576,9 +2587,9 @@
         <v>61</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
       <c r="F10" s="1" t="s">
         <v>61</v>
       </c>
@@ -2588,9 +2599,9 @@
         <v>62</v>
       </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
       <c r="F11" s="1" t="s">
         <v>62</v>
       </c>
@@ -2600,9 +2611,9 @@
         <v>63</v>
       </c>
       <c r="B12" s="1"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
       <c r="F12" s="1" t="s">
         <v>63</v>
       </c>
@@ -2612,9 +2623,9 @@
         <v>64</v>
       </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
       <c r="F13" s="1" t="s">
         <v>64</v>
       </c>
@@ -2626,11 +2637,11 @@
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="3">
         <v>3</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
       <c r="F14" s="1" t="s">
         <v>65</v>
       </c>
@@ -2640,9 +2651,9 @@
         <v>66</v>
       </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
       <c r="F15" s="1" t="s">
         <v>66</v>
       </c>
@@ -2652,9 +2663,9 @@
         <v>67</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
       <c r="F16" s="1" t="s">
         <v>67</v>
       </c>
@@ -2666,11 +2677,11 @@
       <c r="B17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="3">
         <v>2</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
       <c r="F17" s="1" t="s">
         <v>68</v>
       </c>
@@ -2680,9 +2691,9 @@
         <v>69</v>
       </c>
       <c r="B18" s="1"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
       <c r="F18" s="1" t="s">
         <v>69</v>
       </c>
@@ -2694,11 +2705,11 @@
       <c r="B19" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="3">
         <v>3</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
       <c r="F19" s="1" t="s">
         <v>70</v>
       </c>
@@ -2708,9 +2719,9 @@
         <v>72</v>
       </c>
       <c r="B20" s="1"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
       <c r="F20" s="1" t="s">
         <v>72</v>
       </c>
@@ -2720,9 +2731,9 @@
         <v>73</v>
       </c>
       <c r="B21" s="1"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
       <c r="F21" s="1" t="s">
         <v>73</v>
       </c>
@@ -2731,7 +2742,7 @@
       <c r="A22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="3">
         <f>SUM(C2:C21)</f>
         <v>20</v>
       </c>
@@ -2788,11 +2799,11 @@
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>11</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
       <c r="F2" s="1" t="s">
         <v>74</v>
       </c>
@@ -2802,9 +2813,9 @@
         <v>75</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
       <c r="F3" s="1" t="s">
         <v>75</v>
       </c>
@@ -2814,9 +2825,9 @@
         <v>76</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
       <c r="F4" s="1" t="s">
         <v>76</v>
       </c>
@@ -2826,9 +2837,9 @@
         <v>77</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
       <c r="F5" s="1" t="s">
         <v>77</v>
       </c>
@@ -2838,9 +2849,9 @@
         <v>78</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
       <c r="F6" s="1" t="s">
         <v>78</v>
       </c>
@@ -2850,9 +2861,9 @@
         <v>79</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
       <c r="F7" s="1" t="s">
         <v>79</v>
       </c>
@@ -2862,9 +2873,9 @@
         <v>80</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
       <c r="F8" s="1" t="s">
         <v>80</v>
       </c>
@@ -2874,9 +2885,9 @@
         <v>81</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
       <c r="F9" s="1" t="s">
         <v>81</v>
       </c>
@@ -2886,9 +2897,9 @@
         <v>82</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
       <c r="F10" s="1" t="s">
         <v>82</v>
       </c>
@@ -2898,9 +2909,9 @@
         <v>83</v>
       </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
       <c r="F11" s="1" t="s">
         <v>83</v>
       </c>
@@ -2910,9 +2921,9 @@
         <v>84</v>
       </c>
       <c r="B12" s="1"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
       <c r="F12" s="1" t="s">
         <v>84</v>
       </c>
@@ -2924,11 +2935,11 @@
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="3">
         <v>4</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
       <c r="F13" s="1" t="s">
         <v>85</v>
       </c>
@@ -2938,9 +2949,9 @@
         <v>86</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
       <c r="F14" s="1" t="s">
         <v>86</v>
       </c>
@@ -2950,9 +2961,9 @@
         <v>87</v>
       </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
       <c r="F15" s="1" t="s">
         <v>87</v>
       </c>
@@ -2962,9 +2973,9 @@
         <v>88</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
       <c r="F16" s="1" t="s">
         <v>88</v>
       </c>
@@ -2976,11 +2987,11 @@
       <c r="B17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="3">
         <v>1</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
       <c r="F17" s="1" t="s">
         <v>89</v>
       </c>
@@ -2989,7 +3000,7 @@
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="3">
         <f>SUM(C2:C17)</f>
         <v>16</v>
       </c>
@@ -3102,24 +3113,24 @@
       <c r="C2" s="1">
         <v>8</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
       <c r="V2" s="1" t="s">
         <v>106</v>
       </c>
@@ -3129,24 +3140,24 @@
         <v>107</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
       <c r="V3" s="1" t="s">
         <v>107</v>
       </c>
@@ -3156,24 +3167,24 @@
         <v>108</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
       <c r="V4" s="1" t="s">
         <v>108</v>
       </c>
@@ -3183,24 +3194,24 @@
         <v>109</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
       <c r="V5" s="1" t="s">
         <v>109</v>
       </c>
@@ -3210,24 +3221,24 @@
         <v>110</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
       <c r="V6" s="1" t="s">
         <v>110</v>
       </c>
@@ -3237,24 +3248,24 @@
         <v>111</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
       <c r="V7" s="1" t="s">
         <v>111</v>
       </c>
@@ -3264,24 +3275,24 @@
         <v>112</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
       <c r="V8" s="1" t="s">
         <v>112</v>
       </c>
@@ -3291,24 +3302,24 @@
         <v>113</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
       <c r="V9" s="1" t="s">
         <v>113</v>
       </c>
@@ -3323,24 +3334,24 @@
       <c r="C10" s="1">
         <v>6</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
       <c r="V10" s="1" t="s">
         <v>114</v>
       </c>
@@ -3350,24 +3361,24 @@
         <v>115</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
       <c r="V11" s="1" t="s">
         <v>115</v>
       </c>
@@ -3377,24 +3388,24 @@
         <v>116</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
       <c r="V12" s="1" t="s">
         <v>116</v>
       </c>
@@ -3404,24 +3415,24 @@
         <v>117</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
       <c r="V13" s="1" t="s">
         <v>117</v>
       </c>
@@ -3431,24 +3442,24 @@
         <v>118</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
       <c r="V14" s="1" t="s">
         <v>118</v>
       </c>
@@ -3458,24 +3469,24 @@
         <v>119</v>
       </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
       <c r="V15" s="1" t="s">
         <v>119</v>
       </c>
@@ -3490,24 +3501,24 @@
       <c r="C16" s="1">
         <v>8</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
       <c r="V16" s="1" t="s">
         <v>120</v>
       </c>
@@ -3517,24 +3528,24 @@
         <v>121</v>
       </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
       <c r="V17" s="1" t="s">
         <v>121</v>
       </c>
@@ -3544,24 +3555,24 @@
         <v>122</v>
       </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
       <c r="V18" s="1" t="s">
         <v>122</v>
       </c>
@@ -3571,24 +3582,24 @@
         <v>123</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
       <c r="V19" s="1" t="s">
         <v>123</v>
       </c>
@@ -3598,24 +3609,24 @@
         <v>124</v>
       </c>
       <c r="C20" s="1"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
       <c r="V20" s="1" t="s">
         <v>124</v>
       </c>
@@ -3625,24 +3636,24 @@
         <v>125</v>
       </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
       <c r="V21" s="1" t="s">
         <v>125</v>
       </c>
@@ -3652,24 +3663,24 @@
         <v>126</v>
       </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
       <c r="V22" s="1" t="s">
         <v>126</v>
       </c>
@@ -3679,24 +3690,24 @@
         <v>127</v>
       </c>
       <c r="C23" s="1"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
       <c r="V23" s="1" t="s">
         <v>127</v>
       </c>
@@ -3711,24 +3722,24 @@
       <c r="C24" s="1">
         <v>4</v>
       </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
       <c r="V24" s="1" t="s">
         <v>128</v>
       </c>
@@ -3738,24 +3749,24 @@
         <v>130</v>
       </c>
       <c r="C25" s="1"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
-      <c r="U25" s="2"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
       <c r="V25" s="1" t="s">
         <v>130</v>
       </c>
@@ -3765,24 +3776,24 @@
         <v>131</v>
       </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
       <c r="V26" s="1" t="s">
         <v>131</v>
       </c>
@@ -3792,24 +3803,24 @@
         <v>132</v>
       </c>
       <c r="C27" s="1"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
-      <c r="U27" s="2"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
       <c r="V27" s="1" t="s">
         <v>132</v>
       </c>
@@ -3824,24 +3835,24 @@
       <c r="C28" s="1">
         <v>6</v>
       </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="2"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
       <c r="V28" s="1" t="s">
         <v>133</v>
       </c>
@@ -3851,24 +3862,24 @@
         <v>135</v>
       </c>
       <c r="C29" s="1"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
-      <c r="U29" s="2"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
       <c r="V29" s="1" t="s">
         <v>135</v>
       </c>
@@ -3878,24 +3889,24 @@
         <v>136</v>
       </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
-      <c r="U30" s="2"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
       <c r="V30" s="1" t="s">
         <v>136</v>
       </c>
@@ -3905,24 +3916,24 @@
         <v>137</v>
       </c>
       <c r="C31" s="1"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
-      <c r="U31" s="2"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
       <c r="V31" s="1" t="s">
         <v>137</v>
       </c>
@@ -3932,24 +3943,24 @@
         <v>138</v>
       </c>
       <c r="C32" s="1"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
-      <c r="U32" s="2"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
       <c r="V32" s="1" t="s">
         <v>138</v>
       </c>
@@ -3959,24 +3970,24 @@
         <v>139</v>
       </c>
       <c r="C33" s="1"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-      <c r="U33" s="2"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
       <c r="V33" s="1" t="s">
         <v>139</v>
       </c>
@@ -3991,24 +4002,24 @@
       <c r="C34" s="1">
         <v>2</v>
       </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
       <c r="V34" s="1" t="s">
         <v>140</v>
       </c>
@@ -4018,24 +4029,24 @@
         <v>141</v>
       </c>
       <c r="C35" s="1"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
-      <c r="U35" s="2"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
       <c r="V35" s="1" t="s">
         <v>141</v>
       </c>
@@ -4050,24 +4061,24 @@
       <c r="C36" s="1">
         <v>8</v>
       </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="2"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
       <c r="V36" s="1" t="s">
         <v>142</v>
       </c>
@@ -4077,24 +4088,24 @@
         <v>143</v>
       </c>
       <c r="C37" s="1"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-      <c r="U37" s="2"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
       <c r="V37" s="1" t="s">
         <v>143</v>
       </c>
@@ -4104,24 +4115,24 @@
         <v>144</v>
       </c>
       <c r="C38" s="1"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="2"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
       <c r="V38" s="1" t="s">
         <v>144</v>
       </c>
@@ -4131,24 +4142,24 @@
         <v>145</v>
       </c>
       <c r="C39" s="1"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
-      <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
-      <c r="U39" s="2"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
       <c r="V39" s="1" t="s">
         <v>145</v>
       </c>
@@ -4158,24 +4169,24 @@
         <v>146</v>
       </c>
       <c r="C40" s="1"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="2"/>
-      <c r="S40" s="2"/>
-      <c r="T40" s="2"/>
-      <c r="U40" s="2"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
       <c r="V40" s="1" t="s">
         <v>146</v>
       </c>
@@ -4185,24 +4196,24 @@
         <v>147</v>
       </c>
       <c r="C41" s="1"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
-      <c r="U41" s="2"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
       <c r="V41" s="1" t="s">
         <v>147</v>
       </c>
@@ -4212,24 +4223,24 @@
         <v>148</v>
       </c>
       <c r="C42" s="1"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
-      <c r="U42" s="2"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
       <c r="V42" s="1" t="s">
         <v>148</v>
       </c>
@@ -4239,24 +4250,24 @@
         <v>149</v>
       </c>
       <c r="C43" s="1"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
-      <c r="R43" s="2"/>
-      <c r="S43" s="2"/>
-      <c r="T43" s="2"/>
-      <c r="U43" s="2"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
       <c r="V43" s="1" t="s">
         <v>149</v>
       </c>
@@ -4269,151 +4280,151 @@
         <f>SUM(C2:C43)</f>
         <v>42</v>
       </c>
-      <c r="U44" s="2"/>
+      <c r="U44" s="3"/>
     </row>
     <row r="45" spans="21:21">
-      <c r="U45" s="2"/>
+      <c r="U45" s="3"/>
     </row>
     <row r="46" spans="21:21">
-      <c r="U46" s="2"/>
+      <c r="U46" s="3"/>
     </row>
     <row r="47" spans="21:21">
-      <c r="U47" s="2"/>
+      <c r="U47" s="3"/>
     </row>
     <row r="48" spans="21:21">
-      <c r="U48" s="2"/>
+      <c r="U48" s="3"/>
     </row>
     <row r="49" spans="21:21">
-      <c r="U49" s="2"/>
+      <c r="U49" s="3"/>
     </row>
     <row r="50" spans="21:21">
-      <c r="U50" s="2"/>
+      <c r="U50" s="3"/>
     </row>
     <row r="51" spans="21:21">
-      <c r="U51" s="2"/>
+      <c r="U51" s="3"/>
     </row>
     <row r="52" spans="21:21">
-      <c r="U52" s="2"/>
+      <c r="U52" s="3"/>
     </row>
     <row r="53" spans="21:21">
-      <c r="U53" s="2"/>
+      <c r="U53" s="3"/>
     </row>
     <row r="54" spans="21:21">
-      <c r="U54" s="2"/>
+      <c r="U54" s="3"/>
     </row>
     <row r="55" spans="21:21">
-      <c r="U55" s="2"/>
+      <c r="U55" s="3"/>
     </row>
     <row r="56" spans="21:21">
-      <c r="U56" s="2"/>
+      <c r="U56" s="3"/>
     </row>
     <row r="57" spans="21:21">
-      <c r="U57" s="2"/>
+      <c r="U57" s="3"/>
     </row>
     <row r="58" spans="21:21">
-      <c r="U58" s="2"/>
+      <c r="U58" s="3"/>
     </row>
     <row r="59" spans="21:21">
-      <c r="U59" s="2"/>
+      <c r="U59" s="3"/>
     </row>
     <row r="60" spans="21:21">
-      <c r="U60" s="2"/>
+      <c r="U60" s="3"/>
     </row>
     <row r="61" spans="21:21">
-      <c r="U61" s="2"/>
+      <c r="U61" s="3"/>
     </row>
     <row r="62" spans="21:21">
-      <c r="U62" s="2"/>
+      <c r="U62" s="3"/>
     </row>
     <row r="63" spans="21:21">
-      <c r="U63" s="2"/>
+      <c r="U63" s="3"/>
     </row>
     <row r="64" spans="21:21">
-      <c r="U64" s="2"/>
+      <c r="U64" s="3"/>
     </row>
     <row r="65" spans="21:21">
-      <c r="U65" s="2"/>
+      <c r="U65" s="3"/>
     </row>
     <row r="66" spans="21:21">
-      <c r="U66" s="2"/>
+      <c r="U66" s="3"/>
     </row>
     <row r="67" spans="21:21">
-      <c r="U67" s="2"/>
+      <c r="U67" s="3"/>
     </row>
     <row r="68" spans="21:21">
-      <c r="U68" s="2"/>
+      <c r="U68" s="3"/>
     </row>
     <row r="69" spans="21:21">
-      <c r="U69" s="2"/>
+      <c r="U69" s="3"/>
     </row>
     <row r="70" spans="21:21">
-      <c r="U70" s="2"/>
+      <c r="U70" s="3"/>
     </row>
     <row r="71" spans="21:21">
-      <c r="U71" s="2"/>
+      <c r="U71" s="3"/>
     </row>
     <row r="72" spans="21:21">
-      <c r="U72" s="2"/>
+      <c r="U72" s="3"/>
     </row>
     <row r="73" spans="21:21">
-      <c r="U73" s="2"/>
+      <c r="U73" s="3"/>
     </row>
     <row r="74" spans="21:21">
-      <c r="U74" s="2"/>
+      <c r="U74" s="3"/>
     </row>
     <row r="75" spans="21:21">
-      <c r="U75" s="2"/>
+      <c r="U75" s="3"/>
     </row>
     <row r="76" spans="21:21">
-      <c r="U76" s="2"/>
+      <c r="U76" s="3"/>
     </row>
     <row r="77" spans="21:21">
-      <c r="U77" s="2"/>
+      <c r="U77" s="3"/>
     </row>
     <row r="78" spans="21:21">
-      <c r="U78" s="2"/>
+      <c r="U78" s="3"/>
     </row>
     <row r="79" spans="21:21">
-      <c r="U79" s="2"/>
+      <c r="U79" s="3"/>
     </row>
     <row r="80" spans="21:21">
-      <c r="U80" s="2"/>
+      <c r="U80" s="3"/>
     </row>
     <row r="81" spans="21:21">
-      <c r="U81" s="2"/>
+      <c r="U81" s="3"/>
     </row>
     <row r="82" spans="21:21">
-      <c r="U82" s="2"/>
+      <c r="U82" s="3"/>
     </row>
     <row r="83" spans="21:21">
-      <c r="U83" s="2"/>
+      <c r="U83" s="3"/>
     </row>
     <row r="84" spans="21:21">
-      <c r="U84" s="2"/>
+      <c r="U84" s="3"/>
     </row>
     <row r="85" spans="21:21">
-      <c r="U85" s="2"/>
+      <c r="U85" s="3"/>
     </row>
     <row r="86" spans="21:21">
-      <c r="U86" s="2"/>
+      <c r="U86" s="3"/>
     </row>
     <row r="87" spans="21:21">
-      <c r="U87" s="2"/>
+      <c r="U87" s="3"/>
     </row>
     <row r="88" spans="21:21">
-      <c r="U88" s="2"/>
+      <c r="U88" s="3"/>
     </row>
     <row r="89" spans="21:21">
-      <c r="U89" s="2"/>
+      <c r="U89" s="3"/>
     </row>
     <row r="90" spans="21:21">
-      <c r="U90" s="2"/>
+      <c r="U90" s="3"/>
     </row>
     <row r="91" spans="21:21">
-      <c r="U91" s="2"/>
+      <c r="U91" s="3"/>
     </row>
     <row r="92" spans="21:21">
-      <c r="U92" s="2"/>
+      <c r="U92" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -4440,7 +4451,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z110"/>
+  <dimension ref="A1:Z111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4538,36 +4549,36 @@
       </c>
     </row>
     <row r="2" spans="1:26">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>154</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="Z2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="Z2" s="2" t="s">
         <v>154</v>
       </c>
     </row>
@@ -4576,26 +4587,26 @@
         <v>155</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
       <c r="Z3" s="1" t="s">
         <v>155</v>
       </c>
@@ -4605,26 +4616,26 @@
         <v>156</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
       <c r="Z4" s="1" t="s">
         <v>156</v>
       </c>
@@ -4634,26 +4645,26 @@
         <v>157</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
       <c r="Z5" s="1" t="s">
         <v>157</v>
       </c>
@@ -4663,26 +4674,26 @@
         <v>158</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
       <c r="Z6" s="1" t="s">
         <v>158</v>
       </c>
@@ -4692,26 +4703,26 @@
         <v>159</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
       <c r="Z7" s="1" t="s">
         <v>159</v>
       </c>
@@ -4721,26 +4732,26 @@
         <v>160</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
       <c r="Z8" s="1" t="s">
         <v>160</v>
       </c>
@@ -4749,32 +4760,27 @@
       <c r="A9" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="1">
-        <v>5</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
       <c r="Z9" s="1" t="s">
         <v>161</v>
       </c>
@@ -4783,27 +4789,32 @@
       <c r="A10" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
+      <c r="B10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
       <c r="Z10" s="1" t="s">
         <v>162</v>
       </c>
@@ -4813,26 +4824,26 @@
         <v>163</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
       <c r="Z11" s="1" t="s">
         <v>163</v>
       </c>
@@ -4842,26 +4853,26 @@
         <v>164</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
       <c r="Z12" s="1" t="s">
         <v>164</v>
       </c>
@@ -4871,26 +4882,26 @@
         <v>165</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
       <c r="Z13" s="1" t="s">
         <v>165</v>
       </c>
@@ -4899,32 +4910,27 @@
       <c r="A14" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="1">
-        <v>11</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
       <c r="Z14" s="1" t="s">
         <v>166</v>
       </c>
@@ -4933,27 +4939,32 @@
       <c r="A15" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1">
+        <v>11</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
       <c r="Z15" s="1" t="s">
         <v>167</v>
       </c>
@@ -4963,26 +4974,26 @@
         <v>168</v>
       </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
       <c r="Z16" s="1" t="s">
         <v>168</v>
       </c>
@@ -4992,26 +5003,26 @@
         <v>169</v>
       </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
       <c r="Z17" s="1" t="s">
         <v>169</v>
       </c>
@@ -5021,26 +5032,26 @@
         <v>170</v>
       </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
       <c r="Z18" s="1" t="s">
         <v>170</v>
       </c>
@@ -5050,26 +5061,26 @@
         <v>171</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
-      <c r="V19" s="2"/>
-      <c r="W19" s="2"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
       <c r="Z19" s="1" t="s">
         <v>171</v>
       </c>
@@ -5079,26 +5090,26 @@
         <v>172</v>
       </c>
       <c r="C20" s="1"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
       <c r="Z20" s="1" t="s">
         <v>172</v>
       </c>
@@ -5108,26 +5119,26 @@
         <v>173</v>
       </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
-      <c r="W21" s="2"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
       <c r="Z21" s="1" t="s">
         <v>173</v>
       </c>
@@ -5137,26 +5148,26 @@
         <v>174</v>
       </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
       <c r="Z22" s="1" t="s">
         <v>174</v>
       </c>
@@ -5166,26 +5177,26 @@
         <v>175</v>
       </c>
       <c r="C23" s="1"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
-      <c r="W23" s="2"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
       <c r="Z23" s="1" t="s">
         <v>175</v>
       </c>
@@ -5195,26 +5206,26 @@
         <v>176</v>
       </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
-      <c r="W24" s="2"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
       <c r="Z24" s="1" t="s">
         <v>176</v>
       </c>
@@ -5223,32 +5234,27 @@
       <c r="A25" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C25" s="1">
-        <v>8</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
-      <c r="U25" s="2"/>
-      <c r="V25" s="2"/>
-      <c r="W25" s="2"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
       <c r="Z25" s="1" t="s">
         <v>177</v>
       </c>
@@ -5257,27 +5263,32 @@
       <c r="A26" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
-      <c r="V26" s="2"/>
-      <c r="W26" s="2"/>
+      <c r="B26" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26" s="1">
+        <v>8</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
       <c r="Z26" s="1" t="s">
         <v>178</v>
       </c>
@@ -5287,26 +5298,26 @@
         <v>179</v>
       </c>
       <c r="C27" s="1"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
-      <c r="U27" s="2"/>
-      <c r="V27" s="2"/>
-      <c r="W27" s="2"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
       <c r="Z27" s="1" t="s">
         <v>179</v>
       </c>
@@ -5316,26 +5327,26 @@
         <v>180</v>
       </c>
       <c r="C28" s="1"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="2"/>
-      <c r="V28" s="2"/>
-      <c r="W28" s="2"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
       <c r="Z28" s="1" t="s">
         <v>180</v>
       </c>
@@ -5345,26 +5356,26 @@
         <v>181</v>
       </c>
       <c r="C29" s="1"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
-      <c r="U29" s="2"/>
-      <c r="V29" s="2"/>
-      <c r="W29" s="2"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
       <c r="Z29" s="1" t="s">
         <v>181</v>
       </c>
@@ -5374,26 +5385,26 @@
         <v>182</v>
       </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
-      <c r="U30" s="2"/>
-      <c r="V30" s="2"/>
-      <c r="W30" s="2"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
       <c r="Z30" s="1" t="s">
         <v>182</v>
       </c>
@@ -5403,26 +5414,26 @@
         <v>183</v>
       </c>
       <c r="C31" s="1"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
-      <c r="U31" s="2"/>
-      <c r="V31" s="2"/>
-      <c r="W31" s="2"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
       <c r="Z31" s="1" t="s">
         <v>183</v>
       </c>
@@ -5432,26 +5443,26 @@
         <v>184</v>
       </c>
       <c r="C32" s="1"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
-      <c r="U32" s="2"/>
-      <c r="V32" s="2"/>
-      <c r="W32" s="2"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
       <c r="Z32" s="1" t="s">
         <v>184</v>
       </c>
@@ -5460,62 +5471,61 @@
       <c r="A33" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C33" s="1">
-        <v>22</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-      <c r="U33" s="2"/>
-      <c r="V33" s="2"/>
-      <c r="W33" s="2"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
       <c r="Z33" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="34" customFormat="1" spans="1:26">
+    <row r="34" spans="1:26">
       <c r="A34" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
-      <c r="V34" s="2"/>
-      <c r="W34" s="2"/>
+      <c r="B34" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C34" s="1">
+        <v>22</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
       <c r="Z34" s="1" t="s">
         <v>186</v>
       </c>
@@ -5526,26 +5536,26 @@
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
-      <c r="U35" s="2"/>
-      <c r="V35" s="2"/>
-      <c r="W35" s="2"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
       <c r="Z35" s="1" t="s">
         <v>187</v>
       </c>
@@ -5556,26 +5566,26 @@
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="2"/>
-      <c r="V36" s="2"/>
-      <c r="W36" s="2"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
       <c r="Z36" s="1" t="s">
         <v>188</v>
       </c>
@@ -5586,26 +5596,26 @@
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-      <c r="U37" s="2"/>
-      <c r="V37" s="2"/>
-      <c r="W37" s="2"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3"/>
       <c r="Z37" s="1" t="s">
         <v>189</v>
       </c>
@@ -5616,26 +5626,26 @@
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="2"/>
-      <c r="V38" s="2"/>
-      <c r="W38" s="2"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
       <c r="Z38" s="1" t="s">
         <v>190</v>
       </c>
@@ -5646,26 +5656,26 @@
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
-      <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
-      <c r="U39" s="2"/>
-      <c r="V39" s="2"/>
-      <c r="W39" s="2"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
       <c r="Z39" s="1" t="s">
         <v>191</v>
       </c>
@@ -5676,55 +5686,56 @@
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="2"/>
-      <c r="S40" s="2"/>
-      <c r="T40" s="2"/>
-      <c r="U40" s="2"/>
-      <c r="V40" s="2"/>
-      <c r="W40" s="2"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
       <c r="Z40" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="41" spans="1:26">
+    <row r="41" customFormat="1" spans="1:26">
       <c r="A41" s="1" t="s">
         <v>193</v>
       </c>
+      <c r="B41" s="1"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
-      <c r="U41" s="2"/>
-      <c r="V41" s="2"/>
-      <c r="W41" s="2"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+      <c r="V41" s="3"/>
+      <c r="W41" s="3"/>
       <c r="Z41" s="1" t="s">
         <v>193</v>
       </c>
@@ -5734,26 +5745,26 @@
         <v>194</v>
       </c>
       <c r="C42" s="1"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
-      <c r="U42" s="2"/>
-      <c r="V42" s="2"/>
-      <c r="W42" s="2"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
+      <c r="W42" s="3"/>
       <c r="Z42" s="1" t="s">
         <v>194</v>
       </c>
@@ -5763,26 +5774,26 @@
         <v>195</v>
       </c>
       <c r="C43" s="1"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
-      <c r="R43" s="2"/>
-      <c r="S43" s="2"/>
-      <c r="T43" s="2"/>
-      <c r="U43" s="2"/>
-      <c r="V43" s="2"/>
-      <c r="W43" s="2"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3"/>
+      <c r="W43" s="3"/>
       <c r="Z43" s="1" t="s">
         <v>195</v>
       </c>
@@ -5792,26 +5803,26 @@
         <v>196</v>
       </c>
       <c r="C44" s="1"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="2"/>
-      <c r="S44" s="2"/>
-      <c r="T44" s="2"/>
-      <c r="U44" s="2"/>
-      <c r="V44" s="2"/>
-      <c r="W44" s="2"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3"/>
+      <c r="W44" s="3"/>
       <c r="Z44" s="1" t="s">
         <v>196</v>
       </c>
@@ -5821,26 +5832,26 @@
         <v>197</v>
       </c>
       <c r="C45" s="1"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
-      <c r="P45" s="2"/>
-      <c r="Q45" s="2"/>
-      <c r="R45" s="2"/>
-      <c r="S45" s="2"/>
-      <c r="T45" s="2"/>
-      <c r="U45" s="2"/>
-      <c r="V45" s="2"/>
-      <c r="W45" s="2"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="3"/>
+      <c r="U45" s="3"/>
+      <c r="V45" s="3"/>
+      <c r="W45" s="3"/>
       <c r="Z45" s="1" t="s">
         <v>197</v>
       </c>
@@ -5850,26 +5861,26 @@
         <v>198</v>
       </c>
       <c r="C46" s="1"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
-      <c r="P46" s="2"/>
-      <c r="Q46" s="2"/>
-      <c r="R46" s="2"/>
-      <c r="S46" s="2"/>
-      <c r="T46" s="2"/>
-      <c r="U46" s="2"/>
-      <c r="V46" s="2"/>
-      <c r="W46" s="2"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="3"/>
+      <c r="U46" s="3"/>
+      <c r="V46" s="3"/>
+      <c r="W46" s="3"/>
       <c r="Z46" s="1" t="s">
         <v>198</v>
       </c>
@@ -5879,26 +5890,26 @@
         <v>199</v>
       </c>
       <c r="C47" s="1"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
-      <c r="Q47" s="2"/>
-      <c r="R47" s="2"/>
-      <c r="S47" s="2"/>
-      <c r="T47" s="2"/>
-      <c r="U47" s="2"/>
-      <c r="V47" s="2"/>
-      <c r="W47" s="2"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="3"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="3"/>
+      <c r="U47" s="3"/>
+      <c r="V47" s="3"/>
+      <c r="W47" s="3"/>
       <c r="Z47" s="1" t="s">
         <v>199</v>
       </c>
@@ -5908,26 +5919,26 @@
         <v>200</v>
       </c>
       <c r="C48" s="1"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-      <c r="P48" s="2"/>
-      <c r="Q48" s="2"/>
-      <c r="R48" s="2"/>
-      <c r="S48" s="2"/>
-      <c r="T48" s="2"/>
-      <c r="U48" s="2"/>
-      <c r="V48" s="2"/>
-      <c r="W48" s="2"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="3"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="3"/>
+      <c r="U48" s="3"/>
+      <c r="V48" s="3"/>
+      <c r="W48" s="3"/>
       <c r="Z48" s="1" t="s">
         <v>200</v>
       </c>
@@ -5937,26 +5948,26 @@
         <v>201</v>
       </c>
       <c r="C49" s="1"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
-      <c r="P49" s="2"/>
-      <c r="Q49" s="2"/>
-      <c r="R49" s="2"/>
-      <c r="S49" s="2"/>
-      <c r="T49" s="2"/>
-      <c r="U49" s="2"/>
-      <c r="V49" s="2"/>
-      <c r="W49" s="2"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="3"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="3"/>
+      <c r="U49" s="3"/>
+      <c r="V49" s="3"/>
+      <c r="W49" s="3"/>
       <c r="Z49" s="1" t="s">
         <v>201</v>
       </c>
@@ -5966,26 +5977,26 @@
         <v>202</v>
       </c>
       <c r="C50" s="1"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
-      <c r="P50" s="2"/>
-      <c r="Q50" s="2"/>
-      <c r="R50" s="2"/>
-      <c r="S50" s="2"/>
-      <c r="T50" s="2"/>
-      <c r="U50" s="2"/>
-      <c r="V50" s="2"/>
-      <c r="W50" s="2"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="3"/>
+      <c r="S50" s="3"/>
+      <c r="T50" s="3"/>
+      <c r="U50" s="3"/>
+      <c r="V50" s="3"/>
+      <c r="W50" s="3"/>
       <c r="Z50" s="1" t="s">
         <v>202</v>
       </c>
@@ -5995,26 +6006,26 @@
         <v>203</v>
       </c>
       <c r="C51" s="1"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
-      <c r="P51" s="2"/>
-      <c r="Q51" s="2"/>
-      <c r="R51" s="2"/>
-      <c r="S51" s="2"/>
-      <c r="T51" s="2"/>
-      <c r="U51" s="2"/>
-      <c r="V51" s="2"/>
-      <c r="W51" s="2"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="3"/>
+      <c r="S51" s="3"/>
+      <c r="T51" s="3"/>
+      <c r="U51" s="3"/>
+      <c r="V51" s="3"/>
+      <c r="W51" s="3"/>
       <c r="Z51" s="1" t="s">
         <v>203</v>
       </c>
@@ -6024,26 +6035,26 @@
         <v>204</v>
       </c>
       <c r="C52" s="1"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
-      <c r="P52" s="2"/>
-      <c r="Q52" s="2"/>
-      <c r="R52" s="2"/>
-      <c r="S52" s="2"/>
-      <c r="T52" s="2"/>
-      <c r="U52" s="2"/>
-      <c r="V52" s="2"/>
-      <c r="W52" s="2"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="3"/>
+      <c r="S52" s="3"/>
+      <c r="T52" s="3"/>
+      <c r="U52" s="3"/>
+      <c r="V52" s="3"/>
+      <c r="W52" s="3"/>
       <c r="Z52" s="1" t="s">
         <v>204</v>
       </c>
@@ -6053,26 +6064,26 @@
         <v>205</v>
       </c>
       <c r="C53" s="1"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-      <c r="P53" s="2"/>
-      <c r="Q53" s="2"/>
-      <c r="R53" s="2"/>
-      <c r="S53" s="2"/>
-      <c r="T53" s="2"/>
-      <c r="U53" s="2"/>
-      <c r="V53" s="2"/>
-      <c r="W53" s="2"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
+      <c r="R53" s="3"/>
+      <c r="S53" s="3"/>
+      <c r="T53" s="3"/>
+      <c r="U53" s="3"/>
+      <c r="V53" s="3"/>
+      <c r="W53" s="3"/>
       <c r="Z53" s="1" t="s">
         <v>205</v>
       </c>
@@ -6082,26 +6093,26 @@
         <v>206</v>
       </c>
       <c r="C54" s="1"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
-      <c r="P54" s="2"/>
-      <c r="Q54" s="2"/>
-      <c r="R54" s="2"/>
-      <c r="S54" s="2"/>
-      <c r="T54" s="2"/>
-      <c r="U54" s="2"/>
-      <c r="V54" s="2"/>
-      <c r="W54" s="2"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="3"/>
+      <c r="S54" s="3"/>
+      <c r="T54" s="3"/>
+      <c r="U54" s="3"/>
+      <c r="V54" s="3"/>
+      <c r="W54" s="3"/>
       <c r="Z54" s="1" t="s">
         <v>206</v>
       </c>
@@ -6110,32 +6121,27 @@
       <c r="A55" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C55" s="1">
-        <v>14</v>
-      </c>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
-      <c r="P55" s="2"/>
-      <c r="Q55" s="2"/>
-      <c r="R55" s="2"/>
-      <c r="S55" s="2"/>
-      <c r="T55" s="2"/>
-      <c r="U55" s="2"/>
-      <c r="V55" s="2"/>
-      <c r="W55" s="2"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
       <c r="Z55" s="1" t="s">
         <v>207</v>
       </c>
@@ -6144,27 +6150,32 @@
       <c r="A56" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C56" s="1"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
-      <c r="P56" s="2"/>
-      <c r="Q56" s="2"/>
-      <c r="R56" s="2"/>
-      <c r="S56" s="2"/>
-      <c r="T56" s="2"/>
-      <c r="U56" s="2"/>
-      <c r="V56" s="2"/>
-      <c r="W56" s="2"/>
+      <c r="B56" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" s="1">
+        <v>14</v>
+      </c>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
       <c r="Z56" s="1" t="s">
         <v>208</v>
       </c>
@@ -6174,26 +6185,26 @@
         <v>209</v>
       </c>
       <c r="C57" s="1"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
-      <c r="K57" s="2"/>
-      <c r="L57" s="2"/>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
-      <c r="P57" s="2"/>
-      <c r="Q57" s="2"/>
-      <c r="R57" s="2"/>
-      <c r="S57" s="2"/>
-      <c r="T57" s="2"/>
-      <c r="U57" s="2"/>
-      <c r="V57" s="2"/>
-      <c r="W57" s="2"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
+      <c r="O57" s="3"/>
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3"/>
+      <c r="R57" s="3"/>
+      <c r="S57" s="3"/>
+      <c r="T57" s="3"/>
+      <c r="U57" s="3"/>
+      <c r="V57" s="3"/>
+      <c r="W57" s="3"/>
       <c r="Z57" s="1" t="s">
         <v>209</v>
       </c>
@@ -6203,26 +6214,26 @@
         <v>210</v>
       </c>
       <c r="C58" s="1"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
-      <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
-      <c r="P58" s="2"/>
-      <c r="Q58" s="2"/>
-      <c r="R58" s="2"/>
-      <c r="S58" s="2"/>
-      <c r="T58" s="2"/>
-      <c r="U58" s="2"/>
-      <c r="V58" s="2"/>
-      <c r="W58" s="2"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3"/>
+      <c r="O58" s="3"/>
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3"/>
+      <c r="R58" s="3"/>
+      <c r="S58" s="3"/>
+      <c r="T58" s="3"/>
+      <c r="U58" s="3"/>
+      <c r="V58" s="3"/>
+      <c r="W58" s="3"/>
       <c r="Z58" s="1" t="s">
         <v>210</v>
       </c>
@@ -6232,26 +6243,26 @@
         <v>211</v>
       </c>
       <c r="C59" s="1"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
-      <c r="K59" s="2"/>
-      <c r="L59" s="2"/>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
-      <c r="P59" s="2"/>
-      <c r="Q59" s="2"/>
-      <c r="R59" s="2"/>
-      <c r="S59" s="2"/>
-      <c r="T59" s="2"/>
-      <c r="U59" s="2"/>
-      <c r="V59" s="2"/>
-      <c r="W59" s="2"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="3"/>
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3"/>
+      <c r="R59" s="3"/>
+      <c r="S59" s="3"/>
+      <c r="T59" s="3"/>
+      <c r="U59" s="3"/>
+      <c r="V59" s="3"/>
+      <c r="W59" s="3"/>
       <c r="Z59" s="1" t="s">
         <v>211</v>
       </c>
@@ -6261,26 +6272,26 @@
         <v>212</v>
       </c>
       <c r="C60" s="1"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
-      <c r="K60" s="2"/>
-      <c r="L60" s="2"/>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
-      <c r="P60" s="2"/>
-      <c r="Q60" s="2"/>
-      <c r="R60" s="2"/>
-      <c r="S60" s="2"/>
-      <c r="T60" s="2"/>
-      <c r="U60" s="2"/>
-      <c r="V60" s="2"/>
-      <c r="W60" s="2"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
+      <c r="O60" s="3"/>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3"/>
+      <c r="R60" s="3"/>
+      <c r="S60" s="3"/>
+      <c r="T60" s="3"/>
+      <c r="U60" s="3"/>
+      <c r="V60" s="3"/>
+      <c r="W60" s="3"/>
       <c r="Z60" s="1" t="s">
         <v>212</v>
       </c>
@@ -6290,26 +6301,26 @@
         <v>213</v>
       </c>
       <c r="C61" s="1"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
-      <c r="K61" s="2"/>
-      <c r="L61" s="2"/>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
-      <c r="P61" s="2"/>
-      <c r="Q61" s="2"/>
-      <c r="R61" s="2"/>
-      <c r="S61" s="2"/>
-      <c r="T61" s="2"/>
-      <c r="U61" s="2"/>
-      <c r="V61" s="2"/>
-      <c r="W61" s="2"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="3"/>
+      <c r="N61" s="3"/>
+      <c r="O61" s="3"/>
+      <c r="P61" s="3"/>
+      <c r="Q61" s="3"/>
+      <c r="R61" s="3"/>
+      <c r="S61" s="3"/>
+      <c r="T61" s="3"/>
+      <c r="U61" s="3"/>
+      <c r="V61" s="3"/>
+      <c r="W61" s="3"/>
       <c r="Z61" s="1" t="s">
         <v>213</v>
       </c>
@@ -6319,26 +6330,26 @@
         <v>214</v>
       </c>
       <c r="C62" s="1"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
-      <c r="K62" s="2"/>
-      <c r="L62" s="2"/>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
-      <c r="P62" s="2"/>
-      <c r="Q62" s="2"/>
-      <c r="R62" s="2"/>
-      <c r="S62" s="2"/>
-      <c r="T62" s="2"/>
-      <c r="U62" s="2"/>
-      <c r="V62" s="2"/>
-      <c r="W62" s="2"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3"/>
+      <c r="O62" s="3"/>
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3"/>
+      <c r="R62" s="3"/>
+      <c r="S62" s="3"/>
+      <c r="T62" s="3"/>
+      <c r="U62" s="3"/>
+      <c r="V62" s="3"/>
+      <c r="W62" s="3"/>
       <c r="Z62" s="1" t="s">
         <v>214</v>
       </c>
@@ -6348,26 +6359,26 @@
         <v>215</v>
       </c>
       <c r="C63" s="1"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
-      <c r="J63" s="2"/>
-      <c r="K63" s="2"/>
-      <c r="L63" s="2"/>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
-      <c r="P63" s="2"/>
-      <c r="Q63" s="2"/>
-      <c r="R63" s="2"/>
-      <c r="S63" s="2"/>
-      <c r="T63" s="2"/>
-      <c r="U63" s="2"/>
-      <c r="V63" s="2"/>
-      <c r="W63" s="2"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
+      <c r="M63" s="3"/>
+      <c r="N63" s="3"/>
+      <c r="O63" s="3"/>
+      <c r="P63" s="3"/>
+      <c r="Q63" s="3"/>
+      <c r="R63" s="3"/>
+      <c r="S63" s="3"/>
+      <c r="T63" s="3"/>
+      <c r="U63" s="3"/>
+      <c r="V63" s="3"/>
+      <c r="W63" s="3"/>
       <c r="Z63" s="1" t="s">
         <v>215</v>
       </c>
@@ -6377,26 +6388,26 @@
         <v>216</v>
       </c>
       <c r="C64" s="1"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
-      <c r="K64" s="2"/>
-      <c r="L64" s="2"/>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
-      <c r="P64" s="2"/>
-      <c r="Q64" s="2"/>
-      <c r="R64" s="2"/>
-      <c r="S64" s="2"/>
-      <c r="T64" s="2"/>
-      <c r="U64" s="2"/>
-      <c r="V64" s="2"/>
-      <c r="W64" s="2"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="3"/>
+      <c r="M64" s="3"/>
+      <c r="N64" s="3"/>
+      <c r="O64" s="3"/>
+      <c r="P64" s="3"/>
+      <c r="Q64" s="3"/>
+      <c r="R64" s="3"/>
+      <c r="S64" s="3"/>
+      <c r="T64" s="3"/>
+      <c r="U64" s="3"/>
+      <c r="V64" s="3"/>
+      <c r="W64" s="3"/>
       <c r="Z64" s="1" t="s">
         <v>216</v>
       </c>
@@ -6406,26 +6417,26 @@
         <v>217</v>
       </c>
       <c r="C65" s="1"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
-      <c r="J65" s="2"/>
-      <c r="K65" s="2"/>
-      <c r="L65" s="2"/>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
-      <c r="P65" s="2"/>
-      <c r="Q65" s="2"/>
-      <c r="R65" s="2"/>
-      <c r="S65" s="2"/>
-      <c r="T65" s="2"/>
-      <c r="U65" s="2"/>
-      <c r="V65" s="2"/>
-      <c r="W65" s="2"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+      <c r="L65" s="3"/>
+      <c r="M65" s="3"/>
+      <c r="N65" s="3"/>
+      <c r="O65" s="3"/>
+      <c r="P65" s="3"/>
+      <c r="Q65" s="3"/>
+      <c r="R65" s="3"/>
+      <c r="S65" s="3"/>
+      <c r="T65" s="3"/>
+      <c r="U65" s="3"/>
+      <c r="V65" s="3"/>
+      <c r="W65" s="3"/>
       <c r="Z65" s="1" t="s">
         <v>217</v>
       </c>
@@ -6435,26 +6446,26 @@
         <v>218</v>
       </c>
       <c r="C66" s="1"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
-      <c r="K66" s="2"/>
-      <c r="L66" s="2"/>
-      <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
-      <c r="O66" s="2"/>
-      <c r="P66" s="2"/>
-      <c r="Q66" s="2"/>
-      <c r="R66" s="2"/>
-      <c r="S66" s="2"/>
-      <c r="T66" s="2"/>
-      <c r="U66" s="2"/>
-      <c r="V66" s="2"/>
-      <c r="W66" s="2"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="3"/>
+      <c r="M66" s="3"/>
+      <c r="N66" s="3"/>
+      <c r="O66" s="3"/>
+      <c r="P66" s="3"/>
+      <c r="Q66" s="3"/>
+      <c r="R66" s="3"/>
+      <c r="S66" s="3"/>
+      <c r="T66" s="3"/>
+      <c r="U66" s="3"/>
+      <c r="V66" s="3"/>
+      <c r="W66" s="3"/>
       <c r="Z66" s="1" t="s">
         <v>218</v>
       </c>
@@ -6464,26 +6475,26 @@
         <v>219</v>
       </c>
       <c r="C67" s="1"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
-      <c r="K67" s="2"/>
-      <c r="L67" s="2"/>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
-      <c r="P67" s="2"/>
-      <c r="Q67" s="2"/>
-      <c r="R67" s="2"/>
-      <c r="S67" s="2"/>
-      <c r="T67" s="2"/>
-      <c r="U67" s="2"/>
-      <c r="V67" s="2"/>
-      <c r="W67" s="2"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
       <c r="Z67" s="1" t="s">
         <v>219</v>
       </c>
@@ -6493,177 +6504,177 @@
         <v>220</v>
       </c>
       <c r="C68" s="1"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
-      <c r="J68" s="2"/>
-      <c r="K68" s="2"/>
-      <c r="L68" s="2"/>
-      <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
-      <c r="P68" s="2"/>
-      <c r="Q68" s="2"/>
-      <c r="R68" s="2"/>
-      <c r="S68" s="2"/>
-      <c r="T68" s="2"/>
-      <c r="U68" s="2"/>
-      <c r="V68" s="2"/>
-      <c r="W68" s="2"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="3"/>
+      <c r="M68" s="3"/>
+      <c r="N68" s="3"/>
+      <c r="O68" s="3"/>
+      <c r="P68" s="3"/>
+      <c r="Q68" s="3"/>
+      <c r="R68" s="3"/>
+      <c r="S68" s="3"/>
+      <c r="T68" s="3"/>
+      <c r="U68" s="3"/>
+      <c r="V68" s="3"/>
+      <c r="W68" s="3"/>
       <c r="Z68" s="1" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="69" spans="1:26">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="C69" s="1"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
+      <c r="L69" s="3"/>
+      <c r="M69" s="3"/>
+      <c r="N69" s="3"/>
+      <c r="O69" s="3"/>
+      <c r="P69" s="3"/>
+      <c r="Q69" s="3"/>
+      <c r="R69" s="3"/>
+      <c r="S69" s="3"/>
+      <c r="T69" s="3"/>
+      <c r="U69" s="3"/>
+      <c r="V69" s="3"/>
+      <c r="W69" s="3"/>
+      <c r="Z69" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26">
+      <c r="A70" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C70" s="1">
         <v>13</v>
       </c>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
-      <c r="J69" s="2"/>
-      <c r="K69" s="2"/>
-      <c r="L69" s="2"/>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
-      <c r="P69" s="2"/>
-      <c r="Q69" s="2"/>
-      <c r="R69" s="2"/>
-      <c r="S69" s="2"/>
-      <c r="T69" s="2"/>
-      <c r="U69" s="2"/>
-      <c r="V69" s="2"/>
-      <c r="W69" s="2"/>
-      <c r="Z69" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="70" spans="1:26">
-      <c r="A70" s="3" t="s">
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3"/>
+      <c r="M70" s="3"/>
+      <c r="N70" s="3"/>
+      <c r="O70" s="3"/>
+      <c r="P70" s="3"/>
+      <c r="Q70" s="3"/>
+      <c r="R70" s="3"/>
+      <c r="S70" s="3"/>
+      <c r="T70" s="3"/>
+      <c r="U70" s="3"/>
+      <c r="V70" s="3"/>
+      <c r="W70" s="3"/>
+      <c r="Z70" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="C70" s="1"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
-      <c r="J70" s="2"/>
-      <c r="K70" s="2"/>
-      <c r="L70" s="2"/>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
-      <c r="P70" s="2"/>
-      <c r="Q70" s="2"/>
-      <c r="R70" s="2"/>
-      <c r="S70" s="2"/>
-      <c r="T70" s="2"/>
-      <c r="U70" s="2"/>
-      <c r="V70" s="2"/>
-      <c r="W70" s="2"/>
-      <c r="Z70" s="3" t="s">
-        <v>222</v>
-      </c>
     </row>
     <row r="71" spans="1:26">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="4" t="s">
         <v>223</v>
       </c>
       <c r="C71" s="1"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
-      <c r="I71" s="2"/>
-      <c r="J71" s="2"/>
-      <c r="K71" s="2"/>
-      <c r="L71" s="2"/>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
-      <c r="P71" s="2"/>
-      <c r="Q71" s="2"/>
-      <c r="R71" s="2"/>
-      <c r="S71" s="2"/>
-      <c r="T71" s="2"/>
-      <c r="U71" s="2"/>
-      <c r="V71" s="2"/>
-      <c r="W71" s="2"/>
-      <c r="Z71" s="3" t="s">
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="3"/>
+      <c r="M71" s="3"/>
+      <c r="N71" s="3"/>
+      <c r="O71" s="3"/>
+      <c r="P71" s="3"/>
+      <c r="Q71" s="3"/>
+      <c r="R71" s="3"/>
+      <c r="S71" s="3"/>
+      <c r="T71" s="3"/>
+      <c r="U71" s="3"/>
+      <c r="V71" s="3"/>
+      <c r="W71" s="3"/>
+      <c r="Z71" s="4" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="72" spans="1:26">
-      <c r="A72" s="3" t="s">
+      <c r="A72" s="1" t="s">
         <v>224</v>
       </c>
       <c r="C72" s="1"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
-      <c r="I72" s="2"/>
-      <c r="J72" s="2"/>
-      <c r="K72" s="2"/>
-      <c r="L72" s="2"/>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
-      <c r="P72" s="2"/>
-      <c r="Q72" s="2"/>
-      <c r="R72" s="2"/>
-      <c r="S72" s="2"/>
-      <c r="T72" s="2"/>
-      <c r="U72" s="2"/>
-      <c r="V72" s="2"/>
-      <c r="W72" s="2"/>
-      <c r="Z72" s="3" t="s">
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="3"/>
+      <c r="M72" s="3"/>
+      <c r="N72" s="3"/>
+      <c r="O72" s="3"/>
+      <c r="P72" s="3"/>
+      <c r="Q72" s="3"/>
+      <c r="R72" s="3"/>
+      <c r="S72" s="3"/>
+      <c r="T72" s="3"/>
+      <c r="U72" s="3"/>
+      <c r="V72" s="3"/>
+      <c r="W72" s="3"/>
+      <c r="Z72" s="4" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="73" spans="1:26">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="4" t="s">
         <v>225</v>
       </c>
       <c r="C73" s="1"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
-      <c r="I73" s="2"/>
-      <c r="J73" s="2"/>
-      <c r="K73" s="2"/>
-      <c r="L73" s="2"/>
-      <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
-      <c r="O73" s="2"/>
-      <c r="P73" s="2"/>
-      <c r="Q73" s="2"/>
-      <c r="R73" s="2"/>
-      <c r="S73" s="2"/>
-      <c r="T73" s="2"/>
-      <c r="U73" s="2"/>
-      <c r="V73" s="2"/>
-      <c r="W73" s="2"/>
-      <c r="Z73" s="1" t="s">
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="3"/>
+      <c r="M73" s="3"/>
+      <c r="N73" s="3"/>
+      <c r="O73" s="3"/>
+      <c r="P73" s="3"/>
+      <c r="Q73" s="3"/>
+      <c r="R73" s="3"/>
+      <c r="S73" s="3"/>
+      <c r="T73" s="3"/>
+      <c r="U73" s="3"/>
+      <c r="V73" s="3"/>
+      <c r="W73" s="3"/>
+      <c r="Z73" s="4" t="s">
         <v>225</v>
       </c>
     </row>
@@ -6672,26 +6683,26 @@
         <v>226</v>
       </c>
       <c r="C74" s="1"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
-      <c r="I74" s="2"/>
-      <c r="J74" s="2"/>
-      <c r="K74" s="2"/>
-      <c r="L74" s="2"/>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
-      <c r="O74" s="2"/>
-      <c r="P74" s="2"/>
-      <c r="Q74" s="2"/>
-      <c r="R74" s="2"/>
-      <c r="S74" s="2"/>
-      <c r="T74" s="2"/>
-      <c r="U74" s="2"/>
-      <c r="V74" s="2"/>
-      <c r="W74" s="2"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3"/>
+      <c r="M74" s="3"/>
+      <c r="N74" s="3"/>
+      <c r="O74" s="3"/>
+      <c r="P74" s="3"/>
+      <c r="Q74" s="3"/>
+      <c r="R74" s="3"/>
+      <c r="S74" s="3"/>
+      <c r="T74" s="3"/>
+      <c r="U74" s="3"/>
+      <c r="V74" s="3"/>
+      <c r="W74" s="3"/>
       <c r="Z74" s="1" t="s">
         <v>226</v>
       </c>
@@ -6701,26 +6712,26 @@
         <v>227</v>
       </c>
       <c r="C75" s="1"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
-      <c r="I75" s="2"/>
-      <c r="J75" s="2"/>
-      <c r="K75" s="2"/>
-      <c r="L75" s="2"/>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
-      <c r="P75" s="2"/>
-      <c r="Q75" s="2"/>
-      <c r="R75" s="2"/>
-      <c r="S75" s="2"/>
-      <c r="T75" s="2"/>
-      <c r="U75" s="2"/>
-      <c r="V75" s="2"/>
-      <c r="W75" s="2"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="3"/>
+      <c r="M75" s="3"/>
+      <c r="N75" s="3"/>
+      <c r="O75" s="3"/>
+      <c r="P75" s="3"/>
+      <c r="Q75" s="3"/>
+      <c r="R75" s="3"/>
+      <c r="S75" s="3"/>
+      <c r="T75" s="3"/>
+      <c r="U75" s="3"/>
+      <c r="V75" s="3"/>
+      <c r="W75" s="3"/>
       <c r="Z75" s="1" t="s">
         <v>227</v>
       </c>
@@ -6730,26 +6741,26 @@
         <v>228</v>
       </c>
       <c r="C76" s="1"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
-      <c r="I76" s="2"/>
-      <c r="J76" s="2"/>
-      <c r="K76" s="2"/>
-      <c r="L76" s="2"/>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
-      <c r="P76" s="2"/>
-      <c r="Q76" s="2"/>
-      <c r="R76" s="2"/>
-      <c r="S76" s="2"/>
-      <c r="T76" s="2"/>
-      <c r="U76" s="2"/>
-      <c r="V76" s="2"/>
-      <c r="W76" s="2"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
+      <c r="L76" s="3"/>
+      <c r="M76" s="3"/>
+      <c r="N76" s="3"/>
+      <c r="O76" s="3"/>
+      <c r="P76" s="3"/>
+      <c r="Q76" s="3"/>
+      <c r="R76" s="3"/>
+      <c r="S76" s="3"/>
+      <c r="T76" s="3"/>
+      <c r="U76" s="3"/>
+      <c r="V76" s="3"/>
+      <c r="W76" s="3"/>
       <c r="Z76" s="1" t="s">
         <v>228</v>
       </c>
@@ -6759,26 +6770,26 @@
         <v>229</v>
       </c>
       <c r="C77" s="1"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
-      <c r="I77" s="2"/>
-      <c r="J77" s="2"/>
-      <c r="K77" s="2"/>
-      <c r="L77" s="2"/>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
-      <c r="P77" s="2"/>
-      <c r="Q77" s="2"/>
-      <c r="R77" s="2"/>
-      <c r="S77" s="2"/>
-      <c r="T77" s="2"/>
-      <c r="U77" s="2"/>
-      <c r="V77" s="2"/>
-      <c r="W77" s="2"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3"/>
+      <c r="K77" s="3"/>
+      <c r="L77" s="3"/>
+      <c r="M77" s="3"/>
+      <c r="N77" s="3"/>
+      <c r="O77" s="3"/>
+      <c r="P77" s="3"/>
+      <c r="Q77" s="3"/>
+      <c r="R77" s="3"/>
+      <c r="S77" s="3"/>
+      <c r="T77" s="3"/>
+      <c r="U77" s="3"/>
+      <c r="V77" s="3"/>
+      <c r="W77" s="3"/>
       <c r="Z77" s="1" t="s">
         <v>229</v>
       </c>
@@ -6788,26 +6799,26 @@
         <v>230</v>
       </c>
       <c r="C78" s="1"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
-      <c r="I78" s="2"/>
-      <c r="J78" s="2"/>
-      <c r="K78" s="2"/>
-      <c r="L78" s="2"/>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
-      <c r="O78" s="2"/>
-      <c r="P78" s="2"/>
-      <c r="Q78" s="2"/>
-      <c r="R78" s="2"/>
-      <c r="S78" s="2"/>
-      <c r="T78" s="2"/>
-      <c r="U78" s="2"/>
-      <c r="V78" s="2"/>
-      <c r="W78" s="2"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3"/>
+      <c r="K78" s="3"/>
+      <c r="L78" s="3"/>
+      <c r="M78" s="3"/>
+      <c r="N78" s="3"/>
+      <c r="O78" s="3"/>
+      <c r="P78" s="3"/>
+      <c r="Q78" s="3"/>
+      <c r="R78" s="3"/>
+      <c r="S78" s="3"/>
+      <c r="T78" s="3"/>
+      <c r="U78" s="3"/>
+      <c r="V78" s="3"/>
+      <c r="W78" s="3"/>
       <c r="Z78" s="1" t="s">
         <v>230</v>
       </c>
@@ -6817,26 +6828,26 @@
         <v>231</v>
       </c>
       <c r="C79" s="1"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
-      <c r="I79" s="2"/>
-      <c r="J79" s="2"/>
-      <c r="K79" s="2"/>
-      <c r="L79" s="2"/>
-      <c r="M79" s="2"/>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
-      <c r="P79" s="2"/>
-      <c r="Q79" s="2"/>
-      <c r="R79" s="2"/>
-      <c r="S79" s="2"/>
-      <c r="T79" s="2"/>
-      <c r="U79" s="2"/>
-      <c r="V79" s="2"/>
-      <c r="W79" s="2"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3"/>
+      <c r="K79" s="3"/>
+      <c r="L79" s="3"/>
+      <c r="M79" s="3"/>
+      <c r="N79" s="3"/>
+      <c r="O79" s="3"/>
+      <c r="P79" s="3"/>
+      <c r="Q79" s="3"/>
+      <c r="R79" s="3"/>
+      <c r="S79" s="3"/>
+      <c r="T79" s="3"/>
+      <c r="U79" s="3"/>
+      <c r="V79" s="3"/>
+      <c r="W79" s="3"/>
       <c r="Z79" s="1" t="s">
         <v>231</v>
       </c>
@@ -6846,26 +6857,26 @@
         <v>232</v>
       </c>
       <c r="C80" s="1"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="2"/>
-      <c r="J80" s="2"/>
-      <c r="K80" s="2"/>
-      <c r="L80" s="2"/>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
-      <c r="P80" s="2"/>
-      <c r="Q80" s="2"/>
-      <c r="R80" s="2"/>
-      <c r="S80" s="2"/>
-      <c r="T80" s="2"/>
-      <c r="U80" s="2"/>
-      <c r="V80" s="2"/>
-      <c r="W80" s="2"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3"/>
+      <c r="K80" s="3"/>
+      <c r="L80" s="3"/>
+      <c r="M80" s="3"/>
+      <c r="N80" s="3"/>
+      <c r="O80" s="3"/>
+      <c r="P80" s="3"/>
+      <c r="Q80" s="3"/>
+      <c r="R80" s="3"/>
+      <c r="S80" s="3"/>
+      <c r="T80" s="3"/>
+      <c r="U80" s="3"/>
+      <c r="V80" s="3"/>
+      <c r="W80" s="3"/>
       <c r="Z80" s="1" t="s">
         <v>232</v>
       </c>
@@ -6875,26 +6886,26 @@
         <v>233</v>
       </c>
       <c r="C81" s="1"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
-      <c r="I81" s="2"/>
-      <c r="J81" s="2"/>
-      <c r="K81" s="2"/>
-      <c r="L81" s="2"/>
-      <c r="M81" s="2"/>
-      <c r="N81" s="2"/>
-      <c r="O81" s="2"/>
-      <c r="P81" s="2"/>
-      <c r="Q81" s="2"/>
-      <c r="R81" s="2"/>
-      <c r="S81" s="2"/>
-      <c r="T81" s="2"/>
-      <c r="U81" s="2"/>
-      <c r="V81" s="2"/>
-      <c r="W81" s="2"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3"/>
+      <c r="K81" s="3"/>
+      <c r="L81" s="3"/>
+      <c r="M81" s="3"/>
+      <c r="N81" s="3"/>
+      <c r="O81" s="3"/>
+      <c r="P81" s="3"/>
+      <c r="Q81" s="3"/>
+      <c r="R81" s="3"/>
+      <c r="S81" s="3"/>
+      <c r="T81" s="3"/>
+      <c r="U81" s="3"/>
+      <c r="V81" s="3"/>
+      <c r="W81" s="3"/>
       <c r="Z81" s="1" t="s">
         <v>233</v>
       </c>
@@ -6903,63 +6914,63 @@
       <c r="A82" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C82" s="1">
-        <v>28</v>
-      </c>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
-      <c r="I82" s="2"/>
-      <c r="J82" s="2"/>
-      <c r="K82" s="2"/>
-      <c r="L82" s="2"/>
-      <c r="M82" s="2"/>
-      <c r="N82" s="2"/>
-      <c r="O82" s="2"/>
-      <c r="P82" s="2"/>
-      <c r="Q82" s="2"/>
-      <c r="R82" s="2"/>
-      <c r="S82" s="2"/>
-      <c r="T82" s="2"/>
-      <c r="U82" s="2"/>
-      <c r="V82" s="2"/>
-      <c r="W82" s="2"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3"/>
+      <c r="K82" s="3"/>
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
       <c r="Z82" s="1" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="83" spans="1:26">
       <c r="A83" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C83" s="1"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
-      <c r="I83" s="2"/>
-      <c r="J83" s="2"/>
-      <c r="K83" s="2"/>
-      <c r="L83" s="2"/>
-      <c r="M83" s="2"/>
-      <c r="N83" s="2"/>
-      <c r="O83" s="2"/>
-      <c r="P83" s="2"/>
-      <c r="Q83" s="2"/>
-      <c r="R83" s="2"/>
-      <c r="S83" s="2"/>
-      <c r="T83" s="2"/>
-      <c r="U83" s="2"/>
-      <c r="V83" s="2"/>
-      <c r="W83" s="2"/>
+      <c r="C83" s="1">
+        <v>28</v>
+      </c>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="3"/>
+      <c r="M83" s="3"/>
+      <c r="N83" s="3"/>
+      <c r="O83" s="3"/>
+      <c r="P83" s="3"/>
+      <c r="Q83" s="3"/>
+      <c r="R83" s="3"/>
+      <c r="S83" s="3"/>
+      <c r="T83" s="3"/>
+      <c r="U83" s="3"/>
+      <c r="V83" s="3"/>
+      <c r="W83" s="3"/>
       <c r="Z83" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="84" spans="1:26">
@@ -6967,26 +6978,26 @@
         <v>237</v>
       </c>
       <c r="C84" s="1"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
-      <c r="I84" s="2"/>
-      <c r="J84" s="2"/>
-      <c r="K84" s="2"/>
-      <c r="L84" s="2"/>
-      <c r="M84" s="2"/>
-      <c r="N84" s="2"/>
-      <c r="O84" s="2"/>
-      <c r="P84" s="2"/>
-      <c r="Q84" s="2"/>
-      <c r="R84" s="2"/>
-      <c r="S84" s="2"/>
-      <c r="T84" s="2"/>
-      <c r="U84" s="2"/>
-      <c r="V84" s="2"/>
-      <c r="W84" s="2"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3"/>
+      <c r="K84" s="3"/>
+      <c r="L84" s="3"/>
+      <c r="M84" s="3"/>
+      <c r="N84" s="3"/>
+      <c r="O84" s="3"/>
+      <c r="P84" s="3"/>
+      <c r="Q84" s="3"/>
+      <c r="R84" s="3"/>
+      <c r="S84" s="3"/>
+      <c r="T84" s="3"/>
+      <c r="U84" s="3"/>
+      <c r="V84" s="3"/>
+      <c r="W84" s="3"/>
       <c r="Z84" s="1" t="s">
         <v>237</v>
       </c>
@@ -6996,26 +7007,26 @@
         <v>238</v>
       </c>
       <c r="C85" s="1"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
-      <c r="H85" s="2"/>
-      <c r="I85" s="2"/>
-      <c r="J85" s="2"/>
-      <c r="K85" s="2"/>
-      <c r="L85" s="2"/>
-      <c r="M85" s="2"/>
-      <c r="N85" s="2"/>
-      <c r="O85" s="2"/>
-      <c r="P85" s="2"/>
-      <c r="Q85" s="2"/>
-      <c r="R85" s="2"/>
-      <c r="S85" s="2"/>
-      <c r="T85" s="2"/>
-      <c r="U85" s="2"/>
-      <c r="V85" s="2"/>
-      <c r="W85" s="2"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
+      <c r="I85" s="3"/>
+      <c r="J85" s="3"/>
+      <c r="K85" s="3"/>
+      <c r="L85" s="3"/>
+      <c r="M85" s="3"/>
+      <c r="N85" s="3"/>
+      <c r="O85" s="3"/>
+      <c r="P85" s="3"/>
+      <c r="Q85" s="3"/>
+      <c r="R85" s="3"/>
+      <c r="S85" s="3"/>
+      <c r="T85" s="3"/>
+      <c r="U85" s="3"/>
+      <c r="V85" s="3"/>
+      <c r="W85" s="3"/>
       <c r="Z85" s="1" t="s">
         <v>238</v>
       </c>
@@ -7025,26 +7036,26 @@
         <v>239</v>
       </c>
       <c r="C86" s="1"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
-      <c r="G86" s="2"/>
-      <c r="H86" s="2"/>
-      <c r="I86" s="2"/>
-      <c r="J86" s="2"/>
-      <c r="K86" s="2"/>
-      <c r="L86" s="2"/>
-      <c r="M86" s="2"/>
-      <c r="N86" s="2"/>
-      <c r="O86" s="2"/>
-      <c r="P86" s="2"/>
-      <c r="Q86" s="2"/>
-      <c r="R86" s="2"/>
-      <c r="S86" s="2"/>
-      <c r="T86" s="2"/>
-      <c r="U86" s="2"/>
-      <c r="V86" s="2"/>
-      <c r="W86" s="2"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3"/>
+      <c r="K86" s="3"/>
+      <c r="L86" s="3"/>
+      <c r="M86" s="3"/>
+      <c r="N86" s="3"/>
+      <c r="O86" s="3"/>
+      <c r="P86" s="3"/>
+      <c r="Q86" s="3"/>
+      <c r="R86" s="3"/>
+      <c r="S86" s="3"/>
+      <c r="T86" s="3"/>
+      <c r="U86" s="3"/>
+      <c r="V86" s="3"/>
+      <c r="W86" s="3"/>
       <c r="Z86" s="1" t="s">
         <v>239</v>
       </c>
@@ -7054,26 +7065,26 @@
         <v>240</v>
       </c>
       <c r="C87" s="1"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
-      <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
-      <c r="I87" s="2"/>
-      <c r="J87" s="2"/>
-      <c r="K87" s="2"/>
-      <c r="L87" s="2"/>
-      <c r="M87" s="2"/>
-      <c r="N87" s="2"/>
-      <c r="O87" s="2"/>
-      <c r="P87" s="2"/>
-      <c r="Q87" s="2"/>
-      <c r="R87" s="2"/>
-      <c r="S87" s="2"/>
-      <c r="T87" s="2"/>
-      <c r="U87" s="2"/>
-      <c r="V87" s="2"/>
-      <c r="W87" s="2"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3"/>
+      <c r="I87" s="3"/>
+      <c r="J87" s="3"/>
+      <c r="K87" s="3"/>
+      <c r="L87" s="3"/>
+      <c r="M87" s="3"/>
+      <c r="N87" s="3"/>
+      <c r="O87" s="3"/>
+      <c r="P87" s="3"/>
+      <c r="Q87" s="3"/>
+      <c r="R87" s="3"/>
+      <c r="S87" s="3"/>
+      <c r="T87" s="3"/>
+      <c r="U87" s="3"/>
+      <c r="V87" s="3"/>
+      <c r="W87" s="3"/>
       <c r="Z87" s="1" t="s">
         <v>240</v>
       </c>
@@ -7083,26 +7094,26 @@
         <v>241</v>
       </c>
       <c r="C88" s="1"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
-      <c r="G88" s="2"/>
-      <c r="H88" s="2"/>
-      <c r="I88" s="2"/>
-      <c r="J88" s="2"/>
-      <c r="K88" s="2"/>
-      <c r="L88" s="2"/>
-      <c r="M88" s="2"/>
-      <c r="N88" s="2"/>
-      <c r="O88" s="2"/>
-      <c r="P88" s="2"/>
-      <c r="Q88" s="2"/>
-      <c r="R88" s="2"/>
-      <c r="S88" s="2"/>
-      <c r="T88" s="2"/>
-      <c r="U88" s="2"/>
-      <c r="V88" s="2"/>
-      <c r="W88" s="2"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="3"/>
+      <c r="J88" s="3"/>
+      <c r="K88" s="3"/>
+      <c r="L88" s="3"/>
+      <c r="M88" s="3"/>
+      <c r="N88" s="3"/>
+      <c r="O88" s="3"/>
+      <c r="P88" s="3"/>
+      <c r="Q88" s="3"/>
+      <c r="R88" s="3"/>
+      <c r="S88" s="3"/>
+      <c r="T88" s="3"/>
+      <c r="U88" s="3"/>
+      <c r="V88" s="3"/>
+      <c r="W88" s="3"/>
       <c r="Z88" s="1" t="s">
         <v>241</v>
       </c>
@@ -7112,26 +7123,26 @@
         <v>242</v>
       </c>
       <c r="C89" s="1"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
-      <c r="G89" s="2"/>
-      <c r="H89" s="2"/>
-      <c r="I89" s="2"/>
-      <c r="J89" s="2"/>
-      <c r="K89" s="2"/>
-      <c r="L89" s="2"/>
-      <c r="M89" s="2"/>
-      <c r="N89" s="2"/>
-      <c r="O89" s="2"/>
-      <c r="P89" s="2"/>
-      <c r="Q89" s="2"/>
-      <c r="R89" s="2"/>
-      <c r="S89" s="2"/>
-      <c r="T89" s="2"/>
-      <c r="U89" s="2"/>
-      <c r="V89" s="2"/>
-      <c r="W89" s="2"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
+      <c r="I89" s="3"/>
+      <c r="J89" s="3"/>
+      <c r="K89" s="3"/>
+      <c r="L89" s="3"/>
+      <c r="M89" s="3"/>
+      <c r="N89" s="3"/>
+      <c r="O89" s="3"/>
+      <c r="P89" s="3"/>
+      <c r="Q89" s="3"/>
+      <c r="R89" s="3"/>
+      <c r="S89" s="3"/>
+      <c r="T89" s="3"/>
+      <c r="U89" s="3"/>
+      <c r="V89" s="3"/>
+      <c r="W89" s="3"/>
       <c r="Z89" s="1" t="s">
         <v>242</v>
       </c>
@@ -7141,26 +7152,26 @@
         <v>243</v>
       </c>
       <c r="C90" s="1"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
-      <c r="F90" s="2"/>
-      <c r="G90" s="2"/>
-      <c r="H90" s="2"/>
-      <c r="I90" s="2"/>
-      <c r="J90" s="2"/>
-      <c r="K90" s="2"/>
-      <c r="L90" s="2"/>
-      <c r="M90" s="2"/>
-      <c r="N90" s="2"/>
-      <c r="O90" s="2"/>
-      <c r="P90" s="2"/>
-      <c r="Q90" s="2"/>
-      <c r="R90" s="2"/>
-      <c r="S90" s="2"/>
-      <c r="T90" s="2"/>
-      <c r="U90" s="2"/>
-      <c r="V90" s="2"/>
-      <c r="W90" s="2"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+      <c r="I90" s="3"/>
+      <c r="J90" s="3"/>
+      <c r="K90" s="3"/>
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
       <c r="Z90" s="1" t="s">
         <v>243</v>
       </c>
@@ -7170,26 +7181,26 @@
         <v>244</v>
       </c>
       <c r="C91" s="1"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
-      <c r="G91" s="2"/>
-      <c r="H91" s="2"/>
-      <c r="I91" s="2"/>
-      <c r="J91" s="2"/>
-      <c r="K91" s="2"/>
-      <c r="L91" s="2"/>
-      <c r="M91" s="2"/>
-      <c r="N91" s="2"/>
-      <c r="O91" s="2"/>
-      <c r="P91" s="2"/>
-      <c r="Q91" s="2"/>
-      <c r="R91" s="2"/>
-      <c r="S91" s="2"/>
-      <c r="T91" s="2"/>
-      <c r="U91" s="2"/>
-      <c r="V91" s="2"/>
-      <c r="W91" s="2"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
+      <c r="I91" s="3"/>
+      <c r="J91" s="3"/>
+      <c r="K91" s="3"/>
+      <c r="L91" s="3"/>
+      <c r="M91" s="3"/>
+      <c r="N91" s="3"/>
+      <c r="O91" s="3"/>
+      <c r="P91" s="3"/>
+      <c r="Q91" s="3"/>
+      <c r="R91" s="3"/>
+      <c r="S91" s="3"/>
+      <c r="T91" s="3"/>
+      <c r="U91" s="3"/>
+      <c r="V91" s="3"/>
+      <c r="W91" s="3"/>
       <c r="Z91" s="1" t="s">
         <v>244</v>
       </c>
@@ -7199,26 +7210,26 @@
         <v>245</v>
       </c>
       <c r="C92" s="1"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
-      <c r="F92" s="2"/>
-      <c r="G92" s="2"/>
-      <c r="H92" s="2"/>
-      <c r="I92" s="2"/>
-      <c r="J92" s="2"/>
-      <c r="K92" s="2"/>
-      <c r="L92" s="2"/>
-      <c r="M92" s="2"/>
-      <c r="N92" s="2"/>
-      <c r="O92" s="2"/>
-      <c r="P92" s="2"/>
-      <c r="Q92" s="2"/>
-      <c r="R92" s="2"/>
-      <c r="S92" s="2"/>
-      <c r="T92" s="2"/>
-      <c r="U92" s="2"/>
-      <c r="V92" s="2"/>
-      <c r="W92" s="2"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="3"/>
+      <c r="K92" s="3"/>
+      <c r="L92" s="3"/>
+      <c r="M92" s="3"/>
+      <c r="N92" s="3"/>
+      <c r="O92" s="3"/>
+      <c r="P92" s="3"/>
+      <c r="Q92" s="3"/>
+      <c r="R92" s="3"/>
+      <c r="S92" s="3"/>
+      <c r="T92" s="3"/>
+      <c r="U92" s="3"/>
+      <c r="V92" s="3"/>
+      <c r="W92" s="3"/>
       <c r="Z92" s="1" t="s">
         <v>245</v>
       </c>
@@ -7228,26 +7239,26 @@
         <v>246</v>
       </c>
       <c r="C93" s="1"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
-      <c r="G93" s="2"/>
-      <c r="H93" s="2"/>
-      <c r="I93" s="2"/>
-      <c r="J93" s="2"/>
-      <c r="K93" s="2"/>
-      <c r="L93" s="2"/>
-      <c r="M93" s="2"/>
-      <c r="N93" s="2"/>
-      <c r="O93" s="2"/>
-      <c r="P93" s="2"/>
-      <c r="Q93" s="2"/>
-      <c r="R93" s="2"/>
-      <c r="S93" s="2"/>
-      <c r="T93" s="2"/>
-      <c r="U93" s="2"/>
-      <c r="V93" s="2"/>
-      <c r="W93" s="2"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3"/>
+      <c r="I93" s="3"/>
+      <c r="J93" s="3"/>
+      <c r="K93" s="3"/>
+      <c r="L93" s="3"/>
+      <c r="M93" s="3"/>
+      <c r="N93" s="3"/>
+      <c r="O93" s="3"/>
+      <c r="P93" s="3"/>
+      <c r="Q93" s="3"/>
+      <c r="R93" s="3"/>
+      <c r="S93" s="3"/>
+      <c r="T93" s="3"/>
+      <c r="U93" s="3"/>
+      <c r="V93" s="3"/>
+      <c r="W93" s="3"/>
       <c r="Z93" s="1" t="s">
         <v>246</v>
       </c>
@@ -7257,26 +7268,26 @@
         <v>247</v>
       </c>
       <c r="C94" s="1"/>
-      <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
-      <c r="F94" s="2"/>
-      <c r="G94" s="2"/>
-      <c r="H94" s="2"/>
-      <c r="I94" s="2"/>
-      <c r="J94" s="2"/>
-      <c r="K94" s="2"/>
-      <c r="L94" s="2"/>
-      <c r="M94" s="2"/>
-      <c r="N94" s="2"/>
-      <c r="O94" s="2"/>
-      <c r="P94" s="2"/>
-      <c r="Q94" s="2"/>
-      <c r="R94" s="2"/>
-      <c r="S94" s="2"/>
-      <c r="T94" s="2"/>
-      <c r="U94" s="2"/>
-      <c r="V94" s="2"/>
-      <c r="W94" s="2"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
+      <c r="I94" s="3"/>
+      <c r="J94" s="3"/>
+      <c r="K94" s="3"/>
+      <c r="L94" s="3"/>
+      <c r="M94" s="3"/>
+      <c r="N94" s="3"/>
+      <c r="O94" s="3"/>
+      <c r="P94" s="3"/>
+      <c r="Q94" s="3"/>
+      <c r="R94" s="3"/>
+      <c r="S94" s="3"/>
+      <c r="T94" s="3"/>
+      <c r="U94" s="3"/>
+      <c r="V94" s="3"/>
+      <c r="W94" s="3"/>
       <c r="Z94" s="1" t="s">
         <v>247</v>
       </c>
@@ -7286,26 +7297,26 @@
         <v>248</v>
       </c>
       <c r="C95" s="1"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
-      <c r="F95" s="2"/>
-      <c r="G95" s="2"/>
-      <c r="H95" s="2"/>
-      <c r="I95" s="2"/>
-      <c r="J95" s="2"/>
-      <c r="K95" s="2"/>
-      <c r="L95" s="2"/>
-      <c r="M95" s="2"/>
-      <c r="N95" s="2"/>
-      <c r="O95" s="2"/>
-      <c r="P95" s="2"/>
-      <c r="Q95" s="2"/>
-      <c r="R95" s="2"/>
-      <c r="S95" s="2"/>
-      <c r="T95" s="2"/>
-      <c r="U95" s="2"/>
-      <c r="V95" s="2"/>
-      <c r="W95" s="2"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="3"/>
+      <c r="I95" s="3"/>
+      <c r="J95" s="3"/>
+      <c r="K95" s="3"/>
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
       <c r="Z95" s="1" t="s">
         <v>248</v>
       </c>
@@ -7315,26 +7326,26 @@
         <v>249</v>
       </c>
       <c r="C96" s="1"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
-      <c r="F96" s="2"/>
-      <c r="G96" s="2"/>
-      <c r="H96" s="2"/>
-      <c r="I96" s="2"/>
-      <c r="J96" s="2"/>
-      <c r="K96" s="2"/>
-      <c r="L96" s="2"/>
-      <c r="M96" s="2"/>
-      <c r="N96" s="2"/>
-      <c r="O96" s="2"/>
-      <c r="P96" s="2"/>
-      <c r="Q96" s="2"/>
-      <c r="R96" s="2"/>
-      <c r="S96" s="2"/>
-      <c r="T96" s="2"/>
-      <c r="U96" s="2"/>
-      <c r="V96" s="2"/>
-      <c r="W96" s="2"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="3"/>
+      <c r="J96" s="3"/>
+      <c r="K96" s="3"/>
+      <c r="L96" s="3"/>
+      <c r="M96" s="3"/>
+      <c r="N96" s="3"/>
+      <c r="O96" s="3"/>
+      <c r="P96" s="3"/>
+      <c r="Q96" s="3"/>
+      <c r="R96" s="3"/>
+      <c r="S96" s="3"/>
+      <c r="T96" s="3"/>
+      <c r="U96" s="3"/>
+      <c r="V96" s="3"/>
+      <c r="W96" s="3"/>
       <c r="Z96" s="1" t="s">
         <v>249</v>
       </c>
@@ -7344,26 +7355,26 @@
         <v>250</v>
       </c>
       <c r="C97" s="1"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
-      <c r="F97" s="2"/>
-      <c r="G97" s="2"/>
-      <c r="H97" s="2"/>
-      <c r="I97" s="2"/>
-      <c r="J97" s="2"/>
-      <c r="K97" s="2"/>
-      <c r="L97" s="2"/>
-      <c r="M97" s="2"/>
-      <c r="N97" s="2"/>
-      <c r="O97" s="2"/>
-      <c r="P97" s="2"/>
-      <c r="Q97" s="2"/>
-      <c r="R97" s="2"/>
-      <c r="S97" s="2"/>
-      <c r="T97" s="2"/>
-      <c r="U97" s="2"/>
-      <c r="V97" s="2"/>
-      <c r="W97" s="2"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="3"/>
+      <c r="J97" s="3"/>
+      <c r="K97" s="3"/>
+      <c r="L97" s="3"/>
+      <c r="M97" s="3"/>
+      <c r="N97" s="3"/>
+      <c r="O97" s="3"/>
+      <c r="P97" s="3"/>
+      <c r="Q97" s="3"/>
+      <c r="R97" s="3"/>
+      <c r="S97" s="3"/>
+      <c r="T97" s="3"/>
+      <c r="U97" s="3"/>
+      <c r="V97" s="3"/>
+      <c r="W97" s="3"/>
       <c r="Z97" s="1" t="s">
         <v>250</v>
       </c>
@@ -7373,26 +7384,26 @@
         <v>251</v>
       </c>
       <c r="C98" s="1"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
-      <c r="F98" s="2"/>
-      <c r="G98" s="2"/>
-      <c r="H98" s="2"/>
-      <c r="I98" s="2"/>
-      <c r="J98" s="2"/>
-      <c r="K98" s="2"/>
-      <c r="L98" s="2"/>
-      <c r="M98" s="2"/>
-      <c r="N98" s="2"/>
-      <c r="O98" s="2"/>
-      <c r="P98" s="2"/>
-      <c r="Q98" s="2"/>
-      <c r="R98" s="2"/>
-      <c r="S98" s="2"/>
-      <c r="T98" s="2"/>
-      <c r="U98" s="2"/>
-      <c r="V98" s="2"/>
-      <c r="W98" s="2"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="3"/>
+      <c r="I98" s="3"/>
+      <c r="J98" s="3"/>
+      <c r="K98" s="3"/>
+      <c r="L98" s="3"/>
+      <c r="M98" s="3"/>
+      <c r="N98" s="3"/>
+      <c r="O98" s="3"/>
+      <c r="P98" s="3"/>
+      <c r="Q98" s="3"/>
+      <c r="R98" s="3"/>
+      <c r="S98" s="3"/>
+      <c r="T98" s="3"/>
+      <c r="U98" s="3"/>
+      <c r="V98" s="3"/>
+      <c r="W98" s="3"/>
       <c r="Z98" s="1" t="s">
         <v>251</v>
       </c>
@@ -7402,26 +7413,26 @@
         <v>252</v>
       </c>
       <c r="C99" s="1"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
-      <c r="F99" s="2"/>
-      <c r="G99" s="2"/>
-      <c r="H99" s="2"/>
-      <c r="I99" s="2"/>
-      <c r="J99" s="2"/>
-      <c r="K99" s="2"/>
-      <c r="L99" s="2"/>
-      <c r="M99" s="2"/>
-      <c r="N99" s="2"/>
-      <c r="O99" s="2"/>
-      <c r="P99" s="2"/>
-      <c r="Q99" s="2"/>
-      <c r="R99" s="2"/>
-      <c r="S99" s="2"/>
-      <c r="T99" s="2"/>
-      <c r="U99" s="2"/>
-      <c r="V99" s="2"/>
-      <c r="W99" s="2"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="3"/>
+      <c r="I99" s="3"/>
+      <c r="J99" s="3"/>
+      <c r="K99" s="3"/>
+      <c r="L99" s="3"/>
+      <c r="M99" s="3"/>
+      <c r="N99" s="3"/>
+      <c r="O99" s="3"/>
+      <c r="P99" s="3"/>
+      <c r="Q99" s="3"/>
+      <c r="R99" s="3"/>
+      <c r="S99" s="3"/>
+      <c r="T99" s="3"/>
+      <c r="U99" s="3"/>
+      <c r="V99" s="3"/>
+      <c r="W99" s="3"/>
       <c r="Z99" s="1" t="s">
         <v>252</v>
       </c>
@@ -7431,26 +7442,26 @@
         <v>253</v>
       </c>
       <c r="C100" s="1"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
-      <c r="F100" s="2"/>
-      <c r="G100" s="2"/>
-      <c r="H100" s="2"/>
-      <c r="I100" s="2"/>
-      <c r="J100" s="2"/>
-      <c r="K100" s="2"/>
-      <c r="L100" s="2"/>
-      <c r="M100" s="2"/>
-      <c r="N100" s="2"/>
-      <c r="O100" s="2"/>
-      <c r="P100" s="2"/>
-      <c r="Q100" s="2"/>
-      <c r="R100" s="2"/>
-      <c r="S100" s="2"/>
-      <c r="T100" s="2"/>
-      <c r="U100" s="2"/>
-      <c r="V100" s="2"/>
-      <c r="W100" s="2"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3"/>
+      <c r="I100" s="3"/>
+      <c r="J100" s="3"/>
+      <c r="K100" s="3"/>
+      <c r="L100" s="3"/>
+      <c r="M100" s="3"/>
+      <c r="N100" s="3"/>
+      <c r="O100" s="3"/>
+      <c r="P100" s="3"/>
+      <c r="Q100" s="3"/>
+      <c r="R100" s="3"/>
+      <c r="S100" s="3"/>
+      <c r="T100" s="3"/>
+      <c r="U100" s="3"/>
+      <c r="V100" s="3"/>
+      <c r="W100" s="3"/>
       <c r="Z100" s="1" t="s">
         <v>253</v>
       </c>
@@ -7460,26 +7471,26 @@
         <v>254</v>
       </c>
       <c r="C101" s="1"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
-      <c r="F101" s="2"/>
-      <c r="G101" s="2"/>
-      <c r="H101" s="2"/>
-      <c r="I101" s="2"/>
-      <c r="J101" s="2"/>
-      <c r="K101" s="2"/>
-      <c r="L101" s="2"/>
-      <c r="M101" s="2"/>
-      <c r="N101" s="2"/>
-      <c r="O101" s="2"/>
-      <c r="P101" s="2"/>
-      <c r="Q101" s="2"/>
-      <c r="R101" s="2"/>
-      <c r="S101" s="2"/>
-      <c r="T101" s="2"/>
-      <c r="U101" s="2"/>
-      <c r="V101" s="2"/>
-      <c r="W101" s="2"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="3"/>
+      <c r="I101" s="3"/>
+      <c r="J101" s="3"/>
+      <c r="K101" s="3"/>
+      <c r="L101" s="3"/>
+      <c r="M101" s="3"/>
+      <c r="N101" s="3"/>
+      <c r="O101" s="3"/>
+      <c r="P101" s="3"/>
+      <c r="Q101" s="3"/>
+      <c r="R101" s="3"/>
+      <c r="S101" s="3"/>
+      <c r="T101" s="3"/>
+      <c r="U101" s="3"/>
+      <c r="V101" s="3"/>
+      <c r="W101" s="3"/>
       <c r="Z101" s="1" t="s">
         <v>254</v>
       </c>
@@ -7489,26 +7500,26 @@
         <v>255</v>
       </c>
       <c r="C102" s="1"/>
-      <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
-      <c r="F102" s="2"/>
-      <c r="G102" s="2"/>
-      <c r="H102" s="2"/>
-      <c r="I102" s="2"/>
-      <c r="J102" s="2"/>
-      <c r="K102" s="2"/>
-      <c r="L102" s="2"/>
-      <c r="M102" s="2"/>
-      <c r="N102" s="2"/>
-      <c r="O102" s="2"/>
-      <c r="P102" s="2"/>
-      <c r="Q102" s="2"/>
-      <c r="R102" s="2"/>
-      <c r="S102" s="2"/>
-      <c r="T102" s="2"/>
-      <c r="U102" s="2"/>
-      <c r="V102" s="2"/>
-      <c r="W102" s="2"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="3"/>
+      <c r="I102" s="3"/>
+      <c r="J102" s="3"/>
+      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
+      <c r="Q102" s="3"/>
+      <c r="R102" s="3"/>
+      <c r="S102" s="3"/>
+      <c r="T102" s="3"/>
+      <c r="U102" s="3"/>
+      <c r="V102" s="3"/>
+      <c r="W102" s="3"/>
       <c r="Z102" s="1" t="s">
         <v>255</v>
       </c>
@@ -7518,26 +7529,26 @@
         <v>256</v>
       </c>
       <c r="C103" s="1"/>
-      <c r="D103" s="2"/>
-      <c r="E103" s="2"/>
-      <c r="F103" s="2"/>
-      <c r="G103" s="2"/>
-      <c r="H103" s="2"/>
-      <c r="I103" s="2"/>
-      <c r="J103" s="2"/>
-      <c r="K103" s="2"/>
-      <c r="L103" s="2"/>
-      <c r="M103" s="2"/>
-      <c r="N103" s="2"/>
-      <c r="O103" s="2"/>
-      <c r="P103" s="2"/>
-      <c r="Q103" s="2"/>
-      <c r="R103" s="2"/>
-      <c r="S103" s="2"/>
-      <c r="T103" s="2"/>
-      <c r="U103" s="2"/>
-      <c r="V103" s="2"/>
-      <c r="W103" s="2"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="3"/>
+      <c r="H103" s="3"/>
+      <c r="I103" s="3"/>
+      <c r="J103" s="3"/>
+      <c r="K103" s="3"/>
+      <c r="L103" s="3"/>
+      <c r="M103" s="3"/>
+      <c r="N103" s="3"/>
+      <c r="O103" s="3"/>
+      <c r="P103" s="3"/>
+      <c r="Q103" s="3"/>
+      <c r="R103" s="3"/>
+      <c r="S103" s="3"/>
+      <c r="T103" s="3"/>
+      <c r="U103" s="3"/>
+      <c r="V103" s="3"/>
+      <c r="W103" s="3"/>
       <c r="Z103" s="1" t="s">
         <v>256</v>
       </c>
@@ -7547,26 +7558,26 @@
         <v>257</v>
       </c>
       <c r="C104" s="1"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
-      <c r="F104" s="2"/>
-      <c r="G104" s="2"/>
-      <c r="H104" s="2"/>
-      <c r="I104" s="2"/>
-      <c r="J104" s="2"/>
-      <c r="K104" s="2"/>
-      <c r="L104" s="2"/>
-      <c r="M104" s="2"/>
-      <c r="N104" s="2"/>
-      <c r="O104" s="2"/>
-      <c r="P104" s="2"/>
-      <c r="Q104" s="2"/>
-      <c r="R104" s="2"/>
-      <c r="S104" s="2"/>
-      <c r="T104" s="2"/>
-      <c r="U104" s="2"/>
-      <c r="V104" s="2"/>
-      <c r="W104" s="2"/>
+      <c r="D104" s="3"/>
+      <c r="E104" s="3"/>
+      <c r="F104" s="3"/>
+      <c r="G104" s="3"/>
+      <c r="H104" s="3"/>
+      <c r="I104" s="3"/>
+      <c r="J104" s="3"/>
+      <c r="K104" s="3"/>
+      <c r="L104" s="3"/>
+      <c r="M104" s="3"/>
+      <c r="N104" s="3"/>
+      <c r="O104" s="3"/>
+      <c r="P104" s="3"/>
+      <c r="Q104" s="3"/>
+      <c r="R104" s="3"/>
+      <c r="S104" s="3"/>
+      <c r="T104" s="3"/>
+      <c r="U104" s="3"/>
+      <c r="V104" s="3"/>
+      <c r="W104" s="3"/>
       <c r="Z104" s="1" t="s">
         <v>257</v>
       </c>
@@ -7576,26 +7587,26 @@
         <v>258</v>
       </c>
       <c r="C105" s="1"/>
-      <c r="D105" s="2"/>
-      <c r="E105" s="2"/>
-      <c r="F105" s="2"/>
-      <c r="G105" s="2"/>
-      <c r="H105" s="2"/>
-      <c r="I105" s="2"/>
-      <c r="J105" s="2"/>
-      <c r="K105" s="2"/>
-      <c r="L105" s="2"/>
-      <c r="M105" s="2"/>
-      <c r="N105" s="2"/>
-      <c r="O105" s="2"/>
-      <c r="P105" s="2"/>
-      <c r="Q105" s="2"/>
-      <c r="R105" s="2"/>
-      <c r="S105" s="2"/>
-      <c r="T105" s="2"/>
-      <c r="U105" s="2"/>
-      <c r="V105" s="2"/>
-      <c r="W105" s="2"/>
+      <c r="D105" s="3"/>
+      <c r="E105" s="3"/>
+      <c r="F105" s="3"/>
+      <c r="G105" s="3"/>
+      <c r="H105" s="3"/>
+      <c r="I105" s="3"/>
+      <c r="J105" s="3"/>
+      <c r="K105" s="3"/>
+      <c r="L105" s="3"/>
+      <c r="M105" s="3"/>
+      <c r="N105" s="3"/>
+      <c r="O105" s="3"/>
+      <c r="P105" s="3"/>
+      <c r="Q105" s="3"/>
+      <c r="R105" s="3"/>
+      <c r="S105" s="3"/>
+      <c r="T105" s="3"/>
+      <c r="U105" s="3"/>
+      <c r="V105" s="3"/>
+      <c r="W105" s="3"/>
       <c r="Z105" s="1" t="s">
         <v>258</v>
       </c>
@@ -7605,26 +7616,26 @@
         <v>259</v>
       </c>
       <c r="C106" s="1"/>
-      <c r="D106" s="2"/>
-      <c r="E106" s="2"/>
-      <c r="F106" s="2"/>
-      <c r="G106" s="2"/>
-      <c r="H106" s="2"/>
-      <c r="I106" s="2"/>
-      <c r="J106" s="2"/>
-      <c r="K106" s="2"/>
-      <c r="L106" s="2"/>
-      <c r="M106" s="2"/>
-      <c r="N106" s="2"/>
-      <c r="O106" s="2"/>
-      <c r="P106" s="2"/>
-      <c r="Q106" s="2"/>
-      <c r="R106" s="2"/>
-      <c r="S106" s="2"/>
-      <c r="T106" s="2"/>
-      <c r="U106" s="2"/>
-      <c r="V106" s="2"/>
-      <c r="W106" s="2"/>
+      <c r="D106" s="3"/>
+      <c r="E106" s="3"/>
+      <c r="F106" s="3"/>
+      <c r="G106" s="3"/>
+      <c r="H106" s="3"/>
+      <c r="I106" s="3"/>
+      <c r="J106" s="3"/>
+      <c r="K106" s="3"/>
+      <c r="L106" s="3"/>
+      <c r="M106" s="3"/>
+      <c r="N106" s="3"/>
+      <c r="O106" s="3"/>
+      <c r="P106" s="3"/>
+      <c r="Q106" s="3"/>
+      <c r="R106" s="3"/>
+      <c r="S106" s="3"/>
+      <c r="T106" s="3"/>
+      <c r="U106" s="3"/>
+      <c r="V106" s="3"/>
+      <c r="W106" s="3"/>
       <c r="Z106" s="1" t="s">
         <v>259</v>
       </c>
@@ -7634,26 +7645,26 @@
         <v>260</v>
       </c>
       <c r="C107" s="1"/>
-      <c r="D107" s="2"/>
-      <c r="E107" s="2"/>
-      <c r="F107" s="2"/>
-      <c r="G107" s="2"/>
-      <c r="H107" s="2"/>
-      <c r="I107" s="2"/>
-      <c r="J107" s="2"/>
-      <c r="K107" s="2"/>
-      <c r="L107" s="2"/>
-      <c r="M107" s="2"/>
-      <c r="N107" s="2"/>
-      <c r="O107" s="2"/>
-      <c r="P107" s="2"/>
-      <c r="Q107" s="2"/>
-      <c r="R107" s="2"/>
-      <c r="S107" s="2"/>
-      <c r="T107" s="2"/>
-      <c r="U107" s="2"/>
-      <c r="V107" s="2"/>
-      <c r="W107" s="2"/>
+      <c r="D107" s="3"/>
+      <c r="E107" s="3"/>
+      <c r="F107" s="3"/>
+      <c r="G107" s="3"/>
+      <c r="H107" s="3"/>
+      <c r="I107" s="3"/>
+      <c r="J107" s="3"/>
+      <c r="K107" s="3"/>
+      <c r="L107" s="3"/>
+      <c r="M107" s="3"/>
+      <c r="N107" s="3"/>
+      <c r="O107" s="3"/>
+      <c r="P107" s="3"/>
+      <c r="Q107" s="3"/>
+      <c r="R107" s="3"/>
+      <c r="S107" s="3"/>
+      <c r="T107" s="3"/>
+      <c r="U107" s="3"/>
+      <c r="V107" s="3"/>
+      <c r="W107" s="3"/>
       <c r="Z107" s="1" t="s">
         <v>260</v>
       </c>
@@ -7663,26 +7674,26 @@
         <v>261</v>
       </c>
       <c r="C108" s="1"/>
-      <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
-      <c r="F108" s="2"/>
-      <c r="G108" s="2"/>
-      <c r="H108" s="2"/>
-      <c r="I108" s="2"/>
-      <c r="J108" s="2"/>
-      <c r="K108" s="2"/>
-      <c r="L108" s="2"/>
-      <c r="M108" s="2"/>
-      <c r="N108" s="2"/>
-      <c r="O108" s="2"/>
-      <c r="P108" s="2"/>
-      <c r="Q108" s="2"/>
-      <c r="R108" s="2"/>
-      <c r="S108" s="2"/>
-      <c r="T108" s="2"/>
-      <c r="U108" s="2"/>
-      <c r="V108" s="2"/>
-      <c r="W108" s="2"/>
+      <c r="D108" s="3"/>
+      <c r="E108" s="3"/>
+      <c r="F108" s="3"/>
+      <c r="G108" s="3"/>
+      <c r="H108" s="3"/>
+      <c r="I108" s="3"/>
+      <c r="J108" s="3"/>
+      <c r="K108" s="3"/>
+      <c r="L108" s="3"/>
+      <c r="M108" s="3"/>
+      <c r="N108" s="3"/>
+      <c r="O108" s="3"/>
+      <c r="P108" s="3"/>
+      <c r="Q108" s="3"/>
+      <c r="R108" s="3"/>
+      <c r="S108" s="3"/>
+      <c r="T108" s="3"/>
+      <c r="U108" s="3"/>
+      <c r="V108" s="3"/>
+      <c r="W108" s="3"/>
       <c r="Z108" s="1" t="s">
         <v>261</v>
       </c>
@@ -7692,57 +7703,86 @@
         <v>262</v>
       </c>
       <c r="C109" s="1"/>
-      <c r="D109" s="2"/>
-      <c r="E109" s="2"/>
-      <c r="F109" s="2"/>
-      <c r="G109" s="2"/>
-      <c r="H109" s="2"/>
-      <c r="I109" s="2"/>
-      <c r="J109" s="2"/>
-      <c r="K109" s="2"/>
-      <c r="L109" s="2"/>
-      <c r="M109" s="2"/>
-      <c r="N109" s="2"/>
-      <c r="O109" s="2"/>
-      <c r="P109" s="2"/>
-      <c r="Q109" s="2"/>
-      <c r="R109" s="2"/>
-      <c r="S109" s="2"/>
-      <c r="T109" s="2"/>
-      <c r="U109" s="2"/>
-      <c r="V109" s="2"/>
-      <c r="W109" s="2"/>
+      <c r="D109" s="3"/>
+      <c r="E109" s="3"/>
+      <c r="F109" s="3"/>
+      <c r="G109" s="3"/>
+      <c r="H109" s="3"/>
+      <c r="I109" s="3"/>
+      <c r="J109" s="3"/>
+      <c r="K109" s="3"/>
+      <c r="L109" s="3"/>
+      <c r="M109" s="3"/>
+      <c r="N109" s="3"/>
+      <c r="O109" s="3"/>
+      <c r="P109" s="3"/>
+      <c r="Q109" s="3"/>
+      <c r="R109" s="3"/>
+      <c r="S109" s="3"/>
+      <c r="T109" s="3"/>
+      <c r="U109" s="3"/>
+      <c r="V109" s="3"/>
+      <c r="W109" s="3"/>
       <c r="Z109" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:26">
       <c r="A110" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C110" s="1"/>
+      <c r="D110" s="3"/>
+      <c r="E110" s="3"/>
+      <c r="F110" s="3"/>
+      <c r="G110" s="3"/>
+      <c r="H110" s="3"/>
+      <c r="I110" s="3"/>
+      <c r="J110" s="3"/>
+      <c r="K110" s="3"/>
+      <c r="L110" s="3"/>
+      <c r="M110" s="3"/>
+      <c r="N110" s="3"/>
+      <c r="O110" s="3"/>
+      <c r="P110" s="3"/>
+      <c r="Q110" s="3"/>
+      <c r="R110" s="3"/>
+      <c r="S110" s="3"/>
+      <c r="T110" s="3"/>
+      <c r="U110" s="3"/>
+      <c r="V110" s="3"/>
+      <c r="W110" s="3"/>
+      <c r="Z110" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C110">
-        <f>SUM(C2:C109)</f>
-        <v>108</v>
+      <c r="C111">
+        <f>SUM(C2:C110)</f>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="B14:B24"/>
-    <mergeCell ref="B25:B32"/>
-    <mergeCell ref="B33:B54"/>
-    <mergeCell ref="B55:B68"/>
-    <mergeCell ref="B69:B81"/>
-    <mergeCell ref="B82:B109"/>
-    <mergeCell ref="C2:C8"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="C14:C24"/>
-    <mergeCell ref="C25:C32"/>
-    <mergeCell ref="C33:C54"/>
-    <mergeCell ref="C55:C68"/>
-    <mergeCell ref="C69:C81"/>
-    <mergeCell ref="C82:C109"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="B15:B25"/>
+    <mergeCell ref="B26:B33"/>
+    <mergeCell ref="B34:B55"/>
+    <mergeCell ref="B56:B69"/>
+    <mergeCell ref="B70:B82"/>
+    <mergeCell ref="B83:B110"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="C10:C14"/>
+    <mergeCell ref="C15:C25"/>
+    <mergeCell ref="C26:C33"/>
+    <mergeCell ref="C34:C55"/>
+    <mergeCell ref="C56:C69"/>
+    <mergeCell ref="C70:C82"/>
+    <mergeCell ref="C83:C110"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/src/main/resources/CardStatus.xlsx
+++ b/src/main/resources/CardStatus.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="266">
   <si>
     <t>出处</t>
   </si>
@@ -482,6 +482,12 @@
   </si>
   <si>
     <t>云裳点化副</t>
+  </si>
+  <si>
+    <t>盟主月如</t>
+  </si>
+  <si>
+    <t>剑仙逍遥</t>
   </si>
   <si>
     <t>圣灵灵儿</t>
@@ -819,10 +825,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -839,13 +845,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -854,15 +853,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -877,37 +868,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -929,6 +890,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -936,16 +906,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -960,8 +958,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -970,13 +983,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -991,25 +997,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1021,7 +1021,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1033,13 +1045,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1051,7 +1063,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1063,73 +1075,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1147,7 +1093,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1159,19 +1111,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1182,17 +1188,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1211,10 +1206,27 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1259,17 +1271,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1277,8 +1283,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1290,10 +1296,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1302,137 +1308,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1444,6 +1450,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4451,7 +4460,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z111"/>
+  <dimension ref="A1:Z113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4556,7 +4565,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -4583,7 +4592,7 @@
       </c>
     </row>
     <row r="3" spans="1:26">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>155</v>
       </c>
       <c r="C3" s="1"/>
@@ -4607,12 +4616,12 @@
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
-      <c r="Z3" s="1" t="s">
+      <c r="Z3" s="2" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:26">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="4" t="s">
         <v>156</v>
       </c>
       <c r="C4" s="1"/>
@@ -4636,7 +4645,7 @@
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
-      <c r="Z4" s="1" t="s">
+      <c r="Z4" s="4" t="s">
         <v>156</v>
       </c>
     </row>
@@ -4789,12 +4798,7 @@
       <c r="A10" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="1">
-        <v>5</v>
-      </c>
+      <c r="C10" s="1"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -4852,7 +4856,12 @@
       <c r="A12" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="1">
+        <v>5</v>
+      </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -4939,12 +4948,7 @@
       <c r="A15" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="1">
-        <v>11</v>
-      </c>
+      <c r="C15" s="1"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -5002,7 +5006,12 @@
       <c r="A17" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="1">
+        <v>11</v>
+      </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -5263,12 +5272,7 @@
       <c r="A26" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C26" s="1">
-        <v>8</v>
-      </c>
+      <c r="C26" s="1"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -5326,7 +5330,12 @@
       <c r="A28" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C28" s="1"/>
+      <c r="B28" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C28" s="1">
+        <v>8</v>
+      </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -5500,12 +5509,7 @@
       <c r="A34" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C34" s="1">
-        <v>22</v>
-      </c>
+      <c r="C34" s="1"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -5530,11 +5534,10 @@
         <v>186</v>
       </c>
     </row>
-    <row r="35" customFormat="1" spans="1:26">
+    <row r="35" spans="1:26">
       <c r="A35" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -5560,12 +5563,16 @@
         <v>187</v>
       </c>
     </row>
-    <row r="36" customFormat="1" spans="1:26">
+    <row r="36" spans="1:26">
       <c r="A36" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
+      <c r="B36" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C36" s="1">
+        <v>22</v>
+      </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -5740,10 +5747,11 @@
         <v>193</v>
       </c>
     </row>
-    <row r="42" spans="1:26">
+    <row r="42" customFormat="1" spans="1:26">
       <c r="A42" s="1" t="s">
         <v>194</v>
       </c>
+      <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -5769,10 +5777,11 @@
         <v>194</v>
       </c>
     </row>
-    <row r="43" spans="1:26">
+    <row r="43" customFormat="1" spans="1:26">
       <c r="A43" s="1" t="s">
         <v>195</v>
       </c>
+      <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -6150,12 +6159,7 @@
       <c r="A56" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C56" s="1">
-        <v>14</v>
-      </c>
+      <c r="C56" s="1"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -6213,7 +6217,12 @@
       <c r="A58" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C58" s="1"/>
+      <c r="B58" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C58" s="1">
+        <v>14</v>
+      </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -6558,15 +6567,10 @@
       </c>
     </row>
     <row r="70" spans="1:26">
-      <c r="A70" s="4" t="s">
+      <c r="A70" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C70" s="1">
-        <v>13</v>
-      </c>
+      <c r="C70" s="1"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
@@ -6587,12 +6591,12 @@
       <c r="U70" s="3"/>
       <c r="V70" s="3"/>
       <c r="W70" s="3"/>
-      <c r="Z70" s="4" t="s">
+      <c r="Z70" s="1" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="71" spans="1:26">
-      <c r="A71" s="4" t="s">
+      <c r="A71" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C71" s="1"/>
@@ -6616,15 +6620,20 @@
       <c r="U71" s="3"/>
       <c r="V71" s="3"/>
       <c r="W71" s="3"/>
-      <c r="Z71" s="4" t="s">
+      <c r="Z71" s="1" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="72" spans="1:26">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="C72" s="1"/>
+      <c r="B72" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C72" s="1">
+        <v>13</v>
+      </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
@@ -6645,12 +6654,12 @@
       <c r="U72" s="3"/>
       <c r="V72" s="3"/>
       <c r="W72" s="3"/>
-      <c r="Z72" s="4" t="s">
+      <c r="Z72" s="5" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="73" spans="1:26">
-      <c r="A73" s="4" t="s">
+      <c r="A73" s="5" t="s">
         <v>225</v>
       </c>
       <c r="C73" s="1"/>
@@ -6674,7 +6683,7 @@
       <c r="U73" s="3"/>
       <c r="V73" s="3"/>
       <c r="W73" s="3"/>
-      <c r="Z73" s="4" t="s">
+      <c r="Z73" s="5" t="s">
         <v>225</v>
       </c>
     </row>
@@ -6703,12 +6712,12 @@
       <c r="U74" s="3"/>
       <c r="V74" s="3"/>
       <c r="W74" s="3"/>
-      <c r="Z74" s="1" t="s">
+      <c r="Z74" s="5" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="75" spans="1:26">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="5" t="s">
         <v>227</v>
       </c>
       <c r="C75" s="1"/>
@@ -6732,7 +6741,7 @@
       <c r="U75" s="3"/>
       <c r="V75" s="3"/>
       <c r="W75" s="3"/>
-      <c r="Z75" s="1" t="s">
+      <c r="Z75" s="5" t="s">
         <v>227</v>
       </c>
     </row>
@@ -6943,12 +6952,7 @@
       <c r="A83" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C83" s="1">
-        <v>28</v>
-      </c>
+      <c r="C83" s="1"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
@@ -6975,7 +6979,7 @@
     </row>
     <row r="84" spans="1:26">
       <c r="A84" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C84" s="1"/>
       <c r="D84" s="3"/>
@@ -6999,14 +7003,19 @@
       <c r="V84" s="3"/>
       <c r="W84" s="3"/>
       <c r="Z84" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="85" spans="1:26">
       <c r="A85" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C85" s="1"/>
+      <c r="C85" s="1">
+        <v>28</v>
+      </c>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
@@ -7028,7 +7037,7 @@
       <c r="V85" s="3"/>
       <c r="W85" s="3"/>
       <c r="Z85" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="86" spans="1:26">
@@ -7756,33 +7765,91 @@
         <v>263</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:26">
       <c r="A111" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C111" s="1"/>
+      <c r="D111" s="3"/>
+      <c r="E111" s="3"/>
+      <c r="F111" s="3"/>
+      <c r="G111" s="3"/>
+      <c r="H111" s="3"/>
+      <c r="I111" s="3"/>
+      <c r="J111" s="3"/>
+      <c r="K111" s="3"/>
+      <c r="L111" s="3"/>
+      <c r="M111" s="3"/>
+      <c r="N111" s="3"/>
+      <c r="O111" s="3"/>
+      <c r="P111" s="3"/>
+      <c r="Q111" s="3"/>
+      <c r="R111" s="3"/>
+      <c r="S111" s="3"/>
+      <c r="T111" s="3"/>
+      <c r="U111" s="3"/>
+      <c r="V111" s="3"/>
+      <c r="W111" s="3"/>
+      <c r="Z111" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="112" spans="1:26">
+      <c r="A112" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C112" s="1"/>
+      <c r="D112" s="3"/>
+      <c r="E112" s="3"/>
+      <c r="F112" s="3"/>
+      <c r="G112" s="3"/>
+      <c r="H112" s="3"/>
+      <c r="I112" s="3"/>
+      <c r="J112" s="3"/>
+      <c r="K112" s="3"/>
+      <c r="L112" s="3"/>
+      <c r="M112" s="3"/>
+      <c r="N112" s="3"/>
+      <c r="O112" s="3"/>
+      <c r="P112" s="3"/>
+      <c r="Q112" s="3"/>
+      <c r="R112" s="3"/>
+      <c r="S112" s="3"/>
+      <c r="T112" s="3"/>
+      <c r="U112" s="3"/>
+      <c r="V112" s="3"/>
+      <c r="W112" s="3"/>
+      <c r="Z112" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C111">
-        <f>SUM(C2:C110)</f>
-        <v>109</v>
+      <c r="C113">
+        <f>SUM(C2:C112)</f>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="B15:B25"/>
-    <mergeCell ref="B26:B33"/>
-    <mergeCell ref="B34:B55"/>
-    <mergeCell ref="B56:B69"/>
-    <mergeCell ref="B70:B82"/>
-    <mergeCell ref="B83:B110"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="C10:C14"/>
-    <mergeCell ref="C15:C25"/>
-    <mergeCell ref="C26:C33"/>
-    <mergeCell ref="C34:C55"/>
-    <mergeCell ref="C56:C69"/>
-    <mergeCell ref="C70:C82"/>
-    <mergeCell ref="C83:C110"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="B17:B27"/>
+    <mergeCell ref="B28:B35"/>
+    <mergeCell ref="B36:B57"/>
+    <mergeCell ref="B58:B71"/>
+    <mergeCell ref="B72:B84"/>
+    <mergeCell ref="B85:B112"/>
+    <mergeCell ref="C2:C11"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="C17:C27"/>
+    <mergeCell ref="C28:C35"/>
+    <mergeCell ref="C36:C57"/>
+    <mergeCell ref="C58:C71"/>
+    <mergeCell ref="C72:C84"/>
+    <mergeCell ref="C85:C112"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/src/main/resources/CardStatus.xlsx
+++ b/src/main/resources/CardStatus.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690" activeTab="6"/>
+    <workbookView windowWidth="28125" windowHeight="12690" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="3" sheetId="2" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="12" sheetId="6" r:id="rId5"/>
     <sheet name="13" sheetId="7" r:id="rId6"/>
     <sheet name="14" sheetId="1" r:id="rId7"/>
+    <sheet name="15" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="267">
   <si>
     <t>出处</t>
   </si>
@@ -487,337 +488,340 @@
     <t>盟主月如</t>
   </si>
   <si>
+    <t>南蛮王</t>
+  </si>
+  <si>
+    <t>葛巧菱</t>
+  </si>
+  <si>
+    <t>灵月宫主</t>
+  </si>
+  <si>
+    <t>梦蛇灵儿</t>
+  </si>
+  <si>
+    <t>赵灵儿</t>
+  </si>
+  <si>
+    <t>剑圣</t>
+  </si>
+  <si>
+    <t>柔情月如</t>
+  </si>
+  <si>
+    <t>掌门逍遥</t>
+  </si>
+  <si>
+    <t>魉妹</t>
+  </si>
+  <si>
+    <t>盛尊武</t>
+  </si>
+  <si>
+    <t>千叶禅师</t>
+  </si>
+  <si>
+    <t>梦蛇紫萱</t>
+  </si>
+  <si>
+    <t>魔尊重楼</t>
+  </si>
+  <si>
+    <t>太子龙阳</t>
+  </si>
+  <si>
+    <t>公主龙葵</t>
+  </si>
+  <si>
+    <t>紫萱</t>
+  </si>
+  <si>
+    <t>夕瑶</t>
+  </si>
+  <si>
+    <t>飞蓬</t>
+  </si>
+  <si>
+    <t>徐长卿</t>
+  </si>
+  <si>
+    <t>景天</t>
+  </si>
+  <si>
+    <t>天妖皇</t>
+  </si>
+  <si>
+    <t>蕙卿</t>
+  </si>
+  <si>
+    <t>周赤炎</t>
+  </si>
+  <si>
+    <t>思堂</t>
+  </si>
+  <si>
+    <t>清冷仙人</t>
+  </si>
+  <si>
+    <t>李三思</t>
+  </si>
+  <si>
+    <t>掌门长卿</t>
+  </si>
+  <si>
+    <t>燎日</t>
+  </si>
+  <si>
+    <t>星璇</t>
+  </si>
+  <si>
+    <t>璇玑</t>
+  </si>
+  <si>
+    <t>九天玄女</t>
+  </si>
+  <si>
+    <t>怀朔</t>
+  </si>
+  <si>
+    <t>飞仙玄霄</t>
+  </si>
+  <si>
+    <t>琼华梦璃</t>
+  </si>
+  <si>
+    <t>琼华菱纱</t>
+  </si>
+  <si>
+    <t>琼华天河</t>
+  </si>
+  <si>
+    <t>紫英仙人</t>
+  </si>
+  <si>
+    <t>厉江流</t>
+  </si>
+  <si>
+    <t>夙莘</t>
+  </si>
+  <si>
+    <t>太清真人</t>
+  </si>
+  <si>
+    <t>宗炼</t>
+  </si>
+  <si>
+    <t>重光</t>
+  </si>
+  <si>
+    <t>青阳</t>
+  </si>
+  <si>
+    <t>奚仲</t>
+  </si>
+  <si>
+    <t>归邪</t>
+  </si>
+  <si>
+    <t>婵幽</t>
+  </si>
+  <si>
+    <t>句芒</t>
+  </si>
+  <si>
+    <t>衔烛之龙</t>
+  </si>
+  <si>
+    <t>夙玉</t>
+  </si>
+  <si>
+    <t>云天青</t>
+  </si>
+  <si>
+    <t>玄霄</t>
+  </si>
+  <si>
+    <t>毒影</t>
+  </si>
+  <si>
+    <t>血手</t>
+  </si>
+  <si>
+    <t>魔翳</t>
+  </si>
+  <si>
+    <t>姜世离</t>
+  </si>
+  <si>
+    <t>海棠夫人</t>
+  </si>
+  <si>
+    <t>太武</t>
+  </si>
+  <si>
+    <t>草谷</t>
+  </si>
+  <si>
+    <t>青石</t>
+  </si>
+  <si>
+    <t>凌音</t>
+  </si>
+  <si>
+    <t>一贫</t>
+  </si>
+  <si>
+    <t>铁笔</t>
+  </si>
+  <si>
+    <t>玉书</t>
+  </si>
+  <si>
+    <t>龙幽</t>
+  </si>
+  <si>
+    <t>小蛮</t>
+  </si>
+  <si>
+    <t>夜叉龙溟</t>
+  </si>
+  <si>
+    <t>魔化二叔</t>
+  </si>
+  <si>
+    <t>骨蛇</t>
+  </si>
+  <si>
+    <t>魔化瑕</t>
+  </si>
+  <si>
+    <t>魂化凌波</t>
+  </si>
+  <si>
+    <t>岚翼</t>
+  </si>
+  <si>
+    <t>火灵炎舞</t>
+  </si>
+  <si>
+    <t>巨龙穹武</t>
+  </si>
+  <si>
+    <t>姜承</t>
+  </si>
+  <si>
+    <t>谢沧行</t>
+  </si>
+  <si>
+    <t>龙溟</t>
+  </si>
+  <si>
+    <t>夏侯瑾轩</t>
+  </si>
+  <si>
+    <t>皇甫卓</t>
+  </si>
+  <si>
+    <t>禺族聆夜</t>
+  </si>
+  <si>
+    <t>六</t>
+  </si>
+  <si>
+    <t>鲲化祝圄</t>
+  </si>
+  <si>
+    <t>禺族朔漩</t>
+  </si>
+  <si>
+    <t>禺族临渊</t>
+  </si>
+  <si>
+    <t>鲲化祈</t>
+  </si>
+  <si>
+    <t>金瞳今朝</t>
+  </si>
+  <si>
+    <t>埋名小姐</t>
+  </si>
+  <si>
+    <t>昭言家主</t>
+  </si>
+  <si>
+    <t>归墟界督</t>
+  </si>
+  <si>
+    <t>宿何</t>
+  </si>
+  <si>
+    <t>忘尘司命</t>
+  </si>
+  <si>
+    <t>藏锋</t>
+  </si>
+  <si>
+    <t>洛埋名</t>
+  </si>
+  <si>
+    <t>临渊</t>
+  </si>
+  <si>
+    <t>聆夜</t>
+  </si>
+  <si>
+    <t>祝圄</t>
+  </si>
+  <si>
+    <t>顾寒江</t>
+  </si>
+  <si>
+    <t>朔漩</t>
+  </si>
+  <si>
+    <t>嬴旭危</t>
+  </si>
+  <si>
+    <t>绮里小嫒</t>
+  </si>
+  <si>
+    <t>葛清霏</t>
+  </si>
+  <si>
+    <t>扁络桓</t>
+  </si>
+  <si>
+    <t>居十方</t>
+  </si>
+  <si>
+    <t>明绣</t>
+  </si>
+  <si>
+    <t>洛昭言</t>
+  </si>
+  <si>
+    <t>闲卿</t>
+  </si>
+  <si>
+    <t>越祈</t>
+  </si>
+  <si>
+    <t>越今朝</t>
+  </si>
+  <si>
     <t>剑仙逍遥</t>
   </si>
   <si>
     <t>圣灵灵儿</t>
   </si>
   <si>
-    <t>南蛮王</t>
-  </si>
-  <si>
-    <t>葛巧菱</t>
-  </si>
-  <si>
-    <t>灵月宫主</t>
-  </si>
-  <si>
-    <t>梦蛇灵儿</t>
-  </si>
-  <si>
-    <t>赵灵儿</t>
-  </si>
-  <si>
-    <t>剑圣</t>
-  </si>
-  <si>
     <t>酒剑仙</t>
   </si>
   <si>
-    <t>柔情月如</t>
-  </si>
-  <si>
-    <t>掌门逍遥</t>
-  </si>
-  <si>
-    <t>魉妹</t>
-  </si>
-  <si>
-    <t>盛尊武</t>
-  </si>
-  <si>
-    <t>千叶禅师</t>
-  </si>
-  <si>
-    <t>梦蛇紫萱</t>
-  </si>
-  <si>
-    <t>魔尊重楼</t>
-  </si>
-  <si>
-    <t>太子龙阳</t>
-  </si>
-  <si>
-    <t>公主龙葵</t>
-  </si>
-  <si>
     <t>重楼</t>
   </si>
   <si>
-    <t>紫萱</t>
-  </si>
-  <si>
-    <t>夕瑶</t>
-  </si>
-  <si>
-    <t>飞蓬</t>
-  </si>
-  <si>
-    <t>徐长卿</t>
-  </si>
-  <si>
-    <t>景天</t>
-  </si>
-  <si>
-    <t>天妖皇</t>
-  </si>
-  <si>
-    <t>蕙卿</t>
-  </si>
-  <si>
-    <t>周赤炎</t>
-  </si>
-  <si>
-    <t>思堂</t>
-  </si>
-  <si>
-    <t>清冷仙人</t>
-  </si>
-  <si>
-    <t>李三思</t>
-  </si>
-  <si>
-    <t>掌门长卿</t>
-  </si>
-  <si>
-    <t>燎日</t>
-  </si>
-  <si>
-    <t>星璇</t>
-  </si>
-  <si>
-    <t>璇玑</t>
-  </si>
-  <si>
-    <t>九天玄女</t>
-  </si>
-  <si>
-    <t>怀朔</t>
-  </si>
-  <si>
-    <t>飞仙玄霄</t>
-  </si>
-  <si>
-    <t>琼华梦璃</t>
-  </si>
-  <si>
-    <t>琼华菱纱</t>
-  </si>
-  <si>
-    <t>琼华天河</t>
-  </si>
-  <si>
-    <t>紫英仙人</t>
-  </si>
-  <si>
-    <t>厉江流</t>
-  </si>
-  <si>
-    <t>夙莘</t>
-  </si>
-  <si>
-    <t>太清真人</t>
-  </si>
-  <si>
-    <t>宗炼</t>
-  </si>
-  <si>
-    <t>重光</t>
-  </si>
-  <si>
-    <t>青阳</t>
-  </si>
-  <si>
-    <t>奚仲</t>
-  </si>
-  <si>
-    <t>归邪</t>
-  </si>
-  <si>
-    <t>婵幽</t>
-  </si>
-  <si>
-    <t>句芒</t>
-  </si>
-  <si>
-    <t>衔烛之龙</t>
-  </si>
-  <si>
-    <t>夙玉</t>
-  </si>
-  <si>
-    <t>云天青</t>
-  </si>
-  <si>
-    <t>玄霄</t>
-  </si>
-  <si>
-    <t>毒影</t>
-  </si>
-  <si>
-    <t>血手</t>
-  </si>
-  <si>
-    <t>魔翳</t>
-  </si>
-  <si>
-    <t>姜世离</t>
-  </si>
-  <si>
-    <t>海棠夫人</t>
-  </si>
-  <si>
-    <t>太武</t>
-  </si>
-  <si>
-    <t>草谷</t>
-  </si>
-  <si>
-    <t>青石</t>
-  </si>
-  <si>
-    <t>凌音</t>
-  </si>
-  <si>
-    <t>一贫</t>
-  </si>
-  <si>
-    <t>铁笔</t>
-  </si>
-  <si>
-    <t>玉书</t>
-  </si>
-  <si>
-    <t>龙幽</t>
-  </si>
-  <si>
-    <t>小蛮</t>
-  </si>
-  <si>
-    <t>夜叉龙溟</t>
-  </si>
-  <si>
-    <t>魔化二叔</t>
-  </si>
-  <si>
-    <t>骨蛇</t>
-  </si>
-  <si>
-    <t>魔化瑕</t>
-  </si>
-  <si>
-    <t>魂化凌波</t>
-  </si>
-  <si>
-    <t>岚翼</t>
-  </si>
-  <si>
-    <t>火灵炎舞</t>
-  </si>
-  <si>
-    <t>巨龙穹武</t>
-  </si>
-  <si>
-    <t>姜承</t>
-  </si>
-  <si>
-    <t>谢沧行</t>
-  </si>
-  <si>
-    <t>龙溟</t>
-  </si>
-  <si>
-    <t>夏侯瑾轩</t>
-  </si>
-  <si>
-    <t>皇甫卓</t>
-  </si>
-  <si>
-    <t>禺族聆夜</t>
-  </si>
-  <si>
-    <t>六</t>
-  </si>
-  <si>
-    <t>鲲化祝圄</t>
-  </si>
-  <si>
-    <t>禺族朔漩</t>
-  </si>
-  <si>
-    <t>禺族临渊</t>
-  </si>
-  <si>
-    <t>鲲化祈</t>
-  </si>
-  <si>
-    <t>金瞳今朝</t>
-  </si>
-  <si>
-    <t>埋名小姐</t>
-  </si>
-  <si>
-    <t>昭言家主</t>
-  </si>
-  <si>
-    <t>归墟界督</t>
-  </si>
-  <si>
-    <t>宿何</t>
-  </si>
-  <si>
-    <t>忘尘司命</t>
-  </si>
-  <si>
-    <t>藏锋</t>
-  </si>
-  <si>
-    <t>洛埋名</t>
-  </si>
-  <si>
-    <t>临渊</t>
-  </si>
-  <si>
-    <t>聆夜</t>
-  </si>
-  <si>
-    <t>祝圄</t>
-  </si>
-  <si>
-    <t>顾寒江</t>
-  </si>
-  <si>
-    <t>朔漩</t>
-  </si>
-  <si>
-    <t>嬴旭危</t>
-  </si>
-  <si>
-    <t>绮里小嫒</t>
-  </si>
-  <si>
-    <t>葛清霏</t>
-  </si>
-  <si>
-    <t>扁络桓</t>
-  </si>
-  <si>
-    <t>居十方</t>
-  </si>
-  <si>
-    <t>明绣</t>
-  </si>
-  <si>
-    <t>洛昭言</t>
-  </si>
-  <si>
-    <t>闲卿</t>
-  </si>
-  <si>
-    <t>越祈</t>
-  </si>
-  <si>
-    <t>越今朝</t>
+    <t>柔情雨柔</t>
   </si>
 </sst>
 </file>
@@ -825,10 +829,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -845,7 +849,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -861,82 +925,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -950,9 +939,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -966,23 +985,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -997,31 +1001,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1033,7 +1013,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1051,13 +1067,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1069,19 +1103,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1093,13 +1151,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1111,73 +1163,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1191,17 +1195,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1217,17 +1215,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1271,6 +1258,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1282,8 +1284,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1296,10 +1300,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1308,137 +1312,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1450,9 +1454,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4460,9 +4461,9 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z113"/>
+  <dimension ref="A1:Z109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
@@ -4565,7 +4566,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -4592,7 +4593,7 @@
       </c>
     </row>
     <row r="3" spans="1:26">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>155</v>
       </c>
       <c r="C3" s="1"/>
@@ -4616,12 +4617,12 @@
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
-      <c r="Z3" s="2" t="s">
+      <c r="Z3" s="1" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:26">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C4" s="1"/>
@@ -4645,7 +4646,7 @@
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
-      <c r="Z4" s="4" t="s">
+      <c r="Z4" s="1" t="s">
         <v>156</v>
       </c>
     </row>
@@ -4769,7 +4770,12 @@
       <c r="A9" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5</v>
+      </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -4856,12 +4862,7 @@
       <c r="A12" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="1">
-        <v>5</v>
-      </c>
+      <c r="C12" s="1"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -4919,7 +4920,12 @@
       <c r="A14" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1">
+        <v>10</v>
+      </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -5006,12 +5012,7 @@
       <c r="A17" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="1">
-        <v>11</v>
-      </c>
+      <c r="C17" s="1"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -5214,7 +5215,12 @@
       <c r="A24" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C24" s="1">
+        <v>8</v>
+      </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -5330,12 +5336,7 @@
       <c r="A28" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C28" s="1">
-        <v>8</v>
-      </c>
+      <c r="C28" s="1"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -5451,7 +5452,12 @@
       <c r="A32" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C32" s="1"/>
+      <c r="B32" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C32" s="1">
+        <v>22</v>
+      </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -5476,10 +5482,11 @@
         <v>184</v>
       </c>
     </row>
-    <row r="33" spans="1:26">
+    <row r="33" customFormat="1" spans="1:26">
       <c r="A33" s="1" t="s">
         <v>185</v>
       </c>
+      <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -5505,10 +5512,11 @@
         <v>185</v>
       </c>
     </row>
-    <row r="34" spans="1:26">
+    <row r="34" customFormat="1" spans="1:26">
       <c r="A34" s="1" t="s">
         <v>186</v>
       </c>
+      <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -5534,10 +5542,11 @@
         <v>186</v>
       </c>
     </row>
-    <row r="35" spans="1:26">
+    <row r="35" customFormat="1" spans="1:26">
       <c r="A35" s="1" t="s">
         <v>187</v>
       </c>
+      <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -5563,16 +5572,12 @@
         <v>187</v>
       </c>
     </row>
-    <row r="36" spans="1:26">
+    <row r="36" customFormat="1" spans="1:26">
       <c r="A36" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C36" s="1">
-        <v>22</v>
-      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -5687,11 +5692,10 @@
         <v>191</v>
       </c>
     </row>
-    <row r="40" customFormat="1" spans="1:26">
+    <row r="40" spans="1:26">
       <c r="A40" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -5717,11 +5721,10 @@
         <v>192</v>
       </c>
     </row>
-    <row r="41" customFormat="1" spans="1:26">
+    <row r="41" spans="1:26">
       <c r="A41" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -5747,11 +5750,10 @@
         <v>193</v>
       </c>
     </row>
-    <row r="42" customFormat="1" spans="1:26">
+    <row r="42" spans="1:26">
       <c r="A42" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -5777,11 +5779,10 @@
         <v>194</v>
       </c>
     </row>
-    <row r="43" customFormat="1" spans="1:26">
+    <row r="43" spans="1:26">
       <c r="A43" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -6101,7 +6102,12 @@
       <c r="A54" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C54" s="1"/>
+      <c r="B54" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54" s="1">
+        <v>14</v>
+      </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -6217,12 +6223,7 @@
       <c r="A58" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C58" s="1">
-        <v>14</v>
-      </c>
+      <c r="C58" s="1"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -6509,10 +6510,15 @@
       </c>
     </row>
     <row r="68" spans="1:26">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="C68" s="1"/>
+      <c r="B68" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C68" s="1">
+        <v>13</v>
+      </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -6533,12 +6539,12 @@
       <c r="U68" s="3"/>
       <c r="V68" s="3"/>
       <c r="W68" s="3"/>
-      <c r="Z68" s="1" t="s">
+      <c r="Z68" s="4" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="69" spans="1:26">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="4" t="s">
         <v>221</v>
       </c>
       <c r="C69" s="1"/>
@@ -6562,7 +6568,7 @@
       <c r="U69" s="3"/>
       <c r="V69" s="3"/>
       <c r="W69" s="3"/>
-      <c r="Z69" s="1" t="s">
+      <c r="Z69" s="4" t="s">
         <v>221</v>
       </c>
     </row>
@@ -6591,12 +6597,12 @@
       <c r="U70" s="3"/>
       <c r="V70" s="3"/>
       <c r="W70" s="3"/>
-      <c r="Z70" s="1" t="s">
+      <c r="Z70" s="4" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="71" spans="1:26">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="4" t="s">
         <v>223</v>
       </c>
       <c r="C71" s="1"/>
@@ -6620,20 +6626,15 @@
       <c r="U71" s="3"/>
       <c r="V71" s="3"/>
       <c r="W71" s="3"/>
-      <c r="Z71" s="1" t="s">
+      <c r="Z71" s="4" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="72" spans="1:26">
-      <c r="A72" s="5" t="s">
+      <c r="A72" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C72" s="1">
-        <v>13</v>
-      </c>
+      <c r="C72" s="1"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
@@ -6654,12 +6655,12 @@
       <c r="U72" s="3"/>
       <c r="V72" s="3"/>
       <c r="W72" s="3"/>
-      <c r="Z72" s="5" t="s">
+      <c r="Z72" s="1" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="73" spans="1:26">
-      <c r="A73" s="5" t="s">
+      <c r="A73" s="1" t="s">
         <v>225</v>
       </c>
       <c r="C73" s="1"/>
@@ -6683,7 +6684,7 @@
       <c r="U73" s="3"/>
       <c r="V73" s="3"/>
       <c r="W73" s="3"/>
-      <c r="Z73" s="5" t="s">
+      <c r="Z73" s="1" t="s">
         <v>225</v>
       </c>
     </row>
@@ -6712,12 +6713,12 @@
       <c r="U74" s="3"/>
       <c r="V74" s="3"/>
       <c r="W74" s="3"/>
-      <c r="Z74" s="5" t="s">
+      <c r="Z74" s="1" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="75" spans="1:26">
-      <c r="A75" s="5" t="s">
+      <c r="A75" s="1" t="s">
         <v>227</v>
       </c>
       <c r="C75" s="1"/>
@@ -6741,7 +6742,7 @@
       <c r="U75" s="3"/>
       <c r="V75" s="3"/>
       <c r="W75" s="3"/>
-      <c r="Z75" s="5" t="s">
+      <c r="Z75" s="1" t="s">
         <v>227</v>
       </c>
     </row>
@@ -6894,7 +6895,12 @@
       <c r="A81" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C81" s="1"/>
+      <c r="B81" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C81" s="1">
+        <v>28</v>
+      </c>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
@@ -6921,7 +6927,7 @@
     </row>
     <row r="82" spans="1:26">
       <c r="A82" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C82" s="1"/>
       <c r="D82" s="3"/>
@@ -6945,12 +6951,12 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="Z82" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="83" spans="1:26">
       <c r="A83" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="3"/>
@@ -6974,12 +6980,12 @@
       <c r="V83" s="3"/>
       <c r="W83" s="3"/>
       <c r="Z83" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="84" spans="1:26">
       <c r="A84" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C84" s="1"/>
       <c r="D84" s="3"/>
@@ -7003,19 +7009,14 @@
       <c r="V84" s="3"/>
       <c r="W84" s="3"/>
       <c r="Z84" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="85" spans="1:26">
       <c r="A85" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B85" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C85" s="1">
-        <v>28</v>
-      </c>
+      <c r="C85" s="1"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
@@ -7037,7 +7038,7 @@
       <c r="V85" s="3"/>
       <c r="W85" s="3"/>
       <c r="Z85" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="86" spans="1:26">
@@ -7707,149 +7708,312 @@
         <v>261</v>
       </c>
     </row>
-    <row r="109" spans="1:26">
+    <row r="109" spans="1:3">
       <c r="A109" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="C109" s="1"/>
-      <c r="D109" s="3"/>
-      <c r="E109" s="3"/>
-      <c r="F109" s="3"/>
-      <c r="G109" s="3"/>
-      <c r="H109" s="3"/>
-      <c r="I109" s="3"/>
-      <c r="J109" s="3"/>
-      <c r="K109" s="3"/>
-      <c r="L109" s="3"/>
-      <c r="M109" s="3"/>
-      <c r="N109" s="3"/>
-      <c r="O109" s="3"/>
-      <c r="P109" s="3"/>
-      <c r="Q109" s="3"/>
-      <c r="R109" s="3"/>
-      <c r="S109" s="3"/>
-      <c r="T109" s="3"/>
-      <c r="U109" s="3"/>
-      <c r="V109" s="3"/>
-      <c r="W109" s="3"/>
-      <c r="Z109" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="110" spans="1:26">
-      <c r="A110" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C110" s="1"/>
-      <c r="D110" s="3"/>
-      <c r="E110" s="3"/>
-      <c r="F110" s="3"/>
-      <c r="G110" s="3"/>
-      <c r="H110" s="3"/>
-      <c r="I110" s="3"/>
-      <c r="J110" s="3"/>
-      <c r="K110" s="3"/>
-      <c r="L110" s="3"/>
-      <c r="M110" s="3"/>
-      <c r="N110" s="3"/>
-      <c r="O110" s="3"/>
-      <c r="P110" s="3"/>
-      <c r="Q110" s="3"/>
-      <c r="R110" s="3"/>
-      <c r="S110" s="3"/>
-      <c r="T110" s="3"/>
-      <c r="U110" s="3"/>
-      <c r="V110" s="3"/>
-      <c r="W110" s="3"/>
-      <c r="Z110" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="111" spans="1:26">
-      <c r="A111" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C111" s="1"/>
-      <c r="D111" s="3"/>
-      <c r="E111" s="3"/>
-      <c r="F111" s="3"/>
-      <c r="G111" s="3"/>
-      <c r="H111" s="3"/>
-      <c r="I111" s="3"/>
-      <c r="J111" s="3"/>
-      <c r="K111" s="3"/>
-      <c r="L111" s="3"/>
-      <c r="M111" s="3"/>
-      <c r="N111" s="3"/>
-      <c r="O111" s="3"/>
-      <c r="P111" s="3"/>
-      <c r="Q111" s="3"/>
-      <c r="R111" s="3"/>
-      <c r="S111" s="3"/>
-      <c r="T111" s="3"/>
-      <c r="U111" s="3"/>
-      <c r="V111" s="3"/>
-      <c r="W111" s="3"/>
-      <c r="Z111" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="112" spans="1:26">
-      <c r="A112" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C112" s="1"/>
-      <c r="D112" s="3"/>
-      <c r="E112" s="3"/>
-      <c r="F112" s="3"/>
-      <c r="G112" s="3"/>
-      <c r="H112" s="3"/>
-      <c r="I112" s="3"/>
-      <c r="J112" s="3"/>
-      <c r="K112" s="3"/>
-      <c r="L112" s="3"/>
-      <c r="M112" s="3"/>
-      <c r="N112" s="3"/>
-      <c r="O112" s="3"/>
-      <c r="P112" s="3"/>
-      <c r="Q112" s="3"/>
-      <c r="R112" s="3"/>
-      <c r="S112" s="3"/>
-      <c r="T112" s="3"/>
-      <c r="U112" s="3"/>
-      <c r="V112" s="3"/>
-      <c r="W112" s="3"/>
-      <c r="Z112" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C113">
-        <f>SUM(C2:C112)</f>
-        <v>111</v>
+      <c r="C109">
+        <f>SUM(C2:C108)</f>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B2:B11"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="B17:B27"/>
-    <mergeCell ref="B28:B35"/>
-    <mergeCell ref="B36:B57"/>
-    <mergeCell ref="B58:B71"/>
-    <mergeCell ref="B72:B84"/>
-    <mergeCell ref="B85:B112"/>
-    <mergeCell ref="C2:C11"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="C17:C27"/>
-    <mergeCell ref="C28:C35"/>
-    <mergeCell ref="C36:C57"/>
-    <mergeCell ref="C58:C71"/>
-    <mergeCell ref="C72:C84"/>
-    <mergeCell ref="C85:C112"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B14:B23"/>
+    <mergeCell ref="B24:B31"/>
+    <mergeCell ref="B32:B53"/>
+    <mergeCell ref="B54:B67"/>
+    <mergeCell ref="B68:B80"/>
+    <mergeCell ref="B81:B108"/>
+    <mergeCell ref="C2:C8"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="C14:C23"/>
+    <mergeCell ref="C24:C31"/>
+    <mergeCell ref="C32:C53"/>
+    <mergeCell ref="C54:C67"/>
+    <mergeCell ref="C68:C80"/>
+    <mergeCell ref="C81:C108"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Z7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="5.375" style="1" customWidth="1"/>
+    <col min="3" max="6" width="5.375" customWidth="1"/>
+    <col min="7" max="10" width="6.375" style="1" customWidth="1"/>
+    <col min="11" max="14" width="7.375" style="1" customWidth="1"/>
+    <col min="15" max="17" width="6.375" style="1" customWidth="1"/>
+    <col min="18" max="21" width="6.375" customWidth="1"/>
+    <col min="22" max="22" width="5.375" customWidth="1"/>
+    <col min="23" max="24" width="9.375" customWidth="1"/>
+    <col min="25" max="25" width="11.5" customWidth="1"/>
+    <col min="26" max="26" width="9.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="2:25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
+      <c r="A2" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="Z2" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
+      <c r="A3" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="Z3" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="A4" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="Z4" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="A5" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="Z5" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="A6" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="Z6" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <f>SUM(C2:C6)</f>
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/src/main/resources/CardStatus.xlsx
+++ b/src/main/resources/CardStatus.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="268">
   <si>
     <t>出处</t>
   </si>
@@ -485,340 +485,343 @@
     <t>云裳点化副</t>
   </si>
   <si>
+    <t>南蛮王</t>
+  </si>
+  <si>
+    <t>葛巧菱</t>
+  </si>
+  <si>
+    <t>灵月宫主</t>
+  </si>
+  <si>
+    <t>梦蛇灵儿</t>
+  </si>
+  <si>
+    <t>赵灵儿</t>
+  </si>
+  <si>
+    <t>剑圣</t>
+  </si>
+  <si>
+    <t>柔情月如</t>
+  </si>
+  <si>
+    <t>掌门逍遥</t>
+  </si>
+  <si>
+    <t>魉妹</t>
+  </si>
+  <si>
+    <t>盛尊武</t>
+  </si>
+  <si>
+    <t>千叶禅师</t>
+  </si>
+  <si>
+    <t>魔尊重楼</t>
+  </si>
+  <si>
+    <t>太子龙阳</t>
+  </si>
+  <si>
+    <t>公主龙葵</t>
+  </si>
+  <si>
+    <t>紫萱</t>
+  </si>
+  <si>
+    <t>夕瑶</t>
+  </si>
+  <si>
+    <t>飞蓬</t>
+  </si>
+  <si>
+    <t>徐长卿</t>
+  </si>
+  <si>
+    <t>景天</t>
+  </si>
+  <si>
+    <t>天妖皇</t>
+  </si>
+  <si>
+    <t>蕙卿</t>
+  </si>
+  <si>
+    <t>思堂</t>
+  </si>
+  <si>
+    <t>清冷仙人</t>
+  </si>
+  <si>
+    <t>李三思</t>
+  </si>
+  <si>
+    <t>掌门长卿</t>
+  </si>
+  <si>
+    <t>燎日</t>
+  </si>
+  <si>
+    <t>星璇</t>
+  </si>
+  <si>
+    <t>璇玑</t>
+  </si>
+  <si>
+    <t>九天玄女</t>
+  </si>
+  <si>
+    <t>怀朔</t>
+  </si>
+  <si>
+    <t>飞仙玄霄</t>
+  </si>
+  <si>
+    <t>琼华梦璃</t>
+  </si>
+  <si>
+    <t>琼华菱纱</t>
+  </si>
+  <si>
+    <t>琼华天河</t>
+  </si>
+  <si>
+    <t>紫英仙人</t>
+  </si>
+  <si>
+    <t>厉江流</t>
+  </si>
+  <si>
+    <t>夙莘</t>
+  </si>
+  <si>
+    <t>太清真人</t>
+  </si>
+  <si>
+    <t>宗炼</t>
+  </si>
+  <si>
+    <t>重光</t>
+  </si>
+  <si>
+    <t>青阳</t>
+  </si>
+  <si>
+    <t>奚仲</t>
+  </si>
+  <si>
+    <t>归邪</t>
+  </si>
+  <si>
+    <t>婵幽</t>
+  </si>
+  <si>
+    <t>句芒</t>
+  </si>
+  <si>
+    <t>衔烛之龙</t>
+  </si>
+  <si>
+    <t>夙玉</t>
+  </si>
+  <si>
+    <t>云天青</t>
+  </si>
+  <si>
+    <t>玄霄</t>
+  </si>
+  <si>
+    <t>毒影</t>
+  </si>
+  <si>
+    <t>血手</t>
+  </si>
+  <si>
+    <t>魔翳</t>
+  </si>
+  <si>
+    <t>姜世离</t>
+  </si>
+  <si>
+    <t>海棠夫人</t>
+  </si>
+  <si>
+    <t>太武</t>
+  </si>
+  <si>
+    <t>草谷</t>
+  </si>
+  <si>
+    <t>青石</t>
+  </si>
+  <si>
+    <t>凌音</t>
+  </si>
+  <si>
+    <t>一贫</t>
+  </si>
+  <si>
+    <t>铁笔</t>
+  </si>
+  <si>
+    <t>玉书</t>
+  </si>
+  <si>
+    <t>龙幽</t>
+  </si>
+  <si>
+    <t>小蛮</t>
+  </si>
+  <si>
+    <t>夜叉龙溟</t>
+  </si>
+  <si>
+    <t>魔化二叔</t>
+  </si>
+  <si>
+    <t>骨蛇</t>
+  </si>
+  <si>
+    <t>魔化瑕</t>
+  </si>
+  <si>
+    <t>魂化凌波</t>
+  </si>
+  <si>
+    <t>岚翼</t>
+  </si>
+  <si>
+    <t>火灵炎舞</t>
+  </si>
+  <si>
+    <t>巨龙穹武</t>
+  </si>
+  <si>
+    <t>姜承</t>
+  </si>
+  <si>
+    <t>谢沧行</t>
+  </si>
+  <si>
+    <t>龙溟</t>
+  </si>
+  <si>
+    <t>夏侯瑾轩</t>
+  </si>
+  <si>
+    <t>皇甫卓</t>
+  </si>
+  <si>
+    <t>禺族聆夜</t>
+  </si>
+  <si>
+    <t>六</t>
+  </si>
+  <si>
+    <t>鲲化祝圄</t>
+  </si>
+  <si>
+    <t>禺族朔漩</t>
+  </si>
+  <si>
+    <t>禺族临渊</t>
+  </si>
+  <si>
+    <t>鲲化祈</t>
+  </si>
+  <si>
+    <t>金瞳今朝</t>
+  </si>
+  <si>
+    <t>埋名小姐</t>
+  </si>
+  <si>
+    <t>昭言家主</t>
+  </si>
+  <si>
+    <t>归墟界督</t>
+  </si>
+  <si>
+    <t>宿何</t>
+  </si>
+  <si>
+    <t>忘尘司命</t>
+  </si>
+  <si>
+    <t>藏锋</t>
+  </si>
+  <si>
+    <t>洛埋名</t>
+  </si>
+  <si>
+    <t>临渊</t>
+  </si>
+  <si>
+    <t>聆夜</t>
+  </si>
+  <si>
+    <t>祝圄</t>
+  </si>
+  <si>
+    <t>顾寒江</t>
+  </si>
+  <si>
+    <t>朔漩</t>
+  </si>
+  <si>
+    <t>嬴旭危</t>
+  </si>
+  <si>
+    <t>绮里小嫒</t>
+  </si>
+  <si>
+    <t>葛清霏</t>
+  </si>
+  <si>
+    <t>扁络桓</t>
+  </si>
+  <si>
+    <t>居十方</t>
+  </si>
+  <si>
+    <t>明绣</t>
+  </si>
+  <si>
+    <t>洛昭言</t>
+  </si>
+  <si>
+    <t>闲卿</t>
+  </si>
+  <si>
+    <t>越祈</t>
+  </si>
+  <si>
+    <t>越今朝</t>
+  </si>
+  <si>
     <t>盟主月如</t>
   </si>
   <si>
-    <t>南蛮王</t>
-  </si>
-  <si>
-    <t>葛巧菱</t>
-  </si>
-  <si>
-    <t>灵月宫主</t>
-  </si>
-  <si>
-    <t>梦蛇灵儿</t>
-  </si>
-  <si>
-    <t>赵灵儿</t>
-  </si>
-  <si>
-    <t>剑圣</t>
-  </si>
-  <si>
-    <t>柔情月如</t>
-  </si>
-  <si>
-    <t>掌门逍遥</t>
-  </si>
-  <si>
-    <t>魉妹</t>
-  </si>
-  <si>
-    <t>盛尊武</t>
-  </si>
-  <si>
-    <t>千叶禅师</t>
+    <t>剑仙逍遥</t>
+  </si>
+  <si>
+    <t>圣灵灵儿</t>
+  </si>
+  <si>
+    <t>酒剑仙</t>
   </si>
   <si>
     <t>梦蛇紫萱</t>
   </si>
   <si>
-    <t>魔尊重楼</t>
-  </si>
-  <si>
-    <t>太子龙阳</t>
-  </si>
-  <si>
-    <t>公主龙葵</t>
-  </si>
-  <si>
-    <t>紫萱</t>
-  </si>
-  <si>
-    <t>夕瑶</t>
-  </si>
-  <si>
-    <t>飞蓬</t>
-  </si>
-  <si>
-    <t>徐长卿</t>
-  </si>
-  <si>
-    <t>景天</t>
-  </si>
-  <si>
-    <t>天妖皇</t>
-  </si>
-  <si>
-    <t>蕙卿</t>
+    <t>重楼</t>
   </si>
   <si>
     <t>周赤炎</t>
   </si>
   <si>
-    <t>思堂</t>
-  </si>
-  <si>
-    <t>清冷仙人</t>
-  </si>
-  <si>
-    <t>李三思</t>
-  </si>
-  <si>
-    <t>掌门长卿</t>
-  </si>
-  <si>
-    <t>燎日</t>
-  </si>
-  <si>
-    <t>星璇</t>
-  </si>
-  <si>
-    <t>璇玑</t>
-  </si>
-  <si>
-    <t>九天玄女</t>
-  </si>
-  <si>
-    <t>怀朔</t>
-  </si>
-  <si>
-    <t>飞仙玄霄</t>
-  </si>
-  <si>
-    <t>琼华梦璃</t>
-  </si>
-  <si>
-    <t>琼华菱纱</t>
-  </si>
-  <si>
-    <t>琼华天河</t>
-  </si>
-  <si>
-    <t>紫英仙人</t>
-  </si>
-  <si>
-    <t>厉江流</t>
-  </si>
-  <si>
-    <t>夙莘</t>
-  </si>
-  <si>
-    <t>太清真人</t>
-  </si>
-  <si>
-    <t>宗炼</t>
-  </si>
-  <si>
-    <t>重光</t>
-  </si>
-  <si>
-    <t>青阳</t>
-  </si>
-  <si>
-    <t>奚仲</t>
-  </si>
-  <si>
-    <t>归邪</t>
-  </si>
-  <si>
-    <t>婵幽</t>
-  </si>
-  <si>
-    <t>句芒</t>
-  </si>
-  <si>
-    <t>衔烛之龙</t>
-  </si>
-  <si>
-    <t>夙玉</t>
-  </si>
-  <si>
-    <t>云天青</t>
-  </si>
-  <si>
-    <t>玄霄</t>
-  </si>
-  <si>
-    <t>毒影</t>
-  </si>
-  <si>
-    <t>血手</t>
-  </si>
-  <si>
-    <t>魔翳</t>
-  </si>
-  <si>
-    <t>姜世离</t>
-  </si>
-  <si>
-    <t>海棠夫人</t>
-  </si>
-  <si>
-    <t>太武</t>
-  </si>
-  <si>
-    <t>草谷</t>
-  </si>
-  <si>
-    <t>青石</t>
-  </si>
-  <si>
-    <t>凌音</t>
-  </si>
-  <si>
-    <t>一贫</t>
-  </si>
-  <si>
-    <t>铁笔</t>
-  </si>
-  <si>
-    <t>玉书</t>
-  </si>
-  <si>
-    <t>龙幽</t>
-  </si>
-  <si>
-    <t>小蛮</t>
-  </si>
-  <si>
-    <t>夜叉龙溟</t>
-  </si>
-  <si>
-    <t>魔化二叔</t>
-  </si>
-  <si>
-    <t>骨蛇</t>
-  </si>
-  <si>
-    <t>魔化瑕</t>
-  </si>
-  <si>
-    <t>魂化凌波</t>
-  </si>
-  <si>
-    <t>岚翼</t>
-  </si>
-  <si>
-    <t>火灵炎舞</t>
-  </si>
-  <si>
-    <t>巨龙穹武</t>
-  </si>
-  <si>
-    <t>姜承</t>
-  </si>
-  <si>
-    <t>谢沧行</t>
-  </si>
-  <si>
-    <t>龙溟</t>
-  </si>
-  <si>
-    <t>夏侯瑾轩</t>
-  </si>
-  <si>
-    <t>皇甫卓</t>
-  </si>
-  <si>
-    <t>禺族聆夜</t>
-  </si>
-  <si>
-    <t>六</t>
-  </si>
-  <si>
-    <t>鲲化祝圄</t>
-  </si>
-  <si>
-    <t>禺族朔漩</t>
-  </si>
-  <si>
-    <t>禺族临渊</t>
-  </si>
-  <si>
-    <t>鲲化祈</t>
-  </si>
-  <si>
-    <t>金瞳今朝</t>
-  </si>
-  <si>
-    <t>埋名小姐</t>
-  </si>
-  <si>
-    <t>昭言家主</t>
-  </si>
-  <si>
-    <t>归墟界督</t>
-  </si>
-  <si>
-    <t>宿何</t>
-  </si>
-  <si>
-    <t>忘尘司命</t>
-  </si>
-  <si>
-    <t>藏锋</t>
-  </si>
-  <si>
-    <t>洛埋名</t>
-  </si>
-  <si>
-    <t>临渊</t>
-  </si>
-  <si>
-    <t>聆夜</t>
-  </si>
-  <si>
-    <t>祝圄</t>
-  </si>
-  <si>
-    <t>顾寒江</t>
-  </si>
-  <si>
-    <t>朔漩</t>
-  </si>
-  <si>
-    <t>嬴旭危</t>
-  </si>
-  <si>
-    <t>绮里小嫒</t>
-  </si>
-  <si>
-    <t>葛清霏</t>
-  </si>
-  <si>
-    <t>扁络桓</t>
-  </si>
-  <si>
-    <t>居十方</t>
-  </si>
-  <si>
-    <t>明绣</t>
-  </si>
-  <si>
-    <t>洛昭言</t>
-  </si>
-  <si>
-    <t>闲卿</t>
-  </si>
-  <si>
-    <t>越祈</t>
-  </si>
-  <si>
-    <t>越今朝</t>
-  </si>
-  <si>
-    <t>剑仙逍遥</t>
-  </si>
-  <si>
-    <t>圣灵灵儿</t>
-  </si>
-  <si>
-    <t>酒剑仙</t>
-  </si>
-  <si>
-    <t>重楼</t>
+    <t>梦蛇小蛮</t>
   </si>
   <si>
     <t>柔情雨柔</t>
@@ -829,10 +832,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -856,6 +859,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -863,7 +904,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -877,23 +918,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -907,17 +942,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -933,37 +967,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -971,7 +975,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -984,9 +988,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1001,7 +1004,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1013,7 +1052,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1025,13 +1100,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1043,145 +1160,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1199,22 +1202,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1253,7 +1241,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1273,11 +1261,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1292,6 +1286,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1300,10 +1303,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1312,137 +1315,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1456,6 +1459,12 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4461,7 +4470,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z109"/>
+  <dimension ref="A1:Z106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4559,14 +4568,14 @@
       </c>
     </row>
     <row r="2" spans="1:26">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -4588,7 +4597,7 @@
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
-      <c r="Z2" s="2" t="s">
+      <c r="Z2" s="1" t="s">
         <v>154</v>
       </c>
     </row>
@@ -4741,7 +4750,12 @@
       <c r="A8" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -4770,12 +4784,7 @@
       <c r="A9" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="1">
-        <v>5</v>
-      </c>
+      <c r="C9" s="1"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -4891,7 +4900,12 @@
       <c r="A13" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1">
+        <v>9</v>
+      </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -4920,12 +4934,7 @@
       <c r="A14" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="1">
-        <v>10</v>
-      </c>
+      <c r="C14" s="1"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -5157,7 +5166,12 @@
       <c r="A22" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C22" s="1">
+        <v>7</v>
+      </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -5215,12 +5229,7 @@
       <c r="A24" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C24" s="1">
-        <v>8</v>
-      </c>
+      <c r="C24" s="1"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -5365,7 +5374,12 @@
       <c r="A29" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C29" s="1"/>
+      <c r="B29" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C29" s="1">
+        <v>22</v>
+      </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -5390,10 +5404,11 @@
         <v>181</v>
       </c>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" customFormat="1" spans="1:26">
       <c r="A30" s="1" t="s">
         <v>182</v>
       </c>
+      <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -5419,10 +5434,11 @@
         <v>182</v>
       </c>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" customFormat="1" spans="1:26">
       <c r="A31" s="1" t="s">
         <v>183</v>
       </c>
+      <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -5448,16 +5464,12 @@
         <v>183</v>
       </c>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" customFormat="1" spans="1:26">
       <c r="A32" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C32" s="1">
-        <v>22</v>
-      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -5602,11 +5614,10 @@
         <v>188</v>
       </c>
     </row>
-    <row r="37" customFormat="1" spans="1:26">
+    <row r="37" spans="1:26">
       <c r="A37" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -5632,11 +5643,10 @@
         <v>189</v>
       </c>
     </row>
-    <row r="38" customFormat="1" spans="1:26">
+    <row r="38" spans="1:26">
       <c r="A38" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -5662,11 +5672,10 @@
         <v>190</v>
       </c>
     </row>
-    <row r="39" customFormat="1" spans="1:26">
+    <row r="39" spans="1:26">
       <c r="A39" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -6015,7 +6024,12 @@
       <c r="A51" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C51" s="1"/>
+      <c r="B51" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C51" s="1">
+        <v>14</v>
+      </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -6102,12 +6116,7 @@
       <c r="A54" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C54" s="1">
-        <v>14</v>
-      </c>
+      <c r="C54" s="1"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -6423,10 +6432,15 @@
       </c>
     </row>
     <row r="65" spans="1:26">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="C65" s="1"/>
+      <c r="B65" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C65" s="1">
+        <v>13</v>
+      </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -6447,12 +6461,12 @@
       <c r="U65" s="3"/>
       <c r="V65" s="3"/>
       <c r="W65" s="3"/>
-      <c r="Z65" s="1" t="s">
+      <c r="Z65" s="5" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="66" spans="1:26">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="5" t="s">
         <v>218</v>
       </c>
       <c r="C66" s="1"/>
@@ -6476,7 +6490,7 @@
       <c r="U66" s="3"/>
       <c r="V66" s="3"/>
       <c r="W66" s="3"/>
-      <c r="Z66" s="1" t="s">
+      <c r="Z66" s="5" t="s">
         <v>218</v>
       </c>
     </row>
@@ -6505,20 +6519,15 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-      <c r="Z67" s="1" t="s">
+      <c r="Z67" s="5" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="68" spans="1:26">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C68" s="1">
-        <v>13</v>
-      </c>
+      <c r="C68" s="1"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -6539,12 +6548,12 @@
       <c r="U68" s="3"/>
       <c r="V68" s="3"/>
       <c r="W68" s="3"/>
-      <c r="Z68" s="4" t="s">
+      <c r="Z68" s="5" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="69" spans="1:26">
-      <c r="A69" s="4" t="s">
+      <c r="A69" s="1" t="s">
         <v>221</v>
       </c>
       <c r="C69" s="1"/>
@@ -6568,7 +6577,7 @@
       <c r="U69" s="3"/>
       <c r="V69" s="3"/>
       <c r="W69" s="3"/>
-      <c r="Z69" s="4" t="s">
+      <c r="Z69" s="1" t="s">
         <v>221</v>
       </c>
     </row>
@@ -6597,12 +6606,12 @@
       <c r="U70" s="3"/>
       <c r="V70" s="3"/>
       <c r="W70" s="3"/>
-      <c r="Z70" s="4" t="s">
+      <c r="Z70" s="1" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="71" spans="1:26">
-      <c r="A71" s="4" t="s">
+      <c r="A71" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C71" s="1"/>
@@ -6626,7 +6635,7 @@
       <c r="U71" s="3"/>
       <c r="V71" s="3"/>
       <c r="W71" s="3"/>
-      <c r="Z71" s="4" t="s">
+      <c r="Z71" s="1" t="s">
         <v>223</v>
       </c>
     </row>
@@ -6808,7 +6817,12 @@
       <c r="A78" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C78" s="1"/>
+      <c r="B78" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C78" s="1">
+        <v>28</v>
+      </c>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
@@ -6835,7 +6849,7 @@
     </row>
     <row r="79" spans="1:26">
       <c r="A79" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="3"/>
@@ -6859,12 +6873,12 @@
       <c r="V79" s="3"/>
       <c r="W79" s="3"/>
       <c r="Z79" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="80" spans="1:26">
       <c r="A80" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="3"/>
@@ -6888,19 +6902,14 @@
       <c r="V80" s="3"/>
       <c r="W80" s="3"/>
       <c r="Z80" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="81" spans="1:26">
       <c r="A81" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B81" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C81" s="1">
-        <v>28</v>
-      </c>
+      <c r="C81" s="1"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
@@ -6922,7 +6931,7 @@
       <c r="V81" s="3"/>
       <c r="W81" s="3"/>
       <c r="Z81" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="82" spans="1:26">
@@ -7621,120 +7630,33 @@
         <v>258</v>
       </c>
     </row>
-    <row r="106" spans="1:26">
+    <row r="106" spans="1:3">
       <c r="A106" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C106" s="1"/>
-      <c r="D106" s="3"/>
-      <c r="E106" s="3"/>
-      <c r="F106" s="3"/>
-      <c r="G106" s="3"/>
-      <c r="H106" s="3"/>
-      <c r="I106" s="3"/>
-      <c r="J106" s="3"/>
-      <c r="K106" s="3"/>
-      <c r="L106" s="3"/>
-      <c r="M106" s="3"/>
-      <c r="N106" s="3"/>
-      <c r="O106" s="3"/>
-      <c r="P106" s="3"/>
-      <c r="Q106" s="3"/>
-      <c r="R106" s="3"/>
-      <c r="S106" s="3"/>
-      <c r="T106" s="3"/>
-      <c r="U106" s="3"/>
-      <c r="V106" s="3"/>
-      <c r="W106" s="3"/>
-      <c r="Z106" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="107" spans="1:26">
-      <c r="A107" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C107" s="1"/>
-      <c r="D107" s="3"/>
-      <c r="E107" s="3"/>
-      <c r="F107" s="3"/>
-      <c r="G107" s="3"/>
-      <c r="H107" s="3"/>
-      <c r="I107" s="3"/>
-      <c r="J107" s="3"/>
-      <c r="K107" s="3"/>
-      <c r="L107" s="3"/>
-      <c r="M107" s="3"/>
-      <c r="N107" s="3"/>
-      <c r="O107" s="3"/>
-      <c r="P107" s="3"/>
-      <c r="Q107" s="3"/>
-      <c r="R107" s="3"/>
-      <c r="S107" s="3"/>
-      <c r="T107" s="3"/>
-      <c r="U107" s="3"/>
-      <c r="V107" s="3"/>
-      <c r="W107" s="3"/>
-      <c r="Z107" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="108" spans="1:26">
-      <c r="A108" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C108" s="1"/>
-      <c r="D108" s="3"/>
-      <c r="E108" s="3"/>
-      <c r="F108" s="3"/>
-      <c r="G108" s="3"/>
-      <c r="H108" s="3"/>
-      <c r="I108" s="3"/>
-      <c r="J108" s="3"/>
-      <c r="K108" s="3"/>
-      <c r="L108" s="3"/>
-      <c r="M108" s="3"/>
-      <c r="N108" s="3"/>
-      <c r="O108" s="3"/>
-      <c r="P108" s="3"/>
-      <c r="Q108" s="3"/>
-      <c r="R108" s="3"/>
-      <c r="S108" s="3"/>
-      <c r="T108" s="3"/>
-      <c r="U108" s="3"/>
-      <c r="V108" s="3"/>
-      <c r="W108" s="3"/>
-      <c r="Z108" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C109">
-        <f>SUM(C2:C108)</f>
-        <v>107</v>
+      <c r="C106">
+        <f>SUM(C2:C105)</f>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="B14:B23"/>
-    <mergeCell ref="B24:B31"/>
-    <mergeCell ref="B32:B53"/>
-    <mergeCell ref="B54:B67"/>
-    <mergeCell ref="B68:B80"/>
-    <mergeCell ref="B81:B108"/>
-    <mergeCell ref="C2:C8"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="C14:C23"/>
-    <mergeCell ref="C24:C31"/>
-    <mergeCell ref="C32:C53"/>
-    <mergeCell ref="C54:C67"/>
-    <mergeCell ref="C68:C80"/>
-    <mergeCell ref="C81:C108"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B13:B21"/>
+    <mergeCell ref="B22:B28"/>
+    <mergeCell ref="B29:B50"/>
+    <mergeCell ref="B51:B64"/>
+    <mergeCell ref="B65:B77"/>
+    <mergeCell ref="B78:B105"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="C13:C21"/>
+    <mergeCell ref="C22:C28"/>
+    <mergeCell ref="C29:C50"/>
+    <mergeCell ref="C51:C64"/>
+    <mergeCell ref="C65:C77"/>
+    <mergeCell ref="C78:C105"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -7744,7 +7666,7 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:Z11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -7752,7 +7674,7 @@
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="5.375" style="1" customWidth="1"/>
@@ -7843,13 +7765,13 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -7872,12 +7794,12 @@
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
       <c r="Z2" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="3"/>
@@ -7901,12 +7823,12 @@
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
       <c r="Z3" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:26">
-      <c r="A4" s="1" t="s">
-        <v>264</v>
+      <c r="A4" s="2" t="s">
+        <v>261</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="3"/>
@@ -7929,20 +7851,15 @@
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
-      <c r="Z4" s="1" t="s">
-        <v>264</v>
+      <c r="Z4" s="2" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="C5" s="1"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -7964,18 +7881,18 @@
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
       <c r="Z5" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:26">
-      <c r="A6" s="1" t="s">
-        <v>266</v>
+      <c r="A6" s="4" t="s">
+        <v>263</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -7997,23 +7914,154 @@
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
-      <c r="Z6" s="1" t="s">
+      <c r="Z6" s="4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
+      <c r="A7" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="Z7" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="A8" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="Z8" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="A9" s="6" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="Z9" s="6" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="A10" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="Z10" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C7">
-        <f>SUM(C2:C6)</f>
-        <v>5</v>
+      <c r="C11">
+        <f>SUM(C2:C9)</f>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
+  <mergeCells count="6">
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C9:C10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/src/main/resources/CardStatus.xlsx
+++ b/src/main/resources/CardStatus.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="270">
   <si>
     <t>出处</t>
   </si>
@@ -338,6 +338,9 @@
     <t>绝技6</t>
   </si>
   <si>
+    <t>绝技7</t>
+  </si>
+  <si>
     <t>云裳</t>
   </si>
   <si>
@@ -473,9 +476,6 @@
     <t>瑕</t>
   </si>
   <si>
-    <t>绝技7</t>
-  </si>
-  <si>
     <t>云裳部件</t>
   </si>
   <si>
@@ -485,346 +485,352 @@
     <t>云裳点化副</t>
   </si>
   <si>
+    <t>葛巧菱</t>
+  </si>
+  <si>
+    <t>灵月宫主</t>
+  </si>
+  <si>
+    <t>梦蛇灵儿</t>
+  </si>
+  <si>
+    <t>赵灵儿</t>
+  </si>
+  <si>
+    <t>剑圣</t>
+  </si>
+  <si>
+    <t>柔情月如</t>
+  </si>
+  <si>
+    <t>掌门逍遥</t>
+  </si>
+  <si>
+    <t>魉妹</t>
+  </si>
+  <si>
+    <t>盛尊武</t>
+  </si>
+  <si>
+    <t>千叶禅师</t>
+  </si>
+  <si>
+    <t>魔尊重楼</t>
+  </si>
+  <si>
+    <t>太子龙阳</t>
+  </si>
+  <si>
+    <t>公主龙葵</t>
+  </si>
+  <si>
+    <t>紫萱</t>
+  </si>
+  <si>
+    <t>夕瑶</t>
+  </si>
+  <si>
+    <t>飞蓬</t>
+  </si>
+  <si>
+    <t>徐长卿</t>
+  </si>
+  <si>
+    <t>景天</t>
+  </si>
+  <si>
+    <t>天妖皇</t>
+  </si>
+  <si>
+    <t>蕙卿</t>
+  </si>
+  <si>
+    <t>清冷仙人</t>
+  </si>
+  <si>
+    <t>李三思</t>
+  </si>
+  <si>
+    <t>掌门长卿</t>
+  </si>
+  <si>
+    <t>燎日</t>
+  </si>
+  <si>
+    <t>星璇</t>
+  </si>
+  <si>
+    <t>璇玑</t>
+  </si>
+  <si>
+    <t>九天玄女</t>
+  </si>
+  <si>
+    <t>怀朔</t>
+  </si>
+  <si>
+    <t>飞仙玄霄</t>
+  </si>
+  <si>
+    <t>琼华梦璃</t>
+  </si>
+  <si>
+    <t>琼华菱纱</t>
+  </si>
+  <si>
+    <t>琼华天河</t>
+  </si>
+  <si>
+    <t>紫英仙人</t>
+  </si>
+  <si>
+    <t>厉江流</t>
+  </si>
+  <si>
+    <t>夙莘</t>
+  </si>
+  <si>
+    <t>太清真人</t>
+  </si>
+  <si>
+    <t>宗炼</t>
+  </si>
+  <si>
+    <t>重光</t>
+  </si>
+  <si>
+    <t>青阳</t>
+  </si>
+  <si>
+    <t>奚仲</t>
+  </si>
+  <si>
+    <t>归邪</t>
+  </si>
+  <si>
+    <t>婵幽</t>
+  </si>
+  <si>
+    <t>句芒</t>
+  </si>
+  <si>
+    <t>衔烛之龙</t>
+  </si>
+  <si>
+    <t>夙玉</t>
+  </si>
+  <si>
+    <t>云天青</t>
+  </si>
+  <si>
+    <t>玄霄</t>
+  </si>
+  <si>
+    <t>毒影</t>
+  </si>
+  <si>
+    <t>血手</t>
+  </si>
+  <si>
+    <t>魔翳</t>
+  </si>
+  <si>
+    <t>姜世离</t>
+  </si>
+  <si>
+    <t>海棠夫人</t>
+  </si>
+  <si>
+    <t>太武</t>
+  </si>
+  <si>
+    <t>草谷</t>
+  </si>
+  <si>
+    <t>青石</t>
+  </si>
+  <si>
+    <t>凌音</t>
+  </si>
+  <si>
+    <t>一贫</t>
+  </si>
+  <si>
+    <t>铁笔</t>
+  </si>
+  <si>
+    <t>玉书</t>
+  </si>
+  <si>
+    <t>龙幽</t>
+  </si>
+  <si>
+    <t>小蛮</t>
+  </si>
+  <si>
+    <t>夜叉龙溟</t>
+  </si>
+  <si>
+    <t>魔化二叔</t>
+  </si>
+  <si>
+    <t>骨蛇</t>
+  </si>
+  <si>
+    <t>魔化瑕</t>
+  </si>
+  <si>
+    <t>岚翼</t>
+  </si>
+  <si>
+    <t>火灵炎舞</t>
+  </si>
+  <si>
+    <t>巨龙穹武</t>
+  </si>
+  <si>
+    <t>姜承</t>
+  </si>
+  <si>
+    <t>谢沧行</t>
+  </si>
+  <si>
+    <t>龙溟</t>
+  </si>
+  <si>
+    <t>夏侯瑾轩</t>
+  </si>
+  <si>
+    <t>皇甫卓</t>
+  </si>
+  <si>
+    <t>禺族聆夜</t>
+  </si>
+  <si>
+    <t>六</t>
+  </si>
+  <si>
+    <t>鲲化祝圄</t>
+  </si>
+  <si>
+    <t>禺族朔漩</t>
+  </si>
+  <si>
+    <t>禺族临渊</t>
+  </si>
+  <si>
+    <t>金瞳今朝</t>
+  </si>
+  <si>
+    <t>埋名小姐</t>
+  </si>
+  <si>
+    <t>昭言家主</t>
+  </si>
+  <si>
+    <t>归墟界督</t>
+  </si>
+  <si>
+    <t>宿何</t>
+  </si>
+  <si>
+    <t>忘尘司命</t>
+  </si>
+  <si>
+    <t>藏锋</t>
+  </si>
+  <si>
+    <t>洛埋名</t>
+  </si>
+  <si>
+    <t>临渊</t>
+  </si>
+  <si>
+    <t>聆夜</t>
+  </si>
+  <si>
+    <t>祝圄</t>
+  </si>
+  <si>
+    <t>顾寒江</t>
+  </si>
+  <si>
+    <t>朔漩</t>
+  </si>
+  <si>
+    <t>嬴旭危</t>
+  </si>
+  <si>
+    <t>绮里小嫒</t>
+  </si>
+  <si>
+    <t>葛清霏</t>
+  </si>
+  <si>
+    <t>扁络桓</t>
+  </si>
+  <si>
+    <t>居十方</t>
+  </si>
+  <si>
+    <t>明绣</t>
+  </si>
+  <si>
+    <t>洛昭言</t>
+  </si>
+  <si>
+    <t>闲卿</t>
+  </si>
+  <si>
+    <t>越祈</t>
+  </si>
+  <si>
+    <t>越今朝</t>
+  </si>
+  <si>
+    <t>盟主月如</t>
+  </si>
+  